--- a/CRO_SL_python.xlsx
+++ b/CRO_SL_python.xlsx
@@ -98,7 +98,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.00E+00"/>
+  </numFmts>
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -114,16 +117,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFAAAAAA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -146,20 +163,113 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FF000000"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.00E+00"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF9DC3E6"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FF000000"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.00E+00"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8CBAD"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FF000000"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.00E+00"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFD966"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
@@ -449,7 +559,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -978,19 +1088,72 @@
         <v>2.145796145320206E-09</v>
       </c>
     </row>
+    <row r="18" spans="1:10">
+      <c r="B18" s="2">
+        <f t="array" ref="B18">(AVERAGE(B3:B17))</f>
+        <v>0</v>
+      </c>
+      <c r="C18" s="2">
+        <f t="array" ref="C18">(AVERAGE(C3:C17))</f>
+        <v>0</v>
+      </c>
+      <c r="D18" s="2">
+        <f t="array" ref="D18">(AVERAGE(D3:D17))</f>
+        <v>0</v>
+      </c>
+      <c r="E18" s="2">
+        <f t="array" ref="E18">(AVERAGE(E3:E17))</f>
+        <v>0</v>
+      </c>
+      <c r="F18" s="2">
+        <f t="array" ref="F18">(AVERAGE(F3:F17))</f>
+        <v>0</v>
+      </c>
+      <c r="G18" s="2">
+        <f t="array" ref="G18">(AVERAGE(G3:G17))</f>
+        <v>0</v>
+      </c>
+      <c r="H18" s="2">
+        <f t="array" ref="H18">(AVERAGE(H3:H17))</f>
+        <v>0</v>
+      </c>
+      <c r="I18" s="2">
+        <f t="array" ref="I18">(AVERAGE(I3:I17))</f>
+        <v>0</v>
+      </c>
+      <c r="J18" s="2">
+        <f t="array" ref="J18">(AVERAGE(J3:J17))</f>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="H1:J1"/>
   </mergeCells>
+  <conditionalFormatting sqref="B1:D17">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="notEqual">
+      <formula>Dummy</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E1:G17">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="notEqual">
+      <formula>Dummy</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H1:J17">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="notEqual">
+      <formula>Dummy</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1519,19 +1682,72 @@
         <v>1.138371985030072E-08</v>
       </c>
     </row>
+    <row r="18" spans="1:10">
+      <c r="B18" s="2">
+        <f t="array" ref="B18">(AVERAGE(B3:B17))</f>
+        <v>0</v>
+      </c>
+      <c r="C18" s="2">
+        <f t="array" ref="C18">(AVERAGE(C3:C17))</f>
+        <v>0</v>
+      </c>
+      <c r="D18" s="2">
+        <f t="array" ref="D18">(AVERAGE(D3:D17))</f>
+        <v>0</v>
+      </c>
+      <c r="E18" s="2">
+        <f t="array" ref="E18">(AVERAGE(E3:E17))</f>
+        <v>0</v>
+      </c>
+      <c r="F18" s="2">
+        <f t="array" ref="F18">(AVERAGE(F3:F17))</f>
+        <v>0</v>
+      </c>
+      <c r="G18" s="2">
+        <f t="array" ref="G18">(AVERAGE(G3:G17))</f>
+        <v>0</v>
+      </c>
+      <c r="H18" s="2">
+        <f t="array" ref="H18">(AVERAGE(H3:H17))</f>
+        <v>0</v>
+      </c>
+      <c r="I18" s="2">
+        <f t="array" ref="I18">(AVERAGE(I3:I17))</f>
+        <v>0</v>
+      </c>
+      <c r="J18" s="2">
+        <f t="array" ref="J18">(AVERAGE(J3:J17))</f>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="H1:J1"/>
   </mergeCells>
+  <conditionalFormatting sqref="B1:D17">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="notEqual">
+      <formula>Dummy</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E1:G17">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="notEqual">
+      <formula>Dummy</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H1:J17">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="notEqual">
+      <formula>Dummy</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2060,19 +2276,72 @@
         <v>0.0172142839237705</v>
       </c>
     </row>
+    <row r="18" spans="1:10">
+      <c r="B18" s="2">
+        <f t="array" ref="B18">(AVERAGE(B3:B17))</f>
+        <v>0</v>
+      </c>
+      <c r="C18" s="2">
+        <f t="array" ref="C18">(AVERAGE(C3:C17))</f>
+        <v>0</v>
+      </c>
+      <c r="D18" s="2">
+        <f t="array" ref="D18">(AVERAGE(D3:D17))</f>
+        <v>0</v>
+      </c>
+      <c r="E18" s="2">
+        <f t="array" ref="E18">(AVERAGE(E3:E17))</f>
+        <v>0</v>
+      </c>
+      <c r="F18" s="2">
+        <f t="array" ref="F18">(AVERAGE(F3:F17))</f>
+        <v>0</v>
+      </c>
+      <c r="G18" s="2">
+        <f t="array" ref="G18">(AVERAGE(G3:G17))</f>
+        <v>0</v>
+      </c>
+      <c r="H18" s="2">
+        <f t="array" ref="H18">(AVERAGE(H3:H17))</f>
+        <v>0</v>
+      </c>
+      <c r="I18" s="2">
+        <f t="array" ref="I18">(AVERAGE(I3:I17))</f>
+        <v>0</v>
+      </c>
+      <c r="J18" s="2">
+        <f t="array" ref="J18">(AVERAGE(J3:J17))</f>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="H1:J1"/>
   </mergeCells>
+  <conditionalFormatting sqref="B1:D17">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="notEqual">
+      <formula>Dummy</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E1:G17">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="notEqual">
+      <formula>Dummy</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H1:J17">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="notEqual">
+      <formula>Dummy</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2601,19 +2870,72 @@
         <v>1.773889114557588</v>
       </c>
     </row>
+    <row r="18" spans="1:10">
+      <c r="B18" s="2">
+        <f t="array" ref="B18">(AVERAGE(B3:B17))</f>
+        <v>0</v>
+      </c>
+      <c r="C18" s="2">
+        <f t="array" ref="C18">(AVERAGE(C3:C17))</f>
+        <v>0</v>
+      </c>
+      <c r="D18" s="2">
+        <f t="array" ref="D18">(AVERAGE(D3:D17))</f>
+        <v>0</v>
+      </c>
+      <c r="E18" s="2">
+        <f t="array" ref="E18">(AVERAGE(E3:E17))</f>
+        <v>0</v>
+      </c>
+      <c r="F18" s="2">
+        <f t="array" ref="F18">(AVERAGE(F3:F17))</f>
+        <v>0</v>
+      </c>
+      <c r="G18" s="2">
+        <f t="array" ref="G18">(AVERAGE(G3:G17))</f>
+        <v>0</v>
+      </c>
+      <c r="H18" s="2">
+        <f t="array" ref="H18">(AVERAGE(H3:H17))</f>
+        <v>0</v>
+      </c>
+      <c r="I18" s="2">
+        <f t="array" ref="I18">(AVERAGE(I3:I17))</f>
+        <v>0</v>
+      </c>
+      <c r="J18" s="2">
+        <f t="array" ref="J18">(AVERAGE(J3:J17))</f>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="H1:J1"/>
   </mergeCells>
+  <conditionalFormatting sqref="B1:D17">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="notEqual">
+      <formula>Dummy</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E1:G17">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="notEqual">
+      <formula>Dummy</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H1:J17">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="notEqual">
+      <formula>Dummy</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3142,19 +3464,72 @@
         <v>0.013119198883474</v>
       </c>
     </row>
+    <row r="18" spans="1:10">
+      <c r="B18" s="2">
+        <f t="array" ref="B18">(AVERAGE(B3:B17))</f>
+        <v>0</v>
+      </c>
+      <c r="C18" s="2">
+        <f t="array" ref="C18">(AVERAGE(C3:C17))</f>
+        <v>0</v>
+      </c>
+      <c r="D18" s="2">
+        <f t="array" ref="D18">(AVERAGE(D3:D17))</f>
+        <v>0</v>
+      </c>
+      <c r="E18" s="2">
+        <f t="array" ref="E18">(AVERAGE(E3:E17))</f>
+        <v>0</v>
+      </c>
+      <c r="F18" s="2">
+        <f t="array" ref="F18">(AVERAGE(F3:F17))</f>
+        <v>0</v>
+      </c>
+      <c r="G18" s="2">
+        <f t="array" ref="G18">(AVERAGE(G3:G17))</f>
+        <v>0</v>
+      </c>
+      <c r="H18" s="2">
+        <f t="array" ref="H18">(AVERAGE(H3:H17))</f>
+        <v>0</v>
+      </c>
+      <c r="I18" s="2">
+        <f t="array" ref="I18">(AVERAGE(I3:I17))</f>
+        <v>0</v>
+      </c>
+      <c r="J18" s="2">
+        <f t="array" ref="J18">(AVERAGE(J3:J17))</f>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="H1:J1"/>
   </mergeCells>
+  <conditionalFormatting sqref="B1:D17">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="notEqual">
+      <formula>Dummy</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E1:G17">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="notEqual">
+      <formula>Dummy</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H1:J17">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="notEqual">
+      <formula>Dummy</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3683,19 +4058,72 @@
         <v>0.0031276132641161</v>
       </c>
     </row>
+    <row r="18" spans="1:10">
+      <c r="B18" s="2">
+        <f t="array" ref="B18">(AVERAGE(B3:B17))</f>
+        <v>0</v>
+      </c>
+      <c r="C18" s="2">
+        <f t="array" ref="C18">(AVERAGE(C3:C17))</f>
+        <v>0</v>
+      </c>
+      <c r="D18" s="2">
+        <f t="array" ref="D18">(AVERAGE(D3:D17))</f>
+        <v>0</v>
+      </c>
+      <c r="E18" s="2">
+        <f t="array" ref="E18">(AVERAGE(E3:E17))</f>
+        <v>0</v>
+      </c>
+      <c r="F18" s="2">
+        <f t="array" ref="F18">(AVERAGE(F3:F17))</f>
+        <v>0</v>
+      </c>
+      <c r="G18" s="2">
+        <f t="array" ref="G18">(AVERAGE(G3:G17))</f>
+        <v>0</v>
+      </c>
+      <c r="H18" s="2">
+        <f t="array" ref="H18">(AVERAGE(H3:H17))</f>
+        <v>0</v>
+      </c>
+      <c r="I18" s="2">
+        <f t="array" ref="I18">(AVERAGE(I3:I17))</f>
+        <v>0</v>
+      </c>
+      <c r="J18" s="2">
+        <f t="array" ref="J18">(AVERAGE(J3:J17))</f>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="H1:J1"/>
   </mergeCells>
+  <conditionalFormatting sqref="B1:D17">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="notEqual">
+      <formula>Dummy</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E1:G17">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="notEqual">
+      <formula>Dummy</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H1:J17">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="notEqual">
+      <formula>Dummy</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4224,19 +4652,72 @@
         <v>1.245028690637071E-11</v>
       </c>
     </row>
+    <row r="18" spans="1:10">
+      <c r="B18" s="2">
+        <f t="array" ref="B18">(AVERAGE(B3:B17))</f>
+        <v>0</v>
+      </c>
+      <c r="C18" s="2">
+        <f t="array" ref="C18">(AVERAGE(C3:C17))</f>
+        <v>0</v>
+      </c>
+      <c r="D18" s="2">
+        <f t="array" ref="D18">(AVERAGE(D3:D17))</f>
+        <v>0</v>
+      </c>
+      <c r="E18" s="2">
+        <f t="array" ref="E18">(AVERAGE(E3:E17))</f>
+        <v>0</v>
+      </c>
+      <c r="F18" s="2">
+        <f t="array" ref="F18">(AVERAGE(F3:F17))</f>
+        <v>0</v>
+      </c>
+      <c r="G18" s="2">
+        <f t="array" ref="G18">(AVERAGE(G3:G17))</f>
+        <v>0</v>
+      </c>
+      <c r="H18" s="2">
+        <f t="array" ref="H18">(AVERAGE(H3:H17))</f>
+        <v>0</v>
+      </c>
+      <c r="I18" s="2">
+        <f t="array" ref="I18">(AVERAGE(I3:I17))</f>
+        <v>0</v>
+      </c>
+      <c r="J18" s="2">
+        <f t="array" ref="J18">(AVERAGE(J3:J17))</f>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="H1:J1"/>
   </mergeCells>
+  <conditionalFormatting sqref="B1:D17">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="notEqual">
+      <formula>Dummy</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E1:G17">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="notEqual">
+      <formula>Dummy</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H1:J17">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="notEqual">
+      <formula>Dummy</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4765,19 +5246,72 @@
         <v>0.8259358496315955</v>
       </c>
     </row>
+    <row r="18" spans="1:10">
+      <c r="B18" s="2">
+        <f t="array" ref="B18">(AVERAGE(B3:B17))</f>
+        <v>0</v>
+      </c>
+      <c r="C18" s="2">
+        <f t="array" ref="C18">(AVERAGE(C3:C17))</f>
+        <v>0</v>
+      </c>
+      <c r="D18" s="2">
+        <f t="array" ref="D18">(AVERAGE(D3:D17))</f>
+        <v>0</v>
+      </c>
+      <c r="E18" s="2">
+        <f t="array" ref="E18">(AVERAGE(E3:E17))</f>
+        <v>0</v>
+      </c>
+      <c r="F18" s="2">
+        <f t="array" ref="F18">(AVERAGE(F3:F17))</f>
+        <v>0</v>
+      </c>
+      <c r="G18" s="2">
+        <f t="array" ref="G18">(AVERAGE(G3:G17))</f>
+        <v>0</v>
+      </c>
+      <c r="H18" s="2">
+        <f t="array" ref="H18">(AVERAGE(H3:H17))</f>
+        <v>0</v>
+      </c>
+      <c r="I18" s="2">
+        <f t="array" ref="I18">(AVERAGE(I3:I17))</f>
+        <v>0</v>
+      </c>
+      <c r="J18" s="2">
+        <f t="array" ref="J18">(AVERAGE(J3:J17))</f>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="H1:J1"/>
   </mergeCells>
+  <conditionalFormatting sqref="B1:D17">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="notEqual">
+      <formula>Dummy</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E1:G17">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="notEqual">
+      <formula>Dummy</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H1:J17">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="notEqual">
+      <formula>Dummy</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5306,19 +5840,72 @@
         <v>1.104848865296326E-06</v>
       </c>
     </row>
+    <row r="18" spans="1:10">
+      <c r="B18" s="2">
+        <f t="array" ref="B18">(AVERAGE(B3:B17))</f>
+        <v>0</v>
+      </c>
+      <c r="C18" s="2">
+        <f t="array" ref="C18">(AVERAGE(C3:C17))</f>
+        <v>0</v>
+      </c>
+      <c r="D18" s="2">
+        <f t="array" ref="D18">(AVERAGE(D3:D17))</f>
+        <v>0</v>
+      </c>
+      <c r="E18" s="2">
+        <f t="array" ref="E18">(AVERAGE(E3:E17))</f>
+        <v>0</v>
+      </c>
+      <c r="F18" s="2">
+        <f t="array" ref="F18">(AVERAGE(F3:F17))</f>
+        <v>0</v>
+      </c>
+      <c r="G18" s="2">
+        <f t="array" ref="G18">(AVERAGE(G3:G17))</f>
+        <v>0</v>
+      </c>
+      <c r="H18" s="2">
+        <f t="array" ref="H18">(AVERAGE(H3:H17))</f>
+        <v>0</v>
+      </c>
+      <c r="I18" s="2">
+        <f t="array" ref="I18">(AVERAGE(I3:I17))</f>
+        <v>0</v>
+      </c>
+      <c r="J18" s="2">
+        <f t="array" ref="J18">(AVERAGE(J3:J17))</f>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="H1:J1"/>
   </mergeCells>
+  <conditionalFormatting sqref="B1:D17">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="notEqual">
+      <formula>Dummy</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E1:G17">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="notEqual">
+      <formula>Dummy</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H1:J17">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="notEqual">
+      <formula>Dummy</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5847,19 +6434,72 @@
         <v>6.943715037867571E-14</v>
       </c>
     </row>
+    <row r="18" spans="1:10">
+      <c r="B18" s="2">
+        <f t="array" ref="B18">(AVERAGE(B3:B17))</f>
+        <v>0</v>
+      </c>
+      <c r="C18" s="2">
+        <f t="array" ref="C18">(AVERAGE(C3:C17))</f>
+        <v>0</v>
+      </c>
+      <c r="D18" s="2">
+        <f t="array" ref="D18">(AVERAGE(D3:D17))</f>
+        <v>0</v>
+      </c>
+      <c r="E18" s="2">
+        <f t="array" ref="E18">(AVERAGE(E3:E17))</f>
+        <v>0</v>
+      </c>
+      <c r="F18" s="2">
+        <f t="array" ref="F18">(AVERAGE(F3:F17))</f>
+        <v>0</v>
+      </c>
+      <c r="G18" s="2">
+        <f t="array" ref="G18">(AVERAGE(G3:G17))</f>
+        <v>0</v>
+      </c>
+      <c r="H18" s="2">
+        <f t="array" ref="H18">(AVERAGE(H3:H17))</f>
+        <v>0</v>
+      </c>
+      <c r="I18" s="2">
+        <f t="array" ref="I18">(AVERAGE(I3:I17))</f>
+        <v>0</v>
+      </c>
+      <c r="J18" s="2">
+        <f t="array" ref="J18">(AVERAGE(J3:J17))</f>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="H1:J1"/>
   </mergeCells>
+  <conditionalFormatting sqref="B1:D17">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="notEqual">
+      <formula>Dummy</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E1:G17">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="notEqual">
+      <formula>Dummy</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H1:J17">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="notEqual">
+      <formula>Dummy</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6388,19 +7028,72 @@
         <v>2.39682207533547E-10</v>
       </c>
     </row>
+    <row r="18" spans="1:10">
+      <c r="B18" s="2">
+        <f t="array" ref="B18">(AVERAGE(B3:B17))</f>
+        <v>0</v>
+      </c>
+      <c r="C18" s="2">
+        <f t="array" ref="C18">(AVERAGE(C3:C17))</f>
+        <v>0</v>
+      </c>
+      <c r="D18" s="2">
+        <f t="array" ref="D18">(AVERAGE(D3:D17))</f>
+        <v>0</v>
+      </c>
+      <c r="E18" s="2">
+        <f t="array" ref="E18">(AVERAGE(E3:E17))</f>
+        <v>0</v>
+      </c>
+      <c r="F18" s="2">
+        <f t="array" ref="F18">(AVERAGE(F3:F17))</f>
+        <v>0</v>
+      </c>
+      <c r="G18" s="2">
+        <f t="array" ref="G18">(AVERAGE(G3:G17))</f>
+        <v>0</v>
+      </c>
+      <c r="H18" s="2">
+        <f t="array" ref="H18">(AVERAGE(H3:H17))</f>
+        <v>0</v>
+      </c>
+      <c r="I18" s="2">
+        <f t="array" ref="I18">(AVERAGE(I3:I17))</f>
+        <v>0</v>
+      </c>
+      <c r="J18" s="2">
+        <f t="array" ref="J18">(AVERAGE(J3:J17))</f>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="H1:J1"/>
   </mergeCells>
+  <conditionalFormatting sqref="B1:D17">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="notEqual">
+      <formula>Dummy</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E1:G17">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="notEqual">
+      <formula>Dummy</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H1:J17">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="notEqual">
+      <formula>Dummy</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6929,19 +7622,72 @@
         <v>7.901827198543009</v>
       </c>
     </row>
+    <row r="18" spans="1:10">
+      <c r="B18" s="2">
+        <f t="array" ref="B18">(AVERAGE(B3:B17))</f>
+        <v>0</v>
+      </c>
+      <c r="C18" s="2">
+        <f t="array" ref="C18">(AVERAGE(C3:C17))</f>
+        <v>0</v>
+      </c>
+      <c r="D18" s="2">
+        <f t="array" ref="D18">(AVERAGE(D3:D17))</f>
+        <v>0</v>
+      </c>
+      <c r="E18" s="2">
+        <f t="array" ref="E18">(AVERAGE(E3:E17))</f>
+        <v>0</v>
+      </c>
+      <c r="F18" s="2">
+        <f t="array" ref="F18">(AVERAGE(F3:F17))</f>
+        <v>0</v>
+      </c>
+      <c r="G18" s="2">
+        <f t="array" ref="G18">(AVERAGE(G3:G17))</f>
+        <v>0</v>
+      </c>
+      <c r="H18" s="2">
+        <f t="array" ref="H18">(AVERAGE(H3:H17))</f>
+        <v>0</v>
+      </c>
+      <c r="I18" s="2">
+        <f t="array" ref="I18">(AVERAGE(I3:I17))</f>
+        <v>0</v>
+      </c>
+      <c r="J18" s="2">
+        <f t="array" ref="J18">(AVERAGE(J3:J17))</f>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="H1:J1"/>
   </mergeCells>
+  <conditionalFormatting sqref="B1:D17">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="notEqual">
+      <formula>Dummy</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E1:G17">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="notEqual">
+      <formula>Dummy</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H1:J17">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="notEqual">
+      <formula>Dummy</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -7470,12 +8216,65 @@
         <v>6.029954262470932E-10</v>
       </c>
     </row>
+    <row r="18" spans="1:10">
+      <c r="B18" s="2">
+        <f t="array" ref="B18">(AVERAGE(B3:B17))</f>
+        <v>0</v>
+      </c>
+      <c r="C18" s="2">
+        <f t="array" ref="C18">(AVERAGE(C3:C17))</f>
+        <v>0</v>
+      </c>
+      <c r="D18" s="2">
+        <f t="array" ref="D18">(AVERAGE(D3:D17))</f>
+        <v>0</v>
+      </c>
+      <c r="E18" s="2">
+        <f t="array" ref="E18">(AVERAGE(E3:E17))</f>
+        <v>0</v>
+      </c>
+      <c r="F18" s="2">
+        <f t="array" ref="F18">(AVERAGE(F3:F17))</f>
+        <v>0</v>
+      </c>
+      <c r="G18" s="2">
+        <f t="array" ref="G18">(AVERAGE(G3:G17))</f>
+        <v>0</v>
+      </c>
+      <c r="H18" s="2">
+        <f t="array" ref="H18">(AVERAGE(H3:H17))</f>
+        <v>0</v>
+      </c>
+      <c r="I18" s="2">
+        <f t="array" ref="I18">(AVERAGE(I3:I17))</f>
+        <v>0</v>
+      </c>
+      <c r="J18" s="2">
+        <f t="array" ref="J18">(AVERAGE(J3:J17))</f>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="H1:J1"/>
   </mergeCells>
+  <conditionalFormatting sqref="B1:D17">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="notEqual">
+      <formula>Dummy</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E1:G17">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="notEqual">
+      <formula>Dummy</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H1:J17">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="notEqual">
+      <formula>Dummy</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/CRO_SL_python.xlsx
+++ b/CRO_SL_python.xlsx
@@ -7,26 +7,27 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="HighCondEllipti(30); eval=3e5" sheetId="1" r:id="rId1"/>
-    <sheet name="BentCigar(30); eval=3e5" sheetId="2" r:id="rId2"/>
-    <sheet name="Discus(30); eval=3e5" sheetId="3" r:id="rId3"/>
-    <sheet name="Rosenbrock(30); eval=3e5" sheetId="4" r:id="rId4"/>
-    <sheet name="Ackley(30); eval=3e5" sheetId="5" r:id="rId5"/>
-    <sheet name="Weierstrass(30); eval=3e5" sheetId="6" r:id="rId6"/>
-    <sheet name="Griewank(30); eval=3e5" sheetId="7" r:id="rId7"/>
-    <sheet name="Rastrigin(30); eval=3e5" sheetId="8" r:id="rId8"/>
-    <sheet name="ModSchwefel(30); eval=3e5" sheetId="9" r:id="rId9"/>
-    <sheet name="HappyCat(30); eval=3e5" sheetId="10" r:id="rId10"/>
-    <sheet name="HGBat(30); eval=3e5" sheetId="11" r:id="rId11"/>
-    <sheet name="ExpandedGriewan(30); eval=3e5" sheetId="12" r:id="rId12"/>
-    <sheet name="ExpandedShaffer(30); eval=3e5" sheetId="13" r:id="rId13"/>
+    <sheet name="Sphere(30); eval=3e5" sheetId="1" r:id="rId1"/>
+    <sheet name="HighCondEllipti(30); eval=3e5" sheetId="2" r:id="rId2"/>
+    <sheet name="BentCigar(30); eval=3e5" sheetId="3" r:id="rId3"/>
+    <sheet name="Discus(30); eval=3e5" sheetId="4" r:id="rId4"/>
+    <sheet name="Rosenbrock(30); eval=3e5" sheetId="5" r:id="rId5"/>
+    <sheet name="Ackley(30); eval=3e5" sheetId="6" r:id="rId6"/>
+    <sheet name="Weierstrass(30); eval=3e5" sheetId="7" r:id="rId7"/>
+    <sheet name="Griewank(30); eval=3e5" sheetId="8" r:id="rId8"/>
+    <sheet name="Rastrigin(30); eval=3e5" sheetId="9" r:id="rId9"/>
+    <sheet name="ModSchwefel(30); eval=3e5" sheetId="10" r:id="rId10"/>
+    <sheet name="HappyCat(30); eval=3e5" sheetId="11" r:id="rId11"/>
+    <sheet name="HGBat(30); eval=3e5" sheetId="12" r:id="rId12"/>
+    <sheet name="ExpandedGriewan(30); eval=3e5" sheetId="13" r:id="rId13"/>
+    <sheet name="ExpandedShaffer(30); eval=3e5" sheetId="14" r:id="rId14"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="22">
   <si>
     <t>function</t>
   </si>
@@ -613,31 +614,31 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>2.746630175987346E-14</v>
+        <v>6.417234134003766E-89</v>
       </c>
       <c r="C3">
-        <v>1.567413952622311E-13</v>
+        <v>4.454341180975277E-87</v>
       </c>
       <c r="D3">
-        <v>1.041295464405231E-13</v>
+        <v>6.320932311567645E-87</v>
       </c>
       <c r="E3">
-        <v>3.685643637018394E-13</v>
+        <v>1.188793E-46</v>
       </c>
       <c r="F3">
-        <v>2.563090069189095E-12</v>
+        <v>7.375575E-45</v>
       </c>
       <c r="G3">
-        <v>2.016158540369274E-12</v>
+        <v>1.342383E-44</v>
       </c>
       <c r="H3">
-        <v>6.451864581297814E-08</v>
+        <v>1.278898271833466E-46</v>
       </c>
       <c r="I3">
-        <v>1.66003663845998E-07</v>
+        <v>2.08557372569222E-45</v>
       </c>
       <c r="J3">
-        <v>7.788515322978929E-08</v>
+        <v>1.986096593666701E-45</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -645,31 +646,31 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>1.71587409917047E-15</v>
+        <v>1.753934913602273E-103</v>
       </c>
       <c r="C4">
-        <v>4.499169868436024E-15</v>
+        <v>6.052107009744412E-100</v>
       </c>
       <c r="D4">
-        <v>2.675912342012841E-15</v>
+        <v>1.325318968333626E-99</v>
       </c>
       <c r="E4">
-        <v>7.123011864499825E-13</v>
+        <v>1.654836E-47</v>
       </c>
       <c r="F4">
-        <v>3.004827216973313E-12</v>
+        <v>8.670413E-46</v>
       </c>
       <c r="G4">
-        <v>3.185705207640927E-12</v>
+        <v>1.279931E-45</v>
       </c>
       <c r="H4">
-        <v>6.493888966889651E-08</v>
+        <v>1.424057886912153E-46</v>
       </c>
       <c r="I4">
-        <v>1.673913483676306E-07</v>
+        <v>1.315049733617668E-45</v>
       </c>
       <c r="J4">
-        <v>9.600010834184109E-08</v>
+        <v>1.128144163921706E-45</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -677,31 +678,31 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>0.0029537774891335</v>
+        <v>1.655129623595377E-28</v>
       </c>
       <c r="C5">
-        <v>0.0047266986006657</v>
+        <v>1.123190221318259E-26</v>
       </c>
       <c r="D5">
-        <v>0.0016457650659143</v>
+        <v>1.275384297105121E-26</v>
       </c>
       <c r="E5">
-        <v>0.0075081722726854</v>
+        <v>3.079961E-15</v>
       </c>
       <c r="F5">
-        <v>0.0149986892326973</v>
+        <v>1.091211E-14</v>
       </c>
       <c r="G5">
-        <v>0.0067454291839222</v>
+        <v>8.667399000000001E-15</v>
       </c>
       <c r="H5">
-        <v>0.02046957332325</v>
+        <v>2.096419131687324E-15</v>
       </c>
       <c r="I5">
-        <v>0.0384095400372302</v>
+        <v>1.063808349848826E-14</v>
       </c>
       <c r="J5">
-        <v>0.0167045627463513</v>
+        <v>8.265785258280199E-15</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -709,31 +710,31 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>1.214443307789605E-17</v>
+        <v>1.401458045257536E-98</v>
       </c>
       <c r="C6">
-        <v>3.715761504393019E-17</v>
+        <v>3.50674491651053E-96</v>
       </c>
       <c r="D6">
-        <v>2.168148743166844E-17</v>
+        <v>8.014556180228302E-96</v>
       </c>
       <c r="E6">
-        <v>1.212300424484415E-16</v>
+        <v>5.803276E-58</v>
       </c>
       <c r="F6">
-        <v>7.036621705814022E-16</v>
+        <v>6.598474E-56</v>
       </c>
       <c r="G6">
-        <v>4.73151714937746E-16</v>
+        <v>6.834479E-56</v>
       </c>
       <c r="H6">
-        <v>1.163668605901892E-11</v>
+        <v>1.672646138083478E-56</v>
       </c>
       <c r="I6">
-        <v>4.028244457541197E-11</v>
+        <v>3.983554887811276E-55</v>
       </c>
       <c r="J6">
-        <v>2.293538183272712E-11</v>
+        <v>7.048073087975256E-55</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -741,31 +742,31 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>5.114712336858196E-18</v>
+        <v>1.108716078488729E-99</v>
       </c>
       <c r="C7">
-        <v>1.468179689718712E-17</v>
+        <v>1.571663419726876E-96</v>
       </c>
       <c r="D7">
-        <v>8.63514546617447E-18</v>
+        <v>2.427051628073563E-96</v>
       </c>
       <c r="E7">
-        <v>6.074431593088635E-16</v>
+        <v>3.160874E-55</v>
       </c>
       <c r="F7">
-        <v>3.324650092106721E-15</v>
+        <v>1.782458E-54</v>
       </c>
       <c r="G7">
-        <v>2.701377591678002E-15</v>
+        <v>1.625402E-54</v>
       </c>
       <c r="H7">
-        <v>6.130490315466295E-11</v>
+        <v>6.283590650449946E-55</v>
       </c>
       <c r="I7">
-        <v>2.534265431196979E-10</v>
+        <v>3.015754423603596E-53</v>
       </c>
       <c r="J7">
-        <v>1.507716016146038E-10</v>
+        <v>4.951948246395124E-53</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -773,31 +774,31 @@
         <v>9</v>
       </c>
       <c r="B8">
-        <v>13.97015832633228</v>
+        <v>4.528815156959825E-11</v>
       </c>
       <c r="C8">
-        <v>21.8995126203678</v>
+        <v>6.239369594836974E-09</v>
       </c>
       <c r="D8">
-        <v>3.881714006977099</v>
+        <v>7.699100691734274E-09</v>
       </c>
       <c r="E8">
-        <v>24.90072003932658</v>
+        <v>0.002660509</v>
       </c>
       <c r="F8">
-        <v>42.38290629291633</v>
+        <v>0.005072577</v>
       </c>
       <c r="G8">
-        <v>11.10558279059936</v>
+        <v>0.002105272</v>
       </c>
       <c r="H8">
-        <v>56.93134581139245</v>
+        <v>0.002741144584922</v>
       </c>
       <c r="I8">
-        <v>83.25709135142617</v>
+        <v>0.0047347455761193</v>
       </c>
       <c r="J8">
-        <v>18.75699451527176</v>
+        <v>0.0019285585238254</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -805,31 +806,31 @@
         <v>10</v>
       </c>
       <c r="B9">
-        <v>3.964894403492564E-22</v>
+        <v>3.193809795508263E-107</v>
       </c>
       <c r="C9">
-        <v>5.05077259570165E-21</v>
+        <v>2.39167762196457E-105</v>
       </c>
       <c r="D9">
-        <v>4.594297854171059E-21</v>
+        <v>4.457578779350372E-105</v>
       </c>
       <c r="E9">
-        <v>9.543533808548041E-19</v>
+        <v>4.360203E-65</v>
       </c>
       <c r="F9">
-        <v>1.753693592675999E-18</v>
+        <v>1.063553E-63</v>
       </c>
       <c r="G9">
-        <v>8.483815779867108E-19</v>
+        <v>9.577852E-64</v>
       </c>
       <c r="H9">
-        <v>1.852279824362551E-14</v>
+        <v>7.51011839237236E-65</v>
       </c>
       <c r="I9">
-        <v>4.604056682808448E-14</v>
+        <v>5.629813696822865E-64</v>
       </c>
       <c r="J9">
-        <v>2.671694914086754E-14</v>
+        <v>6.075587282217123E-64</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -837,31 +838,31 @@
         <v>11</v>
       </c>
       <c r="B10">
-        <v>2.246298666941369E-05</v>
+        <v>1.173688800943377E-30</v>
       </c>
       <c r="C10">
-        <v>5.411184283183373E-05</v>
+        <v>7.339291003713733E-30</v>
       </c>
       <c r="D10">
-        <v>1.966604479886815E-05</v>
+        <v>8.45338913070488E-30</v>
       </c>
       <c r="E10">
-        <v>5.388876698417995E-05</v>
+        <v>8.667317E-22</v>
       </c>
       <c r="F10">
-        <v>0.0001369878143738</v>
+        <v>3.272033E-21</v>
       </c>
       <c r="G10">
-        <v>3.993185149676517E-05</v>
+        <v>1.418195E-21</v>
       </c>
       <c r="H10">
-        <v>5.049512633105054E-05</v>
+        <v>1.108120926211391E-21</v>
       </c>
       <c r="I10">
-        <v>0.0001100517454905</v>
+        <v>3.697127883411008E-21</v>
       </c>
       <c r="J10">
-        <v>3.988686298593458E-05</v>
+        <v>2.881458342682424E-21</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -869,31 +870,31 @@
         <v>12</v>
       </c>
       <c r="B11">
-        <v>1.437067936587132E-22</v>
+        <v>1.452600942140712E-109</v>
       </c>
       <c r="C11">
-        <v>1.309016087690433E-21</v>
+        <v>1.362996638961345E-105</v>
       </c>
       <c r="D11">
-        <v>2.256438229277636E-21</v>
+        <v>2.085308355781956E-105</v>
       </c>
       <c r="E11">
-        <v>6.628831734489026E-18</v>
+        <v>4.922326E-64</v>
       </c>
       <c r="F11">
-        <v>4.53035464317276E-17</v>
+        <v>1.60794E-60</v>
       </c>
       <c r="G11">
-        <v>4.947961486272155E-17</v>
+        <v>2.171001E-60</v>
       </c>
       <c r="H11">
-        <v>6.570543924461207E-14</v>
+        <v>5.95400518700372E-63</v>
       </c>
       <c r="I11">
-        <v>6.01047602360092E-13</v>
+        <v>3.932509482235528E-61</v>
       </c>
       <c r="J11">
-        <v>5.81045818113015E-13</v>
+        <v>4.794381925420015E-61</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -901,31 +902,31 @@
         <v>13</v>
       </c>
       <c r="B12">
-        <v>2.439848310206572E-05</v>
+        <v>1.221735895712413E-34</v>
       </c>
       <c r="C12">
-        <v>6.029054196385993E-05</v>
+        <v>2.978715343666176E-32</v>
       </c>
       <c r="D12">
-        <v>4.539766882776083E-05</v>
+        <v>4.048875696240864E-32</v>
       </c>
       <c r="E12">
-        <v>0.0004424188436909</v>
+        <v>2.57032E-19</v>
       </c>
       <c r="F12">
-        <v>0.0009822454837968</v>
+        <v>1.629433E-18</v>
       </c>
       <c r="G12">
-        <v>0.0002653472606915</v>
+        <v>1.248478E-18</v>
       </c>
       <c r="H12">
-        <v>0.0009498200331427</v>
+        <v>6.385788460642462E-19</v>
       </c>
       <c r="I12">
-        <v>0.0025703107521284</v>
+        <v>1.898173306902149E-18</v>
       </c>
       <c r="J12">
-        <v>0.0016653277367716</v>
+        <v>2.277953510810427E-18</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -933,31 +934,31 @@
         <v>14</v>
       </c>
       <c r="B13">
-        <v>5.510839318161725E-24</v>
+        <v>1.059409470617122E-106</v>
       </c>
       <c r="C13">
-        <v>7.994669293486558E-23</v>
+        <v>4.847157644208905E-105</v>
       </c>
       <c r="D13">
-        <v>6.639792887690852E-23</v>
+        <v>8.999729870773471E-105</v>
       </c>
       <c r="E13">
-        <v>1.426290301718288E-22</v>
+        <v>2.543074E-76</v>
       </c>
       <c r="F13">
-        <v>6.856427960971323E-22</v>
+        <v>9.831384000000001E-75</v>
       </c>
       <c r="G13">
-        <v>7.078978504791309E-22</v>
+        <v>1.272857E-74</v>
       </c>
       <c r="H13">
-        <v>1.64606843899821E-18</v>
+        <v>8.618384396341111E-76</v>
       </c>
       <c r="I13">
-        <v>2.050911839215849E-17</v>
+        <v>1.04682945405585E-74</v>
       </c>
       <c r="J13">
-        <v>1.257966480226074E-17</v>
+        <v>9.27398332596183E-75</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -965,31 +966,31 @@
         <v>15</v>
       </c>
       <c r="B14">
-        <v>3.230732811136068</v>
+        <v>1.996431413292356E-06</v>
       </c>
       <c r="C14">
-        <v>5.492156778681979</v>
+        <v>5.554675218413091E-06</v>
       </c>
       <c r="D14">
-        <v>1.430331305928694</v>
+        <v>2.206524989712996E-06</v>
       </c>
       <c r="E14">
-        <v>3.500666207806866</v>
+        <v>2.518899E-06</v>
       </c>
       <c r="F14">
-        <v>4.981978306899354</v>
+        <v>6.665084E-06</v>
       </c>
       <c r="G14">
-        <v>0.8296389444971047</v>
+        <v>2.811837E-06</v>
       </c>
       <c r="H14">
-        <v>3.119671763183711</v>
+        <v>2.06729065920467E-06</v>
       </c>
       <c r="I14">
-        <v>5.521947573934951</v>
+        <v>8.038764781527019E-06</v>
       </c>
       <c r="J14">
-        <v>1.290898322242092</v>
+        <v>3.485633281866586E-06</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -997,31 +998,31 @@
         <v>16</v>
       </c>
       <c r="B15">
-        <v>270.4757313578741</v>
+        <v>6.563333794958241</v>
       </c>
       <c r="C15">
-        <v>340.1814466052978</v>
+        <v>11.74180543261805</v>
       </c>
       <c r="D15">
-        <v>82.935195766623</v>
+        <v>4.473362786599875</v>
       </c>
       <c r="E15">
-        <v>219.0561844033651</v>
+        <v>5.239716</v>
       </c>
       <c r="F15">
-        <v>329.7571386948985</v>
+        <v>12.5271</v>
       </c>
       <c r="G15">
-        <v>68.48819934536714</v>
+        <v>5.041886</v>
       </c>
       <c r="H15">
-        <v>496.0414816907314</v>
+        <v>4.404339237874816</v>
       </c>
       <c r="I15">
-        <v>580.7801993678186</v>
+        <v>12.18699788737544</v>
       </c>
       <c r="J15">
-        <v>57.76849137288263</v>
+        <v>5.077221131186817</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -1029,31 +1030,31 @@
         <v>17</v>
       </c>
       <c r="B16">
-        <v>4.344591320502256E-34</v>
+        <v>8.203639959275405E-113</v>
       </c>
       <c r="C16">
-        <v>2.195971436656086E-32</v>
+        <v>4.910937400643079E-111</v>
       </c>
       <c r="D16">
-        <v>5.404103110400237E-32</v>
+        <v>8.436387745232614E-111</v>
       </c>
       <c r="E16">
-        <v>1.629595184144889E-34</v>
+        <v>1.319251E-112</v>
       </c>
       <c r="F16">
-        <v>2.490814236553239E-32</v>
+        <v>4.955246999999999E-111</v>
       </c>
       <c r="G16">
-        <v>4.327803187151695E-32</v>
+        <v>5.529982E-111</v>
       </c>
       <c r="H16">
-        <v>2.728603894944719E-31</v>
+        <v>1.380142141488129E-113</v>
       </c>
       <c r="I16">
-        <v>2.032739078728558E-27</v>
+        <v>4.075712730187877E-111</v>
       </c>
       <c r="J16">
-        <v>5.492225727825454E-27</v>
+        <v>7.582413368722591E-111</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -1061,31 +1062,31 @@
         <v>18</v>
       </c>
       <c r="B17">
-        <v>3.223938508801504E-09</v>
+        <v>5.899698656559206E-35</v>
       </c>
       <c r="C17">
-        <v>8.754430591313765E-09</v>
+        <v>2.659397418107389E-34</v>
       </c>
       <c r="D17">
-        <v>5.721413634866757E-09</v>
+        <v>1.436668248262929E-34</v>
       </c>
       <c r="E17">
-        <v>3.431669161035278E-09</v>
+        <v>9.157866E-35</v>
       </c>
       <c r="F17">
-        <v>7.790556039265608E-09</v>
+        <v>2.258748E-34</v>
       </c>
       <c r="G17">
-        <v>3.4817004795921E-09</v>
+        <v>9.903255999999999E-35</v>
       </c>
       <c r="H17">
-        <v>5.481887404002612E-09</v>
+        <v>8.622949600142684E-35</v>
       </c>
       <c r="I17">
-        <v>7.997899723439464E-09</v>
+        <v>4.905658053626585E-34</v>
       </c>
       <c r="J17">
-        <v>2.145796145320206E-09</v>
+        <v>4.264288007552416E-34</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1207,31 +1208,31 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>-405.9023994356888</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>-405.9023994356888</v>
+        <v>1.818989403545857E-13</v>
       </c>
       <c r="D3">
-        <v>5.684341886080803E-14</v>
+        <v>5.45696821063757E-13</v>
       </c>
       <c r="E3">
-        <v>-405.9023994356888</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>-405.9023994356888</v>
+        <v>3.637978807091713E-13</v>
       </c>
       <c r="G3">
-        <v>5.684341886080803E-14</v>
+        <v>7.275957614183427E-13</v>
       </c>
       <c r="H3">
-        <v>-405.9023994356888</v>
+        <v>5.729816621169448E-10</v>
       </c>
       <c r="I3">
-        <v>-405.9023994356888</v>
+        <v>2.702654455788433E-09</v>
       </c>
       <c r="J3">
-        <v>5.684341886080803E-14</v>
+        <v>2.804156306383876E-09</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1239,31 +1240,31 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>-405.9023994356888</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>-405.9023994356888</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>5.684341886080803E-14</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>-405.9023994356888</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>-405.9023994356888</v>
+        <v>3.637978807091713E-13</v>
       </c>
       <c r="G4">
-        <v>5.684341886080803E-14</v>
+        <v>7.275957614183427E-13</v>
       </c>
       <c r="H4">
-        <v>-405.9023994356888</v>
+        <v>5.456968210637569E-12</v>
       </c>
       <c r="I4">
-        <v>-405.9023994356888</v>
+        <v>6.839400157332419E-11</v>
       </c>
       <c r="J4">
-        <v>5.684341886080803E-14</v>
+        <v>7.425042555730862E-11</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1271,31 +1272,31 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>-405.9023994356887</v>
+        <v>0.0003632334701251</v>
       </c>
       <c r="C5">
-        <v>-405.9023994356882</v>
+        <v>0.0007463453219315001</v>
       </c>
       <c r="D5">
-        <v>3.723135453995568E-13</v>
+        <v>0.0003368532694611</v>
       </c>
       <c r="E5">
-        <v>-405.9023994356888</v>
+        <v>0.0016144672008522</v>
       </c>
       <c r="F5">
-        <v>-405.9023994356879</v>
+        <v>0.0032634999975925</v>
       </c>
       <c r="G5">
-        <v>1.22352075514268E-12</v>
+        <v>0.0013507896689618</v>
       </c>
       <c r="H5">
-        <v>-405.9023994356888</v>
+        <v>0.0006146806717879</v>
       </c>
       <c r="I5">
-        <v>-405.9023994356884</v>
+        <v>0.00152649667707</v>
       </c>
       <c r="J5">
-        <v>3.787666002826354E-13</v>
+        <v>0.0010050350899266</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1303,31 +1304,31 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>-405.9023994356888</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>-405.9023994356888</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>5.684341886080803E-14</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>-405.9023994356888</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>-405.9023994356888</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>5.684341886080803E-14</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>-405.9023994356888</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>-405.9023994356888</v>
+        <v>1.091393642127514E-12</v>
       </c>
       <c r="J6">
-        <v>5.684341886080803E-14</v>
+        <v>8.911191772433735E-13</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1335,31 +1336,31 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>-405.9023994356888</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>-405.9023994356888</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>5.684341886080803E-14</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>-405.9023994356888</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>-405.9023994356888</v>
+        <v>0</v>
       </c>
       <c r="G7">
-        <v>5.684341886080803E-14</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>-405.9023994356888</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>-405.9023994356888</v>
+        <v>7.275957614183426E-13</v>
       </c>
       <c r="J7">
-        <v>5.684341886080803E-14</v>
+        <v>8.911191772433735E-13</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1367,31 +1368,31 @@
         <v>9</v>
       </c>
       <c r="B8">
-        <v>-405.9023994356888</v>
+        <v>9.336187547940426</v>
       </c>
       <c r="C8">
-        <v>-405.9023994356888</v>
+        <v>17.41298719213282</v>
       </c>
       <c r="D8">
-        <v>5.684341886080803E-14</v>
+        <v>6.207882504589732</v>
       </c>
       <c r="E8">
-        <v>-405.9023994356888</v>
+        <v>18.906533783751</v>
       </c>
       <c r="F8">
-        <v>-405.9023994356888</v>
+        <v>28.09106653283106</v>
       </c>
       <c r="G8">
-        <v>5.684341886080803E-14</v>
+        <v>9.512819674445767</v>
       </c>
       <c r="H8">
-        <v>-405.9023994356888</v>
+        <v>25.47981757292109</v>
       </c>
       <c r="I8">
-        <v>-405.9023994356888</v>
+        <v>36.29946464356435</v>
       </c>
       <c r="J8">
-        <v>5.684341886080803E-14</v>
+        <v>6.372141878518546</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1399,31 +1400,31 @@
         <v>10</v>
       </c>
       <c r="B9">
-        <v>-405.9023994356888</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>-405.9023994356888</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>5.684341886080803E-14</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>-405.9023994356888</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>-405.9023994356888</v>
+        <v>0</v>
       </c>
       <c r="G9">
-        <v>5.684341886080803E-14</v>
+        <v>0</v>
       </c>
       <c r="H9">
-        <v>-405.9023994356888</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>-405.9023994356888</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>5.684341886080803E-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1431,31 +1432,31 @@
         <v>11</v>
       </c>
       <c r="B10">
-        <v>-405.9023994350762</v>
+        <v>4.195911969873123E-06</v>
       </c>
       <c r="C10">
-        <v>-405.9023994334892</v>
+        <v>1.289459505642298E-05</v>
       </c>
       <c r="D10">
-        <v>1.773812175166991E-09</v>
+        <v>7.032386789279034E-06</v>
       </c>
       <c r="E10">
-        <v>-405.9023994349868</v>
+        <v>7.167996955104172E-06</v>
       </c>
       <c r="F10">
-        <v>-405.902399434057</v>
+        <v>2.048172373179113E-05</v>
       </c>
       <c r="G10">
-        <v>8.060280992201782E-10</v>
+        <v>9.137307760576978E-06</v>
       </c>
       <c r="H10">
-        <v>-405.9023994344684</v>
+        <v>5.412402970250696E-06</v>
       </c>
       <c r="I10">
-        <v>-405.9023994335543</v>
+        <v>1.31642424094025E-05</v>
       </c>
       <c r="J10">
-        <v>6.50149542546656E-10</v>
+        <v>7.492511979051331E-06</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -1463,31 +1464,31 @@
         <v>12</v>
       </c>
       <c r="B11">
-        <v>-405.9023994356888</v>
+        <v>0</v>
       </c>
       <c r="C11">
-        <v>-405.9023994356888</v>
+        <v>0</v>
       </c>
       <c r="D11">
-        <v>5.684341886080803E-14</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>-405.9023994356888</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>-405.9023994356888</v>
+        <v>0</v>
       </c>
       <c r="G11">
-        <v>5.684341886080803E-14</v>
+        <v>0</v>
       </c>
       <c r="H11">
-        <v>-405.9023994356888</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>-405.9023994356888</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>5.684341886080803E-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -1495,31 +1496,31 @@
         <v>13</v>
       </c>
       <c r="B12">
-        <v>-405.9023994356888</v>
+        <v>6.544767529703677E-06</v>
       </c>
       <c r="C12">
-        <v>-405.9023994356888</v>
+        <v>1.12747453385964E-05</v>
       </c>
       <c r="D12">
-        <v>5.684341886080803E-14</v>
+        <v>4.524729275668474E-06</v>
       </c>
       <c r="E12">
-        <v>-405.9023994356888</v>
+        <v>9.724119627207985E-05</v>
       </c>
       <c r="F12">
-        <v>-405.9023994356888</v>
+        <v>0.000170335011353</v>
       </c>
       <c r="G12">
-        <v>5.684341886080803E-14</v>
+        <v>5.397714240326877E-05</v>
       </c>
       <c r="H12">
-        <v>-405.9023994356888</v>
+        <v>2.989812855958008E-06</v>
       </c>
       <c r="I12">
-        <v>-405.9023994356888</v>
+        <v>1.504498304711888E-05</v>
       </c>
       <c r="J12">
-        <v>5.684341886080803E-14</v>
+        <v>6.160601418181327E-06</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -1527,31 +1528,31 @@
         <v>14</v>
       </c>
       <c r="B13">
-        <v>-405.9023994356888</v>
+        <v>0</v>
       </c>
       <c r="C13">
-        <v>-405.9023994356888</v>
+        <v>0</v>
       </c>
       <c r="D13">
-        <v>5.684341886080803E-14</v>
+        <v>0</v>
       </c>
       <c r="E13">
-        <v>-405.9023994356888</v>
+        <v>0</v>
       </c>
       <c r="F13">
-        <v>-405.9023994356888</v>
+        <v>0</v>
       </c>
       <c r="G13">
-        <v>5.684341886080803E-14</v>
+        <v>0</v>
       </c>
       <c r="H13">
-        <v>-405.9023994356888</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>-405.9023994356888</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>5.684341886080803E-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -1559,31 +1560,31 @@
         <v>15</v>
       </c>
       <c r="B14">
-        <v>-405.9023994356722</v>
+        <v>1.753473198115898</v>
       </c>
       <c r="C14">
-        <v>-405.9023994356429</v>
+        <v>2.251767374787414</v>
       </c>
       <c r="D14">
-        <v>2.11816610361124E-11</v>
+        <v>0.5176226686442649</v>
       </c>
       <c r="E14">
-        <v>-405.9023994356737</v>
+        <v>1.739491681619256</v>
       </c>
       <c r="F14">
-        <v>-405.9023994356431</v>
+        <v>3.086413726261162</v>
       </c>
       <c r="G14">
-        <v>2.257022329783722E-11</v>
+        <v>1.552484514842527</v>
       </c>
       <c r="H14">
-        <v>-405.9023994356734</v>
+        <v>1.041745102655113</v>
       </c>
       <c r="I14">
-        <v>-405.9023994356528</v>
+        <v>2.861013513431135</v>
       </c>
       <c r="J14">
-        <v>1.431487265282812E-11</v>
+        <v>1.075832922459413</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -1591,31 +1592,31 @@
         <v>16</v>
       </c>
       <c r="B15">
-        <v>-405.9023994356888</v>
+        <v>208.1209397142865</v>
       </c>
       <c r="C15">
-        <v>-405.9023994356888</v>
+        <v>318.1928452615593</v>
       </c>
       <c r="D15">
-        <v>5.684341886080803E-14</v>
+        <v>62.6970152586616</v>
       </c>
       <c r="E15">
-        <v>-405.9023994356888</v>
+        <v>309.9172672930017</v>
       </c>
       <c r="F15">
-        <v>-405.9023994356888</v>
+        <v>432.4113371245458</v>
       </c>
       <c r="G15">
-        <v>5.684341886080803E-14</v>
+        <v>120.5509123386509</v>
       </c>
       <c r="H15">
-        <v>-405.9023994356888</v>
+        <v>573.2600796820443</v>
       </c>
       <c r="I15">
-        <v>-405.9023994356888</v>
+        <v>850.1705915351865</v>
       </c>
       <c r="J15">
-        <v>5.684341886080803E-14</v>
+        <v>164.2944426786492</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -1623,31 +1624,31 @@
         <v>17</v>
       </c>
       <c r="B16">
-        <v>-405.9023994356888</v>
+        <v>0</v>
       </c>
       <c r="C16">
-        <v>-405.9023994356888</v>
+        <v>0</v>
       </c>
       <c r="D16">
-        <v>5.684341886080803E-14</v>
+        <v>0</v>
       </c>
       <c r="E16">
-        <v>-405.9023994356888</v>
+        <v>0</v>
       </c>
       <c r="F16">
-        <v>-405.9023994356888</v>
+        <v>0</v>
       </c>
       <c r="G16">
-        <v>5.684341886080803E-14</v>
+        <v>0</v>
       </c>
       <c r="H16">
-        <v>-405.9023994356888</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>-405.9023994356888</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>5.684341886080803E-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -1655,31 +1656,31 @@
         <v>18</v>
       </c>
       <c r="B17">
-        <v>-405.9023994233141</v>
+        <v>4.074536263942719E-10</v>
       </c>
       <c r="C17">
-        <v>-405.9023994101064</v>
+        <v>9.275026968680321E-10</v>
       </c>
       <c r="D17">
-        <v>1.138207822807344E-08</v>
+        <v>5.433796323189605E-10</v>
       </c>
       <c r="E17">
-        <v>-405.9023994245201</v>
+        <v>3.183231456205249E-10</v>
       </c>
       <c r="F17">
-        <v>-405.9023994074702</v>
+        <v>8.807546691969036E-10</v>
       </c>
       <c r="G17">
-        <v>1.18633451461612E-08</v>
+        <v>2.670159967066629E-10</v>
       </c>
       <c r="H17">
-        <v>-405.9023994225651</v>
+        <v>4.729372449219227E-10</v>
       </c>
       <c r="I17">
-        <v>-405.9023994114501</v>
+        <v>1.186526787932962E-09</v>
       </c>
       <c r="J17">
-        <v>1.138371985030072E-08</v>
+        <v>6.029954262470932E-10</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1801,31 +1802,31 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>0.4903633051034713</v>
+        <v>-405.9023994356888</v>
       </c>
       <c r="C3">
-        <v>0.5261599435263939</v>
+        <v>-405.9023994356888</v>
       </c>
       <c r="D3">
-        <v>0.0249577929847356</v>
+        <v>5.684341886080803E-14</v>
       </c>
       <c r="E3">
-        <v>0.4903066534334018</v>
+        <v>-405.9023994356888</v>
       </c>
       <c r="F3">
-        <v>0.5261129439426731</v>
+        <v>-405.9023994356888</v>
       </c>
       <c r="G3">
-        <v>0.0265477346256736</v>
+        <v>5.684341886080803E-14</v>
       </c>
       <c r="H3">
-        <v>0.4906393028015383</v>
+        <v>-405.9023994356888</v>
       </c>
       <c r="I3">
-        <v>0.5204926952406725</v>
+        <v>-405.9023994356888</v>
       </c>
       <c r="J3">
-        <v>0.0337009508358955</v>
+        <v>5.684341886080803E-14</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1833,31 +1834,31 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>0.4913714725927498</v>
+        <v>-405.9023994356888</v>
       </c>
       <c r="C4">
-        <v>0.5384521432217807</v>
+        <v>-405.9023994356888</v>
       </c>
       <c r="D4">
-        <v>0.0280299552888287</v>
+        <v>5.684341886080803E-14</v>
       </c>
       <c r="E4">
-        <v>0.4928458774145315</v>
+        <v>-405.9023994356888</v>
       </c>
       <c r="F4">
-        <v>0.5329485931658469</v>
+        <v>-405.9023994356888</v>
       </c>
       <c r="G4">
-        <v>0.0284937163720106</v>
+        <v>5.684341886080803E-14</v>
       </c>
       <c r="H4">
-        <v>0.5074963980443229</v>
+        <v>-405.9023994356888</v>
       </c>
       <c r="I4">
-        <v>0.5381189982481376</v>
+        <v>-405.9023994356888</v>
       </c>
       <c r="J4">
-        <v>0.0241000553909929</v>
+        <v>5.684341886080803E-14</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1865,31 +1866,31 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>0.4978515439368374</v>
+        <v>-405.9023994356887</v>
       </c>
       <c r="C5">
-        <v>0.5277492618145379</v>
+        <v>-405.9023994356882</v>
       </c>
       <c r="D5">
-        <v>0.0212835015696969</v>
+        <v>3.723135453995568E-13</v>
       </c>
       <c r="E5">
-        <v>0.4966762608346419</v>
+        <v>-405.9023994356888</v>
       </c>
       <c r="F5">
-        <v>0.5233817850974524</v>
+        <v>-405.9023994356879</v>
       </c>
       <c r="G5">
-        <v>0.0198682840524258</v>
+        <v>1.22352075514268E-12</v>
       </c>
       <c r="H5">
-        <v>0.5213617029730507</v>
+        <v>-405.9023994356888</v>
       </c>
       <c r="I5">
-        <v>0.5525118644057418</v>
+        <v>-405.9023994356884</v>
       </c>
       <c r="J5">
-        <v>0.0227987179193998</v>
+        <v>3.787666002826354E-13</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1897,31 +1898,31 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>0.517597660104496</v>
+        <v>-405.9023994356888</v>
       </c>
       <c r="C6">
-        <v>0.5485436841149045</v>
+        <v>-405.9023994356888</v>
       </c>
       <c r="D6">
-        <v>0.0190596948346946</v>
+        <v>5.684341886080803E-14</v>
       </c>
       <c r="E6">
-        <v>0.5073171358049666</v>
+        <v>-405.9023994356888</v>
       </c>
       <c r="F6">
-        <v>0.5440971343265113</v>
+        <v>-405.9023994356888</v>
       </c>
       <c r="G6">
-        <v>0.0243507755215554</v>
+        <v>5.684341886080803E-14</v>
       </c>
       <c r="H6">
-        <v>0.5072811586128066</v>
+        <v>-405.9023994356888</v>
       </c>
       <c r="I6">
-        <v>0.5386602404076022</v>
+        <v>-405.9023994356888</v>
       </c>
       <c r="J6">
-        <v>0.0171955774564288</v>
+        <v>5.684341886080803E-14</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1929,31 +1930,31 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>0.4908603150580117</v>
+        <v>-405.9023994356888</v>
       </c>
       <c r="C7">
-        <v>0.5153688834624163</v>
+        <v>-405.9023994356888</v>
       </c>
       <c r="D7">
-        <v>0.0334240212912053</v>
+        <v>5.684341886080803E-14</v>
       </c>
       <c r="E7">
-        <v>0.4918868834668927</v>
+        <v>-405.9023994356888</v>
       </c>
       <c r="F7">
-        <v>0.5043755991917298</v>
+        <v>-405.9023994356888</v>
       </c>
       <c r="G7">
-        <v>0.0201239361787857</v>
+        <v>5.684341886080803E-14</v>
       </c>
       <c r="H7">
-        <v>0.4919355966254294</v>
+        <v>-405.9023994356888</v>
       </c>
       <c r="I7">
-        <v>0.5045159696833335</v>
+        <v>-405.9023994356888</v>
       </c>
       <c r="J7">
-        <v>0.0197787912210662</v>
+        <v>5.684341886080803E-14</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1961,31 +1962,31 @@
         <v>9</v>
       </c>
       <c r="B8">
-        <v>0.5306441817920018</v>
+        <v>-405.9023994356888</v>
       </c>
       <c r="C8">
-        <v>0.5610446084047713</v>
+        <v>-405.9023994356888</v>
       </c>
       <c r="D8">
-        <v>0.022885606704173</v>
+        <v>5.684341886080803E-14</v>
       </c>
       <c r="E8">
-        <v>0.5081350400996607</v>
+        <v>-405.9023994356888</v>
       </c>
       <c r="F8">
-        <v>0.5581618257218912</v>
+        <v>-405.9023994356888</v>
       </c>
       <c r="G8">
-        <v>0.0345218118965836</v>
+        <v>5.684341886080803E-14</v>
       </c>
       <c r="H8">
-        <v>0.5317025196435813</v>
+        <v>-405.9023994356888</v>
       </c>
       <c r="I8">
-        <v>0.5664784000346325</v>
+        <v>-405.9023994356888</v>
       </c>
       <c r="J8">
-        <v>0.020260873224566</v>
+        <v>5.684341886080803E-14</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1993,31 +1994,31 @@
         <v>10</v>
       </c>
       <c r="B9">
-        <v>0.5025574837884266</v>
+        <v>-405.9023994356888</v>
       </c>
       <c r="C9">
-        <v>0.5349498454472905</v>
+        <v>-405.9023994356888</v>
       </c>
       <c r="D9">
-        <v>0.0192295242694385</v>
+        <v>5.684341886080803E-14</v>
       </c>
       <c r="E9">
-        <v>0.524916640562601</v>
+        <v>-405.9023994356888</v>
       </c>
       <c r="F9">
-        <v>0.5656540136646719</v>
+        <v>-405.9023994356888</v>
       </c>
       <c r="G9">
-        <v>0.0251599365793215</v>
+        <v>5.684341886080803E-14</v>
       </c>
       <c r="H9">
-        <v>0.5114733834628172</v>
+        <v>-405.9023994356888</v>
       </c>
       <c r="I9">
-        <v>0.5364976256620757</v>
+        <v>-405.9023994356888</v>
       </c>
       <c r="J9">
-        <v>0.013070852082674</v>
+        <v>5.684341886080803E-14</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -2025,31 +2026,31 @@
         <v>11</v>
       </c>
       <c r="B10">
-        <v>0.511793209529134</v>
+        <v>-405.9023994350762</v>
       </c>
       <c r="C10">
-        <v>0.5402775286895848</v>
+        <v>-405.9023994334892</v>
       </c>
       <c r="D10">
-        <v>0.030878015008117</v>
+        <v>1.773812175166991E-09</v>
       </c>
       <c r="E10">
-        <v>0.5116194921874219</v>
+        <v>-405.9023994349868</v>
       </c>
       <c r="F10">
-        <v>0.5336909408818336</v>
+        <v>-405.902399434057</v>
       </c>
       <c r="G10">
-        <v>0.0184397422794031</v>
+        <v>8.060280992201782E-10</v>
       </c>
       <c r="H10">
-        <v>0.5150904770344528</v>
+        <v>-405.9023994344684</v>
       </c>
       <c r="I10">
-        <v>0.5444774846032352</v>
+        <v>-405.9023994335543</v>
       </c>
       <c r="J10">
-        <v>0.0193628673018445</v>
+        <v>6.50149542546656E-10</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -2057,31 +2058,31 @@
         <v>12</v>
       </c>
       <c r="B11">
-        <v>0.4928302232061927</v>
+        <v>-405.9023994356888</v>
       </c>
       <c r="C11">
-        <v>0.5319825164303211</v>
+        <v>-405.9023994356888</v>
       </c>
       <c r="D11">
-        <v>0.0327239970636543</v>
+        <v>5.684341886080803E-14</v>
       </c>
       <c r="E11">
-        <v>0.4915131406257844</v>
+        <v>-405.9023994356888</v>
       </c>
       <c r="F11">
-        <v>0.5120598208293405</v>
+        <v>-405.9023994356888</v>
       </c>
       <c r="G11">
-        <v>0.0292718819053356</v>
+        <v>5.684341886080803E-14</v>
       </c>
       <c r="H11">
-        <v>0.4913356246543437</v>
+        <v>-405.9023994356888</v>
       </c>
       <c r="I11">
-        <v>0.5035543048728066</v>
+        <v>-405.9023994356888</v>
       </c>
       <c r="J11">
-        <v>0.0179814104381559</v>
+        <v>5.684341886080803E-14</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -2089,31 +2090,31 @@
         <v>13</v>
       </c>
       <c r="B12">
-        <v>0.4907921341481858</v>
+        <v>-405.9023994356888</v>
       </c>
       <c r="C12">
-        <v>0.5019131212130892</v>
+        <v>-405.9023994356888</v>
       </c>
       <c r="D12">
-        <v>0.0159106659138139</v>
+        <v>5.684341886080803E-14</v>
       </c>
       <c r="E12">
-        <v>0.4923481351704822</v>
+        <v>-405.9023994356888</v>
       </c>
       <c r="F12">
-        <v>0.5161089336720244</v>
+        <v>-405.9023994356888</v>
       </c>
       <c r="G12">
-        <v>0.0296477168978306</v>
+        <v>5.684341886080803E-14</v>
       </c>
       <c r="H12">
-        <v>0.4914021522884322</v>
+        <v>-405.9023994356888</v>
       </c>
       <c r="I12">
-        <v>0.5078012674925334</v>
+        <v>-405.9023994356888</v>
       </c>
       <c r="J12">
-        <v>0.0152993547777098</v>
+        <v>5.684341886080803E-14</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -2121,31 +2122,31 @@
         <v>14</v>
       </c>
       <c r="B13">
-        <v>0.5161043991998644</v>
+        <v>-405.9023994356888</v>
       </c>
       <c r="C13">
-        <v>0.5337183213863254</v>
+        <v>-405.9023994356888</v>
       </c>
       <c r="D13">
-        <v>0.0159638473510164</v>
+        <v>5.684341886080803E-14</v>
       </c>
       <c r="E13">
-        <v>0.5102036476951556</v>
+        <v>-405.9023994356888</v>
       </c>
       <c r="F13">
-        <v>0.5335018660280967</v>
+        <v>-405.9023994356888</v>
       </c>
       <c r="G13">
-        <v>0.0236119383768475</v>
+        <v>5.684341886080803E-14</v>
       </c>
       <c r="H13">
-        <v>0.5046596478227009</v>
+        <v>-405.9023994356888</v>
       </c>
       <c r="I13">
-        <v>0.5263082917380498</v>
+        <v>-405.9023994356888</v>
       </c>
       <c r="J13">
-        <v>0.0163363749789014</v>
+        <v>5.684341886080803E-14</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -2153,31 +2154,31 @@
         <v>15</v>
       </c>
       <c r="B14">
-        <v>0.5101775535601157</v>
+        <v>-405.9023994356722</v>
       </c>
       <c r="C14">
-        <v>0.5611355205475037</v>
+        <v>-405.9023994356429</v>
       </c>
       <c r="D14">
-        <v>0.0337125009341209</v>
+        <v>2.11816610361124E-11</v>
       </c>
       <c r="E14">
-        <v>0.512967702493373</v>
+        <v>-405.9023994356737</v>
       </c>
       <c r="F14">
-        <v>0.5454332877456204</v>
+        <v>-405.9023994356431</v>
       </c>
       <c r="G14">
-        <v>0.02559495908241</v>
+        <v>2.257022329783722E-11</v>
       </c>
       <c r="H14">
-        <v>0.5123819479935149</v>
+        <v>-405.9023994356734</v>
       </c>
       <c r="I14">
-        <v>0.5447552050159358</v>
+        <v>-405.9023994356528</v>
       </c>
       <c r="J14">
-        <v>0.0220061264627914</v>
+        <v>1.431487265282812E-11</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -2185,31 +2186,31 @@
         <v>16</v>
       </c>
       <c r="B15">
-        <v>0.5101776408637027</v>
+        <v>-405.9023994356888</v>
       </c>
       <c r="C15">
-        <v>0.5514862075420055</v>
+        <v>-405.9023994356888</v>
       </c>
       <c r="D15">
-        <v>0.0254237050681612</v>
+        <v>5.684341886080803E-14</v>
       </c>
       <c r="E15">
-        <v>0.4955815141458837</v>
+        <v>-405.9023994356888</v>
       </c>
       <c r="F15">
-        <v>0.5252806088664344</v>
+        <v>-405.9023994356888</v>
       </c>
       <c r="G15">
-        <v>0.02394022915983</v>
+        <v>5.684341886080803E-14</v>
       </c>
       <c r="H15">
-        <v>0.5129020197123925</v>
+        <v>-405.9023994356888</v>
       </c>
       <c r="I15">
-        <v>0.5429323054119783</v>
+        <v>-405.9023994356888</v>
       </c>
       <c r="J15">
-        <v>0.0243674888457157</v>
+        <v>5.684341886080803E-14</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -2217,31 +2218,31 @@
         <v>17</v>
       </c>
       <c r="B16">
-        <v>0.504274150449504</v>
+        <v>-405.9023994356888</v>
       </c>
       <c r="C16">
-        <v>0.5323488478635109</v>
+        <v>-405.9023994356888</v>
       </c>
       <c r="D16">
-        <v>0.0210884866666534</v>
+        <v>5.684341886080803E-14</v>
       </c>
       <c r="E16">
-        <v>0.4970987745374374</v>
+        <v>-405.9023994356888</v>
       </c>
       <c r="F16">
-        <v>0.5256406633902466</v>
+        <v>-405.9023994356888</v>
       </c>
       <c r="G16">
-        <v>0.0177568206349507</v>
+        <v>5.684341886080803E-14</v>
       </c>
       <c r="H16">
-        <v>0.5074243466053912</v>
+        <v>-405.9023994356888</v>
       </c>
       <c r="I16">
-        <v>0.531957726995232</v>
+        <v>-405.9023994356888</v>
       </c>
       <c r="J16">
-        <v>0.0138427062899579</v>
+        <v>5.684341886080803E-14</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -2249,31 +2250,31 @@
         <v>18</v>
       </c>
       <c r="B17">
-        <v>0.4952983456004659</v>
+        <v>-405.9023994233141</v>
       </c>
       <c r="C17">
-        <v>0.5235386179502242</v>
+        <v>-405.9023994101064</v>
       </c>
       <c r="D17">
-        <v>0.016181730230211</v>
+        <v>1.138207822807344E-08</v>
       </c>
       <c r="E17">
-        <v>0.5129177331017072</v>
+        <v>-405.9023994245201</v>
       </c>
       <c r="F17">
-        <v>0.5405787167776508</v>
+        <v>-405.9023994074702</v>
       </c>
       <c r="G17">
-        <v>0.0236556468423366</v>
+        <v>1.18633451461612E-08</v>
       </c>
       <c r="H17">
-        <v>0.5156158847981734</v>
+        <v>-405.9023994225651</v>
       </c>
       <c r="I17">
-        <v>0.5451240314973076</v>
+        <v>-405.9023994114501</v>
       </c>
       <c r="J17">
-        <v>0.0172142839237705</v>
+        <v>1.138371985030072E-08</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -2395,31 +2396,31 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>220041538.0443774</v>
+        <v>0.4903633051034713</v>
       </c>
       <c r="C3">
-        <v>220041540.1588557</v>
+        <v>0.5261599435263939</v>
       </c>
       <c r="D3">
-        <v>1.886388440354259</v>
+        <v>0.0249577929847356</v>
       </c>
       <c r="E3">
-        <v>220041536.3419973</v>
+        <v>0.4903066534334018</v>
       </c>
       <c r="F3">
-        <v>220041539.9061536</v>
+        <v>0.5261129439426731</v>
       </c>
       <c r="G3">
-        <v>1.862988400823561</v>
+        <v>0.0265477346256736</v>
       </c>
       <c r="H3">
-        <v>220041536.7290516</v>
+        <v>0.4906393028015383</v>
       </c>
       <c r="I3">
-        <v>220041539.6187252</v>
+        <v>0.5204926952406725</v>
       </c>
       <c r="J3">
-        <v>1.356320911570362</v>
+        <v>0.0337009508358955</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -2427,31 +2428,31 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>220041534.7143884</v>
+        <v>0.4913714725927498</v>
       </c>
       <c r="C4">
-        <v>220041537.8252523</v>
+        <v>0.5384521432217807</v>
       </c>
       <c r="D4">
-        <v>2.041238700413792</v>
+        <v>0.0280299552888287</v>
       </c>
       <c r="E4">
-        <v>220041535.542431</v>
+        <v>0.4928458774145315</v>
       </c>
       <c r="F4">
-        <v>220041538.2395421</v>
+        <v>0.5329485931658469</v>
       </c>
       <c r="G4">
-        <v>1.451754393438758</v>
+        <v>0.0284937163720106</v>
       </c>
       <c r="H4">
-        <v>220041535.960071</v>
+        <v>0.5074963980443229</v>
       </c>
       <c r="I4">
-        <v>220041538.9909323</v>
+        <v>0.5381189982481376</v>
       </c>
       <c r="J4">
-        <v>2.27628796336724</v>
+        <v>0.0241000553909929</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -2459,31 +2460,31 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>220047524.8096832</v>
+        <v>0.4978515439368374</v>
       </c>
       <c r="C5">
-        <v>220053099.0954162</v>
+        <v>0.5277492618145379</v>
       </c>
       <c r="D5">
-        <v>2933.907503369982</v>
+        <v>0.0212835015696969</v>
       </c>
       <c r="E5">
-        <v>220045526.7143837</v>
+        <v>0.4966762608346419</v>
       </c>
       <c r="F5">
-        <v>220051118.488674</v>
+        <v>0.5233817850974524</v>
       </c>
       <c r="G5">
-        <v>3839.466317743383</v>
+        <v>0.0198682840524258</v>
       </c>
       <c r="H5">
-        <v>220045647.4306637</v>
+        <v>0.5213617029730507</v>
       </c>
       <c r="I5">
-        <v>220051288.3315258</v>
+        <v>0.5525118644057418</v>
       </c>
       <c r="J5">
-        <v>4254.001529526126</v>
+        <v>0.0227987179193998</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -2491,31 +2492,31 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>220041532.5616482</v>
+        <v>0.517597660104496</v>
       </c>
       <c r="C6">
-        <v>220041532.8440054</v>
+        <v>0.5485436841149045</v>
       </c>
       <c r="D6">
-        <v>0.2212005974741758</v>
+        <v>0.0190596948346946</v>
       </c>
       <c r="E6">
-        <v>220041532.5788789</v>
+        <v>0.5073171358049666</v>
       </c>
       <c r="F6">
-        <v>220041533.2864802</v>
+        <v>0.5440971343265113</v>
       </c>
       <c r="G6">
-        <v>0.5994109214067967</v>
+        <v>0.0243507755215554</v>
       </c>
       <c r="H6">
-        <v>220041531.8053994</v>
+        <v>0.5072811586128066</v>
       </c>
       <c r="I6">
-        <v>220041532.9223948</v>
+        <v>0.5386602404076022</v>
       </c>
       <c r="J6">
-        <v>0.5367995620529937</v>
+        <v>0.0171955774564288</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -2523,31 +2524,31 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>220041532.1897029</v>
+        <v>0.4908603150580117</v>
       </c>
       <c r="C7">
-        <v>220041533.3434252</v>
+        <v>0.5153688834624163</v>
       </c>
       <c r="D7">
-        <v>0.5473513961607752</v>
+        <v>0.0334240212912053</v>
       </c>
       <c r="E7">
-        <v>220041532.7133625</v>
+        <v>0.4918868834668927</v>
       </c>
       <c r="F7">
-        <v>220041533.4326392</v>
+        <v>0.5043755991917298</v>
       </c>
       <c r="G7">
-        <v>0.639674945508697</v>
+        <v>0.0201239361787857</v>
       </c>
       <c r="H7">
-        <v>220041532.5786011</v>
+        <v>0.4919355966254294</v>
       </c>
       <c r="I7">
-        <v>220041533.6789764</v>
+        <v>0.5045159696833335</v>
       </c>
       <c r="J7">
-        <v>1.050954322322755</v>
+        <v>0.0197787912210662</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -2555,31 +2556,31 @@
         <v>9</v>
       </c>
       <c r="B8">
-        <v>220981184.482832</v>
+        <v>0.5306441817920018</v>
       </c>
       <c r="C8">
-        <v>221704561.0202132</v>
+        <v>0.5610446084047713</v>
       </c>
       <c r="D8">
-        <v>598940.1107083666</v>
+        <v>0.022885606704173</v>
       </c>
       <c r="E8">
-        <v>221438352.0493961</v>
+        <v>0.5081350400996607</v>
       </c>
       <c r="F8">
-        <v>221955952.0648375</v>
+        <v>0.5581618257218912</v>
       </c>
       <c r="G8">
-        <v>594077.853481116</v>
+        <v>0.0345218118965836</v>
       </c>
       <c r="H8">
-        <v>221094107.7019478</v>
+        <v>0.5317025196435813</v>
       </c>
       <c r="I8">
-        <v>222219811.1785287</v>
+        <v>0.5664784000346325</v>
       </c>
       <c r="J8">
-        <v>1445522.259144781</v>
+        <v>0.020260873224566</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -2587,31 +2588,31 @@
         <v>10</v>
       </c>
       <c r="B9">
-        <v>220041531.8658164</v>
+        <v>0.5025574837884266</v>
       </c>
       <c r="C9">
-        <v>220041532.2769037</v>
+        <v>0.5349498454472905</v>
       </c>
       <c r="D9">
-        <v>0.2433173564273435</v>
+        <v>0.0192295242694385</v>
       </c>
       <c r="E9">
-        <v>220041531.915714</v>
+        <v>0.524916640562601</v>
       </c>
       <c r="F9">
-        <v>220041532.2282468</v>
+        <v>0.5656540136646719</v>
       </c>
       <c r="G9">
-        <v>0.2338637790569135</v>
+        <v>0.0251599365793215</v>
       </c>
       <c r="H9">
-        <v>220041531.8761902</v>
+        <v>0.5114733834628172</v>
       </c>
       <c r="I9">
-        <v>220041532.2803442</v>
+        <v>0.5364976256620757</v>
       </c>
       <c r="J9">
-        <v>0.2325010067890625</v>
+        <v>0.013070852082674</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -2619,31 +2620,31 @@
         <v>11</v>
       </c>
       <c r="B10">
-        <v>220041746.0189872</v>
+        <v>0.511793209529134</v>
       </c>
       <c r="C10">
-        <v>220042128.7215465</v>
+        <v>0.5402775286895848</v>
       </c>
       <c r="D10">
-        <v>286.0377639891113</v>
+        <v>0.030878015008117</v>
       </c>
       <c r="E10">
-        <v>220041782.2407569</v>
+        <v>0.5116194921874219</v>
       </c>
       <c r="F10">
-        <v>220042114.2790065</v>
+        <v>0.5336909408818336</v>
       </c>
       <c r="G10">
-        <v>248.7438127644229</v>
+        <v>0.0184397422794031</v>
       </c>
       <c r="H10">
-        <v>220041964.6794345</v>
+        <v>0.5150904770344528</v>
       </c>
       <c r="I10">
-        <v>220042452.4359432</v>
+        <v>0.5444774846032352</v>
       </c>
       <c r="J10">
-        <v>288.2375098409454</v>
+        <v>0.0193628673018445</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -2651,31 +2652,31 @@
         <v>12</v>
       </c>
       <c r="B11">
-        <v>220041532.0114302</v>
+        <v>0.4928302232061927</v>
       </c>
       <c r="C11">
-        <v>220041532.4921664</v>
+        <v>0.5319825164303211</v>
       </c>
       <c r="D11">
-        <v>0.5184309642306896</v>
+        <v>0.0327239970636543</v>
       </c>
       <c r="E11">
-        <v>220041532.0119757</v>
+        <v>0.4915131406257844</v>
       </c>
       <c r="F11">
-        <v>220041532.3079895</v>
+        <v>0.5120598208293405</v>
       </c>
       <c r="G11">
-        <v>0.1746377751453711</v>
+        <v>0.0292718819053356</v>
       </c>
       <c r="H11">
-        <v>220041531.8662789</v>
+        <v>0.4913356246543437</v>
       </c>
       <c r="I11">
-        <v>220041532.3150232</v>
+        <v>0.5035543048728066</v>
       </c>
       <c r="J11">
-        <v>0.233471641340904</v>
+        <v>0.0179814104381559</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -2683,31 +2684,31 @@
         <v>13</v>
       </c>
       <c r="B12">
-        <v>220042087.5474342</v>
+        <v>0.4907921341481858</v>
       </c>
       <c r="C12">
-        <v>220043201.7685552</v>
+        <v>0.5019131212130892</v>
       </c>
       <c r="D12">
-        <v>904.8653039095821</v>
+        <v>0.0159106659138139</v>
       </c>
       <c r="E12">
-        <v>220042955.7448229</v>
+        <v>0.4923481351704822</v>
       </c>
       <c r="F12">
-        <v>220044975.4864477</v>
+        <v>0.5161089336720244</v>
       </c>
       <c r="G12">
-        <v>2058.376725005469</v>
+        <v>0.0296477168978306</v>
       </c>
       <c r="H12">
-        <v>220042483.7281907</v>
+        <v>0.4914021522884322</v>
       </c>
       <c r="I12">
-        <v>220042840.6906717</v>
+        <v>0.5078012674925334</v>
       </c>
       <c r="J12">
-        <v>278.5506506081757</v>
+        <v>0.0152993547777098</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -2715,31 +2716,31 @@
         <v>14</v>
       </c>
       <c r="B13">
-        <v>220041532.1987087</v>
+        <v>0.5161043991998644</v>
       </c>
       <c r="C13">
-        <v>220041532.4275146</v>
+        <v>0.5337183213863254</v>
       </c>
       <c r="D13">
-        <v>0.1502080869131366</v>
+        <v>0.0159638473510164</v>
       </c>
       <c r="E13">
-        <v>220041531.8658588</v>
+        <v>0.5102036476951556</v>
       </c>
       <c r="F13">
-        <v>220041532.2137578</v>
+        <v>0.5335018660280967</v>
       </c>
       <c r="G13">
-        <v>0.2012406470218382</v>
+        <v>0.0236119383768475</v>
       </c>
       <c r="H13">
-        <v>220041531.8845619</v>
+        <v>0.5046596478227009</v>
       </c>
       <c r="I13">
-        <v>220041532.3368598</v>
+        <v>0.5263082917380498</v>
       </c>
       <c r="J13">
-        <v>0.1948939449734589</v>
+        <v>0.0163363749789014</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -2747,31 +2748,31 @@
         <v>15</v>
       </c>
       <c r="B14">
-        <v>252636444.0557487</v>
+        <v>0.5101775535601157</v>
       </c>
       <c r="C14">
-        <v>397926771.7737982</v>
+        <v>0.5611355205475037</v>
       </c>
       <c r="D14">
-        <v>107874982.1105498</v>
+        <v>0.0337125009341209</v>
       </c>
       <c r="E14">
-        <v>237974400.1171439</v>
+        <v>0.512967702493373</v>
       </c>
       <c r="F14">
-        <v>329339320.5786136</v>
+        <v>0.5454332877456204</v>
       </c>
       <c r="G14">
-        <v>95630522.2005277</v>
+        <v>0.02559495908241</v>
       </c>
       <c r="H14">
-        <v>241083707.325784</v>
+        <v>0.5123819479935149</v>
       </c>
       <c r="I14">
-        <v>327769327.853261</v>
+        <v>0.5447552050159358</v>
       </c>
       <c r="J14">
-        <v>98866473.49598138</v>
+        <v>0.0220061264627914</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -2779,31 +2780,31 @@
         <v>16</v>
       </c>
       <c r="B15">
-        <v>193237738166548.1</v>
+        <v>0.5101776408637027</v>
       </c>
       <c r="C15">
-        <v>540381416043080.6</v>
+        <v>0.5514862075420055</v>
       </c>
       <c r="D15">
-        <v>390482104490522.4</v>
+        <v>0.0254237050681612</v>
       </c>
       <c r="E15">
-        <v>54471954756817.98</v>
+        <v>0.4955815141458837</v>
       </c>
       <c r="F15">
-        <v>436381111394382.1</v>
+        <v>0.5252806088664344</v>
       </c>
       <c r="G15">
-        <v>336087400160947.4</v>
+        <v>0.02394022915983</v>
       </c>
       <c r="H15">
-        <v>77133659663697.03</v>
+        <v>0.5129020197123925</v>
       </c>
       <c r="I15">
-        <v>489768873088743.8</v>
+        <v>0.5429323054119783</v>
       </c>
       <c r="J15">
-        <v>336874563151168.7</v>
+        <v>0.0243674888457157</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -2811,31 +2812,31 @@
         <v>17</v>
       </c>
       <c r="B16">
-        <v>220041531.9570869</v>
+        <v>0.504274150449504</v>
       </c>
       <c r="C16">
-        <v>220041532.3970236</v>
+        <v>0.5323488478635109</v>
       </c>
       <c r="D16">
-        <v>0.4604890944518928</v>
+        <v>0.0210884866666534</v>
       </c>
       <c r="E16">
-        <v>220041531.9629245</v>
+        <v>0.4970987745374374</v>
       </c>
       <c r="F16">
-        <v>220041532.6827128</v>
+        <v>0.5256406633902466</v>
       </c>
       <c r="G16">
-        <v>1.018747220365303</v>
+        <v>0.0177568206349507</v>
       </c>
       <c r="H16">
-        <v>220041531.9943666</v>
+        <v>0.5074243466053912</v>
       </c>
       <c r="I16">
-        <v>220041532.814466</v>
+        <v>0.531957726995232</v>
       </c>
       <c r="J16">
-        <v>0.7953761226261472</v>
+        <v>0.0138427062899579</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -2843,31 +2844,31 @@
         <v>18</v>
       </c>
       <c r="B17">
-        <v>220041537.4260687</v>
+        <v>0.4952983456004659</v>
       </c>
       <c r="C17">
-        <v>220041539.5722108</v>
+        <v>0.5235386179502242</v>
       </c>
       <c r="D17">
-        <v>1.186119712516343</v>
+        <v>0.016181730230211</v>
       </c>
       <c r="E17">
-        <v>220041538.0902861</v>
+        <v>0.5129177331017072</v>
       </c>
       <c r="F17">
-        <v>220041539.8642645</v>
+        <v>0.5405787167776508</v>
       </c>
       <c r="G17">
-        <v>1.294136432499731</v>
+        <v>0.0236556468423366</v>
       </c>
       <c r="H17">
-        <v>220041538.8981668</v>
+        <v>0.5156158847981734</v>
       </c>
       <c r="I17">
-        <v>220041540.2887478</v>
+        <v>0.5451240314973076</v>
       </c>
       <c r="J17">
-        <v>1.773889114557588</v>
+        <v>0.0172142839237705</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -2989,6 +2990,600 @@
         <v>4</v>
       </c>
       <c r="B3">
+        <v>220041538.0443774</v>
+      </c>
+      <c r="C3">
+        <v>220041540.1588557</v>
+      </c>
+      <c r="D3">
+        <v>1.886388440354259</v>
+      </c>
+      <c r="E3">
+        <v>220041536.3419973</v>
+      </c>
+      <c r="F3">
+        <v>220041539.9061536</v>
+      </c>
+      <c r="G3">
+        <v>1.862988400823561</v>
+      </c>
+      <c r="H3">
+        <v>220041536.7290516</v>
+      </c>
+      <c r="I3">
+        <v>220041539.6187252</v>
+      </c>
+      <c r="J3">
+        <v>1.356320911570362</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>220041534.7143884</v>
+      </c>
+      <c r="C4">
+        <v>220041537.8252523</v>
+      </c>
+      <c r="D4">
+        <v>2.041238700413792</v>
+      </c>
+      <c r="E4">
+        <v>220041535.542431</v>
+      </c>
+      <c r="F4">
+        <v>220041538.2395421</v>
+      </c>
+      <c r="G4">
+        <v>1.451754393438758</v>
+      </c>
+      <c r="H4">
+        <v>220041535.960071</v>
+      </c>
+      <c r="I4">
+        <v>220041538.9909323</v>
+      </c>
+      <c r="J4">
+        <v>2.27628796336724</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>220047524.8096832</v>
+      </c>
+      <c r="C5">
+        <v>220053099.0954162</v>
+      </c>
+      <c r="D5">
+        <v>2933.907503369982</v>
+      </c>
+      <c r="E5">
+        <v>220045526.7143837</v>
+      </c>
+      <c r="F5">
+        <v>220051118.488674</v>
+      </c>
+      <c r="G5">
+        <v>3839.466317743383</v>
+      </c>
+      <c r="H5">
+        <v>220045647.4306637</v>
+      </c>
+      <c r="I5">
+        <v>220051288.3315258</v>
+      </c>
+      <c r="J5">
+        <v>4254.001529526126</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>220041532.5616482</v>
+      </c>
+      <c r="C6">
+        <v>220041532.8440054</v>
+      </c>
+      <c r="D6">
+        <v>0.2212005974741758</v>
+      </c>
+      <c r="E6">
+        <v>220041532.5788789</v>
+      </c>
+      <c r="F6">
+        <v>220041533.2864802</v>
+      </c>
+      <c r="G6">
+        <v>0.5994109214067967</v>
+      </c>
+      <c r="H6">
+        <v>220041531.8053994</v>
+      </c>
+      <c r="I6">
+        <v>220041532.9223948</v>
+      </c>
+      <c r="J6">
+        <v>0.5367995620529937</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>220041532.1897029</v>
+      </c>
+      <c r="C7">
+        <v>220041533.3434252</v>
+      </c>
+      <c r="D7">
+        <v>0.5473513961607752</v>
+      </c>
+      <c r="E7">
+        <v>220041532.7133625</v>
+      </c>
+      <c r="F7">
+        <v>220041533.4326392</v>
+      </c>
+      <c r="G7">
+        <v>0.639674945508697</v>
+      </c>
+      <c r="H7">
+        <v>220041532.5786011</v>
+      </c>
+      <c r="I7">
+        <v>220041533.6789764</v>
+      </c>
+      <c r="J7">
+        <v>1.050954322322755</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <v>220981184.482832</v>
+      </c>
+      <c r="C8">
+        <v>221704561.0202132</v>
+      </c>
+      <c r="D8">
+        <v>598940.1107083666</v>
+      </c>
+      <c r="E8">
+        <v>221438352.0493961</v>
+      </c>
+      <c r="F8">
+        <v>221955952.0648375</v>
+      </c>
+      <c r="G8">
+        <v>594077.853481116</v>
+      </c>
+      <c r="H8">
+        <v>221094107.7019478</v>
+      </c>
+      <c r="I8">
+        <v>222219811.1785287</v>
+      </c>
+      <c r="J8">
+        <v>1445522.259144781</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>220041531.8658164</v>
+      </c>
+      <c r="C9">
+        <v>220041532.2769037</v>
+      </c>
+      <c r="D9">
+        <v>0.2433173564273435</v>
+      </c>
+      <c r="E9">
+        <v>220041531.915714</v>
+      </c>
+      <c r="F9">
+        <v>220041532.2282468</v>
+      </c>
+      <c r="G9">
+        <v>0.2338637790569135</v>
+      </c>
+      <c r="H9">
+        <v>220041531.8761902</v>
+      </c>
+      <c r="I9">
+        <v>220041532.2803442</v>
+      </c>
+      <c r="J9">
+        <v>0.2325010067890625</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10">
+        <v>220041746.0189872</v>
+      </c>
+      <c r="C10">
+        <v>220042128.7215465</v>
+      </c>
+      <c r="D10">
+        <v>286.0377639891113</v>
+      </c>
+      <c r="E10">
+        <v>220041782.2407569</v>
+      </c>
+      <c r="F10">
+        <v>220042114.2790065</v>
+      </c>
+      <c r="G10">
+        <v>248.7438127644229</v>
+      </c>
+      <c r="H10">
+        <v>220041964.6794345</v>
+      </c>
+      <c r="I10">
+        <v>220042452.4359432</v>
+      </c>
+      <c r="J10">
+        <v>288.2375098409454</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11">
+        <v>220041532.0114302</v>
+      </c>
+      <c r="C11">
+        <v>220041532.4921664</v>
+      </c>
+      <c r="D11">
+        <v>0.5184309642306896</v>
+      </c>
+      <c r="E11">
+        <v>220041532.0119757</v>
+      </c>
+      <c r="F11">
+        <v>220041532.3079895</v>
+      </c>
+      <c r="G11">
+        <v>0.1746377751453711</v>
+      </c>
+      <c r="H11">
+        <v>220041531.8662789</v>
+      </c>
+      <c r="I11">
+        <v>220041532.3150232</v>
+      </c>
+      <c r="J11">
+        <v>0.233471641340904</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12">
+        <v>220042087.5474342</v>
+      </c>
+      <c r="C12">
+        <v>220043201.7685552</v>
+      </c>
+      <c r="D12">
+        <v>904.8653039095821</v>
+      </c>
+      <c r="E12">
+        <v>220042955.7448229</v>
+      </c>
+      <c r="F12">
+        <v>220044975.4864477</v>
+      </c>
+      <c r="G12">
+        <v>2058.376725005469</v>
+      </c>
+      <c r="H12">
+        <v>220042483.7281907</v>
+      </c>
+      <c r="I12">
+        <v>220042840.6906717</v>
+      </c>
+      <c r="J12">
+        <v>278.5506506081757</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13">
+        <v>220041532.1987087</v>
+      </c>
+      <c r="C13">
+        <v>220041532.4275146</v>
+      </c>
+      <c r="D13">
+        <v>0.1502080869131366</v>
+      </c>
+      <c r="E13">
+        <v>220041531.8658588</v>
+      </c>
+      <c r="F13">
+        <v>220041532.2137578</v>
+      </c>
+      <c r="G13">
+        <v>0.2012406470218382</v>
+      </c>
+      <c r="H13">
+        <v>220041531.8845619</v>
+      </c>
+      <c r="I13">
+        <v>220041532.3368598</v>
+      </c>
+      <c r="J13">
+        <v>0.1948939449734589</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14">
+        <v>252636444.0557487</v>
+      </c>
+      <c r="C14">
+        <v>397926771.7737982</v>
+      </c>
+      <c r="D14">
+        <v>107874982.1105498</v>
+      </c>
+      <c r="E14">
+        <v>237974400.1171439</v>
+      </c>
+      <c r="F14">
+        <v>329339320.5786136</v>
+      </c>
+      <c r="G14">
+        <v>95630522.2005277</v>
+      </c>
+      <c r="H14">
+        <v>241083707.325784</v>
+      </c>
+      <c r="I14">
+        <v>327769327.853261</v>
+      </c>
+      <c r="J14">
+        <v>98866473.49598138</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15">
+        <v>193237738166548.1</v>
+      </c>
+      <c r="C15">
+        <v>540381416043080.6</v>
+      </c>
+      <c r="D15">
+        <v>390482104490522.4</v>
+      </c>
+      <c r="E15">
+        <v>54471954756817.98</v>
+      </c>
+      <c r="F15">
+        <v>436381111394382.1</v>
+      </c>
+      <c r="G15">
+        <v>336087400160947.4</v>
+      </c>
+      <c r="H15">
+        <v>77133659663697.03</v>
+      </c>
+      <c r="I15">
+        <v>489768873088743.8</v>
+      </c>
+      <c r="J15">
+        <v>336874563151168.7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16">
+        <v>220041531.9570869</v>
+      </c>
+      <c r="C16">
+        <v>220041532.3970236</v>
+      </c>
+      <c r="D16">
+        <v>0.4604890944518928</v>
+      </c>
+      <c r="E16">
+        <v>220041531.9629245</v>
+      </c>
+      <c r="F16">
+        <v>220041532.6827128</v>
+      </c>
+      <c r="G16">
+        <v>1.018747220365303</v>
+      </c>
+      <c r="H16">
+        <v>220041531.9943666</v>
+      </c>
+      <c r="I16">
+        <v>220041532.814466</v>
+      </c>
+      <c r="J16">
+        <v>0.7953761226261472</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17">
+        <v>220041537.4260687</v>
+      </c>
+      <c r="C17">
+        <v>220041539.5722108</v>
+      </c>
+      <c r="D17">
+        <v>1.186119712516343</v>
+      </c>
+      <c r="E17">
+        <v>220041538.0902861</v>
+      </c>
+      <c r="F17">
+        <v>220041539.8642645</v>
+      </c>
+      <c r="G17">
+        <v>1.294136432499731</v>
+      </c>
+      <c r="H17">
+        <v>220041538.8981668</v>
+      </c>
+      <c r="I17">
+        <v>220041540.2887478</v>
+      </c>
+      <c r="J17">
+        <v>1.773889114557588</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="B18" s="2">
+        <f t="array" ref="B18">(AVERAGE(B3:B17))</f>
+        <v>0</v>
+      </c>
+      <c r="C18" s="2">
+        <f t="array" ref="C18">(AVERAGE(C3:C17))</f>
+        <v>0</v>
+      </c>
+      <c r="D18" s="2">
+        <f t="array" ref="D18">(AVERAGE(D3:D17))</f>
+        <v>0</v>
+      </c>
+      <c r="E18" s="2">
+        <f t="array" ref="E18">(AVERAGE(E3:E17))</f>
+        <v>0</v>
+      </c>
+      <c r="F18" s="2">
+        <f t="array" ref="F18">(AVERAGE(F3:F17))</f>
+        <v>0</v>
+      </c>
+      <c r="G18" s="2">
+        <f t="array" ref="G18">(AVERAGE(G3:G17))</f>
+        <v>0</v>
+      </c>
+      <c r="H18" s="2">
+        <f t="array" ref="H18">(AVERAGE(H3:H17))</f>
+        <v>0</v>
+      </c>
+      <c r="I18" s="2">
+        <f t="array" ref="I18">(AVERAGE(I3:I17))</f>
+        <v>0</v>
+      </c>
+      <c r="J18" s="2">
+        <f t="array" ref="J18">(AVERAGE(J3:J17))</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:J1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="B1:D17">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="notEqual">
+      <formula>Dummy</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E1:G17">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="notEqual">
+      <formula>Dummy</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H1:J17">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="notEqual">
+      <formula>Dummy</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
         <v>0.3794045831463381</v>
       </c>
       <c r="C3">
@@ -3583,31 +4178,31 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>5.428039434881842E-09</v>
+        <v>2.746630175987346E-14</v>
       </c>
       <c r="C3">
-        <v>3.088537419489776E-08</v>
+        <v>1.567413952622311E-13</v>
       </c>
       <c r="D3">
-        <v>2.03645289098476E-08</v>
+        <v>1.041295464405231E-13</v>
       </c>
       <c r="E3">
-        <v>1.764069210080799E-07</v>
+        <v>3.685643637018394E-13</v>
       </c>
       <c r="F3">
-        <v>7.640376648889482E-07</v>
+        <v>2.563090069189095E-12</v>
       </c>
       <c r="G3">
-        <v>4.977552457883039E-07</v>
+        <v>2.016158540369274E-12</v>
       </c>
       <c r="H3">
-        <v>0.0362367688402818</v>
+        <v>6.451864581297814E-08</v>
       </c>
       <c r="I3">
-        <v>0.1058404446552333</v>
+        <v>1.66003663845998E-07</v>
       </c>
       <c r="J3">
-        <v>0.0751146129466114</v>
+        <v>7.788515322978929E-08</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -3615,31 +4210,31 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>2.212845904388846E-10</v>
+        <v>1.71587409917047E-15</v>
       </c>
       <c r="C4">
-        <v>1.197568872940267E-09</v>
+        <v>4.499169868436024E-15</v>
       </c>
       <c r="D4">
-        <v>7.957047492356426E-10</v>
+        <v>2.675912342012841E-15</v>
       </c>
       <c r="E4">
-        <v>1.114564271223758E-07</v>
+        <v>7.123011864499825E-13</v>
       </c>
       <c r="F4">
-        <v>5.107796260877548E-07</v>
+        <v>3.004827216973313E-12</v>
       </c>
       <c r="G4">
-        <v>3.395037529606468E-07</v>
+        <v>3.185705207640927E-12</v>
       </c>
       <c r="H4">
-        <v>0.014924652727992</v>
+        <v>6.493888966889651E-08</v>
       </c>
       <c r="I4">
-        <v>0.0659783970146159</v>
+        <v>1.673913483676306E-07</v>
       </c>
       <c r="J4">
-        <v>0.0483863105672211</v>
+        <v>9.600010834184109E-08</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -3647,31 +4242,31 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>1330.993735038389</v>
+        <v>0.0029537774891335</v>
       </c>
       <c r="C5">
-        <v>2904.404365608255</v>
+        <v>0.0047266986006657</v>
       </c>
       <c r="D5">
-        <v>1108.201383893368</v>
+        <v>0.0016457650659143</v>
       </c>
       <c r="E5">
-        <v>8470.98949042934</v>
+        <v>0.0075081722726854</v>
       </c>
       <c r="F5">
-        <v>11928.15145223406</v>
+        <v>0.0149986892326973</v>
       </c>
       <c r="G5">
-        <v>2416.921412101032</v>
+        <v>0.0067454291839222</v>
       </c>
       <c r="H5">
-        <v>17550.67987049862</v>
+        <v>0.02046957332325</v>
       </c>
       <c r="I5">
-        <v>24370.45769842217</v>
+        <v>0.0384095400372302</v>
       </c>
       <c r="J5">
-        <v>4045.576933582767</v>
+        <v>0.0167045627463513</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -3679,31 +4274,31 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>2.702090291108928E-13</v>
+        <v>1.214443307789605E-17</v>
       </c>
       <c r="C6">
-        <v>7.601326358985126E-12</v>
+        <v>3.715761504393019E-17</v>
       </c>
       <c r="D6">
-        <v>5.977128114471677E-12</v>
+        <v>2.168148743166844E-17</v>
       </c>
       <c r="E6">
-        <v>1.553289260031898E-11</v>
+        <v>1.212300424484415E-16</v>
       </c>
       <c r="F6">
-        <v>2.266258365678062E-10</v>
+        <v>7.036621705814022E-16</v>
       </c>
       <c r="G6">
-        <v>2.494514931556305E-10</v>
+        <v>4.73151714937746E-16</v>
       </c>
       <c r="H6">
-        <v>4.051585283042003E-06</v>
+        <v>1.163668605901892E-11</v>
       </c>
       <c r="I6">
-        <v>1.172894780946004E-05</v>
+        <v>4.028244457541197E-11</v>
       </c>
       <c r="J6">
-        <v>4.992997778282319E-06</v>
+        <v>2.293538183272712E-11</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -3711,31 +4306,31 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>6.403862098137314E-13</v>
+        <v>5.114712336858196E-18</v>
       </c>
       <c r="C7">
-        <v>4.252621923768091E-12</v>
+        <v>1.468179689718712E-17</v>
       </c>
       <c r="D7">
-        <v>4.127931816500735E-12</v>
+        <v>8.63514546617447E-18</v>
       </c>
       <c r="E7">
-        <v>1.363742482211675E-10</v>
+        <v>6.074431593088635E-16</v>
       </c>
       <c r="F7">
-        <v>1.057573133458666E-09</v>
+        <v>3.324650092106721E-15</v>
       </c>
       <c r="G7">
-        <v>1.146115549050991E-09</v>
+        <v>2.701377591678002E-15</v>
       </c>
       <c r="H7">
-        <v>2.384953224671638E-05</v>
+        <v>6.130490315466295E-11</v>
       </c>
       <c r="I7">
-        <v>0.0001170746936342</v>
+        <v>2.534265431196979E-10</v>
       </c>
       <c r="J7">
-        <v>5.694626526564869E-05</v>
+        <v>1.507716016146038E-10</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -3743,31 +4338,31 @@
         <v>9</v>
       </c>
       <c r="B8">
-        <v>52028760.09658844</v>
+        <v>13.97015832633228</v>
       </c>
       <c r="C8">
-        <v>74430700.38804051</v>
+        <v>21.8995126203678</v>
       </c>
       <c r="D8">
-        <v>20738989.75000695</v>
+        <v>3.881714006977099</v>
       </c>
       <c r="E8">
-        <v>71181499.43946621</v>
+        <v>24.90072003932658</v>
       </c>
       <c r="F8">
-        <v>107707196.07329</v>
+        <v>42.38290629291633</v>
       </c>
       <c r="G8">
-        <v>21253979.96412607</v>
+        <v>11.10558279059936</v>
       </c>
       <c r="H8">
-        <v>241726326.2272126</v>
+        <v>56.93134581139245</v>
       </c>
       <c r="I8">
-        <v>327371318.24709</v>
+        <v>83.25709135142617</v>
       </c>
       <c r="J8">
-        <v>56585030.03030574</v>
+        <v>18.75699451527176</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -3775,31 +4370,31 @@
         <v>10</v>
       </c>
       <c r="B9">
-        <v>2.882355487925816E-16</v>
+        <v>3.964894403492564E-22</v>
       </c>
       <c r="C9">
-        <v>1.369732515585648E-15</v>
+        <v>5.05077259570165E-21</v>
       </c>
       <c r="D9">
-        <v>1.429596588859681E-15</v>
+        <v>4.594297854171059E-21</v>
       </c>
       <c r="E9">
-        <v>1.569558391139776E-13</v>
+        <v>9.543533808548041E-19</v>
       </c>
       <c r="F9">
-        <v>7.802823050026735E-13</v>
+        <v>1.753693592675999E-18</v>
       </c>
       <c r="G9">
-        <v>6.403249288023453E-13</v>
+        <v>8.483815779867108E-19</v>
       </c>
       <c r="H9">
-        <v>1.598630513550628E-09</v>
+        <v>1.852279824362551E-14</v>
       </c>
       <c r="I9">
-        <v>1.416671994768534E-08</v>
+        <v>4.604056682808448E-14</v>
       </c>
       <c r="J9">
-        <v>7.54217389984133E-09</v>
+        <v>2.671694914086754E-14</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -3807,31 +4402,31 @@
         <v>11</v>
       </c>
       <c r="B10">
-        <v>12.5417645977716</v>
+        <v>2.246298666941369E-05</v>
       </c>
       <c r="C10">
-        <v>33.63383595439903</v>
+        <v>5.411184283183373E-05</v>
       </c>
       <c r="D10">
-        <v>15.47328714909731</v>
+        <v>1.966604479886815E-05</v>
       </c>
       <c r="E10">
-        <v>52.56362281982193</v>
+        <v>5.388876698417995E-05</v>
       </c>
       <c r="F10">
-        <v>93.30195141875252</v>
+        <v>0.0001369878143738</v>
       </c>
       <c r="G10">
-        <v>33.73107607455654</v>
+        <v>3.993185149676517E-05</v>
       </c>
       <c r="H10">
-        <v>33.07179934676524</v>
+        <v>5.049512633105054E-05</v>
       </c>
       <c r="I10">
-        <v>78.51097127859637</v>
+        <v>0.0001100517454905</v>
       </c>
       <c r="J10">
-        <v>44.33029195889564</v>
+        <v>3.988686298593458E-05</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -3839,31 +4434,31 @@
         <v>12</v>
       </c>
       <c r="B11">
-        <v>8.3271416210219E-18</v>
+        <v>1.437067936587132E-22</v>
       </c>
       <c r="C11">
-        <v>6.105854140971341E-17</v>
+        <v>1.309016087690433E-21</v>
       </c>
       <c r="D11">
-        <v>7.027758225500953E-17</v>
+        <v>2.256438229277636E-21</v>
       </c>
       <c r="E11">
-        <v>8.498520747895415E-13</v>
+        <v>6.628831734489026E-18</v>
       </c>
       <c r="F11">
-        <v>4.353766431586224E-12</v>
+        <v>4.53035464317276E-17</v>
       </c>
       <c r="G11">
-        <v>3.005967737849542E-12</v>
+        <v>4.947961486272155E-17</v>
       </c>
       <c r="H11">
-        <v>2.301556471854365E-08</v>
+        <v>6.570543924461207E-14</v>
       </c>
       <c r="I11">
-        <v>1.245328250395177E-07</v>
+        <v>6.01047602360092E-13</v>
       </c>
       <c r="J11">
-        <v>9.782350688634171E-08</v>
+        <v>5.81045818113015E-13</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -3871,31 +4466,31 @@
         <v>13</v>
       </c>
       <c r="B12">
-        <v>14.24307562634228</v>
+        <v>2.439848310206572E-05</v>
       </c>
       <c r="C12">
-        <v>29.38971753014248</v>
+        <v>6.029054196385993E-05</v>
       </c>
       <c r="D12">
-        <v>11.63889166243308</v>
+        <v>4.539766882776083E-05</v>
       </c>
       <c r="E12">
-        <v>237.6485558579497</v>
+        <v>0.0004424188436909</v>
       </c>
       <c r="F12">
-        <v>814.9077997593239</v>
+        <v>0.0009822454837968</v>
       </c>
       <c r="G12">
-        <v>300.6208695582824</v>
+        <v>0.0002653472606915</v>
       </c>
       <c r="H12">
-        <v>538.747134493897</v>
+        <v>0.0009498200331427</v>
       </c>
       <c r="I12">
-        <v>1706.240128523705</v>
+        <v>0.0025703107521284</v>
       </c>
       <c r="J12">
-        <v>1232.665220121221</v>
+        <v>0.0016653277367716</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -3903,31 +4498,31 @@
         <v>14</v>
       </c>
       <c r="B13">
-        <v>2.730022425528033E-18</v>
+        <v>5.510839318161725E-24</v>
       </c>
       <c r="C13">
-        <v>9.981232252068212E-18</v>
+        <v>7.994669293486558E-23</v>
       </c>
       <c r="D13">
-        <v>8.383428053947849E-18</v>
+        <v>6.639792887690852E-23</v>
       </c>
       <c r="E13">
-        <v>2.206639529509736E-17</v>
+        <v>1.426290301718288E-22</v>
       </c>
       <c r="F13">
-        <v>1.598600353837682E-16</v>
+        <v>6.856427960971323E-22</v>
       </c>
       <c r="G13">
-        <v>1.343085606744664E-16</v>
+        <v>7.078978504791309E-22</v>
       </c>
       <c r="H13">
-        <v>2.199052034911125E-12</v>
+        <v>1.64606843899821E-18</v>
       </c>
       <c r="I13">
-        <v>6.158598637454915E-12</v>
+        <v>2.050911839215849E-17</v>
       </c>
       <c r="J13">
-        <v>3.175649226295521E-12</v>
+        <v>1.257966480226074E-17</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -3935,31 +4530,31 @@
         <v>15</v>
       </c>
       <c r="B14">
-        <v>6001742.468191051</v>
+        <v>3.230732811136068</v>
       </c>
       <c r="C14">
-        <v>10093492.46865856</v>
+        <v>5.492156778681979</v>
       </c>
       <c r="D14">
-        <v>2658383.139965006</v>
+        <v>1.430331305928694</v>
       </c>
       <c r="E14">
-        <v>8684026.013020867</v>
+        <v>3.500666207806866</v>
       </c>
       <c r="F14">
-        <v>12640527.93406397</v>
+        <v>4.981978306899354</v>
       </c>
       <c r="G14">
-        <v>3831496.887612024</v>
+        <v>0.8296389444971047</v>
       </c>
       <c r="H14">
-        <v>5934435.738825846</v>
+        <v>3.119671763183711</v>
       </c>
       <c r="I14">
-        <v>11578174.24178423</v>
+        <v>5.521947573934951</v>
       </c>
       <c r="J14">
-        <v>3761267.532281374</v>
+        <v>1.290898322242092</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -3967,31 +4562,31 @@
         <v>16</v>
       </c>
       <c r="B15">
-        <v>1249304948.01531</v>
+        <v>270.4757313578741</v>
       </c>
       <c r="C15">
-        <v>2010463098.165662</v>
+        <v>340.1814466052978</v>
       </c>
       <c r="D15">
-        <v>610690709.8804911</v>
+        <v>82.935195766623</v>
       </c>
       <c r="E15">
-        <v>1119230470.397018</v>
+        <v>219.0561844033651</v>
       </c>
       <c r="F15">
-        <v>1780852848.316327</v>
+        <v>329.7571386948985</v>
       </c>
       <c r="G15">
-        <v>573709689.4406939</v>
+        <v>68.48819934536714</v>
       </c>
       <c r="H15">
-        <v>2774921823.989355</v>
+        <v>496.0414816907314</v>
       </c>
       <c r="I15">
-        <v>4094101398.468428</v>
+        <v>580.7801993678186</v>
       </c>
       <c r="J15">
-        <v>995404381.5760972</v>
+        <v>57.76849137288263</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -3999,31 +4594,31 @@
         <v>17</v>
       </c>
       <c r="B16">
-        <v>1.85839287437116E-29</v>
+        <v>4.344591320502256E-34</v>
       </c>
       <c r="C16">
-        <v>1.234685952536018E-28</v>
+        <v>2.195971436656086E-32</v>
       </c>
       <c r="D16">
-        <v>9.852099114663756E-29</v>
+        <v>5.404103110400237E-32</v>
       </c>
       <c r="E16">
-        <v>2.458053584554919E-29</v>
+        <v>1.629595184144889E-34</v>
       </c>
       <c r="F16">
-        <v>1.773133910700136E-28</v>
+        <v>2.490814236553239E-32</v>
       </c>
       <c r="G16">
-        <v>1.907206139945268E-28</v>
+        <v>4.327803187151695E-32</v>
       </c>
       <c r="H16">
-        <v>3.849089839139819E-26</v>
+        <v>2.728603894944719E-31</v>
       </c>
       <c r="I16">
-        <v>5.187177737015407E-23</v>
+        <v>2.032739078728558E-27</v>
       </c>
       <c r="J16">
-        <v>1.55030586930799E-22</v>
+        <v>5.492225727825454E-27</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -4031,31 +4626,31 @@
         <v>18</v>
       </c>
       <c r="B17">
-        <v>0.0022965418894385</v>
+        <v>3.223938508801504E-09</v>
       </c>
       <c r="C17">
-        <v>0.0047563154246238</v>
+        <v>8.754430591313765E-09</v>
       </c>
       <c r="D17">
-        <v>0.0019287249036088</v>
+        <v>5.721413634866757E-09</v>
       </c>
       <c r="E17">
-        <v>0.0020465606836932</v>
+        <v>3.431669161035278E-09</v>
       </c>
       <c r="F17">
-        <v>0.0054605136025378</v>
+        <v>7.790556039265608E-09</v>
       </c>
       <c r="G17">
-        <v>0.0029500343917766</v>
+        <v>3.4817004795921E-09</v>
       </c>
       <c r="H17">
-        <v>0.0017622672248708</v>
+        <v>5.481887404002612E-09</v>
       </c>
       <c r="I17">
-        <v>0.0042559404604398</v>
+        <v>7.997899723439464E-09</v>
       </c>
       <c r="J17">
-        <v>0.0031276132641161</v>
+        <v>2.145796145320206E-09</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -4177,31 +4772,31 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>3.007286573200118E-17</v>
+        <v>5.428039434881842E-09</v>
       </c>
       <c r="C3">
-        <v>1.994974571383145E-16</v>
+        <v>3.088537419489776E-08</v>
       </c>
       <c r="D3">
-        <v>1.545434377486612E-16</v>
+        <v>2.03645289098476E-08</v>
       </c>
       <c r="E3">
-        <v>2.308709527784296E-15</v>
+        <v>1.764069210080799E-07</v>
       </c>
       <c r="F3">
-        <v>6.037207845604174E-15</v>
+        <v>7.640376648889482E-07</v>
       </c>
       <c r="G3">
-        <v>2.899340595746329E-15</v>
+        <v>4.977552457883039E-07</v>
       </c>
       <c r="H3">
-        <v>2.277712296530663E-10</v>
+        <v>0.0362367688402818</v>
       </c>
       <c r="I3">
-        <v>7.306242184464706E-10</v>
+        <v>0.1058404446552333</v>
       </c>
       <c r="J3">
-        <v>3.899846358228698E-10</v>
+        <v>0.0751146129466114</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -4209,31 +4804,31 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>1.056916892204318E-18</v>
+        <v>2.212845904388846E-10</v>
       </c>
       <c r="C4">
-        <v>7.746615893440869E-18</v>
+        <v>1.197568872940267E-09</v>
       </c>
       <c r="D4">
-        <v>6.271313819207769E-18</v>
+        <v>7.957047492356426E-10</v>
       </c>
       <c r="E4">
-        <v>3.800652173886551E-16</v>
+        <v>1.114564271223758E-07</v>
       </c>
       <c r="F4">
-        <v>2.356317469623448E-15</v>
+        <v>5.107796260877548E-07</v>
       </c>
       <c r="G4">
-        <v>1.466239456704547E-15</v>
+        <v>3.395037529606468E-07</v>
       </c>
       <c r="H4">
-        <v>1.137479628413819E-10</v>
+        <v>0.014924652727992</v>
       </c>
       <c r="I4">
-        <v>3.638369044853337E-10</v>
+        <v>0.0659783970146159</v>
       </c>
       <c r="J4">
-        <v>2.405798909240626E-10</v>
+        <v>0.0483863105672211</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -4241,31 +4836,31 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>8.616849120350259E-06</v>
+        <v>1330.993735038389</v>
       </c>
       <c r="C5">
-        <v>2.286644007121536E-05</v>
+        <v>2904.404365608255</v>
       </c>
       <c r="D5">
-        <v>1.1473808598831E-05</v>
+        <v>1108.201383893368</v>
       </c>
       <c r="E5">
-        <v>3.828239932832168E-05</v>
+        <v>8470.98949042934</v>
       </c>
       <c r="F5">
-        <v>8.884526929361119E-05</v>
+        <v>11928.15145223406</v>
       </c>
       <c r="G5">
-        <v>3.904903788795021E-05</v>
+        <v>2416.921412101032</v>
       </c>
       <c r="H5">
-        <v>7.165221995348949E-05</v>
+        <v>17550.67987049862</v>
       </c>
       <c r="I5">
-        <v>0.0001369411900164</v>
+        <v>24370.45769842217</v>
       </c>
       <c r="J5">
-        <v>4.079528950489716E-05</v>
+        <v>4045.576933582767</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -4273,31 +4868,31 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>1.940600543348511E-20</v>
+        <v>2.702090291108928E-13</v>
       </c>
       <c r="C6">
-        <v>6.966016573190421E-20</v>
+        <v>7.601326358985126E-12</v>
       </c>
       <c r="D6">
-        <v>3.19423661286138E-20</v>
+        <v>5.977128114471677E-12</v>
       </c>
       <c r="E6">
-        <v>2.281220482279518E-19</v>
+        <v>1.553289260031898E-11</v>
       </c>
       <c r="F6">
-        <v>1.205628870717451E-18</v>
+        <v>2.266258365678062E-10</v>
       </c>
       <c r="G6">
-        <v>8.106374911936896E-19</v>
+        <v>2.494514931556305E-10</v>
       </c>
       <c r="H6">
-        <v>8.566888453380333E-14</v>
+        <v>4.051585283042003E-06</v>
       </c>
       <c r="I6">
-        <v>2.444782892693955E-13</v>
+        <v>1.172894780946004E-05</v>
       </c>
       <c r="J6">
-        <v>1.265336745779223E-13</v>
+        <v>4.992997778282319E-06</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -4305,31 +4900,31 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>5.442464491926928E-21</v>
+        <v>6.403862098137314E-13</v>
       </c>
       <c r="C7">
-        <v>2.632221018945427E-20</v>
+        <v>4.252621923768091E-12</v>
       </c>
       <c r="D7">
-        <v>1.415044251959507E-20</v>
+        <v>4.127931816500735E-12</v>
       </c>
       <c r="E7">
-        <v>7.485855084592166E-19</v>
+        <v>1.363742482211675E-10</v>
       </c>
       <c r="F7">
-        <v>8.164702636152578E-18</v>
+        <v>1.057573133458666E-09</v>
       </c>
       <c r="G7">
-        <v>6.049473000335044E-18</v>
+        <v>1.146115549050991E-09</v>
       </c>
       <c r="H7">
-        <v>1.410383597678826E-13</v>
+        <v>2.384953224671638E-05</v>
       </c>
       <c r="I7">
-        <v>9.841847318217289E-13</v>
+        <v>0.0001170746936342</v>
       </c>
       <c r="J7">
-        <v>5.095008524265428E-13</v>
+        <v>5.694626526564869E-05</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -4337,31 +4932,31 @@
         <v>9</v>
       </c>
       <c r="B8">
-        <v>0.2833289133611261</v>
+        <v>52028760.09658844</v>
       </c>
       <c r="C8">
-        <v>0.3690333729708138</v>
+        <v>74430700.38804051</v>
       </c>
       <c r="D8">
-        <v>0.09404385812680929</v>
+        <v>20738989.75000695</v>
       </c>
       <c r="E8">
-        <v>0.3578472873476241</v>
+        <v>71181499.43946621</v>
       </c>
       <c r="F8">
-        <v>0.5903670262115401</v>
+        <v>107707196.07329</v>
       </c>
       <c r="G8">
-        <v>0.1270128218995317</v>
+        <v>21253979.96412607</v>
       </c>
       <c r="H8">
-        <v>0.7095210870088744</v>
+        <v>241726326.2272126</v>
       </c>
       <c r="I8">
-        <v>1.371611097382977</v>
+        <v>327371318.24709</v>
       </c>
       <c r="J8">
-        <v>0.4126524816743347</v>
+        <v>56585030.03030574</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -4369,31 +4964,31 @@
         <v>10</v>
       </c>
       <c r="B9">
-        <v>1.006783916222208E-24</v>
+        <v>2.882355487925816E-16</v>
       </c>
       <c r="C9">
-        <v>7.336099010125997E-24</v>
+        <v>1.369732515585648E-15</v>
       </c>
       <c r="D9">
-        <v>5.262547607725792E-24</v>
+        <v>1.429596588859681E-15</v>
       </c>
       <c r="E9">
-        <v>7.16754902058369E-22</v>
+        <v>1.569558391139776E-13</v>
       </c>
       <c r="F9">
-        <v>2.275795161714116E-21</v>
+        <v>7.802823050026735E-13</v>
       </c>
       <c r="G9">
-        <v>1.960337044273105E-21</v>
+        <v>6.403249288023453E-13</v>
       </c>
       <c r="H9">
-        <v>2.534599723253474E-17</v>
+        <v>1.598630513550628E-09</v>
       </c>
       <c r="I9">
-        <v>1.647414137043206E-16</v>
+        <v>1.416671994768534E-08</v>
       </c>
       <c r="J9">
-        <v>1.261620146097953E-16</v>
+        <v>7.54217389984133E-09</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -4401,31 +4996,31 @@
         <v>11</v>
       </c>
       <c r="B10">
-        <v>1.090554514869068E-07</v>
+        <v>12.5417645977716</v>
       </c>
       <c r="C10">
-        <v>1.792728763148427E-07</v>
+        <v>33.63383595439903</v>
       </c>
       <c r="D10">
-        <v>4.891771549516728E-08</v>
+        <v>15.47328714909731</v>
       </c>
       <c r="E10">
-        <v>3.627696412488798E-07</v>
+        <v>52.56362281982193</v>
       </c>
       <c r="F10">
-        <v>7.073887354497579E-07</v>
+        <v>93.30195141875252</v>
       </c>
       <c r="G10">
-        <v>2.120671396462591E-07</v>
+        <v>33.73107607455654</v>
       </c>
       <c r="H10">
-        <v>2.914403121239521E-07</v>
+        <v>33.07179934676524</v>
       </c>
       <c r="I10">
-        <v>5.731644128993606E-07</v>
+        <v>78.51097127859637</v>
       </c>
       <c r="J10">
-        <v>1.713073193204392E-07</v>
+        <v>44.33029195889564</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -4433,31 +5028,31 @@
         <v>12</v>
       </c>
       <c r="B11">
-        <v>2.07912802290602E-26</v>
+        <v>8.3271416210219E-18</v>
       </c>
       <c r="C11">
-        <v>4.619603201241836E-25</v>
+        <v>6.105854140971341E-17</v>
       </c>
       <c r="D11">
-        <v>4.680338470332439E-25</v>
+        <v>7.027758225500953E-17</v>
       </c>
       <c r="E11">
-        <v>1.883342471910782E-21</v>
+        <v>8.498520747895415E-13</v>
       </c>
       <c r="F11">
-        <v>2.871632631024653E-20</v>
+        <v>4.353766431586224E-12</v>
       </c>
       <c r="G11">
-        <v>2.822501564796691E-20</v>
+        <v>3.005967737849542E-12</v>
       </c>
       <c r="H11">
-        <v>3.732084123207584E-16</v>
+        <v>2.301556471854365E-08</v>
       </c>
       <c r="I11">
-        <v>1.43890126345455E-15</v>
+        <v>1.245328250395177E-07</v>
       </c>
       <c r="J11">
-        <v>9.487858277703317E-16</v>
+        <v>9.782350688634171E-08</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -4465,31 +5060,31 @@
         <v>13</v>
       </c>
       <c r="B12">
-        <v>6.682725880781523E-08</v>
+        <v>14.24307562634228</v>
       </c>
       <c r="C12">
-        <v>2.069402830493006E-07</v>
+        <v>29.38971753014248</v>
       </c>
       <c r="D12">
-        <v>1.094216091486997E-07</v>
+        <v>11.63889166243308</v>
       </c>
       <c r="E12">
-        <v>2.737097294153447E-06</v>
+        <v>237.6485558579497</v>
       </c>
       <c r="F12">
-        <v>5.665842435923294E-06</v>
+        <v>814.9077997593239</v>
       </c>
       <c r="G12">
-        <v>2.34500501918846E-06</v>
+        <v>300.6208695582824</v>
       </c>
       <c r="H12">
-        <v>5.127958121484851E-06</v>
+        <v>538.747134493897</v>
       </c>
       <c r="I12">
-        <v>9.490051909534645E-06</v>
+        <v>1706.240128523705</v>
       </c>
       <c r="J12">
-        <v>3.342524711855649E-06</v>
+        <v>1232.665220121221</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -4497,31 +5092,31 @@
         <v>14</v>
       </c>
       <c r="B13">
-        <v>2.405991891047021E-26</v>
+        <v>2.730022425528033E-18</v>
       </c>
       <c r="C13">
-        <v>1.690315668307012E-25</v>
+        <v>9.981232252068212E-18</v>
       </c>
       <c r="D13">
-        <v>1.119020359441704E-25</v>
+        <v>8.383428053947849E-18</v>
       </c>
       <c r="E13">
-        <v>2.780871573863777E-25</v>
+        <v>2.206639529509736E-17</v>
       </c>
       <c r="F13">
-        <v>1.072421354009811E-24</v>
+        <v>1.598600353837682E-16</v>
       </c>
       <c r="G13">
-        <v>6.848210008746281E-25</v>
+        <v>1.343085606744664E-16</v>
       </c>
       <c r="H13">
-        <v>1.284008886741986E-20</v>
+        <v>2.199052034911125E-12</v>
       </c>
       <c r="I13">
-        <v>3.151937007021174E-20</v>
+        <v>6.158598637454915E-12</v>
       </c>
       <c r="J13">
-        <v>1.942171556944857E-20</v>
+        <v>3.175649226295521E-12</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -4529,31 +5124,31 @@
         <v>15</v>
       </c>
       <c r="B14">
-        <v>0.044645985909991</v>
+        <v>6001742.468191051</v>
       </c>
       <c r="C14">
-        <v>0.0726908115036307</v>
+        <v>10093492.46865856</v>
       </c>
       <c r="D14">
-        <v>0.0198700443489961</v>
+        <v>2658383.139965006</v>
       </c>
       <c r="E14">
-        <v>0.0353307516340993</v>
+        <v>8684026.013020867</v>
       </c>
       <c r="F14">
-        <v>0.0599459207996247</v>
+        <v>12640527.93406397</v>
       </c>
       <c r="G14">
-        <v>0.0147446530929478</v>
+        <v>3831496.887612024</v>
       </c>
       <c r="H14">
-        <v>0.0408035703681895</v>
+        <v>5934435.738825846</v>
       </c>
       <c r="I14">
-        <v>0.07332827871277429</v>
+        <v>11578174.24178423</v>
       </c>
       <c r="J14">
-        <v>0.0209101440162965</v>
+        <v>3761267.532281374</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -4561,31 +5156,31 @@
         <v>16</v>
       </c>
       <c r="B15">
-        <v>5.036896883351392</v>
+        <v>1249304948.01531</v>
       </c>
       <c r="C15">
-        <v>6.69680154956774</v>
+        <v>2010463098.165662</v>
       </c>
       <c r="D15">
-        <v>1.246655900229517</v>
+        <v>610690709.8804911</v>
       </c>
       <c r="E15">
-        <v>4.268006926096276</v>
+        <v>1119230470.397018</v>
       </c>
       <c r="F15">
-        <v>7.091832695192032</v>
+        <v>1780852848.316327</v>
       </c>
       <c r="G15">
-        <v>1.348663080478591</v>
+        <v>573709689.4406939</v>
       </c>
       <c r="H15">
-        <v>11.84883798576276</v>
+        <v>2774921823.989355</v>
       </c>
       <c r="I15">
-        <v>15.81676377879126</v>
+        <v>4094101398.468428</v>
       </c>
       <c r="J15">
-        <v>3.187082033717934</v>
+        <v>995404381.5760972</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -4593,31 +5188,31 @@
         <v>17</v>
       </c>
       <c r="B16">
-        <v>9.800787801677589E-38</v>
+        <v>1.85839287437116E-29</v>
       </c>
       <c r="C16">
-        <v>8.422411874358934E-37</v>
+        <v>1.234685952536018E-28</v>
       </c>
       <c r="D16">
-        <v>6.597703864087875E-37</v>
+        <v>9.852099114663756E-29</v>
       </c>
       <c r="E16">
-        <v>6.674092503333802E-38</v>
+        <v>2.458053584554919E-29</v>
       </c>
       <c r="F16">
-        <v>5.805990550537052E-37</v>
+        <v>1.773133910700136E-28</v>
       </c>
       <c r="G16">
-        <v>3.132788626023014E-37</v>
+        <v>1.907206139945268E-28</v>
       </c>
       <c r="H16">
-        <v>9.988902951805922E-35</v>
+        <v>3.849089839139819E-26</v>
       </c>
       <c r="I16">
-        <v>1.072592225538141E-33</v>
+        <v>5.187177737015407E-23</v>
       </c>
       <c r="J16">
-        <v>1.007048043771572E-33</v>
+        <v>1.55030586930799E-22</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -4625,31 +5220,31 @@
         <v>18</v>
       </c>
       <c r="B17">
-        <v>1.730747433805299E-11</v>
+        <v>0.0022965418894385</v>
       </c>
       <c r="C17">
-        <v>2.698465723760156E-11</v>
+        <v>0.0047563154246238</v>
       </c>
       <c r="D17">
-        <v>6.557713355929853E-12</v>
+        <v>0.0019287249036088</v>
       </c>
       <c r="E17">
-        <v>1.081879749063515E-11</v>
+        <v>0.0020465606836932</v>
       </c>
       <c r="F17">
-        <v>2.79043621842109E-11</v>
+        <v>0.0054605136025378</v>
       </c>
       <c r="G17">
-        <v>1.635125377208793E-11</v>
+        <v>0.0029500343917766</v>
       </c>
       <c r="H17">
-        <v>6.898887711216883E-12</v>
+        <v>0.0017622672248708</v>
       </c>
       <c r="I17">
-        <v>2.305440191137654E-11</v>
+        <v>0.0042559404604398</v>
       </c>
       <c r="J17">
-        <v>1.245028690637071E-11</v>
+        <v>0.0031276132641161</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -4771,31 +5366,31 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>15.0805837154248</v>
+        <v>3.007286573200118E-17</v>
       </c>
       <c r="C3">
-        <v>29.11092828206288</v>
+        <v>1.994974571383145E-16</v>
       </c>
       <c r="D3">
-        <v>24.75140679709235</v>
+        <v>1.545434377486612E-16</v>
       </c>
       <c r="E3">
-        <v>17.0151113615816</v>
+        <v>2.308709527784296E-15</v>
       </c>
       <c r="F3">
-        <v>17.92187651084494</v>
+        <v>6.037207845604174E-15</v>
       </c>
       <c r="G3">
-        <v>0.5619544420404654</v>
+        <v>2.899340595746329E-15</v>
       </c>
       <c r="H3">
-        <v>21.57091615884775</v>
+        <v>2.277712296530663E-10</v>
       </c>
       <c r="I3">
-        <v>30.38288311603582</v>
+        <v>7.306242184464706E-10</v>
       </c>
       <c r="J3">
-        <v>23.22867433816588</v>
+        <v>3.899846358228698E-10</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -4803,31 +5398,31 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>13.25651299627004</v>
+        <v>1.056916892204318E-18</v>
       </c>
       <c r="C4">
-        <v>21.45629952887452</v>
+        <v>7.746615893440869E-18</v>
       </c>
       <c r="D4">
-        <v>17.43837544124043</v>
+        <v>6.271313819207769E-18</v>
       </c>
       <c r="E4">
-        <v>15.90655864896994</v>
+        <v>3.800652173886551E-16</v>
       </c>
       <c r="F4">
-        <v>22.94950809526593</v>
+        <v>2.356317469623448E-15</v>
       </c>
       <c r="G4">
-        <v>18.40293828194501</v>
+        <v>1.466239456704547E-15</v>
       </c>
       <c r="H4">
-        <v>20.26781559881732</v>
+        <v>1.137479628413819E-10</v>
       </c>
       <c r="I4">
-        <v>22.39991405899656</v>
+        <v>3.638369044853337E-10</v>
       </c>
       <c r="J4">
-        <v>0.9071137564586512</v>
+        <v>2.405798909240626E-10</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -4835,31 +5430,31 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>27.47567034958548</v>
+        <v>8.616849120350259E-06</v>
       </c>
       <c r="C5">
-        <v>30.10098294929461</v>
+        <v>2.286644007121536E-05</v>
       </c>
       <c r="D5">
-        <v>2.826598150188909</v>
+        <v>1.1473808598831E-05</v>
       </c>
       <c r="E5">
-        <v>74.97089526756429</v>
+        <v>3.828239932832168E-05</v>
       </c>
       <c r="F5">
-        <v>143.1174887203105</v>
+        <v>8.884526929361119E-05</v>
       </c>
       <c r="G5">
-        <v>40.9407351066113</v>
+        <v>3.904903788795021E-05</v>
       </c>
       <c r="H5">
-        <v>96.80342559027928</v>
+        <v>7.165221995348949E-05</v>
       </c>
       <c r="I5">
-        <v>210.5232071867974</v>
+        <v>0.0001369411900164</v>
       </c>
       <c r="J5">
-        <v>65.57719095209255</v>
+        <v>4.079528950489716E-05</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -4867,31 +5462,31 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>13.31013237105576</v>
+        <v>1.940600543348511E-20</v>
       </c>
       <c r="C6">
-        <v>15.72820079673961</v>
+        <v>6.966016573190421E-20</v>
       </c>
       <c r="D6">
-        <v>1.270099671707808</v>
+        <v>3.19423661286138E-20</v>
       </c>
       <c r="E6">
-        <v>14.56707899070342</v>
+        <v>2.281220482279518E-19</v>
       </c>
       <c r="F6">
-        <v>16.3245511308608</v>
+        <v>1.205628870717451E-18</v>
       </c>
       <c r="G6">
-        <v>1.041994117314667</v>
+        <v>8.106374911936896E-19</v>
       </c>
       <c r="H6">
-        <v>15.77754839478677</v>
+        <v>8.566888453380333E-14</v>
       </c>
       <c r="I6">
-        <v>18.07290537723251</v>
+        <v>2.444782892693955E-13</v>
       </c>
       <c r="J6">
-        <v>0.9014092154789368</v>
+        <v>1.265336745779223E-13</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -4899,31 +5494,31 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>10.679714547679</v>
+        <v>5.442464491926928E-21</v>
       </c>
       <c r="C7">
-        <v>19.17845898614703</v>
+        <v>2.632221018945427E-20</v>
       </c>
       <c r="D7">
-        <v>18.78111581564713</v>
+        <v>1.415044251959507E-20</v>
       </c>
       <c r="E7">
-        <v>13.034498019752</v>
+        <v>7.485855084592166E-19</v>
       </c>
       <c r="F7">
-        <v>21.48369167822421</v>
+        <v>8.164702636152578E-18</v>
       </c>
       <c r="G7">
-        <v>18.99985420187157</v>
+        <v>6.049473000335044E-18</v>
       </c>
       <c r="H7">
-        <v>16.68177186677563</v>
+        <v>1.410383597678826E-13</v>
       </c>
       <c r="I7">
-        <v>18.65118408851459</v>
+        <v>9.841847318217289E-13</v>
       </c>
       <c r="J7">
-        <v>2.113992910820427</v>
+        <v>5.095008524265428E-13</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -4931,31 +5526,31 @@
         <v>9</v>
       </c>
       <c r="B8">
-        <v>834.790828758931</v>
+        <v>0.2833289133611261</v>
       </c>
       <c r="C8">
-        <v>51003.72547283345</v>
+        <v>0.3690333729708138</v>
       </c>
       <c r="D8">
-        <v>93495.0512643907</v>
+        <v>0.09404385812680929</v>
       </c>
       <c r="E8">
-        <v>1337404.637642736</v>
+        <v>0.3578472873476241</v>
       </c>
       <c r="F8">
-        <v>4851150.162023966</v>
+        <v>0.5903670262115401</v>
       </c>
       <c r="G8">
-        <v>2794292.131877968</v>
+        <v>0.1270128218995317</v>
       </c>
       <c r="H8">
-        <v>10301205.24161594</v>
+        <v>0.7095210870088744</v>
       </c>
       <c r="I8">
-        <v>24549148.88227336</v>
+        <v>1.371611097382977</v>
       </c>
       <c r="J8">
-        <v>11995011.47771314</v>
+        <v>0.4126524816743347</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -4963,31 +5558,31 @@
         <v>10</v>
       </c>
       <c r="B9">
-        <v>9.660799980801231</v>
+        <v>1.006783916222208E-24</v>
       </c>
       <c r="C9">
-        <v>17.91921176113657</v>
+        <v>7.336099010125997E-24</v>
       </c>
       <c r="D9">
-        <v>17.47499350918865</v>
+        <v>5.262547607725792E-24</v>
       </c>
       <c r="E9">
-        <v>10.48675369319072</v>
+        <v>7.16754902058369E-22</v>
       </c>
       <c r="F9">
-        <v>19.64419706925925</v>
+        <v>2.275795161714116E-21</v>
       </c>
       <c r="G9">
-        <v>19.15045574282816</v>
+        <v>1.960337044273105E-21</v>
       </c>
       <c r="H9">
-        <v>15.12145480569965</v>
+        <v>2.534599723253474E-17</v>
       </c>
       <c r="I9">
-        <v>22.20246348004148</v>
+        <v>1.647414137043206E-16</v>
       </c>
       <c r="J9">
-        <v>18.66145367280212</v>
+        <v>1.261620146097953E-16</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -4995,31 +5590,31 @@
         <v>11</v>
       </c>
       <c r="B10">
-        <v>25.32029513280652</v>
+        <v>1.090554514869068E-07</v>
       </c>
       <c r="C10">
-        <v>26.66228555906899</v>
+        <v>1.792728763148427E-07</v>
       </c>
       <c r="D10">
-        <v>0.6667346776832566</v>
+        <v>4.891771549516728E-08</v>
       </c>
       <c r="E10">
-        <v>27.30262105754396</v>
+        <v>3.627696412488798E-07</v>
       </c>
       <c r="F10">
-        <v>29.22679754243826</v>
+        <v>7.073887354497579E-07</v>
       </c>
       <c r="G10">
-        <v>1.137457095897893</v>
+        <v>2.120671396462591E-07</v>
       </c>
       <c r="H10">
-        <v>28.09116277349813</v>
+        <v>2.914403121239521E-07</v>
       </c>
       <c r="I10">
-        <v>29.78227174072033</v>
+        <v>5.731644128993606E-07</v>
       </c>
       <c r="J10">
-        <v>2.150052687907059</v>
+        <v>1.713073193204392E-07</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -5027,31 +5622,31 @@
         <v>12</v>
       </c>
       <c r="B11">
-        <v>8.067743476915938</v>
+        <v>2.07912802290602E-26</v>
       </c>
       <c r="C11">
-        <v>11.0538768230902</v>
+        <v>4.619603201241836E-25</v>
       </c>
       <c r="D11">
-        <v>1.993925735840596</v>
+        <v>4.680338470332439E-25</v>
       </c>
       <c r="E11">
-        <v>10.44882104562728</v>
+        <v>1.883342471910782E-21</v>
       </c>
       <c r="F11">
-        <v>17.64998689337393</v>
+        <v>2.871632631024653E-20</v>
       </c>
       <c r="G11">
-        <v>19.00897237802881</v>
+        <v>2.822501564796691E-20</v>
       </c>
       <c r="H11">
-        <v>12.9999670990641</v>
+        <v>3.732084123207584E-16</v>
       </c>
       <c r="I11">
-        <v>21.07890610842709</v>
+        <v>1.43890126345455E-15</v>
       </c>
       <c r="J11">
-        <v>18.15902708125014</v>
+        <v>9.487858277703317E-16</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -5059,31 +5654,31 @@
         <v>13</v>
       </c>
       <c r="B12">
-        <v>24.46729064762545</v>
+        <v>6.682725880781523E-08</v>
       </c>
       <c r="C12">
-        <v>25.46205661494868</v>
+        <v>2.069402830493006E-07</v>
       </c>
       <c r="D12">
-        <v>0.4586664120517805</v>
+        <v>1.094216091486997E-07</v>
       </c>
       <c r="E12">
-        <v>30.17423229900437</v>
+        <v>2.737097294153447E-06</v>
       </c>
       <c r="F12">
-        <v>42.10590419376875</v>
+        <v>5.665842435923294E-06</v>
       </c>
       <c r="G12">
-        <v>9.187822149374661</v>
+        <v>2.34500501918846E-06</v>
       </c>
       <c r="H12">
-        <v>32.11122496794394</v>
+        <v>5.127958121484851E-06</v>
       </c>
       <c r="I12">
-        <v>40.85846270907275</v>
+        <v>9.490051909534645E-06</v>
       </c>
       <c r="J12">
-        <v>7.587751317075575</v>
+        <v>3.342524711855649E-06</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -5091,31 +5686,31 @@
         <v>14</v>
       </c>
       <c r="B13">
-        <v>10.09163554153904</v>
+        <v>2.405991891047021E-26</v>
       </c>
       <c r="C13">
-        <v>19.39331254598705</v>
+        <v>1.690315668307012E-25</v>
       </c>
       <c r="D13">
-        <v>20.61206977759238</v>
+        <v>1.119020359441704E-25</v>
       </c>
       <c r="E13">
-        <v>9.893219532537517</v>
+        <v>2.780871573863777E-25</v>
       </c>
       <c r="F13">
-        <v>12.98418541158872</v>
+        <v>1.072421354009811E-24</v>
       </c>
       <c r="G13">
-        <v>2.135858479470424</v>
+        <v>6.848210008746281E-25</v>
       </c>
       <c r="H13">
-        <v>12.73394408071547</v>
+        <v>1.284008886741986E-20</v>
       </c>
       <c r="I13">
-        <v>15.48682950858392</v>
+        <v>3.151937007021174E-20</v>
       </c>
       <c r="J13">
-        <v>1.735832733163284</v>
+        <v>1.942171556944857E-20</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -5123,31 +5718,31 @@
         <v>15</v>
       </c>
       <c r="B14">
-        <v>72594.08158660858</v>
+        <v>0.044645985909991</v>
       </c>
       <c r="C14">
-        <v>241070.8125841325</v>
+        <v>0.0726908115036307</v>
       </c>
       <c r="D14">
-        <v>92263.80707340584</v>
+        <v>0.0198700443489961</v>
       </c>
       <c r="E14">
-        <v>67265.6650995018</v>
+        <v>0.0353307516340993</v>
       </c>
       <c r="F14">
-        <v>250576.2061277525</v>
+        <v>0.0599459207996247</v>
       </c>
       <c r="G14">
-        <v>162138.777796223</v>
+        <v>0.0147446530929478</v>
       </c>
       <c r="H14">
-        <v>135591.6527868082</v>
+        <v>0.0408035703681895</v>
       </c>
       <c r="I14">
-        <v>293046.3066449611</v>
+        <v>0.07332827871277429</v>
       </c>
       <c r="J14">
-        <v>138057.3320534963</v>
+        <v>0.0209101440162965</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -5155,31 +5750,31 @@
         <v>16</v>
       </c>
       <c r="B15">
-        <v>121645666.0114068</v>
+        <v>5.036896883351392</v>
       </c>
       <c r="C15">
-        <v>367169797.9958137</v>
+        <v>6.69680154956774</v>
       </c>
       <c r="D15">
-        <v>260889423.2250193</v>
+        <v>1.246655900229517</v>
       </c>
       <c r="E15">
-        <v>122456599.0429121</v>
+        <v>4.268006926096276</v>
       </c>
       <c r="F15">
-        <v>297884142.7594155</v>
+        <v>7.091832695192032</v>
       </c>
       <c r="G15">
-        <v>152383084.4079549</v>
+        <v>1.348663080478591</v>
       </c>
       <c r="H15">
-        <v>417563995.4345459</v>
+        <v>11.84883798576276</v>
       </c>
       <c r="I15">
-        <v>1057612152.583114</v>
+        <v>15.81676377879126</v>
       </c>
       <c r="J15">
-        <v>353345024.9867525</v>
+        <v>3.187082033717934</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -5187,31 +5782,31 @@
         <v>17</v>
       </c>
       <c r="B16">
-        <v>17.4405560587441</v>
+        <v>9.800787801677589E-38</v>
       </c>
       <c r="C16">
-        <v>24.57657440935361</v>
+        <v>8.422411874358934E-37</v>
       </c>
       <c r="D16">
-        <v>16.22935873385084</v>
+        <v>6.597703864087875E-37</v>
       </c>
       <c r="E16">
-        <v>11.84433160658868</v>
+        <v>6.674092503333802E-38</v>
       </c>
       <c r="F16">
-        <v>21.81092667548784</v>
+        <v>5.805990550537052E-37</v>
       </c>
       <c r="G16">
-        <v>16.15355246978632</v>
+        <v>3.132788626023014E-37</v>
       </c>
       <c r="H16">
-        <v>12.26292003546359</v>
+        <v>9.988902951805922E-35</v>
       </c>
       <c r="I16">
-        <v>24.35064253347011</v>
+        <v>1.072592225538141E-33</v>
       </c>
       <c r="J16">
-        <v>16.56839703905457</v>
+        <v>1.007048043771572E-33</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -5219,31 +5814,31 @@
         <v>18</v>
       </c>
       <c r="B17">
-        <v>20.99344683103874</v>
+        <v>1.730747433805299E-11</v>
       </c>
       <c r="C17">
-        <v>21.93527452076694</v>
+        <v>2.698465723760156E-11</v>
       </c>
       <c r="D17">
-        <v>0.6936207438146781</v>
+        <v>6.557713355929853E-12</v>
       </c>
       <c r="E17">
-        <v>21.48196479483645</v>
+        <v>1.081879749063515E-11</v>
       </c>
       <c r="F17">
-        <v>22.27689661498202</v>
+        <v>2.79043621842109E-11</v>
       </c>
       <c r="G17">
-        <v>0.5698130852378317</v>
+        <v>1.635125377208793E-11</v>
       </c>
       <c r="H17">
-        <v>20.82572478830578</v>
+        <v>6.898887711216883E-12</v>
       </c>
       <c r="I17">
-        <v>22.17500740091906</v>
+        <v>2.305440191137654E-11</v>
       </c>
       <c r="J17">
-        <v>0.8259358496315955</v>
+        <v>1.245028690637071E-11</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -5365,31 +5960,31 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>1.160326590365912E-08</v>
+        <v>15.0805837154248</v>
       </c>
       <c r="C3">
-        <v>2.101087588357586E-08</v>
+        <v>29.11092828206288</v>
       </c>
       <c r="D3">
-        <v>8.236960099762068E-09</v>
+        <v>24.75140679709235</v>
       </c>
       <c r="E3">
-        <v>2.81519838551958E-08</v>
+        <v>17.0151113615816</v>
       </c>
       <c r="F3">
-        <v>5.072892008683993E-08</v>
+        <v>17.92187651084494</v>
       </c>
       <c r="G3">
-        <v>1.567161643969309E-08</v>
+        <v>0.5619544420404654</v>
       </c>
       <c r="H3">
-        <v>9.857051573192166E-06</v>
+        <v>21.57091615884775</v>
       </c>
       <c r="I3">
-        <v>1.945113400161347E-05</v>
+        <v>30.38288311603582</v>
       </c>
       <c r="J3">
-        <v>8.293306215699529E-06</v>
+        <v>23.22867433816588</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -5397,31 +5992,31 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>5.883492804059642E-09</v>
+        <v>13.25651299627004</v>
       </c>
       <c r="C4">
-        <v>9.970859338181981E-09</v>
+        <v>21.45629952887452</v>
       </c>
       <c r="D4">
-        <v>4.060593852002545E-09</v>
+        <v>17.43837544124043</v>
       </c>
       <c r="E4">
-        <v>1.557684470299137E-08</v>
+        <v>15.90655864896994</v>
       </c>
       <c r="F4">
-        <v>3.791227953797716E-08</v>
+        <v>22.94950809526593</v>
       </c>
       <c r="G4">
-        <v>1.483667567716203E-08</v>
+        <v>18.40293828194501</v>
       </c>
       <c r="H4">
-        <v>6.884444076149521E-06</v>
+        <v>20.26781559881732</v>
       </c>
       <c r="I4">
-        <v>1.636790567225432E-05</v>
+        <v>22.39991405899656</v>
       </c>
       <c r="J4">
-        <v>7.365852279731402E-06</v>
+        <v>0.9071137564586512</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -5429,31 +6024,31 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>0.0038738513470555</v>
+        <v>27.47567034958548</v>
       </c>
       <c r="C5">
-        <v>0.0059085508278087</v>
+        <v>30.10098294929461</v>
       </c>
       <c r="D5">
-        <v>0.0013121882707884</v>
+        <v>2.826598150188909</v>
       </c>
       <c r="E5">
-        <v>0.0047242874975772</v>
+        <v>74.97089526756429</v>
       </c>
       <c r="F5">
-        <v>0.0073154287719251</v>
+        <v>143.1174887203105</v>
       </c>
       <c r="G5">
-        <v>0.0022167394956716</v>
+        <v>40.9407351066113</v>
       </c>
       <c r="H5">
-        <v>0.0109056206464863</v>
+        <v>96.80342559027928</v>
       </c>
       <c r="I5">
-        <v>0.0146963230970797</v>
+        <v>210.5232071867974</v>
       </c>
       <c r="J5">
-        <v>0.0029065669834643</v>
+        <v>65.57719095209255</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -5461,31 +6056,31 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>1.728786003241112E-10</v>
+        <v>13.31013237105576</v>
       </c>
       <c r="C6">
-        <v>3.564245787401888E-10</v>
+        <v>15.72820079673961</v>
       </c>
       <c r="D6">
-        <v>1.200027182594937E-10</v>
+        <v>1.270099671707808</v>
       </c>
       <c r="E6">
-        <v>4.23369783675298E-10</v>
+        <v>14.56707899070342</v>
       </c>
       <c r="F6">
-        <v>9.451511573388415E-10</v>
+        <v>16.3245511308608</v>
       </c>
       <c r="G6">
-        <v>5.024720758523043E-10</v>
+        <v>1.041994117314667</v>
       </c>
       <c r="H6">
-        <v>1.84034284700374E-07</v>
+        <v>15.77754839478677</v>
       </c>
       <c r="I6">
-        <v>3.04450999166761E-07</v>
+        <v>18.07290537723251</v>
       </c>
       <c r="J6">
-        <v>8.662478321107532E-08</v>
+        <v>0.9014092154789368</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -5493,31 +6088,31 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>1.98685512486918E-10</v>
+        <v>10.679714547679</v>
       </c>
       <c r="C7">
-        <v>4.111061713274466E-10</v>
+        <v>19.17845898614703</v>
       </c>
       <c r="D7">
-        <v>1.573913773420417E-10</v>
+        <v>18.78111581564713</v>
       </c>
       <c r="E7">
-        <v>1.034912600061944E-09</v>
+        <v>13.034498019752</v>
       </c>
       <c r="F7">
-        <v>1.65042699507012E-09</v>
+        <v>21.48369167822421</v>
       </c>
       <c r="G7">
-        <v>6.108098339228153E-10</v>
+        <v>18.99985420187157</v>
       </c>
       <c r="H7">
-        <v>4.371829440685815E-07</v>
+        <v>16.68177186677563</v>
       </c>
       <c r="I7">
-        <v>6.570917395976039E-07</v>
+        <v>18.65118408851459</v>
       </c>
       <c r="J7">
-        <v>1.910567930944699E-07</v>
+        <v>2.113992910820427</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -5525,31 +6120,31 @@
         <v>9</v>
       </c>
       <c r="B8">
-        <v>1.462747015520655</v>
+        <v>834.790828758931</v>
       </c>
       <c r="C8">
-        <v>1.881193661188681</v>
+        <v>51003.72547283345</v>
       </c>
       <c r="D8">
-        <v>0.2649822048579909</v>
+        <v>93495.0512643907</v>
       </c>
       <c r="E8">
-        <v>1.778250268803916</v>
+        <v>1337404.637642736</v>
       </c>
       <c r="F8">
-        <v>2.074994788770501</v>
+        <v>4851150.162023966</v>
       </c>
       <c r="G8">
-        <v>0.2166536549791289</v>
+        <v>2794292.131877968</v>
       </c>
       <c r="H8">
-        <v>2.394858152720144</v>
+        <v>10301205.24161594</v>
       </c>
       <c r="I8">
-        <v>2.658245698610106</v>
+        <v>24549148.88227336</v>
       </c>
       <c r="J8">
-        <v>0.2089935944820949</v>
+        <v>11995011.47771314</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -5557,31 +6152,31 @@
         <v>10</v>
       </c>
       <c r="B9">
-        <v>3.776534640564933E-12</v>
+        <v>9.660799980801231</v>
       </c>
       <c r="C9">
-        <v>9.341860618405916E-12</v>
+        <v>17.91921176113657</v>
       </c>
       <c r="D9">
-        <v>3.56954573141591E-12</v>
+        <v>17.47499350918865</v>
       </c>
       <c r="E9">
-        <v>2.05382377771457E-11</v>
+        <v>10.48675369319072</v>
       </c>
       <c r="F9">
-        <v>4.46540582288435E-11</v>
+        <v>19.64419706925925</v>
       </c>
       <c r="G9">
-        <v>2.454895501365883E-11</v>
+        <v>19.15045574282816</v>
       </c>
       <c r="H9">
-        <v>3.905835654904877E-09</v>
+        <v>15.12145480569965</v>
       </c>
       <c r="I9">
-        <v>8.714180665947423E-09</v>
+        <v>22.20246348004148</v>
       </c>
       <c r="J9">
-        <v>3.291439097312645E-09</v>
+        <v>18.66145367280212</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -5589,31 +6184,31 @@
         <v>11</v>
       </c>
       <c r="B10">
-        <v>0.0003586708943714</v>
+        <v>25.32029513280652</v>
       </c>
       <c r="C10">
-        <v>0.000586671879299</v>
+        <v>26.66228555906899</v>
       </c>
       <c r="D10">
-        <v>8.563950483037481E-05</v>
+        <v>0.6667346776832566</v>
       </c>
       <c r="E10">
-        <v>0.0004416066852783</v>
+        <v>27.30262105754396</v>
       </c>
       <c r="F10">
-        <v>0.000701467020152</v>
+        <v>29.22679754243826</v>
       </c>
       <c r="G10">
-        <v>0.0001244800611613</v>
+        <v>1.137457095897893</v>
       </c>
       <c r="H10">
-        <v>0.0003851400795227</v>
+        <v>28.09116277349813</v>
       </c>
       <c r="I10">
-        <v>0.0006104517480735999</v>
+        <v>29.78227174072033</v>
       </c>
       <c r="J10">
-        <v>0.0001385567081372</v>
+        <v>2.150052687907059</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -5621,31 +6216,31 @@
         <v>12</v>
       </c>
       <c r="B11">
-        <v>3.176126028847648E-12</v>
+        <v>8.067743476915938</v>
       </c>
       <c r="C11">
-        <v>8.190781386474555E-12</v>
+        <v>11.0538768230902</v>
       </c>
       <c r="D11">
-        <v>3.781813649027802E-12</v>
+        <v>1.993925735840596</v>
       </c>
       <c r="E11">
-        <v>5.60547164241143E-11</v>
+        <v>10.44882104562728</v>
       </c>
       <c r="F11">
-        <v>1.159229157110531E-10</v>
+        <v>17.64998689337393</v>
       </c>
       <c r="G11">
-        <v>4.376442533819848E-11</v>
+        <v>19.00897237802881</v>
       </c>
       <c r="H11">
-        <v>1.492115586643195E-08</v>
+        <v>12.9999670990641</v>
       </c>
       <c r="I11">
-        <v>3.133355939155536E-08</v>
+        <v>21.07890610842709</v>
       </c>
       <c r="J11">
-        <v>1.53626205978423E-08</v>
+        <v>18.15902708125014</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -5653,31 +6248,31 @@
         <v>13</v>
       </c>
       <c r="B12">
-        <v>0.0007144152213029</v>
+        <v>24.46729064762545</v>
       </c>
       <c r="C12">
-        <v>0.0009391848521087</v>
+        <v>25.46205661494868</v>
       </c>
       <c r="D12">
-        <v>0.0002068347462862</v>
+        <v>0.4586664120517805</v>
       </c>
       <c r="E12">
-        <v>0.0013478522187</v>
+        <v>30.17423229900437</v>
       </c>
       <c r="F12">
-        <v>0.0018751751855475</v>
+        <v>42.10590419376875</v>
       </c>
       <c r="G12">
-        <v>0.0004440343159138</v>
+        <v>9.187822149374661</v>
       </c>
       <c r="H12">
-        <v>0.0023585938720778</v>
+        <v>32.11122496794394</v>
       </c>
       <c r="I12">
-        <v>0.0031423017739037</v>
+        <v>40.85846270907275</v>
       </c>
       <c r="J12">
-        <v>0.0008323038079711</v>
+        <v>7.587751317075575</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -5685,31 +6280,31 @@
         <v>14</v>
       </c>
       <c r="B13">
-        <v>1.172395514004165E-13</v>
+        <v>10.09163554153904</v>
       </c>
       <c r="C13">
-        <v>3.321787289678469E-13</v>
+        <v>19.39331254598705</v>
       </c>
       <c r="D13">
-        <v>1.475659731364952E-13</v>
+        <v>20.61206977759238</v>
       </c>
       <c r="E13">
-        <v>3.055333763768431E-13</v>
+        <v>9.893219532537517</v>
       </c>
       <c r="F13">
-        <v>6.981082378842984E-13</v>
+        <v>12.98418541158872</v>
       </c>
       <c r="G13">
-        <v>3.173718888342817E-13</v>
+        <v>2.135858479470424</v>
       </c>
       <c r="H13">
-        <v>1.02289732240024E-10</v>
+        <v>12.73394408071547</v>
       </c>
       <c r="I13">
-        <v>1.379792280431502E-10</v>
+        <v>15.48682950858392</v>
       </c>
       <c r="J13">
-        <v>3.43195534840522E-11</v>
+        <v>1.735832733163284</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -5717,31 +6312,31 @@
         <v>15</v>
       </c>
       <c r="B14">
-        <v>0.3190186894960298</v>
+        <v>72594.08158660858</v>
       </c>
       <c r="C14">
-        <v>0.5203868057910033</v>
+        <v>241070.8125841325</v>
       </c>
       <c r="D14">
-        <v>0.1212313334922645</v>
+        <v>92263.80707340584</v>
       </c>
       <c r="E14">
-        <v>0.409255292621971</v>
+        <v>67265.6650995018</v>
       </c>
       <c r="F14">
-        <v>0.5959643103437365</v>
+        <v>250576.2061277525</v>
       </c>
       <c r="G14">
-        <v>0.1916361721967122</v>
+        <v>162138.777796223</v>
       </c>
       <c r="H14">
-        <v>0.3581149544745621</v>
+        <v>135591.6527868082</v>
       </c>
       <c r="I14">
-        <v>0.5549467652124594</v>
+        <v>293046.3066449611</v>
       </c>
       <c r="J14">
-        <v>0.1560687944884879</v>
+        <v>138057.3320534963</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -5749,31 +6344,31 @@
         <v>16</v>
       </c>
       <c r="B15">
-        <v>3.624093742503384</v>
+        <v>121645666.0114068</v>
       </c>
       <c r="C15">
-        <v>3.852946879128582</v>
+        <v>367169797.9958137</v>
       </c>
       <c r="D15">
-        <v>0.1788789798711696</v>
+        <v>260889423.2250193</v>
       </c>
       <c r="E15">
-        <v>3.451234665390647</v>
+        <v>122456599.0429121</v>
       </c>
       <c r="F15">
-        <v>3.872474771843138</v>
+        <v>297884142.7594155</v>
       </c>
       <c r="G15">
-        <v>0.1750121624610884</v>
+        <v>152383084.4079549</v>
       </c>
       <c r="H15">
-        <v>4.321862624393887</v>
+        <v>417563995.4345459</v>
       </c>
       <c r="I15">
-        <v>4.792864165696771</v>
+        <v>1057612152.583114</v>
       </c>
       <c r="J15">
-        <v>0.2613935315935601</v>
+        <v>353345024.9867525</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -5781,31 +6376,31 @@
         <v>17</v>
       </c>
       <c r="B16">
-        <v>3.552713678800501E-15</v>
+        <v>17.4405560587441</v>
       </c>
       <c r="C16">
-        <v>4.973799150320701E-15</v>
+        <v>24.57657440935361</v>
       </c>
       <c r="D16">
-        <v>1.740467143053464E-15</v>
+        <v>16.22935873385084</v>
       </c>
       <c r="E16">
-        <v>3.552713678800501E-15</v>
+        <v>11.84433160658868</v>
       </c>
       <c r="F16">
-        <v>6.750155989720952E-15</v>
+        <v>21.81092667548784</v>
       </c>
       <c r="G16">
-        <v>1.06581410364015E-15</v>
+        <v>16.15355246978632</v>
       </c>
       <c r="H16">
-        <v>3.552713678800501E-15</v>
+        <v>12.26292003546359</v>
       </c>
       <c r="I16">
-        <v>6.750155989720952E-15</v>
+        <v>24.35064253347011</v>
       </c>
       <c r="J16">
-        <v>1.06581410364015E-15</v>
+        <v>16.56839703905457</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -5813,31 +6408,31 @@
         <v>18</v>
       </c>
       <c r="B17">
-        <v>2.729540945267672E-06</v>
+        <v>20.99344683103874</v>
       </c>
       <c r="C17">
-        <v>4.323971340980393E-06</v>
+        <v>21.93527452076694</v>
       </c>
       <c r="D17">
-        <v>1.011342231581771E-06</v>
+        <v>0.6936207438146781</v>
       </c>
       <c r="E17">
-        <v>2.264285804187693E-06</v>
+        <v>21.48196479483645</v>
       </c>
       <c r="F17">
-        <v>3.645928714846036E-06</v>
+        <v>22.27689661498202</v>
       </c>
       <c r="G17">
-        <v>8.251407697591432E-07</v>
+        <v>0.5698130852378317</v>
       </c>
       <c r="H17">
-        <v>2.553865126486699E-06</v>
+        <v>20.82572478830578</v>
       </c>
       <c r="I17">
-        <v>4.228022720553781E-06</v>
+        <v>22.17500740091906</v>
       </c>
       <c r="J17">
-        <v>1.104848865296326E-06</v>
+        <v>0.8259358496315955</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -5959,31 +6554,31 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>-59.99994277954098</v>
+        <v>1.160326590365912E-08</v>
       </c>
       <c r="C3">
-        <v>-59.99994277954095</v>
+        <v>2.101087588357586E-08</v>
       </c>
       <c r="D3">
-        <v>1.696397530723931E-14</v>
+        <v>8.236960099762068E-09</v>
       </c>
       <c r="E3">
-        <v>-59.999942779541</v>
+        <v>2.81519838551958E-08</v>
       </c>
       <c r="F3">
-        <v>-59.99994277954096</v>
+        <v>5.072892008683993E-08</v>
       </c>
       <c r="G3">
-        <v>4.118696991267097E-14</v>
+        <v>1.567161643969309E-08</v>
       </c>
       <c r="H3">
-        <v>-59.99994277954099</v>
+        <v>9.857051573192166E-06</v>
       </c>
       <c r="I3">
-        <v>-59.99994277954094</v>
+        <v>1.945113400161347E-05</v>
       </c>
       <c r="J3">
-        <v>2.868692552935151E-14</v>
+        <v>8.293306215699529E-06</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -5991,31 +6586,31 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>-59.99994277954097</v>
+        <v>5.883492804059642E-09</v>
       </c>
       <c r="C4">
-        <v>-59.99994277954092</v>
+        <v>9.970859338181981E-09</v>
       </c>
       <c r="D4">
-        <v>3.129616110519641E-14</v>
+        <v>4.060593852002545E-09</v>
       </c>
       <c r="E4">
-        <v>-59.99994277954099</v>
+        <v>1.557684470299137E-08</v>
       </c>
       <c r="F4">
-        <v>-59.99994277954094</v>
+        <v>3.791227953797716E-08</v>
       </c>
       <c r="G4">
-        <v>3.113442275577916E-14</v>
+        <v>1.483667567716203E-08</v>
       </c>
       <c r="H4">
-        <v>-59.99994277954093</v>
+        <v>6.884444076149521E-06</v>
       </c>
       <c r="I4">
-        <v>-59.99994277954092</v>
+        <v>1.636790567225432E-05</v>
       </c>
       <c r="J4">
-        <v>1.740467143053463E-14</v>
+        <v>7.365852279731402E-06</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -6023,31 +6618,31 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>-59.99994277954099</v>
+        <v>0.0038738513470555</v>
       </c>
       <c r="C5">
-        <v>-59.99994277954095</v>
+        <v>0.0059085508278087</v>
       </c>
       <c r="D5">
-        <v>2.451114981832396E-14</v>
+        <v>0.0013121882707884</v>
       </c>
       <c r="E5">
-        <v>-59.99994277954099</v>
+        <v>0.0047242874975772</v>
       </c>
       <c r="F5">
-        <v>-59.99994277954096</v>
+        <v>0.0073154287719251</v>
       </c>
       <c r="G5">
-        <v>2.686941570742226E-14</v>
+        <v>0.0022167394956716</v>
       </c>
       <c r="H5">
-        <v>-59.99994277954099</v>
+        <v>0.0109056206464863</v>
       </c>
       <c r="I5">
-        <v>-59.99994277954095</v>
+        <v>0.0146963230970797</v>
       </c>
       <c r="J5">
-        <v>3.317557437278752E-14</v>
+        <v>0.0029065669834643</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -6055,31 +6650,31 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>-59.99994277954099</v>
+        <v>1.728786003241112E-10</v>
       </c>
       <c r="C6">
-        <v>-59.99994277954094</v>
+        <v>3.564245787401888E-10</v>
       </c>
       <c r="D6">
-        <v>3.309939614511028E-14</v>
+        <v>1.200027182594937E-10</v>
       </c>
       <c r="E6">
-        <v>-59.99994277954098</v>
+        <v>4.23369783675298E-10</v>
       </c>
       <c r="F6">
-        <v>-59.99994277954096</v>
+        <v>9.451511573388415E-10</v>
       </c>
       <c r="G6">
-        <v>2.601013480006476E-14</v>
+        <v>5.024720758523043E-10</v>
       </c>
       <c r="H6">
-        <v>-59.999942779541</v>
+        <v>1.84034284700374E-07</v>
       </c>
       <c r="I6">
-        <v>-59.99994277954097</v>
+        <v>3.04450999166761E-07</v>
       </c>
       <c r="J6">
-        <v>2.166864118461391E-14</v>
+        <v>8.662478321107532E-08</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -6087,31 +6682,31 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>-59.99994277954092</v>
+        <v>1.98685512486918E-10</v>
       </c>
       <c r="C7">
-        <v>-59.99994277954088</v>
+        <v>4.111061713274466E-10</v>
       </c>
       <c r="D7">
-        <v>3.185577920058321E-14</v>
+        <v>1.573913773420417E-10</v>
       </c>
       <c r="E7">
-        <v>-59.99994277954091</v>
+        <v>1.034912600061944E-09</v>
       </c>
       <c r="F7">
-        <v>-59.99994277954088</v>
+        <v>1.65042699507012E-09</v>
       </c>
       <c r="G7">
-        <v>1.91978075550115E-14</v>
+        <v>6.108098339228153E-10</v>
       </c>
       <c r="H7">
-        <v>-59.99994277954093</v>
+        <v>4.371829440685815E-07</v>
       </c>
       <c r="I7">
-        <v>-59.99994277954087</v>
+        <v>6.570917395976039E-07</v>
       </c>
       <c r="J7">
-        <v>2.824351513816025E-14</v>
+        <v>1.910567930944699E-07</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -6119,31 +6714,31 @@
         <v>9</v>
       </c>
       <c r="B8">
-        <v>-59.99994277954097</v>
+        <v>1.462747015520655</v>
       </c>
       <c r="C8">
-        <v>-59.99994277954092</v>
+        <v>1.881193661188681</v>
       </c>
       <c r="D8">
-        <v>2.886238236725078E-14</v>
+        <v>0.2649822048579909</v>
       </c>
       <c r="E8">
-        <v>-59.99994277954096</v>
+        <v>1.778250268803916</v>
       </c>
       <c r="F8">
-        <v>-59.99994277954092</v>
+        <v>2.074994788770501</v>
       </c>
       <c r="G8">
-        <v>1.711213510985814E-14</v>
+        <v>0.2166536549791289</v>
       </c>
       <c r="H8">
-        <v>-59.99994277954098</v>
+        <v>2.394858152720144</v>
       </c>
       <c r="I8">
-        <v>-59.99994277954092</v>
+        <v>2.658245698610106</v>
       </c>
       <c r="J8">
-        <v>2.280388363243619E-14</v>
+        <v>0.2089935944820949</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -6151,31 +6746,31 @@
         <v>10</v>
       </c>
       <c r="B9">
-        <v>-59.99994277954101</v>
+        <v>3.776534640564933E-12</v>
       </c>
       <c r="C9">
-        <v>-59.99994277954097</v>
+        <v>9.341860618405916E-12</v>
       </c>
       <c r="D9">
-        <v>2.356603652028894E-14</v>
+        <v>3.56954573141591E-12</v>
       </c>
       <c r="E9">
-        <v>-59.99994277954099</v>
+        <v>2.05382377771457E-11</v>
       </c>
       <c r="F9">
-        <v>-59.99994277954094</v>
+        <v>4.46540582288435E-11</v>
       </c>
       <c r="G9">
-        <v>3.581022601893594E-14</v>
+        <v>2.454895501365883E-11</v>
       </c>
       <c r="H9">
-        <v>-59.999942779541</v>
+        <v>3.905835654904877E-09</v>
       </c>
       <c r="I9">
-        <v>-59.99994277954097</v>
+        <v>8.714180665947423E-09</v>
       </c>
       <c r="J9">
-        <v>2.258140139882514E-14</v>
+        <v>3.291439097312645E-09</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -6183,31 +6778,31 @@
         <v>11</v>
       </c>
       <c r="B10">
-        <v>-59.99994277954101</v>
+        <v>0.0003586708943714</v>
       </c>
       <c r="C10">
-        <v>-59.99994277954099</v>
+        <v>0.000586671879299</v>
       </c>
       <c r="D10">
-        <v>1.971676074036794E-14</v>
+        <v>8.563950483037481E-05</v>
       </c>
       <c r="E10">
-        <v>-59.999942779541</v>
+        <v>0.0004416066852783</v>
       </c>
       <c r="F10">
-        <v>-59.99994277954097</v>
+        <v>0.000701467020152</v>
       </c>
       <c r="G10">
-        <v>1.681451005623448E-14</v>
+        <v>0.0001244800611613</v>
       </c>
       <c r="H10">
-        <v>-59.99994277954101</v>
+        <v>0.0003851400795227</v>
       </c>
       <c r="I10">
-        <v>-59.99994277954099</v>
+        <v>0.0006104517480735999</v>
       </c>
       <c r="J10">
-        <v>1.507288760336424E-14</v>
+        <v>0.0001385567081372</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -6215,31 +6810,31 @@
         <v>12</v>
       </c>
       <c r="B11">
-        <v>-59.99994277954093</v>
+        <v>3.176126028847648E-12</v>
       </c>
       <c r="C11">
-        <v>-59.99994277954088</v>
+        <v>8.190781386474555E-12</v>
       </c>
       <c r="D11">
-        <v>2.761078011946757E-14</v>
+        <v>3.781813649027802E-12</v>
       </c>
       <c r="E11">
-        <v>-59.99994277954093</v>
+        <v>5.60547164241143E-11</v>
       </c>
       <c r="F11">
-        <v>-59.99994277954089</v>
+        <v>1.159229157110531E-10</v>
       </c>
       <c r="G11">
-        <v>2.367291251766471E-14</v>
+        <v>4.376442533819848E-11</v>
       </c>
       <c r="H11">
-        <v>-59.99994277954094</v>
+        <v>1.492115586643195E-08</v>
       </c>
       <c r="I11">
-        <v>-59.99994277954089</v>
+        <v>3.133355939155536E-08</v>
       </c>
       <c r="J11">
-        <v>3.3853465451931E-14</v>
+        <v>1.53626205978423E-08</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -6247,31 +6842,31 @@
         <v>13</v>
       </c>
       <c r="B12">
-        <v>-59.99994277954092</v>
+        <v>0.0007144152213029</v>
       </c>
       <c r="C12">
-        <v>-59.99994277954088</v>
+        <v>0.0009391848521087</v>
       </c>
       <c r="D12">
-        <v>2.43043009738913E-14</v>
+        <v>0.0002068347462862</v>
       </c>
       <c r="E12">
-        <v>-59.99994277954093</v>
+        <v>0.0013478522187</v>
       </c>
       <c r="F12">
-        <v>-59.99994277954089</v>
+        <v>0.0018751751855475</v>
       </c>
       <c r="G12">
-        <v>2.705666128784368E-14</v>
+        <v>0.0004440343159138</v>
       </c>
       <c r="H12">
-        <v>-59.99994277954093</v>
+        <v>0.0023585938720778</v>
       </c>
       <c r="I12">
-        <v>-59.99994277954088</v>
+        <v>0.0031423017739037</v>
       </c>
       <c r="J12">
-        <v>2.31335954426011E-14</v>
+        <v>0.0008323038079711</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -6279,31 +6874,31 @@
         <v>14</v>
       </c>
       <c r="B13">
-        <v>-59.99994277954089</v>
+        <v>1.172395514004165E-13</v>
       </c>
       <c r="C13">
-        <v>-59.99994277954085</v>
+        <v>3.321787289678469E-13</v>
       </c>
       <c r="D13">
-        <v>2.420021355352219E-14</v>
+        <v>1.475659731364952E-13</v>
       </c>
       <c r="E13">
-        <v>-59.99994277954091</v>
+        <v>3.055333763768431E-13</v>
       </c>
       <c r="F13">
-        <v>-59.99994277954085</v>
+        <v>6.981082378842984E-13</v>
       </c>
       <c r="G13">
-        <v>3.392795061447862E-14</v>
+        <v>3.173718888342817E-13</v>
       </c>
       <c r="H13">
-        <v>-59.99994277954089</v>
+        <v>1.02289732240024E-10</v>
       </c>
       <c r="I13">
-        <v>-59.99994277954086</v>
+        <v>1.379792280431502E-10</v>
       </c>
       <c r="J13">
-        <v>3.145706787844724E-14</v>
+        <v>3.43195534840522E-11</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -6311,31 +6906,31 @@
         <v>15</v>
       </c>
       <c r="B14">
-        <v>-59.999942779541</v>
+        <v>0.3190186894960298</v>
       </c>
       <c r="C14">
-        <v>-59.99994277954099</v>
+        <v>0.5203868057910033</v>
       </c>
       <c r="D14">
-        <v>1.43873938407897E-14</v>
+        <v>0.1212313334922645</v>
       </c>
       <c r="E14">
-        <v>-59.99994277954101</v>
+        <v>0.409255292621971</v>
       </c>
       <c r="F14">
-        <v>-59.99994277954099</v>
+        <v>0.5959643103437365</v>
       </c>
       <c r="G14">
-        <v>1.145715735375823E-14</v>
+        <v>0.1916361721967122</v>
       </c>
       <c r="H14">
-        <v>-59.99994277954101</v>
+        <v>0.3581149544745621</v>
       </c>
       <c r="I14">
-        <v>-59.99994277954099</v>
+        <v>0.5549467652124594</v>
       </c>
       <c r="J14">
-        <v>1.620286731592753E-14</v>
+        <v>0.1560687944884879</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -6343,31 +6938,31 @@
         <v>16</v>
       </c>
       <c r="B15">
-        <v>-59.99994277954094</v>
+        <v>3.624093742503384</v>
       </c>
       <c r="C15">
-        <v>-59.99994277954088</v>
+        <v>3.852946879128582</v>
       </c>
       <c r="D15">
-        <v>2.842170943040401E-14</v>
+        <v>0.1788789798711696</v>
       </c>
       <c r="E15">
-        <v>-59.99994277954089</v>
+        <v>3.451234665390647</v>
       </c>
       <c r="F15">
-        <v>-59.99994277954087</v>
+        <v>3.872474771843138</v>
       </c>
       <c r="G15">
-        <v>1.839194269670199E-14</v>
+        <v>0.1750121624610884</v>
       </c>
       <c r="H15">
-        <v>-59.99994277954093</v>
+        <v>4.321862624393887</v>
       </c>
       <c r="I15">
-        <v>-59.99994277954089</v>
+        <v>4.792864165696771</v>
       </c>
       <c r="J15">
-        <v>2.770205567460654E-14</v>
+        <v>0.2613935315935601</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -6375,31 +6970,31 @@
         <v>17</v>
       </c>
       <c r="B16">
-        <v>-59.99994277954087</v>
+        <v>3.552713678800501E-15</v>
       </c>
       <c r="C16">
-        <v>-59.99665114244733</v>
+        <v>4.973799150320701E-15</v>
       </c>
       <c r="D16">
-        <v>0.0065832741870107</v>
+        <v>1.740467143053464E-15</v>
       </c>
       <c r="E16">
-        <v>-59.99994277954089</v>
+        <v>3.552713678800501E-15</v>
       </c>
       <c r="F16">
-        <v>-59.98678567724253</v>
+        <v>6.750155989720952E-15</v>
       </c>
       <c r="G16">
-        <v>0.0394713068950563</v>
+        <v>1.06581410364015E-15</v>
       </c>
       <c r="H16">
-        <v>-59.99994277954089</v>
+        <v>3.552713678800501E-15</v>
       </c>
       <c r="I16">
-        <v>-59.99994277954086</v>
+        <v>6.750155989720952E-15</v>
       </c>
       <c r="J16">
-        <v>1.797546735911271E-14</v>
+        <v>1.06581410364015E-15</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -6407,31 +7002,31 @@
         <v>18</v>
       </c>
       <c r="B17">
-        <v>-59.99994277954099</v>
+        <v>2.729540945267672E-06</v>
       </c>
       <c r="C17">
-        <v>-59.99994277954088</v>
+        <v>4.323971340980393E-06</v>
       </c>
       <c r="D17">
-        <v>4.697112069902235E-14</v>
+        <v>1.011342231581771E-06</v>
       </c>
       <c r="E17">
-        <v>-59.99994277954099</v>
+        <v>2.264285804187693E-06</v>
       </c>
       <c r="F17">
-        <v>-59.99994277954087</v>
+        <v>3.645928714846036E-06</v>
       </c>
       <c r="G17">
-        <v>4.533017632791308E-14</v>
+        <v>8.251407697591432E-07</v>
       </c>
       <c r="H17">
-        <v>-59.999942779541</v>
+        <v>2.553865126486699E-06</v>
       </c>
       <c r="I17">
-        <v>-59.99994277954092</v>
+        <v>4.228022720553781E-06</v>
       </c>
       <c r="J17">
-        <v>6.943715037867571E-14</v>
+        <v>1.104848865296326E-06</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -6553,31 +7148,31 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>3.33066907387547E-16</v>
+        <v>-59.99994277954098</v>
       </c>
       <c r="C3">
-        <v>5.329070518200751E-15</v>
+        <v>-59.99994277954095</v>
       </c>
       <c r="D3">
-        <v>6.759061116280267E-15</v>
+        <v>1.696397530723931E-14</v>
       </c>
       <c r="E3">
-        <v>1.298960938811433E-14</v>
+        <v>-59.999942779541</v>
       </c>
       <c r="F3">
-        <v>6.177280909014372E-14</v>
+        <v>-59.99994277954096</v>
       </c>
       <c r="G3">
-        <v>4.422441275414783E-14</v>
+        <v>4.118696991267097E-14</v>
       </c>
       <c r="H3">
-        <v>4.863623948025975E-10</v>
+        <v>-59.99994277954099</v>
       </c>
       <c r="I3">
-        <v>1.393456239284774E-09</v>
+        <v>-59.99994277954094</v>
       </c>
       <c r="J3">
-        <v>9.107454321313447E-10</v>
+        <v>2.868692552935151E-14</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -6585,31 +7180,31 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>-59.99994277954097</v>
       </c>
       <c r="C4">
-        <v>3.330669073875469E-17</v>
+        <v>-59.99994277954092</v>
       </c>
       <c r="D4">
-        <v>7.108895957933347E-17</v>
+        <v>3.129616110519641E-14</v>
       </c>
       <c r="E4">
-        <v>8.659739592076221E-15</v>
+        <v>-59.99994277954099</v>
       </c>
       <c r="F4">
-        <v>6.108447081487613E-14</v>
+        <v>-59.99994277954094</v>
       </c>
       <c r="G4">
-        <v>6.160238903299832E-14</v>
+        <v>3.113442275577916E-14</v>
       </c>
       <c r="H4">
-        <v>3.284428284899832E-11</v>
+        <v>-59.99994277954093</v>
       </c>
       <c r="I4">
-        <v>0.0014792096393464</v>
+        <v>-59.99994277954092</v>
       </c>
       <c r="J4">
-        <v>0.0029584191255512</v>
+        <v>1.740467143053463E-14</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -6617,31 +7212,31 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>0.0003069275109134</v>
+        <v>-59.99994277954099</v>
       </c>
       <c r="C5">
-        <v>0.0016801888153274</v>
+        <v>-59.99994277954095</v>
       </c>
       <c r="D5">
-        <v>0.0017728088017455</v>
+        <v>2.451114981832396E-14</v>
       </c>
       <c r="E5">
-        <v>0.0012927279345986</v>
+        <v>-59.99994277954099</v>
       </c>
       <c r="F5">
-        <v>0.0200191399424479</v>
+        <v>-59.99994277954096</v>
       </c>
       <c r="G5">
-        <v>0.0466305993696732</v>
+        <v>2.686941570742226E-14</v>
       </c>
       <c r="H5">
-        <v>0.0007065321109531</v>
+        <v>-59.99994277954099</v>
       </c>
       <c r="I5">
-        <v>0.0018772104318525</v>
+        <v>-59.99994277954095</v>
       </c>
       <c r="J5">
-        <v>0.0012064597733091</v>
+        <v>3.317557437278752E-14</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -6649,31 +7244,31 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>-59.99994277954099</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>-59.99994277954094</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>3.309939614511028E-14</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>-59.99994277954098</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>-59.99994277954096</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>2.601013480006476E-14</v>
       </c>
       <c r="H6">
-        <v>2.919886554764162E-14</v>
+        <v>-59.999942779541</v>
       </c>
       <c r="I6">
-        <v>4.891531624195977E-13</v>
+        <v>-59.99994277954097</v>
       </c>
       <c r="J6">
-        <v>4.588482225581338E-13</v>
+        <v>2.166864118461391E-14</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -6681,31 +7276,31 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>-59.99994277954092</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>-59.99994277954088</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>3.185577920058321E-14</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>-59.99994277954091</v>
       </c>
       <c r="F7">
-        <v>0.0009857284607822001</v>
+        <v>-59.99994277954088</v>
       </c>
       <c r="G7">
-        <v>0.0029571853823461</v>
+        <v>1.91978075550115E-14</v>
       </c>
       <c r="H7">
-        <v>2.375877272697835E-14</v>
+        <v>-59.99994277954093</v>
       </c>
       <c r="I7">
-        <v>6.343148228893369E-13</v>
+        <v>-59.99994277954087</v>
       </c>
       <c r="J7">
-        <v>1.298341417766957E-12</v>
+        <v>2.824351513816025E-14</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -6713,31 +7308,31 @@
         <v>9</v>
       </c>
       <c r="B8">
-        <v>1.024544709443348</v>
+        <v>-59.99994277954097</v>
       </c>
       <c r="C8">
-        <v>1.043866457739433</v>
+        <v>-59.99994277954092</v>
       </c>
       <c r="D8">
-        <v>0.0098000325157855</v>
+        <v>2.886238236725078E-14</v>
       </c>
       <c r="E8">
-        <v>1.030831817965513</v>
+        <v>-59.99994277954096</v>
       </c>
       <c r="F8">
-        <v>1.048995746986445</v>
+        <v>-59.99994277954092</v>
       </c>
       <c r="G8">
-        <v>0.0122320067072288</v>
+        <v>1.711213510985814E-14</v>
       </c>
       <c r="H8">
-        <v>1.050357003114332</v>
+        <v>-59.99994277954098</v>
       </c>
       <c r="I8">
-        <v>1.080148425106629</v>
+        <v>-59.99994277954092</v>
       </c>
       <c r="J8">
-        <v>0.0159378417607551</v>
+        <v>2.280388363243619E-14</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -6745,31 +7340,31 @@
         <v>10</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>-59.99994277954101</v>
       </c>
       <c r="C9">
-        <v>0.0019712112853376</v>
+        <v>-59.99994277954097</v>
       </c>
       <c r="D9">
-        <v>0.0040930467332921</v>
+        <v>2.356603652028894E-14</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>-59.99994277954099</v>
       </c>
       <c r="F9">
-        <v>0.0007396040334114</v>
+        <v>-59.99994277954094</v>
       </c>
       <c r="G9">
-        <v>0.0022188121002344</v>
+        <v>3.581022601893594E-14</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>-59.999942779541</v>
       </c>
       <c r="I9">
-        <v>0.0019717029209227</v>
+        <v>-59.99994277954097</v>
       </c>
       <c r="J9">
-        <v>0.0040942893815742</v>
+        <v>2.258140139882514E-14</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -6777,31 +7372,31 @@
         <v>11</v>
       </c>
       <c r="B10">
-        <v>2.891297863905073E-06</v>
+        <v>-59.99994277954101</v>
       </c>
       <c r="C10">
-        <v>1.194209312530559E-05</v>
+        <v>-59.99994277954099</v>
       </c>
       <c r="D10">
-        <v>1.701587265268615E-05</v>
+        <v>1.971676074036794E-14</v>
       </c>
       <c r="E10">
-        <v>8.547363936850516E-06</v>
+        <v>-59.999942779541</v>
       </c>
       <c r="F10">
-        <v>0.0008046393486858</v>
+        <v>-59.99994277954097</v>
       </c>
       <c r="G10">
-        <v>0.0023628018926711</v>
+        <v>1.681451005623448E-14</v>
       </c>
       <c r="H10">
-        <v>3.462954274779939E-06</v>
+        <v>-59.99994277954101</v>
       </c>
       <c r="I10">
-        <v>8.255437811754974E-06</v>
+        <v>-59.99994277954099</v>
       </c>
       <c r="J10">
-        <v>3.913427844313783E-06</v>
+        <v>1.507288760336424E-14</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -6809,31 +7404,31 @@
         <v>12</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>-59.99994277954093</v>
       </c>
       <c r="C11">
-        <v>0.0012320988875106</v>
+        <v>-59.99994277954088</v>
       </c>
       <c r="D11">
-        <v>0.0036962966625319</v>
+        <v>2.761078011946757E-14</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>-59.99994277954093</v>
       </c>
       <c r="F11">
-        <v>0.0014792080668229</v>
+        <v>-59.99994277954089</v>
       </c>
       <c r="G11">
-        <v>0.0029584161336459</v>
+        <v>2.367291251766471E-14</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>-59.99994277954094</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>-59.99994277954089</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>3.3853465451931E-14</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -6841,31 +7436,31 @@
         <v>13</v>
       </c>
       <c r="B12">
-        <v>9.015485729180206E-06</v>
+        <v>-59.99994277954092</v>
       </c>
       <c r="C12">
-        <v>1.672274033447385E-05</v>
+        <v>-59.99994277954088</v>
       </c>
       <c r="D12">
-        <v>8.099608372377977E-06</v>
+        <v>2.43043009738913E-14</v>
       </c>
       <c r="E12">
-        <v>5.437898952020959E-05</v>
+        <v>-59.99994277954093</v>
       </c>
       <c r="F12">
-        <v>0.0001309085211764</v>
+        <v>-59.99994277954089</v>
       </c>
       <c r="G12">
-        <v>5.232017363248078E-05</v>
+        <v>2.705666128784368E-14</v>
       </c>
       <c r="H12">
-        <v>7.168140960911451E-06</v>
+        <v>-59.99994277954093</v>
       </c>
       <c r="I12">
-        <v>5.556736327063661E-05</v>
+        <v>-59.99994277954088</v>
       </c>
       <c r="J12">
-        <v>5.146172368506042E-05</v>
+        <v>2.31335954426011E-14</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -6873,31 +7468,31 @@
         <v>14</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>-59.99994277954089</v>
       </c>
       <c r="C13">
-        <v>0.0014792080668229</v>
+        <v>-59.99994277954085</v>
       </c>
       <c r="D13">
-        <v>0.0029584161336459</v>
+        <v>2.420021355352219E-14</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>-59.99994277954091</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>-59.99994277954085</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>3.392795061447862E-14</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>-59.99994277954089</v>
       </c>
       <c r="I13">
-        <v>0.0012316072519261</v>
+        <v>-59.99994277954086</v>
       </c>
       <c r="J13">
-        <v>0.0036948217557784</v>
+        <v>3.145706787844724E-14</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -6905,31 +7500,31 @@
         <v>15</v>
       </c>
       <c r="B14">
-        <v>0.6611747621503832</v>
+        <v>-59.999942779541</v>
       </c>
       <c r="C14">
-        <v>0.7970001426035822</v>
+        <v>-59.99994277954099</v>
       </c>
       <c r="D14">
-        <v>0.0793992745305338</v>
+        <v>1.43873938407897E-14</v>
       </c>
       <c r="E14">
-        <v>0.7594304959202857</v>
+        <v>-59.99994277954101</v>
       </c>
       <c r="F14">
-        <v>0.8449494668168406</v>
+        <v>-59.99994277954099</v>
       </c>
       <c r="G14">
-        <v>0.0463401567082177</v>
+        <v>1.145715735375823E-14</v>
       </c>
       <c r="H14">
-        <v>0.7444659073206948</v>
+        <v>-59.99994277954101</v>
       </c>
       <c r="I14">
-        <v>0.8363554598486882</v>
+        <v>-59.99994277954099</v>
       </c>
       <c r="J14">
-        <v>0.0560708603782349</v>
+        <v>1.620286731592753E-14</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -6937,31 +7532,31 @@
         <v>16</v>
       </c>
       <c r="B15">
-        <v>1.518919385544076</v>
+        <v>-59.99994277954094</v>
       </c>
       <c r="C15">
-        <v>1.679665715247486</v>
+        <v>-59.99994277954088</v>
       </c>
       <c r="D15">
-        <v>0.1083169800651418</v>
+        <v>2.842170943040401E-14</v>
       </c>
       <c r="E15">
-        <v>1.466589096359502</v>
+        <v>-59.99994277954089</v>
       </c>
       <c r="F15">
-        <v>1.645211821490633</v>
+        <v>-59.99994277954087</v>
       </c>
       <c r="G15">
-        <v>0.1264504600581495</v>
+        <v>1.839194269670199E-14</v>
       </c>
       <c r="H15">
-        <v>2.083705305354257</v>
+        <v>-59.99994277954093</v>
       </c>
       <c r="I15">
-        <v>2.495666368204368</v>
+        <v>-59.99994277954089</v>
       </c>
       <c r="J15">
-        <v>0.296605347991411</v>
+        <v>2.770205567460654E-14</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -6969,31 +7564,31 @@
         <v>17</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>-59.99994277954087</v>
       </c>
       <c r="C16">
-        <v>0.0032033101696761</v>
+        <v>-59.99665114244733</v>
       </c>
       <c r="D16">
-        <v>0.0051739473611007</v>
+        <v>0.0065832741870107</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>-59.99994277954089</v>
       </c>
       <c r="F16">
-        <v>0.0086124260263306</v>
+        <v>-59.98678567724253</v>
       </c>
       <c r="G16">
-        <v>0.009214802458736101</v>
+        <v>0.0394713068950563</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>-59.99994277954089</v>
       </c>
       <c r="I16">
-        <v>0.0046812878483308</v>
+        <v>-59.99994277954086</v>
       </c>
       <c r="J16">
-        <v>0.0059790556404606</v>
+        <v>1.797546735911271E-14</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -7001,31 +7596,31 @@
         <v>18</v>
       </c>
       <c r="B17">
-        <v>2.455774472664984E-10</v>
+        <v>-59.99994277954099</v>
       </c>
       <c r="C17">
-        <v>4.597323632893335E-10</v>
+        <v>-59.99994277954088</v>
       </c>
       <c r="D17">
-        <v>2.296051118926648E-10</v>
+        <v>4.697112069902235E-14</v>
       </c>
       <c r="E17">
-        <v>1.370681346202218E-10</v>
+        <v>-59.99994277954099</v>
       </c>
       <c r="F17">
-        <v>5.18091880508109E-10</v>
+        <v>-59.99994277954087</v>
       </c>
       <c r="G17">
-        <v>3.761546630954547E-10</v>
+        <v>4.533017632791308E-14</v>
       </c>
       <c r="H17">
-        <v>1.937193738754672E-10</v>
+        <v>-59.999942779541</v>
       </c>
       <c r="I17">
-        <v>4.88077223081973E-10</v>
+        <v>-59.99994277954092</v>
       </c>
       <c r="J17">
-        <v>2.39682207533547E-10</v>
+        <v>6.943715037867571E-14</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -7147,31 +7742,31 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>137.8194453730544</v>
+        <v>3.33066907387547E-16</v>
       </c>
       <c r="C3">
-        <v>168.1575733295195</v>
+        <v>5.329070518200751E-15</v>
       </c>
       <c r="D3">
-        <v>14.22013800523136</v>
+        <v>6.759061116280267E-15</v>
       </c>
       <c r="E3">
-        <v>156.6358330692976</v>
+        <v>1.298960938811433E-14</v>
       </c>
       <c r="F3">
-        <v>173.0280880630047</v>
+        <v>6.177280909014372E-14</v>
       </c>
       <c r="G3">
-        <v>10.06816350602255</v>
+        <v>4.422441275414783E-14</v>
       </c>
       <c r="H3">
-        <v>162.471545718561</v>
+        <v>4.863623948025975E-10</v>
       </c>
       <c r="I3">
-        <v>184.7033307411929</v>
+        <v>1.393456239284774E-09</v>
       </c>
       <c r="J3">
-        <v>13.71896591321018</v>
+        <v>9.107454321313447E-10</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -7179,31 +7774,31 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>155.0328869068458</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>174.4383915885404</v>
+        <v>3.330669073875469E-17</v>
       </c>
       <c r="D4">
-        <v>9.897342426546849</v>
+        <v>7.108895957933347E-17</v>
       </c>
       <c r="E4">
-        <v>151.0751815560413</v>
+        <v>8.659739592076221E-15</v>
       </c>
       <c r="F4">
-        <v>169.6198022215837</v>
+        <v>6.108447081487613E-14</v>
       </c>
       <c r="G4">
-        <v>9.390169233884428</v>
+        <v>6.160238903299832E-14</v>
       </c>
       <c r="H4">
-        <v>154.5570925509994</v>
+        <v>3.284428284899832E-11</v>
       </c>
       <c r="I4">
-        <v>187.7307039688524</v>
+        <v>0.0014792096393464</v>
       </c>
       <c r="J4">
-        <v>15.63709870583514</v>
+        <v>0.0029584191255512</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -7211,31 +7806,31 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>195.1149336101124</v>
+        <v>0.0003069275109134</v>
       </c>
       <c r="C5">
-        <v>209.4985870127493</v>
+        <v>0.0016801888153274</v>
       </c>
       <c r="D5">
-        <v>8.844720493092069</v>
+        <v>0.0017728088017455</v>
       </c>
       <c r="E5">
-        <v>189.0273510762913</v>
+        <v>0.0012927279345986</v>
       </c>
       <c r="F5">
-        <v>207.9815528000453</v>
+        <v>0.0200191399424479</v>
       </c>
       <c r="G5">
-        <v>9.737416813308229</v>
+        <v>0.0466305993696732</v>
       </c>
       <c r="H5">
-        <v>181.9767032091314</v>
+        <v>0.0007065321109531</v>
       </c>
       <c r="I5">
-        <v>203.8099365324701</v>
+        <v>0.0018772104318525</v>
       </c>
       <c r="J5">
-        <v>9.56661403944689</v>
+        <v>0.0012064597733091</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -7243,31 +7838,31 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>141.9610403799293</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>162.9111385430544</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>12.33539689633596</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>139.2635523423289</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>160.1811556429222</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>8.418918704985304</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>155.1255650719625</v>
+        <v>2.919886554764162E-14</v>
       </c>
       <c r="I6">
-        <v>175.1803547125286</v>
+        <v>4.891531624195977E-13</v>
       </c>
       <c r="J6">
-        <v>10.35705082371127</v>
+        <v>4.588482225581338E-13</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -7275,31 +7870,31 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>163.313458566552</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>175.822816909367</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>6.493253323401793</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>159.1042798926965</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>170.0840957871685</v>
+        <v>0.0009857284607822001</v>
       </c>
       <c r="G7">
-        <v>8.353271014449271</v>
+        <v>0.0029571853823461</v>
       </c>
       <c r="H7">
-        <v>161.0005577638116</v>
+        <v>2.375877272697835E-14</v>
       </c>
       <c r="I7">
-        <v>178.3078057995435</v>
+        <v>6.343148228893369E-13</v>
       </c>
       <c r="J7">
-        <v>10.2940861519953</v>
+        <v>1.298341417766957E-12</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -7307,31 +7902,31 @@
         <v>9</v>
       </c>
       <c r="B8">
-        <v>227.3925575288879</v>
+        <v>1.024544709443348</v>
       </c>
       <c r="C8">
-        <v>241.638200709326</v>
+        <v>1.043866457739433</v>
       </c>
       <c r="D8">
-        <v>10.040608602794</v>
+        <v>0.0098000325157855</v>
       </c>
       <c r="E8">
-        <v>227.8471751013081</v>
+        <v>1.030831817965513</v>
       </c>
       <c r="F8">
-        <v>245.8361310446261</v>
+        <v>1.048995746986445</v>
       </c>
       <c r="G8">
-        <v>11.89317095440658</v>
+        <v>0.0122320067072288</v>
       </c>
       <c r="H8">
-        <v>235.2379282637164</v>
+        <v>1.050357003114332</v>
       </c>
       <c r="I8">
-        <v>253.7588917725921</v>
+        <v>1.080148425106629</v>
       </c>
       <c r="J8">
-        <v>10.09157790721698</v>
+        <v>0.0159378417607551</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -7339,31 +7934,31 @@
         <v>10</v>
       </c>
       <c r="B9">
-        <v>151.5268002109608</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>168.8010659010466</v>
+        <v>0.0019712112853376</v>
       </c>
       <c r="D9">
-        <v>8.718760763469762</v>
+        <v>0.0040930467332921</v>
       </c>
       <c r="E9">
-        <v>144.2153804941434</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>170.1221598075843</v>
+        <v>0.0007396040334114</v>
       </c>
       <c r="G9">
-        <v>10.11320927576213</v>
+        <v>0.0022188121002344</v>
       </c>
       <c r="H9">
-        <v>143.3830221995127</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>174.6247143761389</v>
+        <v>0.0019717029209227</v>
       </c>
       <c r="J9">
-        <v>12.28409367925314</v>
+        <v>0.0040942893815742</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -7371,31 +7966,31 @@
         <v>11</v>
       </c>
       <c r="B10">
-        <v>183.9349296182279</v>
+        <v>2.891297863905073E-06</v>
       </c>
       <c r="C10">
-        <v>200.6058430549585</v>
+        <v>1.194209312530559E-05</v>
       </c>
       <c r="D10">
-        <v>7.867546284677007</v>
+        <v>1.701587265268615E-05</v>
       </c>
       <c r="E10">
-        <v>173.3873424327444</v>
+        <v>8.547363936850516E-06</v>
       </c>
       <c r="F10">
-        <v>190.6626761580151</v>
+        <v>0.0008046393486858</v>
       </c>
       <c r="G10">
-        <v>11.46748379098605</v>
+        <v>0.0023628018926711</v>
       </c>
       <c r="H10">
-        <v>164.2397998603608</v>
+        <v>3.462954274779939E-06</v>
       </c>
       <c r="I10">
-        <v>185.5143251335625</v>
+        <v>8.255437811754974E-06</v>
       </c>
       <c r="J10">
-        <v>15.33866488730556</v>
+        <v>3.913427844313783E-06</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -7403,31 +7998,31 @@
         <v>12</v>
       </c>
       <c r="B11">
-        <v>146.0726264345462</v>
+        <v>0</v>
       </c>
       <c r="C11">
-        <v>165.9763239116505</v>
+        <v>0.0012320988875106</v>
       </c>
       <c r="D11">
-        <v>10.05077177881182</v>
+        <v>0.0036962966625319</v>
       </c>
       <c r="E11">
-        <v>148.6891575895304</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>172.4796930212366</v>
+        <v>0.0014792080668229</v>
       </c>
       <c r="G11">
-        <v>10.13775645141174</v>
+        <v>0.0029584161336459</v>
       </c>
       <c r="H11">
-        <v>174.3469456158621</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>182.1799543612513</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>6.273295831385317</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -7435,31 +8030,31 @@
         <v>13</v>
       </c>
       <c r="B12">
-        <v>182.5020423924406</v>
+        <v>9.015485729180206E-06</v>
       </c>
       <c r="C12">
-        <v>196.7252884766752</v>
+        <v>1.672274033447385E-05</v>
       </c>
       <c r="D12">
-        <v>8.391034921785506</v>
+        <v>8.099608372377977E-06</v>
       </c>
       <c r="E12">
-        <v>174.0966608864488</v>
+        <v>5.437898952020959E-05</v>
       </c>
       <c r="F12">
-        <v>198.5884955409317</v>
+        <v>0.0001309085211764</v>
       </c>
       <c r="G12">
-        <v>12.27667909258545</v>
+        <v>5.232017363248078E-05</v>
       </c>
       <c r="H12">
-        <v>159.4564988942609</v>
+        <v>7.168140960911451E-06</v>
       </c>
       <c r="I12">
-        <v>188.9833280386891</v>
+        <v>5.556736327063661E-05</v>
       </c>
       <c r="J12">
-        <v>11.40067926762562</v>
+        <v>5.146172368506042E-05</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -7467,31 +8062,31 @@
         <v>14</v>
       </c>
       <c r="B13">
-        <v>149.1632686333149</v>
+        <v>0</v>
       </c>
       <c r="C13">
-        <v>164.813261990245</v>
+        <v>0.0014792080668229</v>
       </c>
       <c r="D13">
-        <v>8.611345260406477</v>
+        <v>0.0029584161336459</v>
       </c>
       <c r="E13">
-        <v>132.9840978477716</v>
+        <v>0</v>
       </c>
       <c r="F13">
-        <v>159.8706459510038</v>
+        <v>0</v>
       </c>
       <c r="G13">
-        <v>13.78665534810365</v>
+        <v>0</v>
       </c>
       <c r="H13">
-        <v>153.1255269480067</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>171.6435398062971</v>
+        <v>0.0012316072519261</v>
       </c>
       <c r="J13">
-        <v>11.11947904642179</v>
+        <v>0.0036948217557784</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -7499,31 +8094,31 @@
         <v>15</v>
       </c>
       <c r="B14">
-        <v>209.0669806319692</v>
+        <v>0.6611747621503832</v>
       </c>
       <c r="C14">
-        <v>231.0839331448606</v>
+        <v>0.7970001426035822</v>
       </c>
       <c r="D14">
-        <v>11.55180189509989</v>
+        <v>0.0793992745305338</v>
       </c>
       <c r="E14">
-        <v>205.6795087705272</v>
+        <v>0.7594304959202857</v>
       </c>
       <c r="F14">
-        <v>228.3908058566268</v>
+        <v>0.8449494668168406</v>
       </c>
       <c r="G14">
-        <v>12.90141605568591</v>
+        <v>0.0463401567082177</v>
       </c>
       <c r="H14">
-        <v>217.8918683472849</v>
+        <v>0.7444659073206948</v>
       </c>
       <c r="I14">
-        <v>231.1446261896243</v>
+        <v>0.8363554598486882</v>
       </c>
       <c r="J14">
-        <v>10.71478016471763</v>
+        <v>0.0560708603782349</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -7531,31 +8126,31 @@
         <v>16</v>
       </c>
       <c r="B15">
-        <v>244.526251424244</v>
+        <v>1.518919385544076</v>
       </c>
       <c r="C15">
-        <v>285.4922391298364</v>
+        <v>1.679665715247486</v>
       </c>
       <c r="D15">
-        <v>19.11753524566422</v>
+        <v>0.1083169800651418</v>
       </c>
       <c r="E15">
-        <v>248.2483431193941</v>
+        <v>1.466589096359502</v>
       </c>
       <c r="F15">
-        <v>270.6077311805474</v>
+        <v>1.645211821490633</v>
       </c>
       <c r="G15">
-        <v>13.47660959175127</v>
+        <v>0.1264504600581495</v>
       </c>
       <c r="H15">
-        <v>241.1035108222972</v>
+        <v>2.083705305354257</v>
       </c>
       <c r="I15">
-        <v>291.3945888133863</v>
+        <v>2.495666368204368</v>
       </c>
       <c r="J15">
-        <v>23.76209737441397</v>
+        <v>0.296605347991411</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -7563,31 +8158,31 @@
         <v>17</v>
       </c>
       <c r="B16">
-        <v>97.9992955274854</v>
+        <v>0</v>
       </c>
       <c r="C16">
-        <v>147.8415228315114</v>
+        <v>0.0032033101696761</v>
       </c>
       <c r="D16">
-        <v>20.89472918421952</v>
+        <v>0.0051739473611007</v>
       </c>
       <c r="E16">
-        <v>75.00071346277795</v>
+        <v>0</v>
       </c>
       <c r="F16">
-        <v>148.3170005313866</v>
+        <v>0.0086124260263306</v>
       </c>
       <c r="G16">
-        <v>25.38723106466633</v>
+        <v>0.009214802458736101</v>
       </c>
       <c r="H16">
-        <v>159.4435338758596</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>169.3277707436615</v>
+        <v>0.0046812878483308</v>
       </c>
       <c r="J16">
-        <v>7.854745855024657</v>
+        <v>0.0059790556404606</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -7595,31 +8190,31 @@
         <v>18</v>
       </c>
       <c r="B17">
-        <v>140.1137789323461</v>
+        <v>2.455774472664984E-10</v>
       </c>
       <c r="C17">
-        <v>176.4619984613003</v>
+        <v>4.597323632893335E-10</v>
       </c>
       <c r="D17">
-        <v>15.7773702745051</v>
+        <v>2.296051118926648E-10</v>
       </c>
       <c r="E17">
-        <v>163.9936981048095</v>
+        <v>1.370681346202218E-10</v>
       </c>
       <c r="F17">
-        <v>183.3687642430506</v>
+        <v>5.18091880508109E-10</v>
       </c>
       <c r="G17">
-        <v>8.886597799939473</v>
+        <v>3.761546630954547E-10</v>
       </c>
       <c r="H17">
-        <v>171.636173293762</v>
+        <v>1.937193738754672E-10</v>
       </c>
       <c r="I17">
-        <v>186.0647984038341</v>
+        <v>4.88077223081973E-10</v>
       </c>
       <c r="J17">
-        <v>7.901827198543009</v>
+        <v>2.39682207533547E-10</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -7741,31 +8336,31 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>137.8194453730544</v>
       </c>
       <c r="C3">
-        <v>1.818989403545857E-13</v>
+        <v>168.1575733295195</v>
       </c>
       <c r="D3">
-        <v>5.45696821063757E-13</v>
+        <v>14.22013800523136</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>156.6358330692976</v>
       </c>
       <c r="F3">
-        <v>3.637978807091713E-13</v>
+        <v>173.0280880630047</v>
       </c>
       <c r="G3">
-        <v>7.275957614183427E-13</v>
+        <v>10.06816350602255</v>
       </c>
       <c r="H3">
-        <v>5.729816621169448E-10</v>
+        <v>162.471545718561</v>
       </c>
       <c r="I3">
-        <v>2.702654455788433E-09</v>
+        <v>184.7033307411929</v>
       </c>
       <c r="J3">
-        <v>2.804156306383876E-09</v>
+        <v>13.71896591321018</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -7773,31 +8368,31 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>155.0328869068458</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>174.4383915885404</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>9.897342426546849</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>151.0751815560413</v>
       </c>
       <c r="F4">
-        <v>3.637978807091713E-13</v>
+        <v>169.6198022215837</v>
       </c>
       <c r="G4">
-        <v>7.275957614183427E-13</v>
+        <v>9.390169233884428</v>
       </c>
       <c r="H4">
-        <v>5.456968210637569E-12</v>
+        <v>154.5570925509994</v>
       </c>
       <c r="I4">
-        <v>6.839400157332419E-11</v>
+        <v>187.7307039688524</v>
       </c>
       <c r="J4">
-        <v>7.425042555730862E-11</v>
+        <v>15.63709870583514</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -7805,31 +8400,31 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>0.0003632334701251</v>
+        <v>195.1149336101124</v>
       </c>
       <c r="C5">
-        <v>0.0007463453219315001</v>
+        <v>209.4985870127493</v>
       </c>
       <c r="D5">
-        <v>0.0003368532694611</v>
+        <v>8.844720493092069</v>
       </c>
       <c r="E5">
-        <v>0.0016144672008522</v>
+        <v>189.0273510762913</v>
       </c>
       <c r="F5">
-        <v>0.0032634999975925</v>
+        <v>207.9815528000453</v>
       </c>
       <c r="G5">
-        <v>0.0013507896689618</v>
+        <v>9.737416813308229</v>
       </c>
       <c r="H5">
-        <v>0.0006146806717879</v>
+        <v>181.9767032091314</v>
       </c>
       <c r="I5">
-        <v>0.00152649667707</v>
+        <v>203.8099365324701</v>
       </c>
       <c r="J5">
-        <v>0.0010050350899266</v>
+        <v>9.56661403944689</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -7837,31 +8432,31 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>141.9610403799293</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>162.9111385430544</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>12.33539689633596</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>139.2635523423289</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>160.1811556429222</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>8.418918704985304</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>155.1255650719625</v>
       </c>
       <c r="I6">
-        <v>1.091393642127514E-12</v>
+        <v>175.1803547125286</v>
       </c>
       <c r="J6">
-        <v>8.911191772433735E-13</v>
+        <v>10.35705082371127</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -7869,31 +8464,31 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>163.313458566552</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>175.822816909367</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>6.493253323401793</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>159.1042798926965</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>170.0840957871685</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>8.353271014449271</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>161.0005577638116</v>
       </c>
       <c r="I7">
-        <v>7.275957614183426E-13</v>
+        <v>178.3078057995435</v>
       </c>
       <c r="J7">
-        <v>8.911191772433735E-13</v>
+        <v>10.2940861519953</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -7901,31 +8496,31 @@
         <v>9</v>
       </c>
       <c r="B8">
-        <v>9.336187547940426</v>
+        <v>227.3925575288879</v>
       </c>
       <c r="C8">
-        <v>17.41298719213282</v>
+        <v>241.638200709326</v>
       </c>
       <c r="D8">
-        <v>6.207882504589732</v>
+        <v>10.040608602794</v>
       </c>
       <c r="E8">
-        <v>18.906533783751</v>
+        <v>227.8471751013081</v>
       </c>
       <c r="F8">
-        <v>28.09106653283106</v>
+        <v>245.8361310446261</v>
       </c>
       <c r="G8">
-        <v>9.512819674445767</v>
+        <v>11.89317095440658</v>
       </c>
       <c r="H8">
-        <v>25.47981757292109</v>
+        <v>235.2379282637164</v>
       </c>
       <c r="I8">
-        <v>36.29946464356435</v>
+        <v>253.7588917725921</v>
       </c>
       <c r="J8">
-        <v>6.372141878518546</v>
+        <v>10.09157790721698</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -7933,31 +8528,31 @@
         <v>10</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>151.5268002109608</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>168.8010659010466</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>8.718760763469762</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>144.2153804941434</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>170.1221598075843</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>10.11320927576213</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>143.3830221995127</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>174.6247143761389</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>12.28409367925314</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -7965,31 +8560,31 @@
         <v>11</v>
       </c>
       <c r="B10">
-        <v>4.195911969873123E-06</v>
+        <v>183.9349296182279</v>
       </c>
       <c r="C10">
-        <v>1.289459505642298E-05</v>
+        <v>200.6058430549585</v>
       </c>
       <c r="D10">
-        <v>7.032386789279034E-06</v>
+        <v>7.867546284677007</v>
       </c>
       <c r="E10">
-        <v>7.167996955104172E-06</v>
+        <v>173.3873424327444</v>
       </c>
       <c r="F10">
-        <v>2.048172373179113E-05</v>
+        <v>190.6626761580151</v>
       </c>
       <c r="G10">
-        <v>9.137307760576978E-06</v>
+        <v>11.46748379098605</v>
       </c>
       <c r="H10">
-        <v>5.412402970250696E-06</v>
+        <v>164.2397998603608</v>
       </c>
       <c r="I10">
-        <v>1.31642424094025E-05</v>
+        <v>185.5143251335625</v>
       </c>
       <c r="J10">
-        <v>7.492511979051331E-06</v>
+        <v>15.33866488730556</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -7997,31 +8592,31 @@
         <v>12</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>146.0726264345462</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>165.9763239116505</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>10.05077177881182</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>148.6891575895304</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>172.4796930212366</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>10.13775645141174</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>174.3469456158621</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>182.1799543612513</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>6.273295831385317</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -8029,31 +8624,31 @@
         <v>13</v>
       </c>
       <c r="B12">
-        <v>6.544767529703677E-06</v>
+        <v>182.5020423924406</v>
       </c>
       <c r="C12">
-        <v>1.12747453385964E-05</v>
+        <v>196.7252884766752</v>
       </c>
       <c r="D12">
-        <v>4.524729275668474E-06</v>
+        <v>8.391034921785506</v>
       </c>
       <c r="E12">
-        <v>9.724119627207985E-05</v>
+        <v>174.0966608864488</v>
       </c>
       <c r="F12">
-        <v>0.000170335011353</v>
+        <v>198.5884955409317</v>
       </c>
       <c r="G12">
-        <v>5.397714240326877E-05</v>
+        <v>12.27667909258545</v>
       </c>
       <c r="H12">
-        <v>2.989812855958008E-06</v>
+        <v>159.4564988942609</v>
       </c>
       <c r="I12">
-        <v>1.504498304711888E-05</v>
+        <v>188.9833280386891</v>
       </c>
       <c r="J12">
-        <v>6.160601418181327E-06</v>
+        <v>11.40067926762562</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -8061,31 +8656,31 @@
         <v>14</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>149.1632686333149</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>164.813261990245</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>8.611345260406477</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>132.9840978477716</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>159.8706459510038</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>13.78665534810365</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>153.1255269480067</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>171.6435398062971</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>11.11947904642179</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -8093,31 +8688,31 @@
         <v>15</v>
       </c>
       <c r="B14">
-        <v>1.753473198115898</v>
+        <v>209.0669806319692</v>
       </c>
       <c r="C14">
-        <v>2.251767374787414</v>
+        <v>231.0839331448606</v>
       </c>
       <c r="D14">
-        <v>0.5176226686442649</v>
+        <v>11.55180189509989</v>
       </c>
       <c r="E14">
-        <v>1.739491681619256</v>
+        <v>205.6795087705272</v>
       </c>
       <c r="F14">
-        <v>3.086413726261162</v>
+        <v>228.3908058566268</v>
       </c>
       <c r="G14">
-        <v>1.552484514842527</v>
+        <v>12.90141605568591</v>
       </c>
       <c r="H14">
-        <v>1.041745102655113</v>
+        <v>217.8918683472849</v>
       </c>
       <c r="I14">
-        <v>2.861013513431135</v>
+        <v>231.1446261896243</v>
       </c>
       <c r="J14">
-        <v>1.075832922459413</v>
+        <v>10.71478016471763</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -8125,31 +8720,31 @@
         <v>16</v>
       </c>
       <c r="B15">
-        <v>208.1209397142865</v>
+        <v>244.526251424244</v>
       </c>
       <c r="C15">
-        <v>318.1928452615593</v>
+        <v>285.4922391298364</v>
       </c>
       <c r="D15">
-        <v>62.6970152586616</v>
+        <v>19.11753524566422</v>
       </c>
       <c r="E15">
-        <v>309.9172672930017</v>
+        <v>248.2483431193941</v>
       </c>
       <c r="F15">
-        <v>432.4113371245458</v>
+        <v>270.6077311805474</v>
       </c>
       <c r="G15">
-        <v>120.5509123386509</v>
+        <v>13.47660959175127</v>
       </c>
       <c r="H15">
-        <v>573.2600796820443</v>
+        <v>241.1035108222972</v>
       </c>
       <c r="I15">
-        <v>850.1705915351865</v>
+        <v>291.3945888133863</v>
       </c>
       <c r="J15">
-        <v>164.2944426786492</v>
+        <v>23.76209737441397</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -8157,31 +8752,31 @@
         <v>17</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>97.9992955274854</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>147.8415228315114</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>20.89472918421952</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>75.00071346277795</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>148.3170005313866</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>25.38723106466633</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>159.4435338758596</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>169.3277707436615</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>7.854745855024657</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -8189,31 +8784,31 @@
         <v>18</v>
       </c>
       <c r="B17">
-        <v>4.074536263942719E-10</v>
+        <v>140.1137789323461</v>
       </c>
       <c r="C17">
-        <v>9.275026968680321E-10</v>
+        <v>176.4619984613003</v>
       </c>
       <c r="D17">
-        <v>5.433796323189605E-10</v>
+        <v>15.7773702745051</v>
       </c>
       <c r="E17">
-        <v>3.183231456205249E-10</v>
+        <v>163.9936981048095</v>
       </c>
       <c r="F17">
-        <v>8.807546691969036E-10</v>
+        <v>183.3687642430506</v>
       </c>
       <c r="G17">
-        <v>2.670159967066629E-10</v>
+        <v>8.886597799939473</v>
       </c>
       <c r="H17">
-        <v>4.729372449219227E-10</v>
+        <v>171.636173293762</v>
       </c>
       <c r="I17">
-        <v>1.186526787932962E-09</v>
+        <v>186.0647984038341</v>
       </c>
       <c r="J17">
-        <v>6.029954262470932E-10</v>
+        <v>7.901827198543009</v>
       </c>
     </row>
     <row r="18" spans="1:10">

--- a/CRO_SL_python.xlsx
+++ b/CRO_SL_python.xlsx
@@ -17,19 +17,20 @@
     <sheet name="Griewank(30); eval=3e5" sheetId="8" r:id="rId8"/>
     <sheet name="Rastrigin(30); eval=3e5" sheetId="9" r:id="rId9"/>
     <sheet name="ModSchwefel(30); eval=3e5" sheetId="10" r:id="rId10"/>
-    <sheet name="HappyCat(30); eval=3e5" sheetId="11" r:id="rId11"/>
-    <sheet name="HGBat(30); eval=3e5" sheetId="12" r:id="rId12"/>
-    <sheet name="ExpandedGriewan(30); eval=3e5" sheetId="13" r:id="rId13"/>
-    <sheet name="ExpandedShaffer(30); eval=3e5" sheetId="14" r:id="rId14"/>
+    <sheet name="Katsuura(30); eval=3e5" sheetId="11" r:id="rId11"/>
+    <sheet name="HappyCat(30); eval=3e5" sheetId="12" r:id="rId12"/>
+    <sheet name="HGBat(30); eval=3e5" sheetId="13" r:id="rId13"/>
+    <sheet name="ExpandedGriewan(30); eval=3e5" sheetId="14" r:id="rId14"/>
+    <sheet name="ExpandedShaffer(30); eval=3e5" sheetId="15" r:id="rId15"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="22">
   <si>
-    <t>function</t>
+    <t>operator</t>
   </si>
   <si>
     <t>best</t>
@@ -614,31 +615,31 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>6.417234134003766E-89</v>
+        <v>1.32765234236518E-71</v>
       </c>
       <c r="C3">
-        <v>4.454341180975277E-87</v>
+        <v>1.747073596255692E-69</v>
       </c>
       <c r="D3">
-        <v>6.320932311567645E-87</v>
+        <v>3.680158325708786E-69</v>
       </c>
       <c r="E3">
-        <v>1.188793E-46</v>
+        <v>3.857969739217492E-45</v>
       </c>
       <c r="F3">
-        <v>7.375575E-45</v>
+        <v>5.492640996464991E-44</v>
       </c>
       <c r="G3">
-        <v>1.342383E-44</v>
+        <v>5.350365291230133E-44</v>
       </c>
       <c r="H3">
-        <v>1.278898271833466E-46</v>
+        <v>2.023403798809868E-48</v>
       </c>
       <c r="I3">
-        <v>2.08557372569222E-45</v>
+        <v>6.888047853004249E-36</v>
       </c>
       <c r="J3">
-        <v>1.986096593666701E-45</v>
+        <v>1.969354404179772E-35</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -646,31 +647,31 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>1.753934913602273E-103</v>
+        <v>2.534799150922163E-64</v>
       </c>
       <c r="C4">
-        <v>6.052107009744412E-100</v>
+        <v>2.027802882786732E-36</v>
       </c>
       <c r="D4">
-        <v>1.325318968333626E-99</v>
+        <v>6.083406582781685E-36</v>
       </c>
       <c r="E4">
-        <v>1.654836E-47</v>
+        <v>6.199567289526069E-46</v>
       </c>
       <c r="F4">
-        <v>8.670413E-46</v>
+        <v>4.384874728560037E-45</v>
       </c>
       <c r="G4">
-        <v>1.279931E-45</v>
+        <v>3.447086674071562E-45</v>
       </c>
       <c r="H4">
-        <v>1.424057886912153E-46</v>
+        <v>1.436600513176936E-46</v>
       </c>
       <c r="I4">
-        <v>1.315049733617668E-45</v>
+        <v>1.106757344868764E-30</v>
       </c>
       <c r="J4">
-        <v>1.128144163921706E-45</v>
+        <v>3.320272033840834E-30</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -678,31 +679,31 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>1.655129623595377E-28</v>
+        <v>1.99582958581856E-21</v>
       </c>
       <c r="C5">
-        <v>1.123190221318259E-26</v>
+        <v>4.933650202635832E-20</v>
       </c>
       <c r="D5">
-        <v>1.275384297105121E-26</v>
+        <v>4.986354450104387E-20</v>
       </c>
       <c r="E5">
-        <v>3.079961E-15</v>
+        <v>2.63300975565254E-14</v>
       </c>
       <c r="F5">
-        <v>1.091211E-14</v>
+        <v>1.303910907689256E-13</v>
       </c>
       <c r="G5">
-        <v>8.667399000000001E-15</v>
+        <v>9.42958879045972E-14</v>
       </c>
       <c r="H5">
-        <v>2.096419131687324E-15</v>
+        <v>5.891988135465982E-17</v>
       </c>
       <c r="I5">
-        <v>1.063808349848826E-14</v>
+        <v>1.960599123051877E-11</v>
       </c>
       <c r="J5">
-        <v>8.265785258280199E-15</v>
+        <v>5.473639491802321E-11</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -710,31 +711,31 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>1.401458045257536E-98</v>
+        <v>9.907249531669496E-88</v>
       </c>
       <c r="C6">
-        <v>3.50674491651053E-96</v>
+        <v>2.033415453294592E-85</v>
       </c>
       <c r="D6">
-        <v>8.014556180228302E-96</v>
+        <v>3.992940234892495E-85</v>
       </c>
       <c r="E6">
-        <v>5.803276E-58</v>
+        <v>1.625943798717257E-55</v>
       </c>
       <c r="F6">
-        <v>6.598474E-56</v>
+        <v>1.470483159606364E-54</v>
       </c>
       <c r="G6">
-        <v>6.834479E-56</v>
+        <v>1.736170280089191E-54</v>
       </c>
       <c r="H6">
-        <v>1.672646138083478E-56</v>
+        <v>1.125096070408395E-53</v>
       </c>
       <c r="I6">
-        <v>3.983554887811276E-55</v>
+        <v>6.409192250838204E-44</v>
       </c>
       <c r="J6">
-        <v>7.048073087975256E-55</v>
+        <v>1.916917323425898E-43</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -742,31 +743,31 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>1.108716078488729E-99</v>
+        <v>4.205118948508046E-81</v>
       </c>
       <c r="C7">
-        <v>1.571663419726876E-96</v>
+        <v>5.388132538775168E-59</v>
       </c>
       <c r="D7">
-        <v>2.427051628073563E-96</v>
+        <v>1.616438986334099E-58</v>
       </c>
       <c r="E7">
-        <v>3.160874E-55</v>
+        <v>8.527150594295945E-54</v>
       </c>
       <c r="F7">
-        <v>1.782458E-54</v>
+        <v>1.026041585581524E-52</v>
       </c>
       <c r="G7">
-        <v>1.625402E-54</v>
+        <v>1.652799863409735E-52</v>
       </c>
       <c r="H7">
-        <v>6.283590650449946E-55</v>
+        <v>6.656228683948956E-59</v>
       </c>
       <c r="I7">
-        <v>3.015754423603596E-53</v>
+        <v>4.351841127542022E-41</v>
       </c>
       <c r="J7">
-        <v>4.951948246395124E-53</v>
+        <v>1.305544739919127E-40</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -774,31 +775,31 @@
         <v>9</v>
       </c>
       <c r="B8">
-        <v>4.528815156959825E-11</v>
+        <v>9.889650360907358E-11</v>
       </c>
       <c r="C8">
-        <v>6.239369594836974E-09</v>
+        <v>8.37688564624084E-10</v>
       </c>
       <c r="D8">
-        <v>7.699100691734274E-09</v>
+        <v>7.157467391910291E-10</v>
       </c>
       <c r="E8">
-        <v>0.002660509</v>
+        <v>0.0066051417052612</v>
       </c>
       <c r="F8">
-        <v>0.005072577</v>
+        <v>0.0124737721669095</v>
       </c>
       <c r="G8">
-        <v>0.002105272</v>
+        <v>0.0059216723400712</v>
       </c>
       <c r="H8">
-        <v>0.002741144584922</v>
+        <v>0.0051127638678187</v>
       </c>
       <c r="I8">
-        <v>0.0047347455761193</v>
+        <v>0.0234006846853044</v>
       </c>
       <c r="J8">
-        <v>0.0019285585238254</v>
+        <v>0.0197652085080011</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -806,31 +807,31 @@
         <v>10</v>
       </c>
       <c r="B9">
-        <v>3.193809795508263E-107</v>
+        <v>2.713269292174397E-96</v>
       </c>
       <c r="C9">
-        <v>2.39167762196457E-105</v>
+        <v>9.84160610842219E-95</v>
       </c>
       <c r="D9">
-        <v>4.457578779350372E-105</v>
+        <v>1.506841566276478E-94</v>
       </c>
       <c r="E9">
-        <v>4.360203E-65</v>
+        <v>5.826840867296473E-63</v>
       </c>
       <c r="F9">
-        <v>1.063553E-63</v>
+        <v>2.981831888741474E-62</v>
       </c>
       <c r="G9">
-        <v>9.577852E-64</v>
+        <v>4.318024811096724E-62</v>
       </c>
       <c r="H9">
-        <v>7.51011839237236E-65</v>
+        <v>5.261710039689898E-72</v>
       </c>
       <c r="I9">
-        <v>5.629813696822865E-64</v>
+        <v>6.257861690853391E-55</v>
       </c>
       <c r="J9">
-        <v>6.075587282217123E-64</v>
+        <v>1.865972839019217E-54</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -838,31 +839,31 @@
         <v>11</v>
       </c>
       <c r="B10">
-        <v>1.173688800943377E-30</v>
+        <v>4.724285646706118E-26</v>
       </c>
       <c r="C10">
-        <v>7.339291003713733E-30</v>
+        <v>2.117068298074974E-21</v>
       </c>
       <c r="D10">
-        <v>8.45338913070488E-30</v>
+        <v>1.495017869790367E-21</v>
       </c>
       <c r="E10">
-        <v>8.667317E-22</v>
+        <v>1.328740263829593E-20</v>
       </c>
       <c r="F10">
-        <v>3.272033E-21</v>
+        <v>6.656513011598404E-20</v>
       </c>
       <c r="G10">
-        <v>1.418195E-21</v>
+        <v>5.10339223464869E-20</v>
       </c>
       <c r="H10">
-        <v>1.108120926211391E-21</v>
+        <v>6.599266185100486E-21</v>
       </c>
       <c r="I10">
-        <v>3.697127883411008E-21</v>
+        <v>9.131205060837176E-19</v>
       </c>
       <c r="J10">
-        <v>2.881458342682424E-21</v>
+        <v>1.675813751761542E-18</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -870,31 +871,31 @@
         <v>12</v>
       </c>
       <c r="B11">
-        <v>1.452600942140712E-109</v>
+        <v>1.691004326818137E-65</v>
       </c>
       <c r="C11">
-        <v>1.362996638961345E-105</v>
+        <v>3.02688994559276E-64</v>
       </c>
       <c r="D11">
-        <v>2.085308355781956E-105</v>
+        <v>3.92738245261516E-64</v>
       </c>
       <c r="E11">
-        <v>4.922326E-64</v>
+        <v>2.617414594372535E-60</v>
       </c>
       <c r="F11">
-        <v>1.60794E-60</v>
+        <v>6.608012249334456E-59</v>
       </c>
       <c r="G11">
-        <v>2.171001E-60</v>
+        <v>1.11995378380713E-58</v>
       </c>
       <c r="H11">
-        <v>5.95400518700372E-63</v>
+        <v>8.624194212363482E-69</v>
       </c>
       <c r="I11">
-        <v>3.932509482235528E-61</v>
+        <v>1.048098322329967E-57</v>
       </c>
       <c r="J11">
-        <v>4.794381925420015E-61</v>
+        <v>3.129907521989194E-57</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -902,31 +903,31 @@
         <v>13</v>
       </c>
       <c r="B12">
-        <v>1.221735895712413E-34</v>
+        <v>6.485133496837921E-24</v>
       </c>
       <c r="C12">
-        <v>2.978715343666176E-32</v>
+        <v>4.244459580879979E-22</v>
       </c>
       <c r="D12">
-        <v>4.048875696240864E-32</v>
+        <v>5.50194794706355E-22</v>
       </c>
       <c r="E12">
-        <v>2.57032E-19</v>
+        <v>1.073254081179373E-17</v>
       </c>
       <c r="F12">
-        <v>1.629433E-18</v>
+        <v>4.366320475034553E-17</v>
       </c>
       <c r="G12">
-        <v>1.248478E-18</v>
+        <v>3.228134427839929E-17</v>
       </c>
       <c r="H12">
-        <v>6.385788460642462E-19</v>
+        <v>2.028775050818468E-19</v>
       </c>
       <c r="I12">
-        <v>1.898173306902149E-18</v>
+        <v>9.60520116752084E-14</v>
       </c>
       <c r="J12">
-        <v>2.277953510810427E-18</v>
+        <v>2.503052031361388E-13</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -934,31 +935,31 @@
         <v>14</v>
       </c>
       <c r="B13">
-        <v>1.059409470617122E-106</v>
+        <v>6.453103942170515E-98</v>
       </c>
       <c r="C13">
-        <v>4.847157644208905E-105</v>
+        <v>6.94398226448238E-95</v>
       </c>
       <c r="D13">
-        <v>8.999729870773471E-105</v>
+        <v>1.099079737843398E-94</v>
       </c>
       <c r="E13">
-        <v>2.543074E-76</v>
+        <v>1.226823967695822E-73</v>
       </c>
       <c r="F13">
-        <v>9.831384000000001E-75</v>
+        <v>1.146981035923434E-72</v>
       </c>
       <c r="G13">
-        <v>1.272857E-74</v>
+        <v>1.453705016670009E-72</v>
       </c>
       <c r="H13">
-        <v>8.618384396341111E-76</v>
+        <v>3.322481561696796E-77</v>
       </c>
       <c r="I13">
-        <v>1.04682945405585E-74</v>
+        <v>3.831420065548184E-69</v>
       </c>
       <c r="J13">
-        <v>9.27398332596183E-75</v>
+        <v>1.108712248051926E-68</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -966,31 +967,31 @@
         <v>15</v>
       </c>
       <c r="B14">
-        <v>1.996431413292356E-06</v>
+        <v>6.603834387542489E-06</v>
       </c>
       <c r="C14">
-        <v>5.554675218413091E-06</v>
+        <v>1.4969564407349E-05</v>
       </c>
       <c r="D14">
-        <v>2.206524989712996E-06</v>
+        <v>5.337075019662811E-06</v>
       </c>
       <c r="E14">
-        <v>2.518899E-06</v>
+        <v>5.606962486869022E-06</v>
       </c>
       <c r="F14">
-        <v>6.665084E-06</v>
+        <v>1.34378117389802E-05</v>
       </c>
       <c r="G14">
-        <v>2.811837E-06</v>
+        <v>7.181593925122388E-06</v>
       </c>
       <c r="H14">
-        <v>2.06729065920467E-06</v>
+        <v>8.626152274783613E-06</v>
       </c>
       <c r="I14">
-        <v>8.038764781527019E-06</v>
+        <v>1.697116983046218E-05</v>
       </c>
       <c r="J14">
-        <v>3.485633281866586E-06</v>
+        <v>7.692401559417085E-06</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -998,31 +999,31 @@
         <v>16</v>
       </c>
       <c r="B15">
-        <v>6.563333794958241</v>
+        <v>11.17527047989625</v>
       </c>
       <c r="C15">
-        <v>11.74180543261805</v>
+        <v>17.63032733126256</v>
       </c>
       <c r="D15">
-        <v>4.473362786599875</v>
+        <v>6.165730470473259</v>
       </c>
       <c r="E15">
-        <v>5.239716</v>
+        <v>8.764650717738704</v>
       </c>
       <c r="F15">
-        <v>12.5271</v>
+        <v>17.1560295552459</v>
       </c>
       <c r="G15">
-        <v>5.041886</v>
+        <v>4.406025640048309</v>
       </c>
       <c r="H15">
-        <v>4.404339237874816</v>
+        <v>8.3725684978773</v>
       </c>
       <c r="I15">
-        <v>12.18699788737544</v>
+        <v>17.08405214393694</v>
       </c>
       <c r="J15">
-        <v>5.077221131186817</v>
+        <v>7.865678748888374</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -1030,31 +1031,31 @@
         <v>17</v>
       </c>
       <c r="B16">
-        <v>8.203639959275405E-113</v>
+        <v>1.30111769738845E-108</v>
       </c>
       <c r="C16">
-        <v>4.910937400643079E-111</v>
+        <v>6.797271973486866E-108</v>
       </c>
       <c r="D16">
-        <v>8.436387745232614E-111</v>
+        <v>4.126809195302152E-108</v>
       </c>
       <c r="E16">
-        <v>1.319251E-112</v>
+        <v>1.355766518763926E-109</v>
       </c>
       <c r="F16">
-        <v>4.955246999999999E-111</v>
+        <v>6.284592792790185E-107</v>
       </c>
       <c r="G16">
-        <v>5.529982E-111</v>
+        <v>1.106124984216815E-106</v>
       </c>
       <c r="H16">
-        <v>1.380142141488129E-113</v>
+        <v>2.540338735047381E-109</v>
       </c>
       <c r="I16">
-        <v>4.075712730187877E-111</v>
+        <v>2.296288963827828E-107</v>
       </c>
       <c r="J16">
-        <v>7.582413368722591E-111</v>
+        <v>3.811288252293631E-107</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -1062,31 +1063,31 @@
         <v>18</v>
       </c>
       <c r="B17">
-        <v>5.899698656559206E-35</v>
+        <v>1.802913205611357E-33</v>
       </c>
       <c r="C17">
-        <v>2.659397418107389E-34</v>
+        <v>6.708091102020006E-33</v>
       </c>
       <c r="D17">
-        <v>1.436668248262929E-34</v>
+        <v>3.744270289730122E-33</v>
       </c>
       <c r="E17">
-        <v>9.157866E-35</v>
+        <v>2.305723097287129E-33</v>
       </c>
       <c r="F17">
-        <v>2.258748E-34</v>
+        <v>4.325717990790678E-33</v>
       </c>
       <c r="G17">
-        <v>9.903255999999999E-35</v>
+        <v>2.017545579976656E-33</v>
       </c>
       <c r="H17">
-        <v>8.622949600142684E-35</v>
+        <v>7.549133472255978E-34</v>
       </c>
       <c r="I17">
-        <v>4.905658053626585E-34</v>
+        <v>5.607870654936008E-33</v>
       </c>
       <c r="J17">
-        <v>4.264288007552416E-34</v>
+        <v>4.148418282515757E-33</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1211,28 +1212,28 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>1.818989403545857E-13</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>5.45696821063757E-13</v>
+        <v>0</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>3.637978807091713E-13</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>7.275957614183427E-13</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>5.729816621169448E-10</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>2.702654455788433E-09</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>2.804156306383876E-09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1252,19 +1253,19 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>3.637978807091713E-13</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>7.275957614183427E-13</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>5.456968210637569E-12</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>6.839400157332419E-11</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>7.425042555730862E-11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1272,31 +1273,31 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>0.0003632334701251</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>0.0007463453219315001</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>0.0003368532694611</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>0.0016144672008522</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.0032634999975925</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>0.0013507896689618</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>0.0006146806717879</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0.00152649667707</v>
+        <v>1.2732925824821E-12</v>
       </c>
       <c r="J5">
-        <v>0.0010050350899266</v>
+        <v>1.637090463191271E-12</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1325,10 +1326,10 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1.091393642127514E-12</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>8.911191772433735E-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1357,10 +1358,10 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>7.275957614183426E-13</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>8.911191772433735E-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1368,31 +1369,31 @@
         <v>9</v>
       </c>
       <c r="B8">
-        <v>9.336187547940426</v>
+        <v>1.091393642127514E-11</v>
       </c>
       <c r="C8">
-        <v>17.41298719213282</v>
+        <v>9.531504474580288E-11</v>
       </c>
       <c r="D8">
-        <v>6.207882504589732</v>
+        <v>1.364853096255864E-10</v>
       </c>
       <c r="E8">
-        <v>18.906533783751</v>
+        <v>0.0007259845260705</v>
       </c>
       <c r="F8">
-        <v>28.09106653283106</v>
+        <v>0.001177820877092</v>
       </c>
       <c r="G8">
-        <v>9.512819674445767</v>
+        <v>0.0002956677686125</v>
       </c>
       <c r="H8">
-        <v>25.47981757292109</v>
+        <v>0.0018196060827904</v>
       </c>
       <c r="I8">
-        <v>36.29946464356435</v>
+        <v>0.0043215076701017</v>
       </c>
       <c r="J8">
-        <v>6.372141878518546</v>
+        <v>0.0030424404614944</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1432,31 +1433,31 @@
         <v>11</v>
       </c>
       <c r="B10">
-        <v>4.195911969873123E-06</v>
+        <v>0</v>
       </c>
       <c r="C10">
-        <v>1.289459505642298E-05</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>7.032386789279034E-06</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>7.167996955104172E-06</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>2.048172373179113E-05</v>
+        <v>0</v>
       </c>
       <c r="G10">
-        <v>9.137307760576978E-06</v>
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>5.412402970250696E-06</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>1.31642424094025E-05</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>7.492511979051331E-06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -1496,31 +1497,31 @@
         <v>13</v>
       </c>
       <c r="B12">
-        <v>6.544767529703677E-06</v>
+        <v>0</v>
       </c>
       <c r="C12">
-        <v>1.12747453385964E-05</v>
+        <v>0</v>
       </c>
       <c r="D12">
-        <v>4.524729275668474E-06</v>
+        <v>0</v>
       </c>
       <c r="E12">
-        <v>9.724119627207985E-05</v>
+        <v>0</v>
       </c>
       <c r="F12">
-        <v>0.000170335011353</v>
+        <v>0</v>
       </c>
       <c r="G12">
-        <v>5.397714240326877E-05</v>
+        <v>0</v>
       </c>
       <c r="H12">
-        <v>2.989812855958008E-06</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>1.504498304711888E-05</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>6.160601418181327E-06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -1560,31 +1561,31 @@
         <v>15</v>
       </c>
       <c r="B14">
-        <v>1.753473198115898</v>
+        <v>7.387316145468503E-07</v>
       </c>
       <c r="C14">
-        <v>2.251767374787414</v>
+        <v>1.968797005247325E-06</v>
       </c>
       <c r="D14">
-        <v>0.5176226686442649</v>
+        <v>1.374549666336389E-06</v>
       </c>
       <c r="E14">
-        <v>1.739491681619256</v>
+        <v>6.12320945947431E-07</v>
       </c>
       <c r="F14">
-        <v>3.086413726261162</v>
+        <v>2.021480395342224E-06</v>
       </c>
       <c r="G14">
-        <v>1.552484514842527</v>
+        <v>1.565035085882059E-06</v>
       </c>
       <c r="H14">
-        <v>1.041745102655113</v>
+        <v>9.705690899863839E-07</v>
       </c>
       <c r="I14">
-        <v>2.861013513431135</v>
+        <v>1.945226358657237E-06</v>
       </c>
       <c r="J14">
-        <v>1.075832922459413</v>
+        <v>8.50811378154833E-07</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -1592,31 +1593,31 @@
         <v>16</v>
       </c>
       <c r="B15">
-        <v>208.1209397142865</v>
+        <v>1.10694865565165</v>
       </c>
       <c r="C15">
-        <v>318.1928452615593</v>
+        <v>2.542784845712776</v>
       </c>
       <c r="D15">
-        <v>62.6970152586616</v>
+        <v>1.318856495439987</v>
       </c>
       <c r="E15">
-        <v>309.9172672930017</v>
+        <v>1.344334327728575</v>
       </c>
       <c r="F15">
-        <v>432.4113371245458</v>
+        <v>2.378031313521933</v>
       </c>
       <c r="G15">
-        <v>120.5509123386509</v>
+        <v>0.6245606445855878</v>
       </c>
       <c r="H15">
-        <v>573.2600796820443</v>
+        <v>0.7884191477642162</v>
       </c>
       <c r="I15">
-        <v>850.1705915351865</v>
+        <v>1.765984320213101</v>
       </c>
       <c r="J15">
-        <v>164.2944426786492</v>
+        <v>0.6343772795640052</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -1656,31 +1657,31 @@
         <v>18</v>
       </c>
       <c r="B17">
-        <v>4.074536263942719E-10</v>
+        <v>0</v>
       </c>
       <c r="C17">
-        <v>9.275026968680321E-10</v>
+        <v>0</v>
       </c>
       <c r="D17">
-        <v>5.433796323189605E-10</v>
+        <v>0</v>
       </c>
       <c r="E17">
-        <v>3.183231456205249E-10</v>
+        <v>0</v>
       </c>
       <c r="F17">
-        <v>8.807546691969036E-10</v>
+        <v>0</v>
       </c>
       <c r="G17">
-        <v>2.670159967066629E-10</v>
+        <v>0</v>
       </c>
       <c r="H17">
-        <v>4.729372449219227E-10</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>1.186526787932962E-09</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>6.029954262470932E-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1802,482 +1803,34 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>-405.9023994356888</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>-405.9023994356888</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>5.684341886080803E-14</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>-405.9023994356888</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>-405.9023994356888</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>5.684341886080803E-14</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>-405.9023994356888</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>-405.9023994356888</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>5.684341886080803E-14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4">
-        <v>-405.9023994356888</v>
-      </c>
-      <c r="C4">
-        <v>-405.9023994356888</v>
-      </c>
-      <c r="D4">
-        <v>5.684341886080803E-14</v>
-      </c>
-      <c r="E4">
-        <v>-405.9023994356888</v>
-      </c>
-      <c r="F4">
-        <v>-405.9023994356888</v>
-      </c>
-      <c r="G4">
-        <v>5.684341886080803E-14</v>
-      </c>
-      <c r="H4">
-        <v>-405.9023994356888</v>
-      </c>
-      <c r="I4">
-        <v>-405.9023994356888</v>
-      </c>
-      <c r="J4">
-        <v>5.684341886080803E-14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5">
-        <v>-405.9023994356887</v>
-      </c>
-      <c r="C5">
-        <v>-405.9023994356882</v>
-      </c>
-      <c r="D5">
-        <v>3.723135453995568E-13</v>
-      </c>
-      <c r="E5">
-        <v>-405.9023994356888</v>
-      </c>
-      <c r="F5">
-        <v>-405.9023994356879</v>
-      </c>
-      <c r="G5">
-        <v>1.22352075514268E-12</v>
-      </c>
-      <c r="H5">
-        <v>-405.9023994356888</v>
-      </c>
-      <c r="I5">
-        <v>-405.9023994356884</v>
-      </c>
-      <c r="J5">
-        <v>3.787666002826354E-13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6">
-        <v>-405.9023994356888</v>
-      </c>
-      <c r="C6">
-        <v>-405.9023994356888</v>
-      </c>
-      <c r="D6">
-        <v>5.684341886080803E-14</v>
-      </c>
-      <c r="E6">
-        <v>-405.9023994356888</v>
-      </c>
-      <c r="F6">
-        <v>-405.9023994356888</v>
-      </c>
-      <c r="G6">
-        <v>5.684341886080803E-14</v>
-      </c>
-      <c r="H6">
-        <v>-405.9023994356888</v>
-      </c>
-      <c r="I6">
-        <v>-405.9023994356888</v>
-      </c>
-      <c r="J6">
-        <v>5.684341886080803E-14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7">
-        <v>-405.9023994356888</v>
-      </c>
-      <c r="C7">
-        <v>-405.9023994356888</v>
-      </c>
-      <c r="D7">
-        <v>5.684341886080803E-14</v>
-      </c>
-      <c r="E7">
-        <v>-405.9023994356888</v>
-      </c>
-      <c r="F7">
-        <v>-405.9023994356888</v>
-      </c>
-      <c r="G7">
-        <v>5.684341886080803E-14</v>
-      </c>
-      <c r="H7">
-        <v>-405.9023994356888</v>
-      </c>
-      <c r="I7">
-        <v>-405.9023994356888</v>
-      </c>
-      <c r="J7">
-        <v>5.684341886080803E-14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8">
-        <v>-405.9023994356888</v>
-      </c>
-      <c r="C8">
-        <v>-405.9023994356888</v>
-      </c>
-      <c r="D8">
-        <v>5.684341886080803E-14</v>
-      </c>
-      <c r="E8">
-        <v>-405.9023994356888</v>
-      </c>
-      <c r="F8">
-        <v>-405.9023994356888</v>
-      </c>
-      <c r="G8">
-        <v>5.684341886080803E-14</v>
-      </c>
-      <c r="H8">
-        <v>-405.9023994356888</v>
-      </c>
-      <c r="I8">
-        <v>-405.9023994356888</v>
-      </c>
-      <c r="J8">
-        <v>5.684341886080803E-14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9">
-        <v>-405.9023994356888</v>
-      </c>
-      <c r="C9">
-        <v>-405.9023994356888</v>
-      </c>
-      <c r="D9">
-        <v>5.684341886080803E-14</v>
-      </c>
-      <c r="E9">
-        <v>-405.9023994356888</v>
-      </c>
-      <c r="F9">
-        <v>-405.9023994356888</v>
-      </c>
-      <c r="G9">
-        <v>5.684341886080803E-14</v>
-      </c>
-      <c r="H9">
-        <v>-405.9023994356888</v>
-      </c>
-      <c r="I9">
-        <v>-405.9023994356888</v>
-      </c>
-      <c r="J9">
-        <v>5.684341886080803E-14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10">
-        <v>-405.9023994350762</v>
-      </c>
-      <c r="C10">
-        <v>-405.9023994334892</v>
-      </c>
-      <c r="D10">
-        <v>1.773812175166991E-09</v>
-      </c>
-      <c r="E10">
-        <v>-405.9023994349868</v>
-      </c>
-      <c r="F10">
-        <v>-405.902399434057</v>
-      </c>
-      <c r="G10">
-        <v>8.060280992201782E-10</v>
-      </c>
-      <c r="H10">
-        <v>-405.9023994344684</v>
-      </c>
-      <c r="I10">
-        <v>-405.9023994335543</v>
-      </c>
-      <c r="J10">
-        <v>6.50149542546656E-10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11">
-        <v>-405.9023994356888</v>
-      </c>
-      <c r="C11">
-        <v>-405.9023994356888</v>
-      </c>
-      <c r="D11">
-        <v>5.684341886080803E-14</v>
-      </c>
-      <c r="E11">
-        <v>-405.9023994356888</v>
-      </c>
-      <c r="F11">
-        <v>-405.9023994356888</v>
-      </c>
-      <c r="G11">
-        <v>5.684341886080803E-14</v>
-      </c>
-      <c r="H11">
-        <v>-405.9023994356888</v>
-      </c>
-      <c r="I11">
-        <v>-405.9023994356888</v>
-      </c>
-      <c r="J11">
-        <v>5.684341886080803E-14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12">
-        <v>-405.9023994356888</v>
-      </c>
-      <c r="C12">
-        <v>-405.9023994356888</v>
-      </c>
-      <c r="D12">
-        <v>5.684341886080803E-14</v>
-      </c>
-      <c r="E12">
-        <v>-405.9023994356888</v>
-      </c>
-      <c r="F12">
-        <v>-405.9023994356888</v>
-      </c>
-      <c r="G12">
-        <v>5.684341886080803E-14</v>
-      </c>
-      <c r="H12">
-        <v>-405.9023994356888</v>
-      </c>
-      <c r="I12">
-        <v>-405.9023994356888</v>
-      </c>
-      <c r="J12">
-        <v>5.684341886080803E-14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13">
-        <v>-405.9023994356888</v>
-      </c>
-      <c r="C13">
-        <v>-405.9023994356888</v>
-      </c>
-      <c r="D13">
-        <v>5.684341886080803E-14</v>
-      </c>
-      <c r="E13">
-        <v>-405.9023994356888</v>
-      </c>
-      <c r="F13">
-        <v>-405.9023994356888</v>
-      </c>
-      <c r="G13">
-        <v>5.684341886080803E-14</v>
-      </c>
-      <c r="H13">
-        <v>-405.9023994356888</v>
-      </c>
-      <c r="I13">
-        <v>-405.9023994356888</v>
-      </c>
-      <c r="J13">
-        <v>5.684341886080803E-14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14">
-        <v>-405.9023994356722</v>
-      </c>
-      <c r="C14">
-        <v>-405.9023994356429</v>
-      </c>
-      <c r="D14">
-        <v>2.11816610361124E-11</v>
-      </c>
-      <c r="E14">
-        <v>-405.9023994356737</v>
-      </c>
-      <c r="F14">
-        <v>-405.9023994356431</v>
-      </c>
-      <c r="G14">
-        <v>2.257022329783722E-11</v>
-      </c>
-      <c r="H14">
-        <v>-405.9023994356734</v>
-      </c>
-      <c r="I14">
-        <v>-405.9023994356528</v>
-      </c>
-      <c r="J14">
-        <v>1.431487265282812E-11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15">
-        <v>-405.9023994356888</v>
-      </c>
-      <c r="C15">
-        <v>-405.9023994356888</v>
-      </c>
-      <c r="D15">
-        <v>5.684341886080803E-14</v>
-      </c>
-      <c r="E15">
-        <v>-405.9023994356888</v>
-      </c>
-      <c r="F15">
-        <v>-405.9023994356888</v>
-      </c>
-      <c r="G15">
-        <v>5.684341886080803E-14</v>
-      </c>
-      <c r="H15">
-        <v>-405.9023994356888</v>
-      </c>
-      <c r="I15">
-        <v>-405.9023994356888</v>
-      </c>
-      <c r="J15">
-        <v>5.684341886080803E-14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16">
-        <v>-405.9023994356888</v>
-      </c>
-      <c r="C16">
-        <v>-405.9023994356888</v>
-      </c>
-      <c r="D16">
-        <v>5.684341886080803E-14</v>
-      </c>
-      <c r="E16">
-        <v>-405.9023994356888</v>
-      </c>
-      <c r="F16">
-        <v>-405.9023994356888</v>
-      </c>
-      <c r="G16">
-        <v>5.684341886080803E-14</v>
-      </c>
-      <c r="H16">
-        <v>-405.9023994356888</v>
-      </c>
-      <c r="I16">
-        <v>-405.9023994356888</v>
-      </c>
-      <c r="J16">
-        <v>5.684341886080803E-14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
-      <c r="A17" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17">
-        <v>-405.9023994233141</v>
-      </c>
-      <c r="C17">
-        <v>-405.9023994101064</v>
-      </c>
-      <c r="D17">
-        <v>1.138207822807344E-08</v>
-      </c>
-      <c r="E17">
-        <v>-405.9023994245201</v>
-      </c>
-      <c r="F17">
-        <v>-405.9023994074702</v>
-      </c>
-      <c r="G17">
-        <v>1.18633451461612E-08</v>
-      </c>
-      <c r="H17">
-        <v>-405.9023994225651</v>
-      </c>
-      <c r="I17">
-        <v>-405.9023994114501</v>
-      </c>
-      <c r="J17">
-        <v>1.138371985030072E-08</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10">
       <c r="B18" s="2">
         <f t="array" ref="B18">(AVERAGE(B3:B17))</f>
         <v>0</v>
@@ -2396,31 +1949,31 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>0.4903633051034713</v>
+        <v>-405.9023994356888</v>
       </c>
       <c r="C3">
-        <v>0.5261599435263939</v>
+        <v>-405.9023994356888</v>
       </c>
       <c r="D3">
-        <v>0.0249577929847356</v>
+        <v>5.684341886080803E-14</v>
       </c>
       <c r="E3">
-        <v>0.4903066534334018</v>
+        <v>-405.9023994356888</v>
       </c>
       <c r="F3">
-        <v>0.5261129439426731</v>
+        <v>-405.9023994356888</v>
       </c>
       <c r="G3">
-        <v>0.0265477346256736</v>
+        <v>5.684341886080803E-14</v>
       </c>
       <c r="H3">
-        <v>0.4906393028015383</v>
+        <v>-405.9023994356888</v>
       </c>
       <c r="I3">
-        <v>0.5204926952406725</v>
+        <v>-405.9023994356888</v>
       </c>
       <c r="J3">
-        <v>0.0337009508358955</v>
+        <v>5.684341886080803E-14</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -2428,31 +1981,31 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>0.4913714725927498</v>
+        <v>-405.9023994356888</v>
       </c>
       <c r="C4">
-        <v>0.5384521432217807</v>
+        <v>-405.9023994356888</v>
       </c>
       <c r="D4">
-        <v>0.0280299552888287</v>
+        <v>5.684341886080803E-14</v>
       </c>
       <c r="E4">
-        <v>0.4928458774145315</v>
+        <v>-405.9023994356888</v>
       </c>
       <c r="F4">
-        <v>0.5329485931658469</v>
+        <v>-405.9023994356888</v>
       </c>
       <c r="G4">
-        <v>0.0284937163720106</v>
+        <v>5.684341886080803E-14</v>
       </c>
       <c r="H4">
-        <v>0.5074963980443229</v>
+        <v>-405.9023994356888</v>
       </c>
       <c r="I4">
-        <v>0.5381189982481376</v>
+        <v>-405.9023994356888</v>
       </c>
       <c r="J4">
-        <v>0.0241000553909929</v>
+        <v>5.684341886080803E-14</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -2460,31 +2013,31 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>0.4978515439368374</v>
+        <v>-405.9023994356888</v>
       </c>
       <c r="C5">
-        <v>0.5277492618145379</v>
+        <v>-405.9023994356888</v>
       </c>
       <c r="D5">
-        <v>0.0212835015696969</v>
+        <v>5.684341886080803E-14</v>
       </c>
       <c r="E5">
-        <v>0.4966762608346419</v>
+        <v>-405.9023994356888</v>
       </c>
       <c r="F5">
-        <v>0.5233817850974524</v>
+        <v>-405.9023994356888</v>
       </c>
       <c r="G5">
-        <v>0.0198682840524258</v>
+        <v>5.684341886080803E-14</v>
       </c>
       <c r="H5">
-        <v>0.5213617029730507</v>
+        <v>-405.9023994356888</v>
       </c>
       <c r="I5">
-        <v>0.5525118644057418</v>
+        <v>-405.9023994356888</v>
       </c>
       <c r="J5">
-        <v>0.0227987179193998</v>
+        <v>5.684341886080803E-14</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -2492,31 +2045,31 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>0.517597660104496</v>
+        <v>-405.9023994356888</v>
       </c>
       <c r="C6">
-        <v>0.5485436841149045</v>
+        <v>-405.9023994356888</v>
       </c>
       <c r="D6">
-        <v>0.0190596948346946</v>
+        <v>5.684341886080803E-14</v>
       </c>
       <c r="E6">
-        <v>0.5073171358049666</v>
+        <v>-405.9023994356888</v>
       </c>
       <c r="F6">
-        <v>0.5440971343265113</v>
+        <v>-405.9023994356888</v>
       </c>
       <c r="G6">
-        <v>0.0243507755215554</v>
+        <v>5.684341886080803E-14</v>
       </c>
       <c r="H6">
-        <v>0.5072811586128066</v>
+        <v>-405.9023994356888</v>
       </c>
       <c r="I6">
-        <v>0.5386602404076022</v>
+        <v>-405.9023994356888</v>
       </c>
       <c r="J6">
-        <v>0.0171955774564288</v>
+        <v>5.684341886080803E-14</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -2524,31 +2077,31 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>0.4908603150580117</v>
+        <v>-405.9023994356888</v>
       </c>
       <c r="C7">
-        <v>0.5153688834624163</v>
+        <v>-405.9023994356888</v>
       </c>
       <c r="D7">
-        <v>0.0334240212912053</v>
+        <v>5.684341886080803E-14</v>
       </c>
       <c r="E7">
-        <v>0.4918868834668927</v>
+        <v>-405.9023994356888</v>
       </c>
       <c r="F7">
-        <v>0.5043755991917298</v>
+        <v>-405.9023994356888</v>
       </c>
       <c r="G7">
-        <v>0.0201239361787857</v>
+        <v>5.684341886080803E-14</v>
       </c>
       <c r="H7">
-        <v>0.4919355966254294</v>
+        <v>-405.9023994356888</v>
       </c>
       <c r="I7">
-        <v>0.5045159696833335</v>
+        <v>-405.9023994356888</v>
       </c>
       <c r="J7">
-        <v>0.0197787912210662</v>
+        <v>5.684341886080803E-14</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -2556,31 +2109,31 @@
         <v>9</v>
       </c>
       <c r="B8">
-        <v>0.5306441817920018</v>
+        <v>-405.9023994356888</v>
       </c>
       <c r="C8">
-        <v>0.5610446084047713</v>
+        <v>-405.9023994356888</v>
       </c>
       <c r="D8">
-        <v>0.022885606704173</v>
+        <v>5.684341886080803E-14</v>
       </c>
       <c r="E8">
-        <v>0.5081350400996607</v>
+        <v>-405.9023994356888</v>
       </c>
       <c r="F8">
-        <v>0.5581618257218912</v>
+        <v>-405.9023994356888</v>
       </c>
       <c r="G8">
-        <v>0.0345218118965836</v>
+        <v>5.684341886080803E-14</v>
       </c>
       <c r="H8">
-        <v>0.5317025196435813</v>
+        <v>-405.9023994356888</v>
       </c>
       <c r="I8">
-        <v>0.5664784000346325</v>
+        <v>-405.9023994356888</v>
       </c>
       <c r="J8">
-        <v>0.020260873224566</v>
+        <v>5.684341886080803E-14</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -2588,31 +2141,31 @@
         <v>10</v>
       </c>
       <c r="B9">
-        <v>0.5025574837884266</v>
+        <v>-405.9023994356888</v>
       </c>
       <c r="C9">
-        <v>0.5349498454472905</v>
+        <v>-405.9023994356888</v>
       </c>
       <c r="D9">
-        <v>0.0192295242694385</v>
+        <v>5.684341886080803E-14</v>
       </c>
       <c r="E9">
-        <v>0.524916640562601</v>
+        <v>-405.9023994356888</v>
       </c>
       <c r="F9">
-        <v>0.5656540136646719</v>
+        <v>-405.9023994356888</v>
       </c>
       <c r="G9">
-        <v>0.0251599365793215</v>
+        <v>5.684341886080803E-14</v>
       </c>
       <c r="H9">
-        <v>0.5114733834628172</v>
+        <v>-405.9023994356888</v>
       </c>
       <c r="I9">
-        <v>0.5364976256620757</v>
+        <v>-405.9023994356888</v>
       </c>
       <c r="J9">
-        <v>0.013070852082674</v>
+        <v>5.684341886080803E-14</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -2620,31 +2173,31 @@
         <v>11</v>
       </c>
       <c r="B10">
-        <v>0.511793209529134</v>
+        <v>-405.9023994356888</v>
       </c>
       <c r="C10">
-        <v>0.5402775286895848</v>
+        <v>-405.9023994356888</v>
       </c>
       <c r="D10">
-        <v>0.030878015008117</v>
+        <v>5.684341886080803E-14</v>
       </c>
       <c r="E10">
-        <v>0.5116194921874219</v>
+        <v>-405.9023994356888</v>
       </c>
       <c r="F10">
-        <v>0.5336909408818336</v>
+        <v>-405.9023994356888</v>
       </c>
       <c r="G10">
-        <v>0.0184397422794031</v>
+        <v>5.684341886080803E-14</v>
       </c>
       <c r="H10">
-        <v>0.5150904770344528</v>
+        <v>-405.9023994356888</v>
       </c>
       <c r="I10">
-        <v>0.5444774846032352</v>
+        <v>-405.9023994356888</v>
       </c>
       <c r="J10">
-        <v>0.0193628673018445</v>
+        <v>5.684341886080803E-14</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -2652,31 +2205,31 @@
         <v>12</v>
       </c>
       <c r="B11">
-        <v>0.4928302232061927</v>
+        <v>-405.9023994356888</v>
       </c>
       <c r="C11">
-        <v>0.5319825164303211</v>
+        <v>-405.9023994356888</v>
       </c>
       <c r="D11">
-        <v>0.0327239970636543</v>
+        <v>5.684341886080803E-14</v>
       </c>
       <c r="E11">
-        <v>0.4915131406257844</v>
+        <v>-405.9023994356888</v>
       </c>
       <c r="F11">
-        <v>0.5120598208293405</v>
+        <v>-405.9023994356888</v>
       </c>
       <c r="G11">
-        <v>0.0292718819053356</v>
+        <v>5.684341886080803E-14</v>
       </c>
       <c r="H11">
-        <v>0.4913356246543437</v>
+        <v>-405.9023994356888</v>
       </c>
       <c r="I11">
-        <v>0.5035543048728066</v>
+        <v>-405.9023994356888</v>
       </c>
       <c r="J11">
-        <v>0.0179814104381559</v>
+        <v>5.684341886080803E-14</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -2684,31 +2237,31 @@
         <v>13</v>
       </c>
       <c r="B12">
-        <v>0.4907921341481858</v>
+        <v>-405.9023994356888</v>
       </c>
       <c r="C12">
-        <v>0.5019131212130892</v>
+        <v>-405.9023994356888</v>
       </c>
       <c r="D12">
-        <v>0.0159106659138139</v>
+        <v>5.684341886080803E-14</v>
       </c>
       <c r="E12">
-        <v>0.4923481351704822</v>
+        <v>-405.9023994356888</v>
       </c>
       <c r="F12">
-        <v>0.5161089336720244</v>
+        <v>-405.9023994356888</v>
       </c>
       <c r="G12">
-        <v>0.0296477168978306</v>
+        <v>5.684341886080803E-14</v>
       </c>
       <c r="H12">
-        <v>0.4914021522884322</v>
+        <v>-405.9023994356888</v>
       </c>
       <c r="I12">
-        <v>0.5078012674925334</v>
+        <v>-405.9023994356888</v>
       </c>
       <c r="J12">
-        <v>0.0152993547777098</v>
+        <v>5.684341886080803E-14</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -2716,31 +2269,31 @@
         <v>14</v>
       </c>
       <c r="B13">
-        <v>0.5161043991998644</v>
+        <v>-405.9023994356888</v>
       </c>
       <c r="C13">
-        <v>0.5337183213863254</v>
+        <v>-405.9023994356888</v>
       </c>
       <c r="D13">
-        <v>0.0159638473510164</v>
+        <v>5.684341886080803E-14</v>
       </c>
       <c r="E13">
-        <v>0.5102036476951556</v>
+        <v>-405.9023994356888</v>
       </c>
       <c r="F13">
-        <v>0.5335018660280967</v>
+        <v>-405.9023994356888</v>
       </c>
       <c r="G13">
-        <v>0.0236119383768475</v>
+        <v>5.684341886080803E-14</v>
       </c>
       <c r="H13">
-        <v>0.5046596478227009</v>
+        <v>-405.9023994356888</v>
       </c>
       <c r="I13">
-        <v>0.5263082917380498</v>
+        <v>-405.9023994356888</v>
       </c>
       <c r="J13">
-        <v>0.0163363749789014</v>
+        <v>5.684341886080803E-14</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -2748,31 +2301,31 @@
         <v>15</v>
       </c>
       <c r="B14">
-        <v>0.5101775535601157</v>
+        <v>-405.9023994356888</v>
       </c>
       <c r="C14">
-        <v>0.5611355205475037</v>
+        <v>-405.9023994356888</v>
       </c>
       <c r="D14">
-        <v>0.0337125009341209</v>
+        <v>5.684341886080803E-14</v>
       </c>
       <c r="E14">
-        <v>0.512967702493373</v>
+        <v>-405.9023994356888</v>
       </c>
       <c r="F14">
-        <v>0.5454332877456204</v>
+        <v>-405.9023994356888</v>
       </c>
       <c r="G14">
-        <v>0.02559495908241</v>
+        <v>5.684341886080803E-14</v>
       </c>
       <c r="H14">
-        <v>0.5123819479935149</v>
+        <v>-405.9023994356888</v>
       </c>
       <c r="I14">
-        <v>0.5447552050159358</v>
+        <v>-405.9023994356888</v>
       </c>
       <c r="J14">
-        <v>0.0220061264627914</v>
+        <v>5.684341886080803E-14</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -2780,31 +2333,31 @@
         <v>16</v>
       </c>
       <c r="B15">
-        <v>0.5101776408637027</v>
+        <v>-405.9023994356888</v>
       </c>
       <c r="C15">
-        <v>0.5514862075420055</v>
+        <v>-405.9023994356888</v>
       </c>
       <c r="D15">
-        <v>0.0254237050681612</v>
+        <v>5.684341886080803E-14</v>
       </c>
       <c r="E15">
-        <v>0.4955815141458837</v>
+        <v>-405.9023994356888</v>
       </c>
       <c r="F15">
-        <v>0.5252806088664344</v>
+        <v>-405.9023994356888</v>
       </c>
       <c r="G15">
-        <v>0.02394022915983</v>
+        <v>5.684341886080803E-14</v>
       </c>
       <c r="H15">
-        <v>0.5129020197123925</v>
+        <v>-405.9023994356888</v>
       </c>
       <c r="I15">
-        <v>0.5429323054119783</v>
+        <v>-405.9023994356888</v>
       </c>
       <c r="J15">
-        <v>0.0243674888457157</v>
+        <v>5.684341886080803E-14</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -2812,31 +2365,31 @@
         <v>17</v>
       </c>
       <c r="B16">
-        <v>0.504274150449504</v>
+        <v>-405.9023994356888</v>
       </c>
       <c r="C16">
-        <v>0.5323488478635109</v>
+        <v>-405.9023994356888</v>
       </c>
       <c r="D16">
-        <v>0.0210884866666534</v>
+        <v>5.684341886080803E-14</v>
       </c>
       <c r="E16">
-        <v>0.4970987745374374</v>
+        <v>-405.9023994356888</v>
       </c>
       <c r="F16">
-        <v>0.5256406633902466</v>
+        <v>-405.9023994356888</v>
       </c>
       <c r="G16">
-        <v>0.0177568206349507</v>
+        <v>5.684341886080803E-14</v>
       </c>
       <c r="H16">
-        <v>0.5074243466053912</v>
+        <v>-405.9023994356888</v>
       </c>
       <c r="I16">
-        <v>0.531957726995232</v>
+        <v>-405.9023994356888</v>
       </c>
       <c r="J16">
-        <v>0.0138427062899579</v>
+        <v>5.684341886080803E-14</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -2844,31 +2397,31 @@
         <v>18</v>
       </c>
       <c r="B17">
-        <v>0.4952983456004659</v>
+        <v>-405.9023994356888</v>
       </c>
       <c r="C17">
-        <v>0.5235386179502242</v>
+        <v>-405.9023994356888</v>
       </c>
       <c r="D17">
-        <v>0.016181730230211</v>
+        <v>5.684341886080803E-14</v>
       </c>
       <c r="E17">
-        <v>0.5129177331017072</v>
+        <v>-405.9023994356888</v>
       </c>
       <c r="F17">
-        <v>0.5405787167776508</v>
+        <v>-405.9023994356888</v>
       </c>
       <c r="G17">
-        <v>0.0236556468423366</v>
+        <v>5.684341886080803E-14</v>
       </c>
       <c r="H17">
-        <v>0.5156158847981734</v>
+        <v>-405.9023994356888</v>
       </c>
       <c r="I17">
-        <v>0.5451240314973076</v>
+        <v>-405.9023994356888</v>
       </c>
       <c r="J17">
-        <v>0.0172142839237705</v>
+        <v>5.684341886080803E-14</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -2990,31 +2543,31 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>220041538.0443774</v>
+        <v>0.4912029405755365</v>
       </c>
       <c r="C3">
-        <v>220041540.1588557</v>
+        <v>0.4936043018476622</v>
       </c>
       <c r="D3">
-        <v>1.886388440354259</v>
+        <v>0.0022027536453835</v>
       </c>
       <c r="E3">
-        <v>220041536.3419973</v>
+        <v>0.5093472108333985</v>
       </c>
       <c r="F3">
-        <v>220041539.9061536</v>
+        <v>0.5213765073145358</v>
       </c>
       <c r="G3">
-        <v>1.862988400823561</v>
+        <v>0.0088706461982057</v>
       </c>
       <c r="H3">
-        <v>220041536.7290516</v>
+        <v>0.4946201991303879</v>
       </c>
       <c r="I3">
-        <v>220041539.6187252</v>
+        <v>0.5174207989150528</v>
       </c>
       <c r="J3">
-        <v>1.356320911570362</v>
+        <v>0.0156764346926154</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -3022,31 +2575,31 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>220041534.7143884</v>
+        <v>0.4907443340481181</v>
       </c>
       <c r="C4">
-        <v>220041537.8252523</v>
+        <v>0.5013171021418564</v>
       </c>
       <c r="D4">
-        <v>2.041238700413792</v>
+        <v>0.0194676272366894</v>
       </c>
       <c r="E4">
-        <v>220041535.542431</v>
+        <v>0.508789924527395</v>
       </c>
       <c r="F4">
-        <v>220041538.2395421</v>
+        <v>0.5290262121097704</v>
       </c>
       <c r="G4">
-        <v>1.451754393438758</v>
+        <v>0.0129353446864267</v>
       </c>
       <c r="H4">
-        <v>220041535.960071</v>
+        <v>0.5025457702913727</v>
       </c>
       <c r="I4">
-        <v>220041538.9909323</v>
+        <v>0.5157049750687529</v>
       </c>
       <c r="J4">
-        <v>2.27628796336724</v>
+        <v>0.008116679580006799</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -3054,31 +2607,31 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>220047524.8096832</v>
+        <v>0.4928926580332526</v>
       </c>
       <c r="C5">
-        <v>220053099.0954162</v>
+        <v>0.5208954476032457</v>
       </c>
       <c r="D5">
-        <v>2933.907503369982</v>
+        <v>0.0462170346386063</v>
       </c>
       <c r="E5">
-        <v>220045526.7143837</v>
+        <v>0.5043973660281205</v>
       </c>
       <c r="F5">
-        <v>220051118.488674</v>
+        <v>0.5209538773357758</v>
       </c>
       <c r="G5">
-        <v>3839.466317743383</v>
+        <v>0.0106427306426228</v>
       </c>
       <c r="H5">
-        <v>220045647.4306637</v>
+        <v>0.5089060948341497</v>
       </c>
       <c r="I5">
-        <v>220051288.3315258</v>
+        <v>0.5212098529305612</v>
       </c>
       <c r="J5">
-        <v>4254.001529526126</v>
+        <v>0.0096667817458457</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -3086,31 +2639,31 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>220041532.5616482</v>
+        <v>0.4890571934586011</v>
       </c>
       <c r="C6">
-        <v>220041532.8440054</v>
+        <v>0.5187489846461969</v>
       </c>
       <c r="D6">
-        <v>0.2212005974741758</v>
+        <v>0.0362071798313401</v>
       </c>
       <c r="E6">
-        <v>220041532.5788789</v>
+        <v>0.5013309257030042</v>
       </c>
       <c r="F6">
-        <v>220041533.2864802</v>
+        <v>0.5162953338891122</v>
       </c>
       <c r="G6">
-        <v>0.5994109214067967</v>
+        <v>0.0111176423258095</v>
       </c>
       <c r="H6">
-        <v>220041531.8053994</v>
+        <v>0.503611233094775</v>
       </c>
       <c r="I6">
-        <v>220041532.9223948</v>
+        <v>0.5197368607907908</v>
       </c>
       <c r="J6">
-        <v>0.5367995620529937</v>
+        <v>0.0126857094498322</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -3118,31 +2671,31 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>220041532.1897029</v>
+        <v>0.4900838852777518</v>
       </c>
       <c r="C7">
-        <v>220041533.3434252</v>
+        <v>0.4950355580824626</v>
       </c>
       <c r="D7">
-        <v>0.5473513961607752</v>
+        <v>0.0029486887730429</v>
       </c>
       <c r="E7">
-        <v>220041532.7133625</v>
+        <v>0.5074355333885273</v>
       </c>
       <c r="F7">
-        <v>220041533.4326392</v>
+        <v>0.5225082914533983</v>
       </c>
       <c r="G7">
-        <v>0.639674945508697</v>
+        <v>0.0134276223489483</v>
       </c>
       <c r="H7">
-        <v>220041532.5786011</v>
+        <v>0.5051694700387893</v>
       </c>
       <c r="I7">
-        <v>220041533.6789764</v>
+        <v>0.5231240882362055</v>
       </c>
       <c r="J7">
-        <v>1.050954322322755</v>
+        <v>0.0099328876555403</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -3150,31 +2703,31 @@
         <v>9</v>
       </c>
       <c r="B8">
-        <v>220981184.482832</v>
+        <v>0.4917598744792134</v>
       </c>
       <c r="C8">
-        <v>221704561.0202132</v>
+        <v>0.5110241258040857</v>
       </c>
       <c r="D8">
-        <v>598940.1107083666</v>
+        <v>0.0528620093332332</v>
       </c>
       <c r="E8">
-        <v>221438352.0493961</v>
+        <v>0.499759029834786</v>
       </c>
       <c r="F8">
-        <v>221955952.0648375</v>
+        <v>0.5260639906641412</v>
       </c>
       <c r="G8">
-        <v>594077.853481116</v>
+        <v>0.0229073240411433</v>
       </c>
       <c r="H8">
-        <v>221094107.7019478</v>
+        <v>0.5145282470399264</v>
       </c>
       <c r="I8">
-        <v>222219811.1785287</v>
+        <v>0.5272071736203767</v>
       </c>
       <c r="J8">
-        <v>1445522.259144781</v>
+        <v>0.0113319552960208</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -3182,31 +2735,31 @@
         <v>10</v>
       </c>
       <c r="B9">
-        <v>220041531.8658164</v>
+        <v>0.4919872434414556</v>
       </c>
       <c r="C9">
-        <v>220041532.2769037</v>
+        <v>0.5455660556203984</v>
       </c>
       <c r="D9">
-        <v>0.2433173564273435</v>
+        <v>0.0400028758996127</v>
       </c>
       <c r="E9">
-        <v>220041531.915714</v>
+        <v>0.4993189710214312</v>
       </c>
       <c r="F9">
-        <v>220041532.2282468</v>
+        <v>0.5244077435723843</v>
       </c>
       <c r="G9">
-        <v>0.2338637790569135</v>
+        <v>0.0119252244700377</v>
       </c>
       <c r="H9">
-        <v>220041531.8761902</v>
+        <v>0.5027642317304488</v>
       </c>
       <c r="I9">
-        <v>220041532.2803442</v>
+        <v>0.5183511046695359</v>
       </c>
       <c r="J9">
-        <v>0.2325010067890625</v>
+        <v>0.011827112280415</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -3214,31 +2767,31 @@
         <v>11</v>
       </c>
       <c r="B10">
-        <v>220041746.0189872</v>
+        <v>0.4910091857099103</v>
       </c>
       <c r="C10">
-        <v>220042128.7215465</v>
+        <v>0.5460545872943546</v>
       </c>
       <c r="D10">
-        <v>286.0377639891113</v>
+        <v>0.0422462901070669</v>
       </c>
       <c r="E10">
-        <v>220041782.2407569</v>
+        <v>0.5083021886476005</v>
       </c>
       <c r="F10">
-        <v>220042114.2790065</v>
+        <v>0.5266895787726117</v>
       </c>
       <c r="G10">
-        <v>248.7438127644229</v>
+        <v>0.0164616645790547</v>
       </c>
       <c r="H10">
-        <v>220041964.6794345</v>
+        <v>0.4964336706295652</v>
       </c>
       <c r="I10">
-        <v>220042452.4359432</v>
+        <v>0.5141056006796912</v>
       </c>
       <c r="J10">
-        <v>288.2375098409454</v>
+        <v>0.0129646519642465</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -3246,31 +2799,31 @@
         <v>12</v>
       </c>
       <c r="B11">
-        <v>220041532.0114302</v>
+        <v>0.4905569698850832</v>
       </c>
       <c r="C11">
-        <v>220041532.4921664</v>
+        <v>0.5128648434251524</v>
       </c>
       <c r="D11">
-        <v>0.5184309642306896</v>
+        <v>0.0395973739394813</v>
       </c>
       <c r="E11">
-        <v>220041532.0119757</v>
+        <v>0.4972304841018824</v>
       </c>
       <c r="F11">
-        <v>220041532.3079895</v>
+        <v>0.5274257031504803</v>
       </c>
       <c r="G11">
-        <v>0.1746377751453711</v>
+        <v>0.018556357952066</v>
       </c>
       <c r="H11">
-        <v>220041531.8662789</v>
+        <v>0.5017665418976178</v>
       </c>
       <c r="I11">
-        <v>220041532.3150232</v>
+        <v>0.5231061402330669</v>
       </c>
       <c r="J11">
-        <v>0.233471641340904</v>
+        <v>0.0186484251689297</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -3278,31 +2831,31 @@
         <v>13</v>
       </c>
       <c r="B12">
-        <v>220042087.5474342</v>
+        <v>0.4913407618493854</v>
       </c>
       <c r="C12">
-        <v>220043201.7685552</v>
+        <v>0.503688806680207</v>
       </c>
       <c r="D12">
-        <v>904.8653039095821</v>
+        <v>0.0270596225028531</v>
       </c>
       <c r="E12">
-        <v>220042955.7448229</v>
+        <v>0.5020626748351719</v>
       </c>
       <c r="F12">
-        <v>220044975.4864477</v>
+        <v>0.5195077564964012</v>
       </c>
       <c r="G12">
-        <v>2058.376725005469</v>
+        <v>0.0134291972784472</v>
       </c>
       <c r="H12">
-        <v>220042483.7281907</v>
+        <v>0.4966235619333173</v>
       </c>
       <c r="I12">
-        <v>220042840.6906717</v>
+        <v>0.5156145633998639</v>
       </c>
       <c r="J12">
-        <v>278.5506506081757</v>
+        <v>0.0151925554927935</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -3310,31 +2863,31 @@
         <v>14</v>
       </c>
       <c r="B13">
-        <v>220041532.1987087</v>
+        <v>0.4937535786907461</v>
       </c>
       <c r="C13">
-        <v>220041532.4275146</v>
+        <v>0.5243458368362071</v>
       </c>
       <c r="D13">
-        <v>0.1502080869131366</v>
+        <v>0.0399361753935716</v>
       </c>
       <c r="E13">
-        <v>220041531.8658588</v>
+        <v>0.5049399619153366</v>
       </c>
       <c r="F13">
-        <v>220041532.2137578</v>
+        <v>0.5178291918411713</v>
       </c>
       <c r="G13">
-        <v>0.2012406470218382</v>
+        <v>0.009211141477639</v>
       </c>
       <c r="H13">
-        <v>220041531.8845619</v>
+        <v>0.5005023885635018</v>
       </c>
       <c r="I13">
-        <v>220041532.3368598</v>
+        <v>0.5161421598984525</v>
       </c>
       <c r="J13">
-        <v>0.1948939449734589</v>
+        <v>0.0135020959854251</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -3342,31 +2895,31 @@
         <v>15</v>
       </c>
       <c r="B14">
-        <v>252636444.0557487</v>
+        <v>0.5063633824162153</v>
       </c>
       <c r="C14">
-        <v>397926771.7737982</v>
+        <v>0.5255654341388157</v>
       </c>
       <c r="D14">
-        <v>107874982.1105498</v>
+        <v>0.0142777343350249</v>
       </c>
       <c r="E14">
-        <v>237974400.1171439</v>
+        <v>0.500036314013795</v>
       </c>
       <c r="F14">
-        <v>329339320.5786136</v>
+        <v>0.5195809422578985</v>
       </c>
       <c r="G14">
-        <v>95630522.2005277</v>
+        <v>0.0195021048847306</v>
       </c>
       <c r="H14">
-        <v>241083707.325784</v>
+        <v>0.4963712734094009</v>
       </c>
       <c r="I14">
-        <v>327769327.853261</v>
+        <v>0.5238917402888825</v>
       </c>
       <c r="J14">
-        <v>98866473.49598138</v>
+        <v>0.0222911357681951</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -3374,31 +2927,31 @@
         <v>16</v>
       </c>
       <c r="B15">
-        <v>193237738166548.1</v>
+        <v>0.5062819231029616</v>
       </c>
       <c r="C15">
-        <v>540381416043080.6</v>
+        <v>0.5322711975275247</v>
       </c>
       <c r="D15">
-        <v>390482104490522.4</v>
+        <v>0.0213479538386291</v>
       </c>
       <c r="E15">
-        <v>54471954756817.98</v>
+        <v>0.5086103710708797</v>
       </c>
       <c r="F15">
-        <v>436381111394382.1</v>
+        <v>0.5248040244484492</v>
       </c>
       <c r="G15">
-        <v>336087400160947.4</v>
+        <v>0.0121961949195067</v>
       </c>
       <c r="H15">
-        <v>77133659663697.03</v>
+        <v>0.4991088727614676</v>
       </c>
       <c r="I15">
-        <v>489768873088743.8</v>
+        <v>0.5291413146434433</v>
       </c>
       <c r="J15">
-        <v>336874563151168.7</v>
+        <v>0.0182925529611246</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -3406,31 +2959,31 @@
         <v>17</v>
       </c>
       <c r="B16">
-        <v>220041531.9570869</v>
+        <v>0.497397582690797</v>
       </c>
       <c r="C16">
-        <v>220041532.3970236</v>
+        <v>0.5162043658199762</v>
       </c>
       <c r="D16">
-        <v>0.4604890944518928</v>
+        <v>0.0145974406052135</v>
       </c>
       <c r="E16">
-        <v>220041531.9629245</v>
+        <v>0.5067957416098996</v>
       </c>
       <c r="F16">
-        <v>220041532.6827128</v>
+        <v>0.5191039868743814</v>
       </c>
       <c r="G16">
-        <v>1.018747220365303</v>
+        <v>0.009616343447688899</v>
       </c>
       <c r="H16">
-        <v>220041531.9943666</v>
+        <v>0.4963131289830923</v>
       </c>
       <c r="I16">
-        <v>220041532.814466</v>
+        <v>0.5177157970323234</v>
       </c>
       <c r="J16">
-        <v>0.7953761226261472</v>
+        <v>0.0097711522228259</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -3438,31 +2991,31 @@
         <v>18</v>
       </c>
       <c r="B17">
-        <v>220041537.4260687</v>
+        <v>0.5050886140333738</v>
       </c>
       <c r="C17">
-        <v>220041539.5722108</v>
+        <v>0.5249837927206158</v>
       </c>
       <c r="D17">
-        <v>1.186119712516343</v>
+        <v>0.0156816836246234</v>
       </c>
       <c r="E17">
-        <v>220041538.0902861</v>
+        <v>0.4973189582429752</v>
       </c>
       <c r="F17">
-        <v>220041539.8642645</v>
+        <v>0.5132393728821338</v>
       </c>
       <c r="G17">
-        <v>1.294136432499731</v>
+        <v>0.0112498307363289</v>
       </c>
       <c r="H17">
-        <v>220041538.8981668</v>
+        <v>0.5046026524004728</v>
       </c>
       <c r="I17">
-        <v>220041540.2887478</v>
+        <v>0.5151235342019416</v>
       </c>
       <c r="J17">
-        <v>1.773889114557588</v>
+        <v>0.0074948634376439</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -3584,31 +3137,31 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>0.3794045831463381</v>
+        <v>220041532.1027971</v>
       </c>
       <c r="C3">
-        <v>0.4003401108711389</v>
+        <v>220041532.4595566</v>
       </c>
       <c r="D3">
-        <v>0.0144815422251186</v>
+        <v>0.6345393064995641</v>
       </c>
       <c r="E3">
-        <v>0.3797339426846824</v>
+        <v>220041531.9100787</v>
       </c>
       <c r="F3">
-        <v>0.4040186781872427</v>
+        <v>220041532.3381056</v>
       </c>
       <c r="G3">
-        <v>0.0116761784807629</v>
+        <v>0.2011096976690228</v>
       </c>
       <c r="H3">
-        <v>0.3798297191281047</v>
+        <v>220041531.8658382</v>
       </c>
       <c r="I3">
-        <v>0.4018521263273674</v>
+        <v>220041532.2974477</v>
       </c>
       <c r="J3">
-        <v>0.0182115660023643</v>
+        <v>0.1662542524048227</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -3616,31 +3169,31 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>0.3798200364208235</v>
+        <v>220041531.9101249</v>
       </c>
       <c r="C4">
-        <v>0.3930116603665499</v>
+        <v>220041532.3186572</v>
       </c>
       <c r="D4">
-        <v>0.0242805538385709</v>
+        <v>0.371257498815331</v>
       </c>
       <c r="E4">
-        <v>0.3793965225489261</v>
+        <v>220041531.9931762</v>
       </c>
       <c r="F4">
-        <v>0.3938548903357231</v>
+        <v>220041532.3068098</v>
       </c>
       <c r="G4">
-        <v>0.0146487047528133</v>
+        <v>0.2117578205526805</v>
       </c>
       <c r="H4">
-        <v>0.3795964651071326</v>
+        <v>220041532.1784957</v>
       </c>
       <c r="I4">
-        <v>0.3903172113785466</v>
+        <v>220041532.3212887</v>
       </c>
       <c r="J4">
-        <v>0.0141952980474789</v>
+        <v>0.0984598024609583</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -3648,31 +3201,31 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>0.5997656477163698</v>
+        <v>220041531.8560338</v>
       </c>
       <c r="C5">
-        <v>0.6340794097920625</v>
+        <v>220041532.3106729</v>
       </c>
       <c r="D5">
-        <v>0.0188147970049919</v>
+        <v>0.1913212762021926</v>
       </c>
       <c r="E5">
-        <v>0.62365079542256</v>
+        <v>220041532.5379252</v>
       </c>
       <c r="F5">
-        <v>0.647081430624791</v>
+        <v>220041534.5378277</v>
       </c>
       <c r="G5">
-        <v>0.0110379044484961</v>
+        <v>1.250061325439709</v>
       </c>
       <c r="H5">
-        <v>0.6195203273010199</v>
+        <v>220041532.2248368</v>
       </c>
       <c r="I5">
-        <v>0.6494911229359847</v>
+        <v>220041533.8544702</v>
       </c>
       <c r="J5">
-        <v>0.0186126150415963</v>
+        <v>1.378108473035196</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -3680,31 +3233,31 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>0.3472657739561769</v>
+        <v>220041531.9315521</v>
       </c>
       <c r="C6">
-        <v>0.3522310169509969</v>
+        <v>220041532.6014615</v>
       </c>
       <c r="D6">
-        <v>0.0098826908142722</v>
+        <v>0.6107538411442468</v>
       </c>
       <c r="E6">
-        <v>0.3472561548024043</v>
+        <v>220041531.9101273</v>
       </c>
       <c r="F6">
-        <v>0.3477358371836271</v>
+        <v>220041532.1480183</v>
       </c>
       <c r="G6">
-        <v>0.0009151240959186</v>
+        <v>0.1615810292613703</v>
       </c>
       <c r="H6">
-        <v>0.3474301697042379</v>
+        <v>220041531.7324167</v>
       </c>
       <c r="I6">
-        <v>0.3498411226761656</v>
+        <v>220041532.1927056</v>
       </c>
       <c r="J6">
-        <v>0.0046582626392643</v>
+        <v>0.2556593095040979</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -3712,31 +3265,31 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>0.3472880798807141</v>
+        <v>220041531.759071</v>
       </c>
       <c r="C7">
-        <v>0.3549690842250735</v>
+        <v>220041532.321104</v>
       </c>
       <c r="D7">
-        <v>0.0124926401138904</v>
+        <v>0.2570386339374945</v>
       </c>
       <c r="E7">
-        <v>0.3474265315134894</v>
+        <v>220041531.9100787</v>
       </c>
       <c r="F7">
-        <v>0.3544004512942341</v>
+        <v>220041532.1722505</v>
       </c>
       <c r="G7">
-        <v>0.0111013847818913</v>
+        <v>0.2265587567305398</v>
       </c>
       <c r="H7">
-        <v>0.3472571186430025</v>
+        <v>220041531.7324167</v>
       </c>
       <c r="I7">
-        <v>0.3499656886885782</v>
+        <v>220041532.1579636</v>
       </c>
       <c r="J7">
-        <v>0.0046756194268835</v>
+        <v>0.2054882812712197</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -3744,31 +3297,31 @@
         <v>9</v>
       </c>
       <c r="B8">
-        <v>0.7258171001115732</v>
+        <v>220041532.2334157</v>
       </c>
       <c r="C8">
-        <v>0.7328252821694032</v>
+        <v>220041532.6705595</v>
       </c>
       <c r="D8">
-        <v>0.0036148072708252</v>
+        <v>0.2387952151641547</v>
       </c>
       <c r="E8">
-        <v>0.7357690122970555</v>
+        <v>220184972.1643987</v>
       </c>
       <c r="F8">
-        <v>0.7369209994825984</v>
+        <v>220259326.7755082</v>
       </c>
       <c r="G8">
-        <v>0.0008393062943193</v>
+        <v>59838.56678862801</v>
       </c>
       <c r="H8">
-        <v>0.7255140280048966</v>
+        <v>220152885.7608252</v>
       </c>
       <c r="I8">
-        <v>0.7337845701729453</v>
+        <v>220400884.0977383</v>
       </c>
       <c r="J8">
-        <v>0.0042586090046395</v>
+        <v>187656.371957204</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -3776,31 +3329,31 @@
         <v>10</v>
       </c>
       <c r="B9">
-        <v>0.3472513385811424</v>
+        <v>220041531.9315509</v>
       </c>
       <c r="C9">
-        <v>0.3472576189815601</v>
+        <v>220041532.3418843</v>
       </c>
       <c r="D9">
-        <v>5.213229948590534E-06</v>
+        <v>0.4864861659350289</v>
       </c>
       <c r="E9">
-        <v>0.3472510565380616</v>
+        <v>220041531.8844807</v>
       </c>
       <c r="F9">
-        <v>0.3472668541987234</v>
+        <v>220041532.2678719</v>
       </c>
       <c r="G9">
-        <v>1.836197587811383E-05</v>
+        <v>0.1771685244444601</v>
       </c>
       <c r="H9">
-        <v>0.3472511919489925</v>
+        <v>220041531.759178</v>
       </c>
       <c r="I9">
-        <v>0.3472626515135252</v>
+        <v>220041532.2750813</v>
       </c>
       <c r="J9">
-        <v>1.502359260959249E-05</v>
+        <v>0.2771116813478483</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -3808,31 +3361,31 @@
         <v>11</v>
       </c>
       <c r="B10">
-        <v>0.4737927386224644</v>
+        <v>220041532.088888</v>
       </c>
       <c r="C10">
-        <v>0.5183684521232494</v>
+        <v>220041532.3965541</v>
       </c>
       <c r="D10">
-        <v>0.0384202770034076</v>
+        <v>0.1859704310986361</v>
       </c>
       <c r="E10">
-        <v>0.4714609712498956</v>
+        <v>220041531.8916416</v>
       </c>
       <c r="F10">
-        <v>0.5134081583779697</v>
+        <v>220041532.2690877</v>
       </c>
       <c r="G10">
-        <v>0.0262957013316562</v>
+        <v>0.2628842694899238</v>
       </c>
       <c r="H10">
-        <v>0.4724916146294937</v>
+        <v>220041531.8990423</v>
       </c>
       <c r="I10">
-        <v>0.514620583066102</v>
+        <v>220041532.2459996</v>
       </c>
       <c r="J10">
-        <v>0.0289289902521597</v>
+        <v>0.2540410682330649</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -3840,31 +3393,31 @@
         <v>12</v>
       </c>
       <c r="B11">
-        <v>0.347254023211168</v>
+        <v>220041531.7591777</v>
       </c>
       <c r="C11">
-        <v>0.3473331872241809</v>
+        <v>220041532.8819789</v>
       </c>
       <c r="D11">
-        <v>0.0002006066884274</v>
+        <v>1.51855094126024</v>
       </c>
       <c r="E11">
-        <v>0.347251935449836</v>
+        <v>220041531.8844808</v>
       </c>
       <c r="F11">
-        <v>0.3473155623532954</v>
+        <v>220041532.1560969</v>
       </c>
       <c r="G11">
-        <v>0.00010972836073</v>
+        <v>0.2341285244539228</v>
       </c>
       <c r="H11">
-        <v>0.3472531718533921</v>
+        <v>220041531.9101249</v>
       </c>
       <c r="I11">
-        <v>0.3507598466386458</v>
+        <v>220041532.7815713</v>
       </c>
       <c r="J11">
-        <v>0.0095573564725058</v>
+        <v>0.9802437066982792</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -3872,31 +3425,31 @@
         <v>13</v>
       </c>
       <c r="B12">
-        <v>0.4979234320371904</v>
+        <v>220041532.268212</v>
       </c>
       <c r="C12">
-        <v>0.5713311419345871</v>
+        <v>220041532.8202459</v>
       </c>
       <c r="D12">
-        <v>0.0334017180804785</v>
+        <v>1.391229939862402</v>
       </c>
       <c r="E12">
-        <v>0.5434989047866292</v>
+        <v>220041532.0774618</v>
       </c>
       <c r="F12">
-        <v>0.5782622148836866</v>
+        <v>220041532.4550227</v>
       </c>
       <c r="G12">
-        <v>0.0212749700520636</v>
+        <v>0.2735714196125517</v>
       </c>
       <c r="H12">
-        <v>0.5535958541926553</v>
+        <v>220041531.9006844</v>
       </c>
       <c r="I12">
-        <v>0.5817941647605563</v>
+        <v>220041532.3783616</v>
       </c>
       <c r="J12">
-        <v>0.0166501980387735</v>
+        <v>0.4018399906461268</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -3904,31 +3457,31 @@
         <v>14</v>
       </c>
       <c r="B13">
-        <v>0.3472502220032761</v>
+        <v>220041531.9179638</v>
       </c>
       <c r="C13">
-        <v>0.3472513556885578</v>
+        <v>220041532.4297005</v>
       </c>
       <c r="D13">
-        <v>1.049782793089479E-06</v>
+        <v>0.4806452380581504</v>
       </c>
       <c r="E13">
-        <v>0.3472502980279421</v>
+        <v>220041532.085069</v>
       </c>
       <c r="F13">
-        <v>0.347250952086385</v>
+        <v>220041532.5178069</v>
       </c>
       <c r="G13">
-        <v>7.342238562490153E-07</v>
+        <v>0.4032664122240962</v>
       </c>
       <c r="H13">
-        <v>0.3472502017778853</v>
+        <v>220041531.8746625</v>
       </c>
       <c r="I13">
-        <v>0.3472509579299782</v>
+        <v>220041532.3598154</v>
       </c>
       <c r="J13">
-        <v>7.482591473354586E-07</v>
+        <v>0.2475215232520279</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -3936,31 +3489,31 @@
         <v>15</v>
       </c>
       <c r="B14">
-        <v>0.7179499689958626</v>
+        <v>220042765.7135908</v>
       </c>
       <c r="C14">
-        <v>0.7238479640230995</v>
+        <v>220043629.8161457</v>
       </c>
       <c r="D14">
-        <v>0.0047216182758953</v>
+        <v>878.4336525283311</v>
       </c>
       <c r="E14">
-        <v>0.7139223709389537</v>
+        <v>220042524.1035729</v>
       </c>
       <c r="F14">
-        <v>0.7272219157207933</v>
+        <v>220043883.0351415</v>
       </c>
       <c r="G14">
-        <v>0.0070657209236126</v>
+        <v>1415.361755472955</v>
       </c>
       <c r="H14">
-        <v>0.7120668398543548</v>
+        <v>220042704.7150947</v>
       </c>
       <c r="I14">
-        <v>0.7224325151655451</v>
+        <v>220044381.6515945</v>
       </c>
       <c r="J14">
-        <v>0.0069819668935914</v>
+        <v>1628.190302952946</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -3968,31 +3521,31 @@
         <v>16</v>
       </c>
       <c r="B15">
-        <v>0.7367952456782775</v>
+        <v>261511621.6282424</v>
       </c>
       <c r="C15">
-        <v>0.7406137179222564</v>
+        <v>324625286.5179772</v>
       </c>
       <c r="D15">
-        <v>0.0017482910324732</v>
+        <v>84033316.20888339</v>
       </c>
       <c r="E15">
-        <v>0.7389673150153695</v>
+        <v>256780521.1347362</v>
       </c>
       <c r="F15">
-        <v>0.7407961046890703</v>
+        <v>436625586.7416831</v>
       </c>
       <c r="G15">
-        <v>0.0009709510650173999</v>
+        <v>172365163.9912778</v>
       </c>
       <c r="H15">
-        <v>0.7388206537486539</v>
+        <v>232363359.279656</v>
       </c>
       <c r="I15">
-        <v>0.740714301122841</v>
+        <v>362192109.2669126</v>
       </c>
       <c r="J15">
-        <v>0.000930079263036</v>
+        <v>144310644.1884843</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -4000,31 +3553,31 @@
         <v>17</v>
       </c>
       <c r="B16">
-        <v>0.347250190591331</v>
+        <v>220041531.9003966</v>
       </c>
       <c r="C16">
-        <v>0.3504774046797102</v>
+        <v>220041532.6781624</v>
       </c>
       <c r="D16">
-        <v>0.009631573278996001</v>
+        <v>0.5986134208567762</v>
       </c>
       <c r="E16">
-        <v>0.3472502179952219</v>
+        <v>220041531.9411428</v>
       </c>
       <c r="F16">
-        <v>0.3472523584410283</v>
+        <v>220041533.2934971</v>
       </c>
       <c r="G16">
-        <v>5.936165304489569E-06</v>
+        <v>1.636758166729605</v>
       </c>
       <c r="H16">
-        <v>0.3472501945024345</v>
+        <v>220041531.9100787</v>
       </c>
       <c r="I16">
-        <v>0.3536746205199922</v>
+        <v>220041532.3638964</v>
       </c>
       <c r="J16">
-        <v>0.0128487212114775</v>
+        <v>0.433827809682953</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -4032,31 +3585,625 @@
         <v>18</v>
       </c>
       <c r="B17">
-        <v>0.3495075691225092</v>
+        <v>220041531.9709354</v>
       </c>
       <c r="C17">
-        <v>0.3770391258105317</v>
+        <v>220041532.2357909</v>
       </c>
       <c r="D17">
-        <v>0.0091968299352919</v>
+        <v>0.1778858292796632</v>
       </c>
       <c r="E17">
-        <v>0.3475178688431476</v>
+        <v>220041531.9179638</v>
       </c>
       <c r="F17">
-        <v>0.3649677931903915</v>
+        <v>220041532.2718673</v>
       </c>
       <c r="G17">
-        <v>0.0151776664348836</v>
+        <v>0.2240409464900055</v>
       </c>
       <c r="H17">
-        <v>0.3473780402343904</v>
+        <v>220041531.9179655</v>
       </c>
       <c r="I17">
-        <v>0.3713300614580874</v>
+        <v>220041532.2428918</v>
       </c>
       <c r="J17">
-        <v>0.013119198883474</v>
+        <v>0.207565576565656</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="B18" s="2">
+        <f t="array" ref="B18">(AVERAGE(B3:B17))</f>
+        <v>0</v>
+      </c>
+      <c r="C18" s="2">
+        <f t="array" ref="C18">(AVERAGE(C3:C17))</f>
+        <v>0</v>
+      </c>
+      <c r="D18" s="2">
+        <f t="array" ref="D18">(AVERAGE(D3:D17))</f>
+        <v>0</v>
+      </c>
+      <c r="E18" s="2">
+        <f t="array" ref="E18">(AVERAGE(E3:E17))</f>
+        <v>0</v>
+      </c>
+      <c r="F18" s="2">
+        <f t="array" ref="F18">(AVERAGE(F3:F17))</f>
+        <v>0</v>
+      </c>
+      <c r="G18" s="2">
+        <f t="array" ref="G18">(AVERAGE(G3:G17))</f>
+        <v>0</v>
+      </c>
+      <c r="H18" s="2">
+        <f t="array" ref="H18">(AVERAGE(H3:H17))</f>
+        <v>0</v>
+      </c>
+      <c r="I18" s="2">
+        <f t="array" ref="I18">(AVERAGE(I3:I17))</f>
+        <v>0</v>
+      </c>
+      <c r="J18" s="2">
+        <f t="array" ref="J18">(AVERAGE(J3:J17))</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:J1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="B1:D17">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="notEqual">
+      <formula>Dummy</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E1:G17">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="notEqual">
+      <formula>Dummy</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H1:J17">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="notEqual">
+      <formula>Dummy</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>0.3472501878442693</v>
+      </c>
+      <c r="C3">
+        <v>0.3472505912822062</v>
+      </c>
+      <c r="D3">
+        <v>7.634377591006578E-07</v>
+      </c>
+      <c r="E3">
+        <v>0.3472502011305774</v>
+      </c>
+      <c r="F3">
+        <v>0.3472502768989322</v>
+      </c>
+      <c r="G3">
+        <v>6.798920793454913E-08</v>
+      </c>
+      <c r="H3">
+        <v>0.347250195348104</v>
+      </c>
+      <c r="I3">
+        <v>0.3472502429725427</v>
+      </c>
+      <c r="J3">
+        <v>2.994302204947584E-08</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>0.3472501878442693</v>
+      </c>
+      <c r="C4">
+        <v>0.3472516517904329</v>
+      </c>
+      <c r="D4">
+        <v>2.212281823264624E-06</v>
+      </c>
+      <c r="E4">
+        <v>0.3472502015234994</v>
+      </c>
+      <c r="F4">
+        <v>0.3472503102109952</v>
+      </c>
+      <c r="G4">
+        <v>1.157973308089744E-07</v>
+      </c>
+      <c r="H4">
+        <v>0.3472501999071712</v>
+      </c>
+      <c r="I4">
+        <v>0.3472502832276268</v>
+      </c>
+      <c r="J4">
+        <v>1.254367079417321E-07</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>0.3472501878442693</v>
+      </c>
+      <c r="C5">
+        <v>0.3472509071365862</v>
+      </c>
+      <c r="D5">
+        <v>1.14592533129173E-06</v>
+      </c>
+      <c r="E5">
+        <v>0.3472529130613374</v>
+      </c>
+      <c r="F5">
+        <v>0.3478464304587176</v>
+      </c>
+      <c r="G5">
+        <v>0.0008924155350684</v>
+      </c>
+      <c r="H5">
+        <v>0.3472502124400319</v>
+      </c>
+      <c r="I5">
+        <v>0.3506961132202107</v>
+      </c>
+      <c r="J5">
+        <v>0.009573887857959901</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>0.3472501878442693</v>
+      </c>
+      <c r="C6">
+        <v>0.3472508778973275</v>
+      </c>
+      <c r="D6">
+        <v>7.391117668203599E-07</v>
+      </c>
+      <c r="E6">
+        <v>0.347250194442159</v>
+      </c>
+      <c r="F6">
+        <v>0.3472502551043084</v>
+      </c>
+      <c r="G6">
+        <v>8.749719866193585E-08</v>
+      </c>
+      <c r="H6">
+        <v>0.3472502051420287</v>
+      </c>
+      <c r="I6">
+        <v>0.3472502664480656</v>
+      </c>
+      <c r="J6">
+        <v>7.334932824902344E-08</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>0.3472501980793522</v>
+      </c>
+      <c r="C7">
+        <v>0.3472506866830491</v>
+      </c>
+      <c r="D7">
+        <v>3.667694677918489E-07</v>
+      </c>
+      <c r="E7">
+        <v>0.347250191178495</v>
+      </c>
+      <c r="F7">
+        <v>0.3472503045407034</v>
+      </c>
+      <c r="G7">
+        <v>1.02491567387404E-07</v>
+      </c>
+      <c r="H7">
+        <v>0.3472501942209189</v>
+      </c>
+      <c r="I7">
+        <v>0.3472503205725522</v>
+      </c>
+      <c r="J7">
+        <v>1.052266219475753E-07</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <v>0.3472501878442693</v>
+      </c>
+      <c r="C8">
+        <v>0.3472504794712665</v>
+      </c>
+      <c r="D8">
+        <v>3.261474848633638E-07</v>
+      </c>
+      <c r="E8">
+        <v>0.5925676336773482</v>
+      </c>
+      <c r="F8">
+        <v>0.6283398203615921</v>
+      </c>
+      <c r="G8">
+        <v>0.0288504057256616</v>
+      </c>
+      <c r="H8">
+        <v>0.6096138830204683</v>
+      </c>
+      <c r="I8">
+        <v>0.6408988094536774</v>
+      </c>
+      <c r="J8">
+        <v>0.0210204688835032</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>0.3472501878442693</v>
+      </c>
+      <c r="C9">
+        <v>0.347250821400107</v>
+      </c>
+      <c r="D9">
+        <v>6.3246209280773E-07</v>
+      </c>
+      <c r="E9">
+        <v>0.3472501916061625</v>
+      </c>
+      <c r="F9">
+        <v>0.3472502218835709</v>
+      </c>
+      <c r="G9">
+        <v>1.712079103734154E-08</v>
+      </c>
+      <c r="H9">
+        <v>0.3472501883607215</v>
+      </c>
+      <c r="I9">
+        <v>0.3472502191244778</v>
+      </c>
+      <c r="J9">
+        <v>2.900616871211156E-08</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10">
+        <v>0.3472501878442693</v>
+      </c>
+      <c r="C10">
+        <v>0.3472505115229365</v>
+      </c>
+      <c r="D10">
+        <v>4.376676614096311E-07</v>
+      </c>
+      <c r="E10">
+        <v>0.3472502409260157</v>
+      </c>
+      <c r="F10">
+        <v>0.3472511355293278</v>
+      </c>
+      <c r="G10">
+        <v>7.569139350469588E-07</v>
+      </c>
+      <c r="H10">
+        <v>0.3472501927609317</v>
+      </c>
+      <c r="I10">
+        <v>0.347252040081001</v>
+      </c>
+      <c r="J10">
+        <v>2.848421028826774E-06</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11">
+        <v>0.3472501878442693</v>
+      </c>
+      <c r="C11">
+        <v>0.347251270144459</v>
+      </c>
+      <c r="D11">
+        <v>1.856983998265857E-06</v>
+      </c>
+      <c r="E11">
+        <v>0.3472501887739171</v>
+      </c>
+      <c r="F11">
+        <v>0.3472502331481855</v>
+      </c>
+      <c r="G11">
+        <v>4.507574117659975E-08</v>
+      </c>
+      <c r="H11">
+        <v>0.3472501895602514</v>
+      </c>
+      <c r="I11">
+        <v>0.3472502221997869</v>
+      </c>
+      <c r="J11">
+        <v>2.849517656259915E-08</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12">
+        <v>0.3472501878442696</v>
+      </c>
+      <c r="C12">
+        <v>0.3526071784925178</v>
+      </c>
+      <c r="D12">
+        <v>0.0160597371464285</v>
+      </c>
+      <c r="E12">
+        <v>0.3472504668544379</v>
+      </c>
+      <c r="F12">
+        <v>0.3472531884745438</v>
+      </c>
+      <c r="G12">
+        <v>2.886953473093626E-06</v>
+      </c>
+      <c r="H12">
+        <v>0.3472504483470788</v>
+      </c>
+      <c r="I12">
+        <v>0.3504870045003024</v>
+      </c>
+      <c r="J12">
+        <v>0.009655161517524999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13">
+        <v>0.3472501878442693</v>
+      </c>
+      <c r="C13">
+        <v>0.3472536847128094</v>
+      </c>
+      <c r="D13">
+        <v>8.001347303015916E-06</v>
+      </c>
+      <c r="E13">
+        <v>0.3472501926610478</v>
+      </c>
+      <c r="F13">
+        <v>0.3472502170379347</v>
+      </c>
+      <c r="G13">
+        <v>2.135278982471225E-08</v>
+      </c>
+      <c r="H13">
+        <v>0.3472501882354012</v>
+      </c>
+      <c r="I13">
+        <v>0.3472502106877924</v>
+      </c>
+      <c r="J13">
+        <v>1.454414073283787E-08</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14">
+        <v>0.4536247582582411</v>
+      </c>
+      <c r="C14">
+        <v>0.5135820018712989</v>
+      </c>
+      <c r="D14">
+        <v>0.0456817437479337</v>
+      </c>
+      <c r="E14">
+        <v>0.4836504041592113</v>
+      </c>
+      <c r="F14">
+        <v>0.527331942961873</v>
+      </c>
+      <c r="G14">
+        <v>0.0366606884831923</v>
+      </c>
+      <c r="H14">
+        <v>0.4564976012717314</v>
+      </c>
+      <c r="I14">
+        <v>0.5362064038272711</v>
+      </c>
+      <c r="J14">
+        <v>0.0575286074039613</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15">
+        <v>0.7083094849369078</v>
+      </c>
+      <c r="C15">
+        <v>0.7178215549759848</v>
+      </c>
+      <c r="D15">
+        <v>0.0055333275587529</v>
+      </c>
+      <c r="E15">
+        <v>0.7103262062735233</v>
+      </c>
+      <c r="F15">
+        <v>0.7164266234738164</v>
+      </c>
+      <c r="G15">
+        <v>0.0050477499053692</v>
+      </c>
+      <c r="H15">
+        <v>0.6977977770742603</v>
+      </c>
+      <c r="I15">
+        <v>0.7169430115322076</v>
+      </c>
+      <c r="J15">
+        <v>0.008672917903285501</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16">
+        <v>0.3472501879471232</v>
+      </c>
+      <c r="C16">
+        <v>0.350462350804618</v>
+      </c>
+      <c r="D16">
+        <v>0.0096364789453252</v>
+      </c>
+      <c r="E16">
+        <v>0.3472501878530903</v>
+      </c>
+      <c r="F16">
+        <v>0.3472501928834329</v>
+      </c>
+      <c r="G16">
+        <v>4.90019730985384E-09</v>
+      </c>
+      <c r="H16">
+        <v>0.3472501880536165</v>
+      </c>
+      <c r="I16">
+        <v>0.3472501931808499</v>
+      </c>
+      <c r="J16">
+        <v>6.318863435066052E-09</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17">
+        <v>0.3472501887322659</v>
+      </c>
+      <c r="C17">
+        <v>0.3472502442686457</v>
+      </c>
+      <c r="D17">
+        <v>7.32572709478509E-08</v>
+      </c>
+      <c r="E17">
+        <v>0.3472501937202608</v>
+      </c>
+      <c r="F17">
+        <v>0.3472502871742123</v>
+      </c>
+      <c r="G17">
+        <v>1.554791047254233E-07</v>
+      </c>
+      <c r="H17">
+        <v>0.3472502055278442</v>
+      </c>
+      <c r="I17">
+        <v>0.3472503762734862</v>
+      </c>
+      <c r="J17">
+        <v>1.751388846443397E-07</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -4178,31 +4325,31 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>2.746630175987346E-14</v>
+        <v>1.65823966178862E-71</v>
       </c>
       <c r="C3">
-        <v>1.567413952622311E-13</v>
+        <v>5.490389768558106E-70</v>
       </c>
       <c r="D3">
-        <v>1.041295464405231E-13</v>
+        <v>5.274509711808102E-70</v>
       </c>
       <c r="E3">
-        <v>3.685643637018394E-13</v>
+        <v>1.814260653352954E-44</v>
       </c>
       <c r="F3">
-        <v>2.563090069189095E-12</v>
+        <v>6.781973687137741E-44</v>
       </c>
       <c r="G3">
-        <v>2.016158540369274E-12</v>
+        <v>3.528716346942485E-44</v>
       </c>
       <c r="H3">
-        <v>6.451864581297814E-08</v>
+        <v>5.903935658979586E-44</v>
       </c>
       <c r="I3">
-        <v>1.66003663845998E-07</v>
+        <v>9.741429821032126E-40</v>
       </c>
       <c r="J3">
-        <v>7.788515322978929E-08</v>
+        <v>2.478451772404358E-39</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -4210,31 +4357,31 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>1.71587409917047E-15</v>
+        <v>2.585462163827454E-65</v>
       </c>
       <c r="C4">
-        <v>4.499169868436024E-15</v>
+        <v>9.028647800495232E-42</v>
       </c>
       <c r="D4">
-        <v>2.675912342012841E-15</v>
+        <v>2.708594330973705E-41</v>
       </c>
       <c r="E4">
-        <v>7.123011864499825E-13</v>
+        <v>1.005803102157699E-45</v>
       </c>
       <c r="F4">
-        <v>3.004827216973313E-12</v>
+        <v>8.441143107248206E-45</v>
       </c>
       <c r="G4">
-        <v>3.185705207640927E-12</v>
+        <v>7.449962127219973E-45</v>
       </c>
       <c r="H4">
-        <v>6.493888966889651E-08</v>
+        <v>1.553319957238767E-50</v>
       </c>
       <c r="I4">
-        <v>1.673913483676306E-07</v>
+        <v>4.467316092029056E-30</v>
       </c>
       <c r="J4">
-        <v>9.600010834184109E-08</v>
+        <v>1.340194799261538E-29</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -4242,31 +4389,31 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>0.0029537774891335</v>
+        <v>5.201708713665959E-21</v>
       </c>
       <c r="C5">
-        <v>0.0047266986006657</v>
+        <v>5.142869207627689E-20</v>
       </c>
       <c r="D5">
-        <v>0.0016457650659143</v>
+        <v>3.507477333131768E-20</v>
       </c>
       <c r="E5">
-        <v>0.0075081722726854</v>
+        <v>2.562284686246061E-14</v>
       </c>
       <c r="F5">
-        <v>0.0149986892326973</v>
+        <v>8.765817533290827E-14</v>
       </c>
       <c r="G5">
-        <v>0.0067454291839222</v>
+        <v>7.831017981900873E-14</v>
       </c>
       <c r="H5">
-        <v>0.02046957332325</v>
+        <v>2.138912911262847E-15</v>
       </c>
       <c r="I5">
-        <v>0.0384095400372302</v>
+        <v>2.760701497435451E-12</v>
       </c>
       <c r="J5">
-        <v>0.0167045627463513</v>
+        <v>7.86848948762073E-12</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -4274,31 +4421,31 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>1.214443307789605E-17</v>
+        <v>2.379483559756261E-86</v>
       </c>
       <c r="C6">
-        <v>3.715761504393019E-17</v>
+        <v>1.411158698507856E-84</v>
       </c>
       <c r="D6">
-        <v>2.168148743166844E-17</v>
+        <v>1.633571341073016E-84</v>
       </c>
       <c r="E6">
-        <v>1.212300424484415E-16</v>
+        <v>3.287541619034514E-55</v>
       </c>
       <c r="F6">
-        <v>7.036621705814022E-16</v>
+        <v>2.49046106304823E-54</v>
       </c>
       <c r="G6">
-        <v>4.73151714937746E-16</v>
+        <v>3.43024476088442E-54</v>
       </c>
       <c r="H6">
-        <v>1.163668605901892E-11</v>
+        <v>2.861664229776091E-62</v>
       </c>
       <c r="I6">
-        <v>4.028244457541197E-11</v>
+        <v>2.284883460161217E-46</v>
       </c>
       <c r="J6">
-        <v>2.293538183272712E-11</v>
+        <v>6.842044447699014E-46</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -4306,31 +4453,31 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>5.114712336858196E-18</v>
+        <v>3.854402434272658E-84</v>
       </c>
       <c r="C7">
-        <v>1.468179689718712E-17</v>
+        <v>1.716720540884831E-70</v>
       </c>
       <c r="D7">
-        <v>8.63514546617447E-18</v>
+        <v>5.140906790803413E-70</v>
       </c>
       <c r="E7">
-        <v>6.074431593088635E-16</v>
+        <v>8.441214434622082E-54</v>
       </c>
       <c r="F7">
-        <v>3.324650092106721E-15</v>
+        <v>2.000848704046705E-52</v>
       </c>
       <c r="G7">
-        <v>2.701377591678002E-15</v>
+        <v>1.940673165569253E-52</v>
       </c>
       <c r="H7">
-        <v>6.130490315466295E-11</v>
+        <v>4.932827783350972E-53</v>
       </c>
       <c r="I7">
-        <v>2.534265431196979E-10</v>
+        <v>8.109721195929948E-45</v>
       </c>
       <c r="J7">
-        <v>1.507716016146038E-10</v>
+        <v>2.428300261315454E-44</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -4338,31 +4485,31 @@
         <v>9</v>
       </c>
       <c r="B8">
-        <v>13.97015832633228</v>
+        <v>1.359643531494441E-10</v>
       </c>
       <c r="C8">
-        <v>21.8995126203678</v>
+        <v>4.023342870310092E-10</v>
       </c>
       <c r="D8">
-        <v>3.881714006977099</v>
+        <v>2.381039164316726E-10</v>
       </c>
       <c r="E8">
-        <v>24.90072003932658</v>
+        <v>0.0007784802491503</v>
       </c>
       <c r="F8">
-        <v>42.38290629291633</v>
+        <v>0.0018099985649911</v>
       </c>
       <c r="G8">
-        <v>11.10558279059936</v>
+        <v>0.0006823482460064</v>
       </c>
       <c r="H8">
-        <v>56.93134581139245</v>
+        <v>0.0007449132050822</v>
       </c>
       <c r="I8">
-        <v>83.25709135142617</v>
+        <v>0.0057619873397374</v>
       </c>
       <c r="J8">
-        <v>18.75699451527176</v>
+        <v>0.006350123417004</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -4370,31 +4517,31 @@
         <v>10</v>
       </c>
       <c r="B9">
-        <v>3.964894403492564E-22</v>
+        <v>1.674369493238844E-96</v>
       </c>
       <c r="C9">
-        <v>5.05077259570165E-21</v>
+        <v>1.481175645183154E-93</v>
       </c>
       <c r="D9">
-        <v>4.594297854171059E-21</v>
+        <v>2.664126443800258E-93</v>
       </c>
       <c r="E9">
-        <v>9.543533808548041E-19</v>
+        <v>4.80293921109548E-63</v>
       </c>
       <c r="F9">
-        <v>1.753693592675999E-18</v>
+        <v>1.535234478031594E-61</v>
       </c>
       <c r="G9">
-        <v>8.483815779867108E-19</v>
+        <v>2.210661998774821E-61</v>
       </c>
       <c r="H9">
-        <v>1.852279824362551E-14</v>
+        <v>5.102016932719877E-66</v>
       </c>
       <c r="I9">
-        <v>4.604056682808448E-14</v>
+        <v>2.176913599696085E-54</v>
       </c>
       <c r="J9">
-        <v>2.671694914086754E-14</v>
+        <v>4.363144883401649E-54</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -4402,31 +4549,31 @@
         <v>11</v>
       </c>
       <c r="B10">
-        <v>2.246298666941369E-05</v>
+        <v>2.775888779947057E-22</v>
       </c>
       <c r="C10">
-        <v>5.411184283183373E-05</v>
+        <v>1.568706211050206E-21</v>
       </c>
       <c r="D10">
-        <v>1.966604479886815E-05</v>
+        <v>1.815131099602461E-21</v>
       </c>
       <c r="E10">
-        <v>5.388876698417995E-05</v>
+        <v>1.548263176730019E-20</v>
       </c>
       <c r="F10">
-        <v>0.0001369878143738</v>
+        <v>4.247662642266693E-20</v>
       </c>
       <c r="G10">
-        <v>3.993185149676517E-05</v>
+        <v>2.927145688096311E-20</v>
       </c>
       <c r="H10">
-        <v>5.049512633105054E-05</v>
+        <v>3.198362988231288E-22</v>
       </c>
       <c r="I10">
-        <v>0.0001100517454905</v>
+        <v>2.937482222223599E-19</v>
       </c>
       <c r="J10">
-        <v>3.988686298593458E-05</v>
+        <v>4.88478790634745E-19</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -4434,31 +4581,31 @@
         <v>12</v>
       </c>
       <c r="B11">
-        <v>1.437067936587132E-22</v>
+        <v>2.205933341650749E-67</v>
       </c>
       <c r="C11">
-        <v>1.309016087690433E-21</v>
+        <v>1.042316268469238E-63</v>
       </c>
       <c r="D11">
-        <v>2.256438229277636E-21</v>
+        <v>2.805047418272312E-63</v>
       </c>
       <c r="E11">
-        <v>6.628831734489026E-18</v>
+        <v>1.080407922070205E-59</v>
       </c>
       <c r="F11">
-        <v>4.53035464317276E-17</v>
+        <v>1.83548167316652E-58</v>
       </c>
       <c r="G11">
-        <v>4.947961486272155E-17</v>
+        <v>3.335854142266526E-58</v>
       </c>
       <c r="H11">
-        <v>6.570543924461207E-14</v>
+        <v>3.435916105257449E-74</v>
       </c>
       <c r="I11">
-        <v>6.01047602360092E-13</v>
+        <v>1.191505501753772E-52</v>
       </c>
       <c r="J11">
-        <v>5.81045818113015E-13</v>
+        <v>2.816192726769684E-52</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -4466,31 +4613,31 @@
         <v>13</v>
       </c>
       <c r="B12">
-        <v>2.439848310206572E-05</v>
+        <v>9.596888649061462E-25</v>
       </c>
       <c r="C12">
-        <v>6.029054196385993E-05</v>
+        <v>1.04537883100297E-22</v>
       </c>
       <c r="D12">
-        <v>4.539766882776083E-05</v>
+        <v>2.971778170215972E-22</v>
       </c>
       <c r="E12">
-        <v>0.0004424188436909</v>
+        <v>1.164708600283676E-17</v>
       </c>
       <c r="F12">
-        <v>0.0009822454837968</v>
+        <v>2.636819791808282E-17</v>
       </c>
       <c r="G12">
-        <v>0.0002653472606915</v>
+        <v>1.373736188442115E-17</v>
       </c>
       <c r="H12">
-        <v>0.0009498200331427</v>
+        <v>6.74242402359468E-18</v>
       </c>
       <c r="I12">
-        <v>0.0025703107521284</v>
+        <v>5.893841500182316E-16</v>
       </c>
       <c r="J12">
-        <v>0.0016653277367716</v>
+        <v>1.210719344772792E-15</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -4498,31 +4645,31 @@
         <v>14</v>
       </c>
       <c r="B13">
-        <v>5.510839318161725E-24</v>
+        <v>5.969278805123742E-97</v>
       </c>
       <c r="C13">
-        <v>7.994669293486558E-23</v>
+        <v>1.787268353678361E-94</v>
       </c>
       <c r="D13">
-        <v>6.639792887690852E-23</v>
+        <v>2.722009960714491E-94</v>
       </c>
       <c r="E13">
-        <v>1.426290301718288E-22</v>
+        <v>1.26127002399805E-73</v>
       </c>
       <c r="F13">
-        <v>6.856427960971323E-22</v>
+        <v>1.748361856070837E-72</v>
       </c>
       <c r="G13">
-        <v>7.078978504791309E-22</v>
+        <v>1.640628596222069E-72</v>
       </c>
       <c r="H13">
-        <v>1.64606843899821E-18</v>
+        <v>4.634755754366279E-79</v>
       </c>
       <c r="I13">
-        <v>2.050911839215849E-17</v>
+        <v>6.638553859281724E-69</v>
       </c>
       <c r="J13">
-        <v>1.257966480226074E-17</v>
+        <v>1.984367110056901E-68</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -4530,31 +4677,31 @@
         <v>15</v>
       </c>
       <c r="B14">
-        <v>3.230732811136068</v>
+        <v>2.527911910774932E-06</v>
       </c>
       <c r="C14">
-        <v>5.492156778681979</v>
+        <v>4.040751789988084E-06</v>
       </c>
       <c r="D14">
-        <v>1.430331305928694</v>
+        <v>1.694980266364941E-06</v>
       </c>
       <c r="E14">
-        <v>3.500666207806866</v>
+        <v>1.649146934220601E-06</v>
       </c>
       <c r="F14">
-        <v>4.981978306899354</v>
+        <v>4.081928050785458E-06</v>
       </c>
       <c r="G14">
-        <v>0.8296389444971047</v>
+        <v>1.835271012569118E-06</v>
       </c>
       <c r="H14">
-        <v>3.119671763183711</v>
+        <v>1.256904073535576E-06</v>
       </c>
       <c r="I14">
-        <v>5.521947573934951</v>
+        <v>3.437360371591604E-06</v>
       </c>
       <c r="J14">
-        <v>1.290898322242092</v>
+        <v>1.66341121858797E-06</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -4562,31 +4709,31 @@
         <v>16</v>
       </c>
       <c r="B15">
-        <v>270.4757313578741</v>
+        <v>0.7919583083443972</v>
       </c>
       <c r="C15">
-        <v>340.1814466052978</v>
+        <v>1.648552719010243</v>
       </c>
       <c r="D15">
-        <v>82.935195766623</v>
+        <v>0.4447328106075069</v>
       </c>
       <c r="E15">
-        <v>219.0561844033651</v>
+        <v>0.8197857349684432</v>
       </c>
       <c r="F15">
-        <v>329.7571386948985</v>
+        <v>1.796406243059997</v>
       </c>
       <c r="G15">
-        <v>68.48819934536714</v>
+        <v>0.7332732507876356</v>
       </c>
       <c r="H15">
-        <v>496.0414816907314</v>
+        <v>0.8808484372193184</v>
       </c>
       <c r="I15">
-        <v>580.7801993678186</v>
+        <v>1.760239445495583</v>
       </c>
       <c r="J15">
-        <v>57.76849137288263</v>
+        <v>0.5459867318396062</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -4594,31 +4741,31 @@
         <v>17</v>
       </c>
       <c r="B16">
-        <v>4.344591320502256E-34</v>
+        <v>6.832844312643356E-108</v>
       </c>
       <c r="C16">
-        <v>2.195971436656086E-32</v>
+        <v>1.463382140933349E-103</v>
       </c>
       <c r="D16">
-        <v>5.404103110400237E-32</v>
+        <v>4.24688730113796E-103</v>
       </c>
       <c r="E16">
-        <v>1.629595184144889E-34</v>
+        <v>1.845827074029802E-107</v>
       </c>
       <c r="F16">
-        <v>2.490814236553239E-32</v>
+        <v>1.258528131964738E-105</v>
       </c>
       <c r="G16">
-        <v>4.327803187151695E-32</v>
+        <v>2.568310788817512E-105</v>
       </c>
       <c r="H16">
-        <v>2.728603894944719E-31</v>
+        <v>6.933994889074971E-108</v>
       </c>
       <c r="I16">
-        <v>2.032739078728558E-27</v>
+        <v>1.982631605637568E-105</v>
       </c>
       <c r="J16">
-        <v>5.492225727825454E-27</v>
+        <v>3.987046374407459E-105</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -4626,31 +4773,31 @@
         <v>18</v>
       </c>
       <c r="B17">
-        <v>3.223938508801504E-09</v>
+        <v>1.94318677848895E-33</v>
       </c>
       <c r="C17">
-        <v>8.754430591313765E-09</v>
+        <v>5.117010076788568E-33</v>
       </c>
       <c r="D17">
-        <v>5.721413634866757E-09</v>
+        <v>2.207407099223318E-33</v>
       </c>
       <c r="E17">
-        <v>3.431669161035278E-09</v>
+        <v>1.141929908056898E-33</v>
       </c>
       <c r="F17">
-        <v>7.790556039265608E-09</v>
+        <v>9.694247031393915E-33</v>
       </c>
       <c r="G17">
-        <v>3.4817004795921E-09</v>
+        <v>9.77606111630013E-33</v>
       </c>
       <c r="H17">
-        <v>5.481887404002612E-09</v>
+        <v>2.404189808893105E-33</v>
       </c>
       <c r="I17">
-        <v>7.997899723439464E-09</v>
+        <v>1.167710053812619E-32</v>
       </c>
       <c r="J17">
-        <v>2.145796145320206E-09</v>
+        <v>1.113653985144796E-32</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -4772,31 +4919,31 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>5.428039434881842E-09</v>
+        <v>4.559760002668479E-66</v>
       </c>
       <c r="C3">
-        <v>3.088537419489776E-08</v>
+        <v>2.410275785829984E-64</v>
       </c>
       <c r="D3">
-        <v>2.03645289098476E-08</v>
+        <v>3.4461630299279E-64</v>
       </c>
       <c r="E3">
-        <v>1.764069210080799E-07</v>
+        <v>4.242012970043668E-39</v>
       </c>
       <c r="F3">
-        <v>7.640376648889482E-07</v>
+        <v>1.508492917801148E-38</v>
       </c>
       <c r="G3">
-        <v>4.977552457883039E-07</v>
+        <v>1.417281367323047E-38</v>
       </c>
       <c r="H3">
-        <v>0.0362367688402818</v>
+        <v>3.026510555699869E-42</v>
       </c>
       <c r="I3">
-        <v>0.1058404446552333</v>
+        <v>1.353893440262785E-25</v>
       </c>
       <c r="J3">
-        <v>0.0751146129466114</v>
+        <v>4.055276236598977E-25</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -4804,31 +4951,31 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>2.212845904388846E-10</v>
+        <v>2.625549190504645E-54</v>
       </c>
       <c r="C4">
-        <v>1.197568872940267E-09</v>
+        <v>2.632192045636605E-33</v>
       </c>
       <c r="D4">
-        <v>7.957047492356426E-10</v>
+        <v>7.896118672380596E-33</v>
       </c>
       <c r="E4">
-        <v>1.114564271223758E-07</v>
+        <v>3.758338621320582E-40</v>
       </c>
       <c r="F4">
-        <v>5.107796260877548E-07</v>
+        <v>6.363819847433229E-39</v>
       </c>
       <c r="G4">
-        <v>3.395037529606468E-07</v>
+        <v>3.74658356263929E-39</v>
       </c>
       <c r="H4">
-        <v>0.014924652727992</v>
+        <v>1.056959081121337E-43</v>
       </c>
       <c r="I4">
-        <v>0.0659783970146159</v>
+        <v>1.835154222087416E-33</v>
       </c>
       <c r="J4">
-        <v>0.0483863105672211</v>
+        <v>5.501674019123087E-33</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -4836,31 +4983,31 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>1330.993735038389</v>
+        <v>7.282200442064977E-16</v>
       </c>
       <c r="C5">
-        <v>2904.404365608255</v>
+        <v>2.858932070900788E-14</v>
       </c>
       <c r="D5">
-        <v>1108.201383893368</v>
+        <v>3.485156882145006E-14</v>
       </c>
       <c r="E5">
-        <v>8470.98949042934</v>
+        <v>1.103694159932478E-08</v>
       </c>
       <c r="F5">
-        <v>11928.15145223406</v>
+        <v>5.487173436658864E-08</v>
       </c>
       <c r="G5">
-        <v>2416.921412101032</v>
+        <v>3.058388353316973E-08</v>
       </c>
       <c r="H5">
-        <v>17550.67987049862</v>
+        <v>3.610227414197523E-10</v>
       </c>
       <c r="I5">
-        <v>24370.45769842217</v>
+        <v>1.634095182380336E-06</v>
       </c>
       <c r="J5">
-        <v>4045.576933582767</v>
+        <v>3.938649868521611E-06</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -4868,31 +5015,31 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>2.702090291108928E-13</v>
+        <v>2.745202851093496E-82</v>
       </c>
       <c r="C6">
-        <v>7.601326358985126E-12</v>
+        <v>2.413544048508021E-80</v>
       </c>
       <c r="D6">
-        <v>5.977128114471677E-12</v>
+        <v>3.281967763706389E-80</v>
       </c>
       <c r="E6">
-        <v>1.553289260031898E-11</v>
+        <v>1.401651808782072E-49</v>
       </c>
       <c r="F6">
-        <v>2.266258365678062E-10</v>
+        <v>1.822029294957077E-48</v>
       </c>
       <c r="G6">
-        <v>2.494514931556305E-10</v>
+        <v>1.895236538673403E-48</v>
       </c>
       <c r="H6">
-        <v>4.051585283042003E-06</v>
+        <v>2.750508935057624E-54</v>
       </c>
       <c r="I6">
-        <v>1.172894780946004E-05</v>
+        <v>3.281596962876893E-40</v>
       </c>
       <c r="J6">
-        <v>4.992997778282319E-06</v>
+        <v>9.813231667161964E-40</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -4900,31 +5047,31 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>6.403862098137314E-13</v>
+        <v>1.016853110149431E-79</v>
       </c>
       <c r="C7">
-        <v>4.252621923768091E-12</v>
+        <v>1.984894435688938E-58</v>
       </c>
       <c r="D7">
-        <v>4.127931816500735E-12</v>
+        <v>5.954683272290407E-58</v>
       </c>
       <c r="E7">
-        <v>1.363742482211675E-10</v>
+        <v>4.775077170649099E-48</v>
       </c>
       <c r="F7">
-        <v>1.057573133458666E-09</v>
+        <v>2.805906763273829E-47</v>
       </c>
       <c r="G7">
-        <v>1.146115549050991E-09</v>
+        <v>2.141266947355972E-47</v>
       </c>
       <c r="H7">
-        <v>2.384953224671638E-05</v>
+        <v>1.267419089900422E-52</v>
       </c>
       <c r="I7">
-        <v>0.0001170746936342</v>
+        <v>7.275416911142819E-37</v>
       </c>
       <c r="J7">
-        <v>5.694626526564869E-05</v>
+        <v>2.182618978681349E-36</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -4932,31 +5079,31 @@
         <v>9</v>
       </c>
       <c r="B8">
-        <v>52028760.09658844</v>
+        <v>0.0001982286238644</v>
       </c>
       <c r="C8">
-        <v>74430700.38804051</v>
+        <v>0.0004817539182711</v>
       </c>
       <c r="D8">
-        <v>20738989.75000695</v>
+        <v>0.0003670517691426</v>
       </c>
       <c r="E8">
-        <v>71181499.43946621</v>
+        <v>2214.74115459209</v>
       </c>
       <c r="F8">
-        <v>107707196.07329</v>
+        <v>3972.233275425212</v>
       </c>
       <c r="G8">
-        <v>21253979.96412607</v>
+        <v>1797.067157935533</v>
       </c>
       <c r="H8">
-        <v>241726326.2272126</v>
+        <v>2624.095400666727</v>
       </c>
       <c r="I8">
-        <v>327371318.24709</v>
+        <v>4646.969945135622</v>
       </c>
       <c r="J8">
-        <v>56585030.03030574</v>
+        <v>1004.713229715344</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -4964,31 +5111,31 @@
         <v>10</v>
       </c>
       <c r="B9">
-        <v>2.882355487925816E-16</v>
+        <v>2.40838658144143E-90</v>
       </c>
       <c r="C9">
-        <v>1.369732515585648E-15</v>
+        <v>1.691314576011456E-88</v>
       </c>
       <c r="D9">
-        <v>1.429596588859681E-15</v>
+        <v>2.398557507555752E-88</v>
       </c>
       <c r="E9">
-        <v>1.569558391139776E-13</v>
+        <v>5.496543853288759E-58</v>
       </c>
       <c r="F9">
-        <v>7.802823050026735E-13</v>
+        <v>2.965731700194809E-56</v>
       </c>
       <c r="G9">
-        <v>6.403249288023453E-13</v>
+        <v>4.526768671492781E-56</v>
       </c>
       <c r="H9">
-        <v>1.598630513550628E-09</v>
+        <v>1.956488575132606E-69</v>
       </c>
       <c r="I9">
-        <v>1.416671994768534E-08</v>
+        <v>3.425919960191265E-55</v>
       </c>
       <c r="J9">
-        <v>7.54217389984133E-09</v>
+        <v>9.377943058876029E-55</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -4996,31 +5143,31 @@
         <v>11</v>
       </c>
       <c r="B10">
-        <v>12.5417645977716</v>
+        <v>2.056388232434107E-16</v>
       </c>
       <c r="C10">
-        <v>33.63383595439903</v>
+        <v>1.387178830022804E-15</v>
       </c>
       <c r="D10">
-        <v>15.47328714909731</v>
+        <v>1.580432666590624E-15</v>
       </c>
       <c r="E10">
-        <v>52.56362281982193</v>
+        <v>5.438722764282735E-15</v>
       </c>
       <c r="F10">
-        <v>93.30195141875252</v>
+        <v>4.280698173277886E-14</v>
       </c>
       <c r="G10">
-        <v>33.73107607455654</v>
+        <v>3.21896325118807E-14</v>
       </c>
       <c r="H10">
-        <v>33.07179934676524</v>
+        <v>1.1511509341775E-16</v>
       </c>
       <c r="I10">
-        <v>78.51097127859637</v>
+        <v>2.036644770762739E-13</v>
       </c>
       <c r="J10">
-        <v>44.33029195889564</v>
+        <v>3.932152262471855E-13</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -5028,31 +5175,31 @@
         <v>12</v>
       </c>
       <c r="B11">
-        <v>8.3271416210219E-18</v>
+        <v>5.355040913829835E-60</v>
       </c>
       <c r="C11">
-        <v>6.105854140971341E-17</v>
+        <v>2.286063929957989E-58</v>
       </c>
       <c r="D11">
-        <v>7.027758225500953E-17</v>
+        <v>2.512076548558957E-58</v>
       </c>
       <c r="E11">
-        <v>8.498520747895415E-13</v>
+        <v>2.106272895513067E-54</v>
       </c>
       <c r="F11">
-        <v>4.353766431586224E-12</v>
+        <v>2.590773549285334E-53</v>
       </c>
       <c r="G11">
-        <v>3.005967737849542E-12</v>
+        <v>3.282887329245204E-53</v>
       </c>
       <c r="H11">
-        <v>2.301556471854365E-08</v>
+        <v>4.538395997775709E-66</v>
       </c>
       <c r="I11">
-        <v>1.245328250395177E-07</v>
+        <v>5.735812295608548E-46</v>
       </c>
       <c r="J11">
-        <v>9.782350688634171E-08</v>
+        <v>1.71827967290997E-45</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -5060,31 +5207,31 @@
         <v>13</v>
       </c>
       <c r="B12">
-        <v>14.24307562634228</v>
+        <v>1.54016297206125E-18</v>
       </c>
       <c r="C12">
-        <v>29.38971753014248</v>
+        <v>4.833181457678317E-16</v>
       </c>
       <c r="D12">
-        <v>11.63889166243308</v>
+        <v>7.026371043969785E-16</v>
       </c>
       <c r="E12">
-        <v>237.6485558579497</v>
+        <v>4.13855369474129E-12</v>
       </c>
       <c r="F12">
-        <v>814.9077997593239</v>
+        <v>1.509620834693099E-11</v>
       </c>
       <c r="G12">
-        <v>300.6208695582824</v>
+        <v>7.356236439849607E-12</v>
       </c>
       <c r="H12">
-        <v>538.747134493897</v>
+        <v>2.122117849719606E-15</v>
       </c>
       <c r="I12">
-        <v>1706.240128523705</v>
+        <v>3.71728497512153E-10</v>
       </c>
       <c r="J12">
-        <v>1232.665220121221</v>
+        <v>1.002951310428583E-09</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -5092,31 +5239,31 @@
         <v>14</v>
       </c>
       <c r="B13">
-        <v>2.730022425528033E-18</v>
+        <v>2.660273174516864E-91</v>
       </c>
       <c r="C13">
-        <v>9.981232252068212E-18</v>
+        <v>4.946440822685257E-88</v>
       </c>
       <c r="D13">
-        <v>8.383428053947849E-18</v>
+        <v>1.455117065756218E-87</v>
       </c>
       <c r="E13">
-        <v>2.206639529509736E-17</v>
+        <v>4.319779121302913E-68</v>
       </c>
       <c r="F13">
-        <v>1.598600353837682E-16</v>
+        <v>9.551439014927424E-67</v>
       </c>
       <c r="G13">
-        <v>1.343085606744664E-16</v>
+        <v>1.515943298217008E-66</v>
       </c>
       <c r="H13">
-        <v>2.199052034911125E-12</v>
+        <v>3.850812323239495E-74</v>
       </c>
       <c r="I13">
-        <v>6.158598637454915E-12</v>
+        <v>1.840768990323448E-65</v>
       </c>
       <c r="J13">
-        <v>3.175649226295521E-12</v>
+        <v>5.352159377944862E-65</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -5124,31 +5271,31 @@
         <v>15</v>
       </c>
       <c r="B14">
-        <v>6001742.468191051</v>
+        <v>2.26330318776417</v>
       </c>
       <c r="C14">
-        <v>10093492.46865856</v>
+        <v>5.414941016302536</v>
       </c>
       <c r="D14">
-        <v>2658383.139965006</v>
+        <v>2.057522679794885</v>
       </c>
       <c r="E14">
-        <v>8684026.013020867</v>
+        <v>2.094546870254253</v>
       </c>
       <c r="F14">
-        <v>12640527.93406397</v>
+        <v>4.354700861510611</v>
       </c>
       <c r="G14">
-        <v>3831496.887612024</v>
+        <v>2.115489322364818</v>
       </c>
       <c r="H14">
-        <v>5934435.738825846</v>
+        <v>2.471728656034728</v>
       </c>
       <c r="I14">
-        <v>11578174.24178423</v>
+        <v>5.080422787261474</v>
       </c>
       <c r="J14">
-        <v>3761267.532281374</v>
+        <v>1.577884586431187</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -5156,31 +5303,31 @@
         <v>16</v>
       </c>
       <c r="B15">
-        <v>1249304948.01531</v>
+        <v>3307649.312274017</v>
       </c>
       <c r="C15">
-        <v>2010463098.165662</v>
+        <v>6619626.659074167</v>
       </c>
       <c r="D15">
-        <v>610690709.8804911</v>
+        <v>2190935.771441978</v>
       </c>
       <c r="E15">
-        <v>1119230470.397018</v>
+        <v>2204409.396699496</v>
       </c>
       <c r="F15">
-        <v>1780852848.316327</v>
+        <v>7162937.701668088</v>
       </c>
       <c r="G15">
-        <v>573709689.4406939</v>
+        <v>3571266.701405782</v>
       </c>
       <c r="H15">
-        <v>2774921823.989355</v>
+        <v>2187347.819100428</v>
       </c>
       <c r="I15">
-        <v>4094101398.468428</v>
+        <v>6180550.770372559</v>
       </c>
       <c r="J15">
-        <v>995404381.5760972</v>
+        <v>3017217.439971688</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -5188,31 +5335,31 @@
         <v>17</v>
       </c>
       <c r="B16">
-        <v>1.85839287437116E-29</v>
+        <v>2.553068922886634E-102</v>
       </c>
       <c r="C16">
-        <v>1.234685952536018E-28</v>
+        <v>3.359511944451255E-101</v>
       </c>
       <c r="D16">
-        <v>9.852099114663756E-29</v>
+        <v>6.039939649196016E-101</v>
       </c>
       <c r="E16">
-        <v>2.458053584554919E-29</v>
+        <v>4.156608610571364E-103</v>
       </c>
       <c r="F16">
-        <v>1.773133910700136E-28</v>
+        <v>2.644124978050281E-98</v>
       </c>
       <c r="G16">
-        <v>1.907206139945268E-28</v>
+        <v>7.931077622668355E-98</v>
       </c>
       <c r="H16">
-        <v>3.849089839139819E-26</v>
+        <v>1.175637978489583E-103</v>
       </c>
       <c r="I16">
-        <v>5.187177737015407E-23</v>
+        <v>2.157556786673749E-101</v>
       </c>
       <c r="J16">
-        <v>1.55030586930799E-22</v>
+        <v>1.757432313228645E-101</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -5220,31 +5367,31 @@
         <v>18</v>
       </c>
       <c r="B17">
-        <v>0.0022965418894385</v>
+        <v>9.822652354761758E-28</v>
       </c>
       <c r="C17">
-        <v>0.0047563154246238</v>
+        <v>3.842967853642386E-27</v>
       </c>
       <c r="D17">
-        <v>0.0019287249036088</v>
+        <v>3.047415909230222E-27</v>
       </c>
       <c r="E17">
-        <v>0.0020465606836932</v>
+        <v>1.28367136908701E-27</v>
       </c>
       <c r="F17">
-        <v>0.0054605136025378</v>
+        <v>4.16635948052337E-27</v>
       </c>
       <c r="G17">
-        <v>0.0029500343917766</v>
+        <v>2.759072185523773E-27</v>
       </c>
       <c r="H17">
-        <v>0.0017622672248708</v>
+        <v>7.654507320134606E-28</v>
       </c>
       <c r="I17">
-        <v>0.0042559404604398</v>
+        <v>4.572369345687642E-27</v>
       </c>
       <c r="J17">
-        <v>0.0031276132641161</v>
+        <v>2.805301048719937E-27</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -5366,31 +5513,31 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>3.007286573200118E-17</v>
+        <v>5.128192382391608E-75</v>
       </c>
       <c r="C3">
-        <v>1.994974571383145E-16</v>
+        <v>1.750054516279653E-71</v>
       </c>
       <c r="D3">
-        <v>1.545434377486612E-16</v>
+        <v>4.486808064671367E-71</v>
       </c>
       <c r="E3">
-        <v>2.308709527784296E-15</v>
+        <v>4.504588112750712E-47</v>
       </c>
       <c r="F3">
-        <v>6.037207845604174E-15</v>
+        <v>2.163627210217543E-46</v>
       </c>
       <c r="G3">
-        <v>2.899340595746329E-15</v>
+        <v>1.0787303443515E-46</v>
       </c>
       <c r="H3">
-        <v>2.277712296530663E-10</v>
+        <v>1.958035447050286E-48</v>
       </c>
       <c r="I3">
-        <v>7.306242184464706E-10</v>
+        <v>2.605615983644687E-32</v>
       </c>
       <c r="J3">
-        <v>3.899846358228698E-10</v>
+        <v>7.81684774668933E-32</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -5398,31 +5545,31 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>1.056916892204318E-18</v>
+        <v>1.297825198645519E-67</v>
       </c>
       <c r="C4">
-        <v>7.746615893440869E-18</v>
+        <v>2.49326221408137E-47</v>
       </c>
       <c r="D4">
-        <v>6.271313819207769E-18</v>
+        <v>7.373175052950647E-47</v>
       </c>
       <c r="E4">
-        <v>3.800652173886551E-16</v>
+        <v>5.070549627630423E-48</v>
       </c>
       <c r="F4">
-        <v>2.356317469623448E-15</v>
+        <v>1.481311118647861E-47</v>
       </c>
       <c r="G4">
-        <v>1.466239456704547E-15</v>
+        <v>8.485673053011115E-48</v>
       </c>
       <c r="H4">
-        <v>1.137479628413819E-10</v>
+        <v>5.377149116291526E-53</v>
       </c>
       <c r="I4">
-        <v>3.638369044853337E-10</v>
+        <v>1.144634313245963E-42</v>
       </c>
       <c r="J4">
-        <v>2.405798909240626E-10</v>
+        <v>3.172311124899828E-42</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -5430,31 +5577,31 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>8.616849120350259E-06</v>
+        <v>7.576372845455607E-24</v>
       </c>
       <c r="C5">
-        <v>2.286644007121536E-05</v>
+        <v>2.315765849434988E-22</v>
       </c>
       <c r="D5">
-        <v>1.1473808598831E-05</v>
+        <v>2.697417452572475E-22</v>
       </c>
       <c r="E5">
-        <v>3.828239932832168E-05</v>
+        <v>1.535800853056755E-16</v>
       </c>
       <c r="F5">
-        <v>8.884526929361119E-05</v>
+        <v>4.323399374956236E-16</v>
       </c>
       <c r="G5">
-        <v>3.904903788795021E-05</v>
+        <v>2.231039412671025E-16</v>
       </c>
       <c r="H5">
-        <v>7.165221995348949E-05</v>
+        <v>1.528678402250853E-17</v>
       </c>
       <c r="I5">
-        <v>0.0001369411900164</v>
+        <v>2.451569268754829E-13</v>
       </c>
       <c r="J5">
-        <v>4.079528950489716E-05</v>
+        <v>6.95580356683703E-13</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -5462,31 +5609,31 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>1.940600543348511E-20</v>
+        <v>3.773568857969383E-90</v>
       </c>
       <c r="C6">
-        <v>6.966016573190421E-20</v>
+        <v>4.607011993735309E-88</v>
       </c>
       <c r="D6">
-        <v>3.19423661286138E-20</v>
+        <v>9.926688465356776E-88</v>
       </c>
       <c r="E6">
-        <v>2.281220482279518E-19</v>
+        <v>3.753666462289867E-58</v>
       </c>
       <c r="F6">
-        <v>1.205628870717451E-18</v>
+        <v>7.455395426621853E-57</v>
       </c>
       <c r="G6">
-        <v>8.106374911936896E-19</v>
+        <v>8.013767227795182E-57</v>
       </c>
       <c r="H6">
-        <v>8.566888453380333E-14</v>
+        <v>5.277051923890618E-63</v>
       </c>
       <c r="I6">
-        <v>2.444782892693955E-13</v>
+        <v>2.354528801974466E-45</v>
       </c>
       <c r="J6">
-        <v>1.265336745779223E-13</v>
+        <v>7.063585266210321E-45</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -5494,31 +5641,31 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>5.442464491926928E-21</v>
+        <v>5.59296932492886E-83</v>
       </c>
       <c r="C7">
-        <v>2.632221018945427E-20</v>
+        <v>2.297868159213993E-74</v>
       </c>
       <c r="D7">
-        <v>1.415044251959507E-20</v>
+        <v>6.893436346158958E-74</v>
       </c>
       <c r="E7">
-        <v>7.485855084592166E-19</v>
+        <v>2.671089034523638E-56</v>
       </c>
       <c r="F7">
-        <v>8.164702636152578E-18</v>
+        <v>3.717458909094803E-55</v>
       </c>
       <c r="G7">
-        <v>6.049473000335044E-18</v>
+        <v>3.697605168365397E-55</v>
       </c>
       <c r="H7">
-        <v>1.410383597678826E-13</v>
+        <v>1.013547944685337E-61</v>
       </c>
       <c r="I7">
-        <v>9.841847318217289E-13</v>
+        <v>2.555800404846033E-42</v>
       </c>
       <c r="J7">
-        <v>5.095008524265428E-13</v>
+        <v>7.666647106376566E-42</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -5526,31 +5673,31 @@
         <v>9</v>
       </c>
       <c r="B8">
-        <v>0.2833289133611261</v>
+        <v>9.158381003160961E-13</v>
       </c>
       <c r="C8">
-        <v>0.3690333729708138</v>
+        <v>3.275361018332014E-12</v>
       </c>
       <c r="D8">
-        <v>0.09404385812680929</v>
+        <v>2.123453058847743E-12</v>
       </c>
       <c r="E8">
-        <v>0.3578472873476241</v>
+        <v>2.008479787336655E-05</v>
       </c>
       <c r="F8">
-        <v>0.5903670262115401</v>
+        <v>3.31190481830343E-05</v>
       </c>
       <c r="G8">
-        <v>0.1270128218995317</v>
+        <v>1.128019364282184E-05</v>
       </c>
       <c r="H8">
-        <v>0.7095210870088744</v>
+        <v>2.141407298151749E-05</v>
       </c>
       <c r="I8">
-        <v>1.371611097382977</v>
+        <v>9.098680633234352E-05</v>
       </c>
       <c r="J8">
-        <v>0.4126524816743347</v>
+        <v>5.769230198813455E-05</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -5558,31 +5705,31 @@
         <v>10</v>
       </c>
       <c r="B9">
-        <v>1.006783916222208E-24</v>
+        <v>9.295722968045775E-99</v>
       </c>
       <c r="C9">
-        <v>7.336099010125997E-24</v>
+        <v>4.256296501190922E-97</v>
       </c>
       <c r="D9">
-        <v>5.262547607725792E-24</v>
+        <v>4.73788309206936E-97</v>
       </c>
       <c r="E9">
-        <v>7.16754902058369E-22</v>
+        <v>1.967512628826766E-65</v>
       </c>
       <c r="F9">
-        <v>2.275795161714116E-21</v>
+        <v>9.100095517893216E-65</v>
       </c>
       <c r="G9">
-        <v>1.960337044273105E-21</v>
+        <v>7.531937155928096E-65</v>
       </c>
       <c r="H9">
-        <v>2.534599723253474E-17</v>
+        <v>7.311931506541724E-76</v>
       </c>
       <c r="I9">
-        <v>1.647414137043206E-16</v>
+        <v>1.020578811889121E-58</v>
       </c>
       <c r="J9">
-        <v>1.261620146097953E-16</v>
+        <v>3.061609357810952E-58</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -5590,31 +5737,31 @@
         <v>11</v>
       </c>
       <c r="B10">
-        <v>1.090554514869068E-07</v>
+        <v>2.445062597075337E-24</v>
       </c>
       <c r="C10">
-        <v>1.792728763148427E-07</v>
+        <v>9.113055491158045E-24</v>
       </c>
       <c r="D10">
-        <v>4.891771549516728E-08</v>
+        <v>5.27706814304389E-24</v>
       </c>
       <c r="E10">
-        <v>3.627696412488798E-07</v>
+        <v>1.01547566556825E-22</v>
       </c>
       <c r="F10">
-        <v>7.073887354497579E-07</v>
+        <v>4.435593446035986E-22</v>
       </c>
       <c r="G10">
-        <v>2.120671396462591E-07</v>
+        <v>3.830587164649957E-22</v>
       </c>
       <c r="H10">
-        <v>2.914403121239521E-07</v>
+        <v>7.734990177176727E-27</v>
       </c>
       <c r="I10">
-        <v>5.731644128993606E-07</v>
+        <v>1.894858036634437E-21</v>
       </c>
       <c r="J10">
-        <v>1.713073193204392E-07</v>
+        <v>3.934926026082459E-21</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -5622,31 +5769,31 @@
         <v>12</v>
       </c>
       <c r="B11">
-        <v>2.07912802290602E-26</v>
+        <v>5.568256131944182E-70</v>
       </c>
       <c r="C11">
-        <v>4.619603201241836E-25</v>
+        <v>3.377203070049794E-68</v>
       </c>
       <c r="D11">
-        <v>4.680338470332439E-25</v>
+        <v>3.333738935200431E-68</v>
       </c>
       <c r="E11">
-        <v>1.883342471910782E-21</v>
+        <v>1.509374347602567E-62</v>
       </c>
       <c r="F11">
-        <v>2.871632631024653E-20</v>
+        <v>1.020486744416951E-61</v>
       </c>
       <c r="G11">
-        <v>2.822501564796691E-20</v>
+        <v>9.084898888753942E-62</v>
       </c>
       <c r="H11">
-        <v>3.732084123207584E-16</v>
+        <v>1.488879507595666E-70</v>
       </c>
       <c r="I11">
-        <v>1.43890126345455E-15</v>
+        <v>1.973464814125244E-59</v>
       </c>
       <c r="J11">
-        <v>9.487858277703317E-16</v>
+        <v>4.045285008145132E-59</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -5654,31 +5801,31 @@
         <v>13</v>
       </c>
       <c r="B12">
-        <v>6.682725880781523E-08</v>
+        <v>7.254321506912792E-27</v>
       </c>
       <c r="C12">
-        <v>2.069402830493006E-07</v>
+        <v>2.452652937399046E-26</v>
       </c>
       <c r="D12">
-        <v>1.094216091486997E-07</v>
+        <v>1.779671013814861E-26</v>
       </c>
       <c r="E12">
-        <v>2.737097294153447E-06</v>
+        <v>2.472024707373741E-20</v>
       </c>
       <c r="F12">
-        <v>5.665842435923294E-06</v>
+        <v>1.383404326765549E-19</v>
       </c>
       <c r="G12">
-        <v>2.34500501918846E-06</v>
+        <v>5.841514391707451E-20</v>
       </c>
       <c r="H12">
-        <v>5.127958121484851E-06</v>
+        <v>1.674067873596498E-22</v>
       </c>
       <c r="I12">
-        <v>9.490051909534645E-06</v>
+        <v>2.660246204617413E-17</v>
       </c>
       <c r="J12">
-        <v>3.342524711855649E-06</v>
+        <v>6.867483295601305E-17</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -5686,31 +5833,31 @@
         <v>14</v>
       </c>
       <c r="B13">
-        <v>2.405991891047021E-26</v>
+        <v>1.08385665583243E-98</v>
       </c>
       <c r="C13">
-        <v>1.690315668307012E-25</v>
+        <v>1.020722484085228E-96</v>
       </c>
       <c r="D13">
-        <v>1.119020359441704E-25</v>
+        <v>1.814367853380089E-96</v>
       </c>
       <c r="E13">
-        <v>2.780871573863777E-25</v>
+        <v>4.35827303073416E-76</v>
       </c>
       <c r="F13">
-        <v>1.072421354009811E-24</v>
+        <v>1.341415693552454E-75</v>
       </c>
       <c r="G13">
-        <v>6.848210008746281E-25</v>
+        <v>8.364393895960658E-76</v>
       </c>
       <c r="H13">
-        <v>1.284008886741986E-20</v>
+        <v>3.34191898017066E-76</v>
       </c>
       <c r="I13">
-        <v>3.151937007021174E-20</v>
+        <v>1.584999516668012E-69</v>
       </c>
       <c r="J13">
-        <v>1.942171556944857E-20</v>
+        <v>4.720177052322204E-69</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -5718,31 +5865,31 @@
         <v>15</v>
       </c>
       <c r="B14">
-        <v>0.044645985909991</v>
+        <v>8.526477063690955E-09</v>
       </c>
       <c r="C14">
-        <v>0.0726908115036307</v>
+        <v>4.772124850723155E-08</v>
       </c>
       <c r="D14">
-        <v>0.0198700443489961</v>
+        <v>2.274914950416741E-08</v>
       </c>
       <c r="E14">
-        <v>0.0353307516340993</v>
+        <v>3.092310033612379E-08</v>
       </c>
       <c r="F14">
-        <v>0.0599459207996247</v>
+        <v>5.886100980919123E-08</v>
       </c>
       <c r="G14">
-        <v>0.0147446530929478</v>
+        <v>1.441552400504165E-08</v>
       </c>
       <c r="H14">
-        <v>0.0408035703681895</v>
+        <v>1.679784309891103E-08</v>
       </c>
       <c r="I14">
-        <v>0.07332827871277429</v>
+        <v>3.976319817515058E-08</v>
       </c>
       <c r="J14">
-        <v>0.0209101440162965</v>
+        <v>1.719038799017375E-08</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -5750,31 +5897,31 @@
         <v>16</v>
       </c>
       <c r="B15">
-        <v>5.036896883351392</v>
+        <v>0.028933547865312</v>
       </c>
       <c r="C15">
-        <v>6.69680154956774</v>
+        <v>0.045290986586782</v>
       </c>
       <c r="D15">
-        <v>1.246655900229517</v>
+        <v>0.0093801036487547</v>
       </c>
       <c r="E15">
-        <v>4.268006926096276</v>
+        <v>0.0213779897809111</v>
       </c>
       <c r="F15">
-        <v>7.091832695192032</v>
+        <v>0.0476274449819344</v>
       </c>
       <c r="G15">
-        <v>1.348663080478591</v>
+        <v>0.0161021628195551</v>
       </c>
       <c r="H15">
-        <v>11.84883798576276</v>
+        <v>0.0303417403329526</v>
       </c>
       <c r="I15">
-        <v>15.81676377879126</v>
+        <v>0.0409900383534095</v>
       </c>
       <c r="J15">
-        <v>3.187082033717934</v>
+        <v>0.009638625401282399</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -5782,31 +5929,31 @@
         <v>17</v>
       </c>
       <c r="B16">
-        <v>9.800787801677589E-38</v>
+        <v>5.008940318178049E-111</v>
       </c>
       <c r="C16">
-        <v>8.422411874358934E-37</v>
+        <v>6.890715264117169E-110</v>
       </c>
       <c r="D16">
-        <v>6.597703864087875E-37</v>
+        <v>1.015003840466285E-109</v>
       </c>
       <c r="E16">
-        <v>6.674092503333802E-38</v>
+        <v>4.713083741287407E-112</v>
       </c>
       <c r="F16">
-        <v>5.805990550537052E-37</v>
+        <v>5.061790551264047E-110</v>
       </c>
       <c r="G16">
-        <v>3.132788626023014E-37</v>
+        <v>5.618608286412886E-110</v>
       </c>
       <c r="H16">
-        <v>9.988902951805922E-35</v>
+        <v>7.359208596014407E-111</v>
       </c>
       <c r="I16">
-        <v>1.072592225538141E-33</v>
+        <v>9.947615264098897E-110</v>
       </c>
       <c r="J16">
-        <v>1.007048043771572E-33</v>
+        <v>1.176221315182247E-109</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -5814,31 +5961,31 @@
         <v>18</v>
       </c>
       <c r="B17">
-        <v>1.730747433805299E-11</v>
+        <v>5.895279567553025E-36</v>
       </c>
       <c r="C17">
-        <v>2.698465723760156E-11</v>
+        <v>2.575648966404371E-35</v>
       </c>
       <c r="D17">
-        <v>6.557713355929853E-12</v>
+        <v>1.635926460596456E-35</v>
       </c>
       <c r="E17">
-        <v>1.081879749063515E-11</v>
+        <v>3.752055401834176E-36</v>
       </c>
       <c r="F17">
-        <v>2.79043621842109E-11</v>
+        <v>2.396864677843526E-35</v>
       </c>
       <c r="G17">
-        <v>1.635125377208793E-11</v>
+        <v>1.00539826754067E-35</v>
       </c>
       <c r="H17">
-        <v>6.898887711216883E-12</v>
+        <v>6.065584555506812E-36</v>
       </c>
       <c r="I17">
-        <v>2.305440191137654E-11</v>
+        <v>2.194010202706272E-35</v>
       </c>
       <c r="J17">
-        <v>1.245028690637071E-11</v>
+        <v>1.810802608374214E-35</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -5960,31 +6107,31 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>15.0805837154248</v>
+        <v>2.426438309227457E-14</v>
       </c>
       <c r="C3">
-        <v>29.11092828206288</v>
+        <v>0.3986623854515125</v>
       </c>
       <c r="D3">
-        <v>24.75140679709235</v>
+        <v>1.195987156285898</v>
       </c>
       <c r="E3">
-        <v>17.0151113615816</v>
+        <v>1.0754354022488E-07</v>
       </c>
       <c r="F3">
-        <v>17.92187651084494</v>
+        <v>9.81443659701038E-07</v>
       </c>
       <c r="G3">
-        <v>0.5619544420404654</v>
+        <v>9.663713600383016E-07</v>
       </c>
       <c r="H3">
-        <v>21.57091615884775</v>
+        <v>1.754275950411354E-11</v>
       </c>
       <c r="I3">
-        <v>30.38288311603582</v>
+        <v>2.961131911205895E-05</v>
       </c>
       <c r="J3">
-        <v>23.22867433816588</v>
+        <v>6.453119598677741E-05</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -5992,31 +6139,31 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>13.25651299627004</v>
+        <v>1.834983623652713E-15</v>
       </c>
       <c r="C4">
-        <v>21.45629952887452</v>
+        <v>0.3986623855790885</v>
       </c>
       <c r="D4">
-        <v>17.43837544124043</v>
+        <v>1.19598715673344</v>
       </c>
       <c r="E4">
-        <v>15.90655864896994</v>
+        <v>1.756421197908879E-08</v>
       </c>
       <c r="F4">
-        <v>22.94950809526593</v>
+        <v>1.46064207355078E-07</v>
       </c>
       <c r="G4">
-        <v>18.40293828194501</v>
+        <v>1.103028209278095E-07</v>
       </c>
       <c r="H4">
-        <v>20.26781559881732</v>
+        <v>8.056308518681107E-11</v>
       </c>
       <c r="I4">
-        <v>22.39991405899656</v>
+        <v>1.205801372465485</v>
       </c>
       <c r="J4">
-        <v>0.9071137564586512</v>
+        <v>1.820701669145784</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -6024,31 +6171,31 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>27.47567034958548</v>
+        <v>3.3459637534347</v>
       </c>
       <c r="C5">
-        <v>30.10098294929461</v>
+        <v>5.920304890637967</v>
       </c>
       <c r="D5">
-        <v>2.826598150188909</v>
+        <v>1.257582770977118</v>
       </c>
       <c r="E5">
-        <v>74.97089526756429</v>
+        <v>10.39431962868132</v>
       </c>
       <c r="F5">
-        <v>143.1174887203105</v>
+        <v>10.86818434006161</v>
       </c>
       <c r="G5">
-        <v>40.9407351066113</v>
+        <v>0.4705368699891876</v>
       </c>
       <c r="H5">
-        <v>96.80342559027928</v>
+        <v>7.518016600735665</v>
       </c>
       <c r="I5">
-        <v>210.5232071867974</v>
+        <v>10.7196776540031</v>
       </c>
       <c r="J5">
-        <v>65.57719095209255</v>
+        <v>1.964175753098964</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -6056,31 +6203,31 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>13.31013237105576</v>
+        <v>1.880324912190693E-18</v>
       </c>
       <c r="C6">
-        <v>15.72820079673961</v>
+        <v>1.745751663515147E-13</v>
       </c>
       <c r="D6">
-        <v>1.270099671707808</v>
+        <v>3.493703491115614E-13</v>
       </c>
       <c r="E6">
-        <v>14.56707899070342</v>
+        <v>1.373668908697612E-10</v>
       </c>
       <c r="F6">
-        <v>16.3245511308608</v>
+        <v>6.172333613963979E-08</v>
       </c>
       <c r="G6">
-        <v>1.041994117314667</v>
+        <v>1.37676965301388E-07</v>
       </c>
       <c r="H6">
-        <v>15.77754839478677</v>
+        <v>1.263714558559918E-10</v>
       </c>
       <c r="I6">
-        <v>18.07290537723251</v>
+        <v>2.277472344425391E-07</v>
       </c>
       <c r="J6">
-        <v>0.9014092154789368</v>
+        <v>2.708893176186886E-07</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -6088,31 +6235,31 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>10.679714547679</v>
+        <v>1.479346862496669E-17</v>
       </c>
       <c r="C7">
-        <v>19.17845898614703</v>
+        <v>0.3986623854355827</v>
       </c>
       <c r="D7">
-        <v>18.78111581564713</v>
+        <v>1.19598715628845</v>
       </c>
       <c r="E7">
-        <v>13.034498019752</v>
+        <v>7.058511194696304E-13</v>
       </c>
       <c r="F7">
-        <v>21.48369167822421</v>
+        <v>2.816064280592794E-10</v>
       </c>
       <c r="G7">
-        <v>18.99985420187157</v>
+        <v>3.659758385304408E-10</v>
       </c>
       <c r="H7">
-        <v>16.68177186677563</v>
+        <v>1.071548925062708E-13</v>
       </c>
       <c r="I7">
-        <v>18.65118408851459</v>
+        <v>0.398662439846875</v>
       </c>
       <c r="J7">
-        <v>2.113992910820427</v>
+        <v>1.195987138152595</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -6120,31 +6267,31 @@
         <v>9</v>
       </c>
       <c r="B8">
-        <v>834.790828758931</v>
+        <v>15.74089286287009</v>
       </c>
       <c r="C8">
-        <v>51003.72547283345</v>
+        <v>16.9686281129164</v>
       </c>
       <c r="D8">
-        <v>93495.0512643907</v>
+        <v>0.8406716883452033</v>
       </c>
       <c r="E8">
-        <v>1337404.637642736</v>
+        <v>129.0274433560461</v>
       </c>
       <c r="F8">
-        <v>4851150.162023966</v>
+        <v>334.6663823948066</v>
       </c>
       <c r="G8">
-        <v>2794292.131877968</v>
+        <v>88.1700700865878</v>
       </c>
       <c r="H8">
-        <v>10301205.24161594</v>
+        <v>357.2247835061215</v>
       </c>
       <c r="I8">
-        <v>24549148.88227336</v>
+        <v>1463.004489141623</v>
       </c>
       <c r="J8">
-        <v>11995011.47771314</v>
+        <v>782.6979081444883</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -6152,31 +6299,31 @@
         <v>10</v>
       </c>
       <c r="B9">
-        <v>9.660799980801231</v>
+        <v>4.875343946147644E-20</v>
       </c>
       <c r="C9">
-        <v>17.91921176113657</v>
+        <v>0.7973247712031025</v>
       </c>
       <c r="D9">
-        <v>17.47499350918865</v>
+        <v>1.594649541549181</v>
       </c>
       <c r="E9">
-        <v>10.48675369319072</v>
+        <v>1.491276742341196E-17</v>
       </c>
       <c r="F9">
-        <v>19.64419706925925</v>
+        <v>0.3986623855009095</v>
       </c>
       <c r="G9">
-        <v>19.15045574282816</v>
+        <v>1.195987156267379</v>
       </c>
       <c r="H9">
-        <v>15.12145480569965</v>
+        <v>5.198624800847333E-15</v>
       </c>
       <c r="I9">
-        <v>22.20246348004148</v>
+        <v>1.125487201053599E-10</v>
       </c>
       <c r="J9">
-        <v>18.66145367280212</v>
+        <v>3.108253689918441E-10</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -6184,31 +6331,31 @@
         <v>11</v>
       </c>
       <c r="B10">
-        <v>25.32029513280652</v>
+        <v>2.598372187983791</v>
       </c>
       <c r="C10">
-        <v>26.66228555906899</v>
+        <v>4.719325688093226</v>
       </c>
       <c r="D10">
-        <v>0.6667346776832566</v>
+        <v>0.953541712717162</v>
       </c>
       <c r="E10">
-        <v>27.30262105754396</v>
+        <v>3.574234568756372</v>
       </c>
       <c r="F10">
-        <v>29.22679754243826</v>
+        <v>4.49450036952509</v>
       </c>
       <c r="G10">
-        <v>1.137457095897893</v>
+        <v>0.5994086541992489</v>
       </c>
       <c r="H10">
-        <v>28.09116277349813</v>
+        <v>1.40886606706464</v>
       </c>
       <c r="I10">
-        <v>29.78227174072033</v>
+        <v>4.439700103151973</v>
       </c>
       <c r="J10">
-        <v>2.150052687907059</v>
+        <v>1.686158996753388</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -6216,31 +6363,31 @@
         <v>12</v>
       </c>
       <c r="B11">
-        <v>8.067743476915938</v>
+        <v>9.366481338563649E-18</v>
       </c>
       <c r="C11">
-        <v>11.0538768230902</v>
+        <v>3.420508294755395E-15</v>
       </c>
       <c r="D11">
-        <v>1.993925735840596</v>
+        <v>3.960069217222092E-15</v>
       </c>
       <c r="E11">
-        <v>10.44882104562728</v>
+        <v>2.697791859253246E-15</v>
       </c>
       <c r="F11">
-        <v>17.64998689337393</v>
+        <v>9.569693862998592E-12</v>
       </c>
       <c r="G11">
-        <v>19.00897237802881</v>
+        <v>2.593959502453861E-11</v>
       </c>
       <c r="H11">
-        <v>12.9999670990641</v>
+        <v>2.844141026468368E-17</v>
       </c>
       <c r="I11">
-        <v>21.07890610842709</v>
+        <v>4.917345560511833E-09</v>
       </c>
       <c r="J11">
-        <v>18.15902708125014</v>
+        <v>1.462367427388775E-08</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -6248,31 +6395,31 @@
         <v>13</v>
       </c>
       <c r="B12">
-        <v>24.46729064762545</v>
+        <v>0.919211766395744</v>
       </c>
       <c r="C12">
-        <v>25.46205661494868</v>
+        <v>2.132717552529487</v>
       </c>
       <c r="D12">
-        <v>0.4586664120517805</v>
+        <v>0.881147548750758</v>
       </c>
       <c r="E12">
-        <v>30.17423229900437</v>
+        <v>3.9560461561362</v>
       </c>
       <c r="F12">
-        <v>42.10590419376875</v>
+        <v>5.205386993274512</v>
       </c>
       <c r="G12">
-        <v>9.187822149374661</v>
+        <v>0.8174224316216663</v>
       </c>
       <c r="H12">
-        <v>32.11122496794394</v>
+        <v>1.477104578326184</v>
       </c>
       <c r="I12">
-        <v>40.85846270907275</v>
+        <v>5.210730027778438</v>
       </c>
       <c r="J12">
-        <v>7.587751317075575</v>
+        <v>2.044603729239177</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -6280,31 +6427,31 @@
         <v>14</v>
       </c>
       <c r="B13">
-        <v>10.09163554153904</v>
+        <v>6.481801138291014E-18</v>
       </c>
       <c r="C13">
-        <v>19.39331254598705</v>
+        <v>0.7973247709486606</v>
       </c>
       <c r="D13">
-        <v>20.61206977759238</v>
+        <v>1.594649541676138</v>
       </c>
       <c r="E13">
-        <v>9.893219532537517</v>
+        <v>8.391083348722308E-17</v>
       </c>
       <c r="F13">
-        <v>12.98418541158872</v>
+        <v>0.3986625017763003</v>
       </c>
       <c r="G13">
-        <v>2.135858479470424</v>
+        <v>1.195987117509371</v>
       </c>
       <c r="H13">
-        <v>12.73394408071547</v>
+        <v>2.602578850417196E-16</v>
       </c>
       <c r="I13">
-        <v>15.48682950858392</v>
+        <v>0.3986623854330132</v>
       </c>
       <c r="J13">
-        <v>1.735832733163284</v>
+        <v>1.195987156289312</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -6312,31 +6459,31 @@
         <v>15</v>
       </c>
       <c r="B14">
-        <v>72594.08158660858</v>
+        <v>27.48139027290862</v>
       </c>
       <c r="C14">
-        <v>241070.8125841325</v>
+        <v>30.99275446440665</v>
       </c>
       <c r="D14">
-        <v>92263.80707340584</v>
+        <v>5.940804991928378</v>
       </c>
       <c r="E14">
-        <v>67265.6650995018</v>
+        <v>27.46537091798381</v>
       </c>
       <c r="F14">
-        <v>250576.2061277525</v>
+        <v>30.38646838528896</v>
       </c>
       <c r="G14">
-        <v>162138.777796223</v>
+        <v>2.355990907207325</v>
       </c>
       <c r="H14">
-        <v>135591.6527868082</v>
+        <v>26.57568321758076</v>
       </c>
       <c r="I14">
-        <v>293046.3066449611</v>
+        <v>29.2364083648067</v>
       </c>
       <c r="J14">
-        <v>138057.3320534963</v>
+        <v>1.394803985534047</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -6344,31 +6491,31 @@
         <v>16</v>
       </c>
       <c r="B15">
-        <v>121645666.0114068</v>
+        <v>124116.4553862636</v>
       </c>
       <c r="C15">
-        <v>367169797.9958137</v>
+        <v>274268.2072645853</v>
       </c>
       <c r="D15">
-        <v>260889423.2250193</v>
+        <v>169625.8339024783</v>
       </c>
       <c r="E15">
-        <v>122456599.0429121</v>
+        <v>100565.0703120595</v>
       </c>
       <c r="F15">
-        <v>297884142.7594155</v>
+        <v>271866.6388535596</v>
       </c>
       <c r="G15">
-        <v>152383084.4079549</v>
+        <v>125973.7414591759</v>
       </c>
       <c r="H15">
-        <v>417563995.4345459</v>
+        <v>126747.7991229284</v>
       </c>
       <c r="I15">
-        <v>1057612152.583114</v>
+        <v>295178.6341474057</v>
       </c>
       <c r="J15">
-        <v>353345024.9867525</v>
+        <v>123148.3332935034</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -6376,31 +6523,31 @@
         <v>17</v>
       </c>
       <c r="B16">
-        <v>17.4405560587441</v>
+        <v>0</v>
       </c>
       <c r="C16">
-        <v>24.57657440935361</v>
+        <v>1.195987172751004</v>
       </c>
       <c r="D16">
-        <v>16.22935873385084</v>
+        <v>1.826900580199057</v>
       </c>
       <c r="E16">
-        <v>11.84433160658868</v>
+        <v>1.072101474870374E-24</v>
       </c>
       <c r="F16">
-        <v>21.81092667548784</v>
+        <v>0.3986926810328652</v>
       </c>
       <c r="G16">
-        <v>16.15355246978632</v>
+        <v>1.195977090513524</v>
       </c>
       <c r="H16">
-        <v>12.26292003546359</v>
+        <v>2.102558026060284E-23</v>
       </c>
       <c r="I16">
-        <v>24.35064253347011</v>
+        <v>2.572857746414678E-10</v>
       </c>
       <c r="J16">
-        <v>16.56839703905457</v>
+        <v>6.778476090772301E-10</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -6408,31 +6555,31 @@
         <v>18</v>
       </c>
       <c r="B17">
-        <v>20.99344683103874</v>
+        <v>0.0989923871691831</v>
       </c>
       <c r="C17">
-        <v>21.93527452076694</v>
+        <v>0.3701734951546039</v>
       </c>
       <c r="D17">
-        <v>0.6936207438146781</v>
+        <v>0.3056648437322845</v>
       </c>
       <c r="E17">
-        <v>21.48196479483645</v>
+        <v>0.0053000649460237</v>
       </c>
       <c r="F17">
-        <v>22.27689661498202</v>
+        <v>0.8292484666875202</v>
       </c>
       <c r="G17">
-        <v>0.5698130852378317</v>
+        <v>0.5901956371026584</v>
       </c>
       <c r="H17">
-        <v>20.82572478830578</v>
+        <v>0.0120528977217423</v>
       </c>
       <c r="I17">
-        <v>22.17500740091906</v>
+        <v>0.3405806011840148</v>
       </c>
       <c r="J17">
-        <v>0.8259358496315955</v>
+        <v>0.3697004912738879</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -6554,31 +6701,31 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>1.160326590365912E-08</v>
+        <v>3.552713678800501E-15</v>
       </c>
       <c r="C3">
-        <v>2.101087588357586E-08</v>
+        <v>3.552713678800501E-15</v>
       </c>
       <c r="D3">
-        <v>8.236960099762068E-09</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>2.81519838551958E-08</v>
+        <v>3.552713678800501E-15</v>
       </c>
       <c r="F3">
-        <v>5.072892008683993E-08</v>
+        <v>3.552713678800501E-15</v>
       </c>
       <c r="G3">
-        <v>1.567161643969309E-08</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>9.857051573192166E-06</v>
+        <v>3.552713678800501E-15</v>
       </c>
       <c r="I3">
-        <v>1.945113400161347E-05</v>
+        <v>4.263256414560601E-15</v>
       </c>
       <c r="J3">
-        <v>8.293306215699529E-06</v>
+        <v>1.4210854715202E-15</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -6586,31 +6733,31 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>5.883492804059642E-09</v>
+        <v>3.552713678800501E-15</v>
       </c>
       <c r="C4">
-        <v>9.970859338181981E-09</v>
+        <v>3.552713678800501E-15</v>
       </c>
       <c r="D4">
-        <v>4.060593852002545E-09</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>1.557684470299137E-08</v>
+        <v>3.552713678800501E-15</v>
       </c>
       <c r="F4">
-        <v>3.791227953797716E-08</v>
+        <v>3.552713678800501E-15</v>
       </c>
       <c r="G4">
-        <v>1.483667567716203E-08</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>6.884444076149521E-06</v>
+        <v>3.552713678800501E-15</v>
       </c>
       <c r="I4">
-        <v>1.636790567225432E-05</v>
+        <v>4.618527782440651E-15</v>
       </c>
       <c r="J4">
-        <v>7.365852279731402E-06</v>
+        <v>1.628057935560832E-15</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -6618,31 +6765,31 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>0.0038738513470555</v>
+        <v>2.419398015263141E-12</v>
       </c>
       <c r="C5">
-        <v>0.0059085508278087</v>
+        <v>9.447020943298412E-12</v>
       </c>
       <c r="D5">
-        <v>0.0013121882707884</v>
+        <v>7.688341057889172E-12</v>
       </c>
       <c r="E5">
-        <v>0.0047242874975772</v>
+        <v>1.06472981542538E-08</v>
       </c>
       <c r="F5">
-        <v>0.0073154287719251</v>
+        <v>1.859742297938283E-08</v>
       </c>
       <c r="G5">
-        <v>0.0022167394956716</v>
+        <v>4.48548361144309E-09</v>
       </c>
       <c r="H5">
-        <v>0.0109056206464863</v>
+        <v>1.437200580767239E-09</v>
       </c>
       <c r="I5">
-        <v>0.0146963230970797</v>
+        <v>4.787660579097519E-08</v>
       </c>
       <c r="J5">
-        <v>0.0029065669834643</v>
+        <v>5.383873526489453E-08</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -6650,31 +6797,31 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>1.728786003241112E-10</v>
+        <v>3.552713678800501E-15</v>
       </c>
       <c r="C6">
-        <v>3.564245787401888E-10</v>
+        <v>3.552713678800501E-15</v>
       </c>
       <c r="D6">
-        <v>1.200027182594937E-10</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>4.23369783675298E-10</v>
+        <v>3.552713678800501E-15</v>
       </c>
       <c r="F6">
-        <v>9.451511573388415E-10</v>
+        <v>3.552713678800501E-15</v>
       </c>
       <c r="G6">
-        <v>5.024720758523043E-10</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>1.84034284700374E-07</v>
+        <v>3.552713678800501E-15</v>
       </c>
       <c r="I6">
-        <v>3.04450999166761E-07</v>
+        <v>3.552713678800501E-15</v>
       </c>
       <c r="J6">
-        <v>8.662478321107532E-08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -6682,31 +6829,31 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>1.98685512486918E-10</v>
+        <v>3.552713678800501E-15</v>
       </c>
       <c r="C7">
-        <v>4.111061713274466E-10</v>
+        <v>3.552713678800501E-15</v>
       </c>
       <c r="D7">
-        <v>1.573913773420417E-10</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>1.034912600061944E-09</v>
+        <v>3.552713678800501E-15</v>
       </c>
       <c r="F7">
-        <v>1.65042699507012E-09</v>
+        <v>3.552713678800501E-15</v>
       </c>
       <c r="G7">
-        <v>6.108098339228153E-10</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>4.371829440685815E-07</v>
+        <v>3.552713678800501E-15</v>
       </c>
       <c r="I7">
-        <v>6.570917395976039E-07</v>
+        <v>3.552713678800501E-15</v>
       </c>
       <c r="J7">
-        <v>1.910567930944699E-07</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -6714,31 +6861,31 @@
         <v>9</v>
       </c>
       <c r="B8">
-        <v>1.462747015520655</v>
+        <v>3.622074942200016E-07</v>
       </c>
       <c r="C8">
-        <v>1.881193661188681</v>
+        <v>1.476195387795087E-06</v>
       </c>
       <c r="D8">
-        <v>0.2649822048579909</v>
+        <v>8.276277442814025E-07</v>
       </c>
       <c r="E8">
-        <v>1.778250268803916</v>
+        <v>0.0056836323993678</v>
       </c>
       <c r="F8">
-        <v>2.074994788770501</v>
+        <v>0.0077960408302832</v>
       </c>
       <c r="G8">
-        <v>0.2166536549791289</v>
+        <v>0.0016153430858235</v>
       </c>
       <c r="H8">
-        <v>2.394858152720144</v>
+        <v>0.0051034334931756</v>
       </c>
       <c r="I8">
-        <v>2.658245698610106</v>
+        <v>0.0115189406218458</v>
       </c>
       <c r="J8">
-        <v>0.2089935944820949</v>
+        <v>0.0058224646845038</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -6746,31 +6893,31 @@
         <v>10</v>
       </c>
       <c r="B9">
-        <v>3.776534640564933E-12</v>
+        <v>3.552713678800501E-15</v>
       </c>
       <c r="C9">
-        <v>9.341860618405916E-12</v>
+        <v>3.552713678800501E-15</v>
       </c>
       <c r="D9">
-        <v>3.56954573141591E-12</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>2.05382377771457E-11</v>
+        <v>3.552713678800501E-15</v>
       </c>
       <c r="F9">
-        <v>4.46540582288435E-11</v>
+        <v>3.552713678800501E-15</v>
       </c>
       <c r="G9">
-        <v>2.454895501365883E-11</v>
+        <v>0</v>
       </c>
       <c r="H9">
-        <v>3.905835654904877E-09</v>
+        <v>3.552713678800501E-15</v>
       </c>
       <c r="I9">
-        <v>8.714180665947423E-09</v>
+        <v>3.552713678800501E-15</v>
       </c>
       <c r="J9">
-        <v>3.291439097312645E-09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -6778,31 +6925,31 @@
         <v>11</v>
       </c>
       <c r="B10">
-        <v>0.0003586708943714</v>
+        <v>2.028599510595086E-12</v>
       </c>
       <c r="C10">
-        <v>0.000586671879299</v>
+        <v>3.505107315504575E-12</v>
       </c>
       <c r="D10">
-        <v>8.563950483037481E-05</v>
+        <v>1.5752775718891E-12</v>
       </c>
       <c r="E10">
-        <v>0.0004416066852783</v>
+        <v>5.218936394157936E-12</v>
       </c>
       <c r="F10">
-        <v>0.000701467020152</v>
+        <v>1.452065134799341E-11</v>
       </c>
       <c r="G10">
-        <v>0.0001244800611613</v>
+        <v>4.48956409316189E-12</v>
       </c>
       <c r="H10">
-        <v>0.0003851400795227</v>
+        <v>2.19912976717751E-12</v>
       </c>
       <c r="I10">
-        <v>0.0006104517480735999</v>
+        <v>4.162394873219455E-11</v>
       </c>
       <c r="J10">
-        <v>0.0001385567081372</v>
+        <v>6.82658797790045E-11</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -6810,31 +6957,31 @@
         <v>12</v>
       </c>
       <c r="B11">
-        <v>3.176126028847648E-12</v>
+        <v>3.552713678800501E-15</v>
       </c>
       <c r="C11">
-        <v>8.190781386474555E-12</v>
+        <v>3.552713678800501E-15</v>
       </c>
       <c r="D11">
-        <v>3.781813649027802E-12</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>5.60547164241143E-11</v>
+        <v>3.552713678800501E-15</v>
       </c>
       <c r="F11">
-        <v>1.159229157110531E-10</v>
+        <v>3.552713678800501E-15</v>
       </c>
       <c r="G11">
-        <v>4.376442533819848E-11</v>
+        <v>0</v>
       </c>
       <c r="H11">
-        <v>1.492115586643195E-08</v>
+        <v>3.552713678800501E-15</v>
       </c>
       <c r="I11">
-        <v>3.133355939155536E-08</v>
+        <v>4.618527782440651E-15</v>
       </c>
       <c r="J11">
-        <v>1.53626205978423E-08</v>
+        <v>1.628057935560832E-15</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -6842,31 +6989,31 @@
         <v>13</v>
       </c>
       <c r="B12">
-        <v>0.0007144152213029</v>
+        <v>1.350031197944191E-13</v>
       </c>
       <c r="C12">
-        <v>0.0009391848521087</v>
+        <v>3.694822225952521E-13</v>
       </c>
       <c r="D12">
-        <v>0.0002068347462862</v>
+        <v>2.253272066073529E-13</v>
       </c>
       <c r="E12">
-        <v>0.0013478522187</v>
+        <v>2.953761679691524E-10</v>
       </c>
       <c r="F12">
-        <v>0.0018751751855475</v>
+        <v>3.536797521519475E-10</v>
       </c>
       <c r="G12">
-        <v>0.0004440343159138</v>
+        <v>5.133215792684947E-11</v>
       </c>
       <c r="H12">
-        <v>0.0023585938720778</v>
+        <v>7.245404276545742E-11</v>
       </c>
       <c r="I12">
-        <v>0.0031423017739037</v>
+        <v>3.536595016839783E-10</v>
       </c>
       <c r="J12">
-        <v>0.0008323038079711</v>
+        <v>2.69532301886237E-10</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -6874,31 +7021,31 @@
         <v>14</v>
       </c>
       <c r="B13">
-        <v>1.172395514004165E-13</v>
+        <v>3.552713678800501E-15</v>
       </c>
       <c r="C13">
-        <v>3.321787289678469E-13</v>
+        <v>3.552713678800501E-15</v>
       </c>
       <c r="D13">
-        <v>1.475659731364952E-13</v>
+        <v>0</v>
       </c>
       <c r="E13">
-        <v>3.055333763768431E-13</v>
+        <v>3.552713678800501E-15</v>
       </c>
       <c r="F13">
-        <v>6.981082378842984E-13</v>
+        <v>3.552713678800501E-15</v>
       </c>
       <c r="G13">
-        <v>3.173718888342817E-13</v>
+        <v>0</v>
       </c>
       <c r="H13">
-        <v>1.02289732240024E-10</v>
+        <v>3.552713678800501E-15</v>
       </c>
       <c r="I13">
-        <v>1.379792280431502E-10</v>
+        <v>3.552713678800501E-15</v>
       </c>
       <c r="J13">
-        <v>3.43195534840522E-11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -6906,31 +7053,31 @@
         <v>15</v>
       </c>
       <c r="B14">
-        <v>0.3190186894960298</v>
+        <v>0.000176318669748</v>
       </c>
       <c r="C14">
-        <v>0.5203868057910033</v>
+        <v>0.0002167223061302</v>
       </c>
       <c r="D14">
-        <v>0.1212313334922645</v>
+        <v>3.039980131198154E-05</v>
       </c>
       <c r="E14">
-        <v>0.409255292621971</v>
+        <v>0.0001082364531228</v>
       </c>
       <c r="F14">
-        <v>0.5959643103437365</v>
+        <v>0.0001746829598761</v>
       </c>
       <c r="G14">
-        <v>0.1916361721967122</v>
+        <v>6.042806364771331E-05</v>
       </c>
       <c r="H14">
-        <v>0.3581149544745621</v>
+        <v>0.0001093516570591</v>
       </c>
       <c r="I14">
-        <v>0.5549467652124594</v>
+        <v>0.0002244800221848</v>
       </c>
       <c r="J14">
-        <v>0.1560687944884879</v>
+        <v>6.671177004778998E-05</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -6938,31 +7085,31 @@
         <v>16</v>
       </c>
       <c r="B15">
-        <v>3.624093742503384</v>
+        <v>0.4924780151699579</v>
       </c>
       <c r="C15">
-        <v>3.852946879128582</v>
+        <v>0.8126503738132378</v>
       </c>
       <c r="D15">
-        <v>0.1788789798711696</v>
+        <v>0.2732882605051385</v>
       </c>
       <c r="E15">
-        <v>3.451234665390647</v>
+        <v>0.3697791539230302</v>
       </c>
       <c r="F15">
-        <v>3.872474771843138</v>
+        <v>0.9443731312074076</v>
       </c>
       <c r="G15">
-        <v>0.1750121624610884</v>
+        <v>0.2858365054636317</v>
       </c>
       <c r="H15">
-        <v>4.321862624393887</v>
+        <v>0.4616210277815753</v>
       </c>
       <c r="I15">
-        <v>4.792864165696771</v>
+        <v>0.7973648141161813</v>
       </c>
       <c r="J15">
-        <v>0.2613935315935601</v>
+        <v>0.2319646589170634</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -6973,28 +7120,28 @@
         <v>3.552713678800501E-15</v>
       </c>
       <c r="C16">
-        <v>4.973799150320701E-15</v>
+        <v>3.552713678800501E-15</v>
       </c>
       <c r="D16">
-        <v>1.740467143053464E-15</v>
+        <v>0</v>
       </c>
       <c r="E16">
         <v>3.552713678800501E-15</v>
       </c>
       <c r="F16">
-        <v>6.750155989720952E-15</v>
+        <v>3.552713678800501E-15</v>
       </c>
       <c r="G16">
-        <v>1.06581410364015E-15</v>
+        <v>0</v>
       </c>
       <c r="H16">
         <v>3.552713678800501E-15</v>
       </c>
       <c r="I16">
-        <v>6.750155989720952E-15</v>
+        <v>3.552713678800501E-15</v>
       </c>
       <c r="J16">
-        <v>1.06581410364015E-15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -7002,31 +7149,31 @@
         <v>18</v>
       </c>
       <c r="B17">
-        <v>2.729540945267672E-06</v>
+        <v>3.552713678800501E-15</v>
       </c>
       <c r="C17">
-        <v>4.323971340980393E-06</v>
+        <v>4.618527782440651E-15</v>
       </c>
       <c r="D17">
-        <v>1.011342231581771E-06</v>
+        <v>1.628057935560832E-15</v>
       </c>
       <c r="E17">
-        <v>2.264285804187693E-06</v>
+        <v>3.552713678800501E-15</v>
       </c>
       <c r="F17">
-        <v>3.645928714846036E-06</v>
+        <v>4.973799150320701E-15</v>
       </c>
       <c r="G17">
-        <v>8.251407697591432E-07</v>
+        <v>1.740467143053464E-15</v>
       </c>
       <c r="H17">
-        <v>2.553865126486699E-06</v>
+        <v>3.552713678800501E-15</v>
       </c>
       <c r="I17">
-        <v>4.228022720553781E-06</v>
+        <v>4.618527782440651E-15</v>
       </c>
       <c r="J17">
-        <v>1.104848865296326E-06</v>
+        <v>1.628057935560832E-15</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -7148,31 +7295,31 @@
         <v>4</v>
       </c>
       <c r="B3">
+        <v>-59.99994277954099</v>
+      </c>
+      <c r="C3">
+        <v>-59.99994277954092</v>
+      </c>
+      <c r="D3">
+        <v>3.43714720612747E-14</v>
+      </c>
+      <c r="E3">
         <v>-59.99994277954098</v>
       </c>
-      <c r="C3">
-        <v>-59.99994277954095</v>
-      </c>
-      <c r="D3">
-        <v>1.696397530723931E-14</v>
-      </c>
-      <c r="E3">
-        <v>-59.999942779541</v>
-      </c>
       <c r="F3">
-        <v>-59.99994277954096</v>
+        <v>-59.99994277954094</v>
       </c>
       <c r="G3">
-        <v>4.118696991267097E-14</v>
+        <v>3.20926284036779E-14</v>
       </c>
       <c r="H3">
-        <v>-59.99994277954099</v>
+        <v>-59.99994277954094</v>
       </c>
       <c r="I3">
-        <v>-59.99994277954094</v>
+        <v>-59.99994277954089</v>
       </c>
       <c r="J3">
-        <v>2.868692552935151E-14</v>
+        <v>3.664637506013727E-14</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -7180,31 +7327,31 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>-59.99994277954097</v>
+        <v>-59.99994277954098</v>
       </c>
       <c r="C4">
         <v>-59.99994277954092</v>
       </c>
       <c r="D4">
-        <v>3.129616110519641E-14</v>
+        <v>2.815399505516176E-14</v>
       </c>
       <c r="E4">
-        <v>-59.99994277954099</v>
+        <v>-59.99994277954095</v>
       </c>
       <c r="F4">
-        <v>-59.99994277954094</v>
+        <v>-59.99994277954092</v>
       </c>
       <c r="G4">
-        <v>3.113442275577916E-14</v>
+        <v>1.797546735911271E-14</v>
       </c>
       <c r="H4">
-        <v>-59.99994277954093</v>
+        <v>-59.99994277954092</v>
       </c>
       <c r="I4">
-        <v>-59.99994277954092</v>
+        <v>-59.99994277954088</v>
       </c>
       <c r="J4">
-        <v>1.740467143053463E-14</v>
+        <v>2.461392238570962E-14</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -7215,28 +7362,28 @@
         <v>-59.99994277954099</v>
       </c>
       <c r="C5">
-        <v>-59.99994277954095</v>
+        <v>-59.99994277954094</v>
       </c>
       <c r="D5">
-        <v>2.451114981832396E-14</v>
+        <v>4.209628412922548E-14</v>
       </c>
       <c r="E5">
         <v>-59.99994277954099</v>
       </c>
       <c r="F5">
-        <v>-59.99994277954096</v>
+        <v>-59.99994277954095</v>
       </c>
       <c r="G5">
-        <v>2.686941570742226E-14</v>
+        <v>3.657742603375525E-14</v>
       </c>
       <c r="H5">
-        <v>-59.99994277954099</v>
+        <v>-59.99994277954098</v>
       </c>
       <c r="I5">
-        <v>-59.99994277954095</v>
+        <v>-59.99994277954092</v>
       </c>
       <c r="J5">
-        <v>3.317557437278752E-14</v>
+        <v>2.345867360875669E-14</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -7247,28 +7394,28 @@
         <v>-59.99994277954099</v>
       </c>
       <c r="C6">
-        <v>-59.99994277954094</v>
+        <v>-59.99994277954096</v>
       </c>
       <c r="D6">
-        <v>3.309939614511028E-14</v>
+        <v>2.461392238570962E-14</v>
       </c>
       <c r="E6">
         <v>-59.99994277954098</v>
       </c>
       <c r="F6">
-        <v>-59.99994277954096</v>
+        <v>-59.99994277954092</v>
       </c>
       <c r="G6">
-        <v>2.601013480006476E-14</v>
+        <v>2.761078011946757E-14</v>
       </c>
       <c r="H6">
-        <v>-59.999942779541</v>
+        <v>-59.99994277954099</v>
       </c>
       <c r="I6">
-        <v>-59.99994277954097</v>
+        <v>-59.99994277954092</v>
       </c>
       <c r="J6">
-        <v>2.166864118461391E-14</v>
+        <v>4.362755542220143E-14</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -7276,13 +7423,13 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>-59.99994277954092</v>
+        <v>-59.99994277954091</v>
       </c>
       <c r="C7">
-        <v>-59.99994277954088</v>
+        <v>-59.99994277954089</v>
       </c>
       <c r="D7">
-        <v>3.185577920058321E-14</v>
+        <v>3.105323768211883E-14</v>
       </c>
       <c r="E7">
         <v>-59.99994277954091</v>
@@ -7291,16 +7438,16 @@
         <v>-59.99994277954088</v>
       </c>
       <c r="G7">
-        <v>1.91978075550115E-14</v>
+        <v>2.367291251766471E-14</v>
       </c>
       <c r="H7">
-        <v>-59.99994277954093</v>
+        <v>-59.99994277954089</v>
       </c>
       <c r="I7">
-        <v>-59.99994277954087</v>
+        <v>-59.99994277954086</v>
       </c>
       <c r="J7">
-        <v>2.824351513816025E-14</v>
+        <v>3.161715577176521E-14</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -7308,31 +7455,31 @@
         <v>9</v>
       </c>
       <c r="B8">
-        <v>-59.99994277954097</v>
+        <v>-59.99994277954099</v>
       </c>
       <c r="C8">
         <v>-59.99994277954092</v>
       </c>
       <c r="D8">
-        <v>2.886238236725078E-14</v>
+        <v>3.865770426254881E-14</v>
       </c>
       <c r="E8">
-        <v>-59.99994277954096</v>
+        <v>-59.99994277954098</v>
       </c>
       <c r="F8">
         <v>-59.99994277954092</v>
       </c>
       <c r="G8">
-        <v>1.711213510985814E-14</v>
+        <v>3.022939748999341E-14</v>
       </c>
       <c r="H8">
-        <v>-59.99994277954098</v>
+        <v>-59.99994277954096</v>
       </c>
       <c r="I8">
         <v>-59.99994277954092</v>
       </c>
       <c r="J8">
-        <v>2.280388363243619E-14</v>
+        <v>3.317557437278752E-14</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -7340,31 +7487,31 @@
         <v>10</v>
       </c>
       <c r="B9">
-        <v>-59.99994277954101</v>
+        <v>-59.999942779541</v>
       </c>
       <c r="C9">
+        <v>-59.99994277954096</v>
+      </c>
+      <c r="D9">
+        <v>3.806546611707197E-14</v>
+      </c>
+      <c r="E9">
         <v>-59.99994277954097</v>
       </c>
-      <c r="D9">
-        <v>2.356603652028894E-14</v>
-      </c>
-      <c r="E9">
+      <c r="F9">
+        <v>-59.99994277954095</v>
+      </c>
+      <c r="G9">
+        <v>1.78344811246392E-14</v>
+      </c>
+      <c r="H9">
         <v>-59.99994277954099</v>
       </c>
-      <c r="F9">
-        <v>-59.99994277954094</v>
-      </c>
-      <c r="G9">
-        <v>3.581022601893594E-14</v>
-      </c>
-      <c r="H9">
-        <v>-59.999942779541</v>
-      </c>
       <c r="I9">
-        <v>-59.99994277954097</v>
+        <v>-59.99994277954092</v>
       </c>
       <c r="J9">
-        <v>2.258140139882514E-14</v>
+        <v>3.524177363839625E-14</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -7375,19 +7522,19 @@
         <v>-59.99994277954101</v>
       </c>
       <c r="C10">
-        <v>-59.99994277954099</v>
+        <v>-59.999942779541</v>
       </c>
       <c r="D10">
-        <v>1.971676074036794E-14</v>
+        <v>8.407255028117242E-15</v>
       </c>
       <c r="E10">
+        <v>-59.99994277954101</v>
+      </c>
+      <c r="F10">
         <v>-59.999942779541</v>
       </c>
-      <c r="F10">
-        <v>-59.99994277954097</v>
-      </c>
       <c r="G10">
-        <v>1.681451005623448E-14</v>
+        <v>8.987733679556355E-15</v>
       </c>
       <c r="H10">
         <v>-59.99994277954101</v>
@@ -7396,7 +7543,7 @@
         <v>-59.99994277954099</v>
       </c>
       <c r="J10">
-        <v>1.507288760336424E-14</v>
+        <v>8.987733679556355E-15</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -7404,31 +7551,31 @@
         <v>12</v>
       </c>
       <c r="B11">
-        <v>-59.99994277954093</v>
+        <v>-59.99994277954089</v>
       </c>
       <c r="C11">
-        <v>-59.99994277954088</v>
+        <v>-59.99994277954086</v>
       </c>
       <c r="D11">
-        <v>2.761078011946757E-14</v>
+        <v>2.095799971435869E-14</v>
       </c>
       <c r="E11">
-        <v>-59.99994277954093</v>
+        <v>-59.99994277954094</v>
       </c>
       <c r="F11">
         <v>-59.99994277954089</v>
       </c>
       <c r="G11">
-        <v>2.367291251766471E-14</v>
+        <v>3.224956150776909E-14</v>
       </c>
       <c r="H11">
-        <v>-59.99994277954094</v>
+        <v>-59.99994277954091</v>
       </c>
       <c r="I11">
-        <v>-59.99994277954089</v>
+        <v>-59.99994277954088</v>
       </c>
       <c r="J11">
-        <v>3.3853465451931E-14</v>
+        <v>1.572853393922362E-14</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -7442,25 +7589,25 @@
         <v>-59.99994277954088</v>
       </c>
       <c r="D12">
-        <v>2.43043009738913E-14</v>
+        <v>2.705666128784368E-14</v>
       </c>
       <c r="E12">
-        <v>-59.99994277954093</v>
+        <v>-59.99994277954091</v>
       </c>
       <c r="F12">
+        <v>-59.99994277954088</v>
+      </c>
+      <c r="G12">
+        <v>2.367291251766471E-14</v>
+      </c>
+      <c r="H12">
+        <v>-59.99994277954091</v>
+      </c>
+      <c r="I12">
         <v>-59.99994277954089</v>
       </c>
-      <c r="G12">
-        <v>2.705666128784368E-14</v>
-      </c>
-      <c r="H12">
-        <v>-59.99994277954093</v>
-      </c>
-      <c r="I12">
-        <v>-59.99994277954088</v>
-      </c>
       <c r="J12">
-        <v>2.31335954426011E-14</v>
+        <v>1.893299752634082E-14</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -7468,31 +7615,31 @@
         <v>14</v>
       </c>
       <c r="B13">
+        <v>-59.99994277954091</v>
+      </c>
+      <c r="C13">
+        <v>-59.99994277954086</v>
+      </c>
+      <c r="D13">
+        <v>2.94682555382447E-14</v>
+      </c>
+      <c r="E13">
         <v>-59.99994277954089</v>
       </c>
-      <c r="C13">
-        <v>-59.99994277954085</v>
-      </c>
-      <c r="D13">
-        <v>2.420021355352219E-14</v>
-      </c>
-      <c r="E13">
-        <v>-59.99994277954091</v>
-      </c>
       <c r="F13">
-        <v>-59.99994277954085</v>
+        <v>-59.99994277954087</v>
       </c>
       <c r="G13">
-        <v>3.392795061447862E-14</v>
+        <v>2.02224007790018E-14</v>
       </c>
       <c r="H13">
-        <v>-59.99994277954089</v>
+        <v>-59.99994277954092</v>
       </c>
       <c r="I13">
         <v>-59.99994277954086</v>
       </c>
       <c r="J13">
-        <v>3.145706787844724E-14</v>
+        <v>3.20926284036779E-14</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -7500,31 +7647,31 @@
         <v>15</v>
       </c>
       <c r="B14">
+        <v>-59.99994277954101</v>
+      </c>
+      <c r="C14">
         <v>-59.999942779541</v>
       </c>
-      <c r="C14">
-        <v>-59.99994277954099</v>
-      </c>
       <c r="D14">
-        <v>1.43873938407897E-14</v>
+        <v>6.740800259667266E-15</v>
       </c>
       <c r="E14">
         <v>-59.99994277954101</v>
       </c>
       <c r="F14">
-        <v>-59.99994277954099</v>
+        <v>-59.999942779541</v>
       </c>
       <c r="G14">
-        <v>1.145715735375823E-14</v>
+        <v>6.355287432313019E-15</v>
       </c>
       <c r="H14">
         <v>-59.99994277954101</v>
       </c>
       <c r="I14">
-        <v>-59.99994277954099</v>
+        <v>-59.999942779541</v>
       </c>
       <c r="J14">
-        <v>1.620286731592753E-14</v>
+        <v>8.987733679556355E-15</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -7532,31 +7679,31 @@
         <v>16</v>
       </c>
       <c r="B15">
-        <v>-59.99994277954094</v>
+        <v>-59.99994277954092</v>
       </c>
       <c r="C15">
         <v>-59.99994277954088</v>
       </c>
       <c r="D15">
-        <v>2.842170943040401E-14</v>
+        <v>2.696320103866906E-14</v>
       </c>
       <c r="E15">
-        <v>-59.99994277954089</v>
+        <v>-59.99994277954093</v>
       </c>
       <c r="F15">
         <v>-59.99994277954087</v>
       </c>
       <c r="G15">
-        <v>1.839194269670199E-14</v>
+        <v>2.388522988492754E-14</v>
       </c>
       <c r="H15">
-        <v>-59.99994277954093</v>
+        <v>-59.99994277954089</v>
       </c>
       <c r="I15">
-        <v>-59.99994277954089</v>
+        <v>-59.99994277954085</v>
       </c>
       <c r="J15">
-        <v>2.770205567460654E-14</v>
+        <v>2.649095432944257E-14</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -7564,31 +7711,31 @@
         <v>17</v>
       </c>
       <c r="B16">
-        <v>-59.99994277954087</v>
+        <v>-59.99994277954091</v>
       </c>
       <c r="C16">
-        <v>-59.99665114244733</v>
+        <v>-59.99994277954083</v>
       </c>
       <c r="D16">
-        <v>0.0065832741870107</v>
+        <v>4.013151410175322E-14</v>
       </c>
       <c r="E16">
-        <v>-59.99994277954089</v>
+        <v>-59.99994277954092</v>
       </c>
       <c r="F16">
-        <v>-59.98678567724253</v>
+        <v>-59.99994277954086</v>
       </c>
       <c r="G16">
-        <v>0.0394713068950563</v>
+        <v>3.415043136299663E-14</v>
       </c>
       <c r="H16">
-        <v>-59.99994277954089</v>
+        <v>-59.99994277954092</v>
       </c>
       <c r="I16">
-        <v>-59.99994277954086</v>
+        <v>-59.99994277954085</v>
       </c>
       <c r="J16">
-        <v>1.797546735911271E-14</v>
+        <v>3.279291365519819E-14</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -7599,28 +7746,28 @@
         <v>-59.99994277954099</v>
       </c>
       <c r="C17">
-        <v>-59.99994277954088</v>
+        <v>-59.99994277954087</v>
       </c>
       <c r="D17">
-        <v>4.697112069902235E-14</v>
+        <v>5.039346213634742E-14</v>
       </c>
       <c r="E17">
-        <v>-59.99994277954099</v>
+        <v>-59.99994277954098</v>
       </c>
       <c r="F17">
-        <v>-59.99994277954087</v>
+        <v>-59.99994277954089</v>
       </c>
       <c r="G17">
-        <v>4.533017632791308E-14</v>
+        <v>5.581266829794766E-14</v>
       </c>
       <c r="H17">
         <v>-59.999942779541</v>
       </c>
       <c r="I17">
-        <v>-59.99994277954092</v>
+        <v>-59.99994277954089</v>
       </c>
       <c r="J17">
-        <v>6.943715037867571E-14</v>
+        <v>6.38698482312186E-14</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -7742,31 +7889,31 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>3.33066907387547E-16</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>5.329070518200751E-15</v>
+        <v>0.0007396040334114</v>
       </c>
       <c r="D3">
-        <v>6.759061116280267E-15</v>
+        <v>0.0022188121002344</v>
       </c>
       <c r="E3">
-        <v>1.298960938811433E-14</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>6.177280909014372E-14</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>4.422441275414783E-14</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>4.863623948025975E-10</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>1.393456239284774E-09</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>9.107454321313447E-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -7777,28 +7924,28 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>3.330669073875469E-17</v>
+        <v>0.0012320988875106</v>
       </c>
       <c r="D4">
-        <v>7.108895957933347E-17</v>
+        <v>0.0036962966625319</v>
       </c>
       <c r="E4">
-        <v>8.659739592076221E-15</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>6.108447081487613E-14</v>
+        <v>0.0007396040334114</v>
       </c>
       <c r="G4">
-        <v>6.160238903299832E-14</v>
+        <v>0.0022188121002344</v>
       </c>
       <c r="H4">
-        <v>3.284428284899832E-11</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0.0014792096393464</v>
+        <v>0.0029584161336459</v>
       </c>
       <c r="J4">
-        <v>0.0029584191255512</v>
+        <v>0.003623304987125</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -7806,31 +7953,31 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>0.0003069275109134</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>0.0016801888153274</v>
+        <v>0.0009864672061005999</v>
       </c>
       <c r="D5">
-        <v>0.0017728088017455</v>
+        <v>0.0029594016183018</v>
       </c>
       <c r="E5">
-        <v>0.0012927279345986</v>
+        <v>1.887379141862766E-15</v>
       </c>
       <c r="F5">
-        <v>0.0200191399424479</v>
+        <v>1.080247002960277E-14</v>
       </c>
       <c r="G5">
-        <v>0.0466305993696732</v>
+        <v>1.089275901577479E-14</v>
       </c>
       <c r="H5">
-        <v>0.0007065321109531</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0.0018772104318525</v>
+        <v>7.036260463166854E-13</v>
       </c>
       <c r="J5">
-        <v>0.0012064597733091</v>
+        <v>1.984616760928155E-12</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -7841,10 +7988,10 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>0.0014792080668229</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>0.0029584161336459</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -7856,13 +8003,13 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>2.919886554764162E-14</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>4.891531624195977E-13</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>4.588482225581338E-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -7873,28 +8020,28 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>0.0031998723433143</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>0.0066077846065227</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.0009857284607822001</v>
+        <v>0</v>
       </c>
       <c r="G7">
-        <v>0.0029571853823461</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>2.375877272697835E-14</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>6.343148228893369E-13</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>1.298341417766957E-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -7902,31 +8049,31 @@
         <v>9</v>
       </c>
       <c r="B8">
-        <v>1.024544709443348</v>
+        <v>5.977329742279379E-12</v>
       </c>
       <c r="C8">
-        <v>1.043866457739433</v>
+        <v>0.0007396040720279</v>
       </c>
       <c r="D8">
-        <v>0.0098000325157855</v>
+        <v>0.0022188121216281</v>
       </c>
       <c r="E8">
-        <v>1.030831817965513</v>
+        <v>0.0004240346709887</v>
       </c>
       <c r="F8">
-        <v>1.048995746986445</v>
+        <v>0.1850640950346466</v>
       </c>
       <c r="G8">
-        <v>0.0122320067072288</v>
+        <v>0.2645045906300805</v>
       </c>
       <c r="H8">
-        <v>1.050357003114332</v>
+        <v>0.0006447691533936</v>
       </c>
       <c r="I8">
-        <v>1.080148425106629</v>
+        <v>0.1686969895379344</v>
       </c>
       <c r="J8">
-        <v>0.0159378417607551</v>
+        <v>0.1873563234377409</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -7937,10 +8084,10 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.0019712112853376</v>
+        <v>0.0019717029209221</v>
       </c>
       <c r="D9">
-        <v>0.0040930467332921</v>
+        <v>0.0040942893815731</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -7955,10 +8102,10 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.0019717029209227</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0.0040942893815742</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -7966,31 +8113,31 @@
         <v>11</v>
       </c>
       <c r="B10">
-        <v>2.891297863905073E-06</v>
+        <v>0</v>
       </c>
       <c r="C10">
-        <v>1.194209312530559E-05</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>1.701587265268615E-05</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>8.547363936850516E-06</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>0.0008046393486858</v>
+        <v>0</v>
       </c>
       <c r="G10">
-        <v>0.0023628018926711</v>
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>3.462954274779939E-06</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>8.255437811754974E-06</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>3.913427844313783E-06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -8001,28 +8148,28 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.0012320988875106</v>
+        <v>0.0017253324941935</v>
       </c>
       <c r="D11">
-        <v>0.0036962966625319</v>
+        <v>0.0034942774690661</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.0014792080668229</v>
+        <v>0.002464936527605</v>
       </c>
       <c r="G11">
-        <v>0.0029584161336459</v>
+        <v>0.0038185044747397</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.0009864672061005999</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.0029594016183018</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -8030,31 +8177,31 @@
         <v>13</v>
       </c>
       <c r="B12">
-        <v>9.015485729180206E-06</v>
+        <v>0</v>
       </c>
       <c r="C12">
-        <v>1.672274033447385E-05</v>
+        <v>0</v>
       </c>
       <c r="D12">
-        <v>8.099608372377977E-06</v>
+        <v>0</v>
       </c>
       <c r="E12">
-        <v>5.437898952020959E-05</v>
+        <v>0</v>
       </c>
       <c r="F12">
-        <v>0.0001309085211764</v>
+        <v>0</v>
       </c>
       <c r="G12">
-        <v>5.232017363248078E-05</v>
+        <v>0</v>
       </c>
       <c r="H12">
-        <v>7.168140960911451E-06</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>5.556736327063661E-05</v>
+        <v>4.32986979603811E-16</v>
       </c>
       <c r="J12">
-        <v>5.146172368506042E-05</v>
+        <v>1.086034213467446E-15</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -8065,10 +8212,10 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.0014792080668229</v>
+        <v>0.0007396040334114</v>
       </c>
       <c r="D13">
-        <v>0.0029584161336459</v>
+        <v>0.0022188121002344</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -8083,10 +8230,10 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.0012316072519261</v>
+        <v>0.000985728460782</v>
       </c>
       <c r="J13">
-        <v>0.0036948217557784</v>
+        <v>0.0029571853823462</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -8094,31 +8241,31 @@
         <v>15</v>
       </c>
       <c r="B14">
-        <v>0.6611747621503832</v>
+        <v>5.057337134628526E-07</v>
       </c>
       <c r="C14">
-        <v>0.7970001426035822</v>
+        <v>3.068837914402822E-05</v>
       </c>
       <c r="D14">
-        <v>0.0793992745305338</v>
+        <v>7.04837102057864E-05</v>
       </c>
       <c r="E14">
-        <v>0.7594304959202857</v>
+        <v>4.242557707367922E-07</v>
       </c>
       <c r="F14">
-        <v>0.8449494668168406</v>
+        <v>6.931294881588058E-05</v>
       </c>
       <c r="G14">
-        <v>0.0463401567082177</v>
+        <v>0.0001830024679631</v>
       </c>
       <c r="H14">
-        <v>0.7444659073206948</v>
+        <v>3.910609758239758E-07</v>
       </c>
       <c r="I14">
-        <v>0.8363554598486882</v>
+        <v>0.00077322817605</v>
       </c>
       <c r="J14">
-        <v>0.0560708603782349</v>
+        <v>0.0023043587311182</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -8126,31 +8273,31 @@
         <v>16</v>
       </c>
       <c r="B15">
-        <v>1.518919385544076</v>
+        <v>0.578521621549532</v>
       </c>
       <c r="C15">
-        <v>1.679665715247486</v>
+        <v>0.8263766853324215</v>
       </c>
       <c r="D15">
-        <v>0.1083169800651418</v>
+        <v>0.1114821127863304</v>
       </c>
       <c r="E15">
-        <v>1.466589096359502</v>
+        <v>0.8637367270734582</v>
       </c>
       <c r="F15">
-        <v>1.645211821490633</v>
+        <v>0.8987291024755841</v>
       </c>
       <c r="G15">
-        <v>0.1264504600581495</v>
+        <v>0.0252336905291271</v>
       </c>
       <c r="H15">
-        <v>2.083705305354257</v>
+        <v>0.7585277035674074</v>
       </c>
       <c r="I15">
-        <v>2.495666368204368</v>
+        <v>0.8535116025765317</v>
       </c>
       <c r="J15">
-        <v>0.296605347991411</v>
+        <v>0.0495239421779194</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -8161,28 +8308,28 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.0032033101696761</v>
+        <v>0.0022188121002344</v>
       </c>
       <c r="D16">
-        <v>0.0051739473611007</v>
+        <v>0.0033892914674027</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.0086124260263306</v>
+        <v>0.0012320988875106</v>
       </c>
       <c r="G16">
-        <v>0.009214802458736101</v>
+        <v>0.0036962966625319</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.0046812878483308</v>
+        <v>0.0027098305523103</v>
       </c>
       <c r="J16">
-        <v>0.0059790556404606</v>
+        <v>0.0056655718671503</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -8190,31 +8337,31 @@
         <v>18</v>
       </c>
       <c r="B17">
-        <v>2.455774472664984E-10</v>
+        <v>0</v>
       </c>
       <c r="C17">
-        <v>4.597323632893335E-10</v>
+        <v>0</v>
       </c>
       <c r="D17">
-        <v>2.296051118926648E-10</v>
+        <v>0</v>
       </c>
       <c r="E17">
-        <v>1.370681346202218E-10</v>
+        <v>0</v>
       </c>
       <c r="F17">
-        <v>5.18091880508109E-10</v>
+        <v>0</v>
       </c>
       <c r="G17">
-        <v>3.761546630954547E-10</v>
+        <v>0</v>
       </c>
       <c r="H17">
-        <v>1.937193738754672E-10</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>4.88077223081973E-10</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>2.39682207533547E-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -8336,31 +8483,31 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>137.8194453730544</v>
+        <v>14.92438081858029</v>
       </c>
       <c r="C3">
-        <v>168.1575733295195</v>
+        <v>31.61953821916402</v>
       </c>
       <c r="D3">
-        <v>14.22013800523136</v>
+        <v>10.28921568273263</v>
       </c>
       <c r="E3">
-        <v>156.6358330692976</v>
+        <v>129.5276732745082</v>
       </c>
       <c r="F3">
-        <v>173.0280880630047</v>
+        <v>146.5746080393229</v>
       </c>
       <c r="G3">
-        <v>10.06816350602255</v>
+        <v>9.231957520311962</v>
       </c>
       <c r="H3">
-        <v>162.471545718561</v>
+        <v>135.106818170012</v>
       </c>
       <c r="I3">
-        <v>184.7033307411929</v>
+        <v>157.6667397914288</v>
       </c>
       <c r="J3">
-        <v>13.71896591321018</v>
+        <v>9.739675753231086</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -8368,31 +8515,31 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>155.0328869068458</v>
+        <v>21.88908414259521</v>
       </c>
       <c r="C4">
-        <v>174.4383915885404</v>
+        <v>31.07869389801205</v>
       </c>
       <c r="D4">
-        <v>9.897342426546849</v>
+        <v>4.823890084210791</v>
       </c>
       <c r="E4">
-        <v>151.0751815560413</v>
+        <v>139.8566596375761</v>
       </c>
       <c r="F4">
-        <v>169.6198022215837</v>
+        <v>154.3017219088896</v>
       </c>
       <c r="G4">
-        <v>9.390169233884428</v>
+        <v>8.840958844064922</v>
       </c>
       <c r="H4">
-        <v>154.5570925509994</v>
+        <v>149.7581907989826</v>
       </c>
       <c r="I4">
-        <v>187.7307039688524</v>
+        <v>157.316512872327</v>
       </c>
       <c r="J4">
-        <v>15.63709870583514</v>
+        <v>7.034258280873524</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -8400,31 +8547,31 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>195.1149336101124</v>
+        <v>17.01715809765597</v>
       </c>
       <c r="C5">
-        <v>209.4985870127493</v>
+        <v>25.16253141806395</v>
       </c>
       <c r="D5">
-        <v>8.844720493092069</v>
+        <v>6.334074704236122</v>
       </c>
       <c r="E5">
-        <v>189.0273510762913</v>
+        <v>168.6094835839185</v>
       </c>
       <c r="F5">
-        <v>207.9815528000453</v>
+        <v>180.6555291810267</v>
       </c>
       <c r="G5">
-        <v>9.737416813308229</v>
+        <v>8.021032402385931</v>
       </c>
       <c r="H5">
-        <v>181.9767032091314</v>
+        <v>154.5915685268895</v>
       </c>
       <c r="I5">
-        <v>203.8099365324701</v>
+        <v>176.3597513976369</v>
       </c>
       <c r="J5">
-        <v>9.56661403944689</v>
+        <v>9.861377577686865</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -8432,31 +8579,31 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>141.9610403799293</v>
+        <v>16.64681489268452</v>
       </c>
       <c r="C6">
-        <v>162.9111385430544</v>
+        <v>30.78044747694253</v>
       </c>
       <c r="D6">
-        <v>12.33539689633596</v>
+        <v>23.12212183997852</v>
       </c>
       <c r="E6">
-        <v>139.2635523423289</v>
+        <v>130.5280668025482</v>
       </c>
       <c r="F6">
-        <v>160.1811556429222</v>
+        <v>144.5159198484055</v>
       </c>
       <c r="G6">
-        <v>8.418918704985304</v>
+        <v>6.831021752039546</v>
       </c>
       <c r="H6">
-        <v>155.1255650719625</v>
+        <v>132.6089418265416</v>
       </c>
       <c r="I6">
-        <v>175.1803547125286</v>
+        <v>150.723979945676</v>
       </c>
       <c r="J6">
-        <v>10.35705082371127</v>
+        <v>10.07386189987779</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -8464,31 +8611,31 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>163.313458566552</v>
+        <v>7.959672456746375</v>
       </c>
       <c r="C7">
-        <v>175.822816909367</v>
+        <v>19.7996717535134</v>
       </c>
       <c r="D7">
-        <v>6.493253323401793</v>
+        <v>9.823904711915183</v>
       </c>
       <c r="E7">
-        <v>159.1042798926965</v>
+        <v>115.3417370891236</v>
       </c>
       <c r="F7">
-        <v>170.0840957871685</v>
+        <v>145.8433530877965</v>
       </c>
       <c r="G7">
-        <v>8.353271014449271</v>
+        <v>11.93831359068742</v>
       </c>
       <c r="H7">
-        <v>161.0005577638116</v>
+        <v>141.7371121749653</v>
       </c>
       <c r="I7">
-        <v>178.3078057995435</v>
+        <v>156.1095383942154</v>
       </c>
       <c r="J7">
-        <v>10.2940861519953</v>
+        <v>8.448453518621598</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -8496,31 +8643,31 @@
         <v>9</v>
       </c>
       <c r="B8">
-        <v>227.3925575288879</v>
+        <v>18.72028089873436</v>
       </c>
       <c r="C8">
-        <v>241.638200709326</v>
+        <v>25.53250226860512</v>
       </c>
       <c r="D8">
-        <v>10.040608602794</v>
+        <v>6.471953395232472</v>
       </c>
       <c r="E8">
-        <v>227.8471751013081</v>
+        <v>195.7931061269272</v>
       </c>
       <c r="F8">
-        <v>245.8361310446261</v>
+        <v>217.2452540329464</v>
       </c>
       <c r="G8">
-        <v>11.89317095440658</v>
+        <v>10.38810278571702</v>
       </c>
       <c r="H8">
-        <v>235.2379282637164</v>
+        <v>193.2310805714304</v>
       </c>
       <c r="I8">
-        <v>253.7588917725921</v>
+        <v>208.6057520899369</v>
       </c>
       <c r="J8">
-        <v>10.09157790721698</v>
+        <v>10.41943539832287</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -8528,31 +8675,31 @@
         <v>10</v>
       </c>
       <c r="B9">
-        <v>151.5268002109608</v>
+        <v>18.97909935567384</v>
       </c>
       <c r="C9">
-        <v>168.8010659010466</v>
+        <v>30.16669754442062</v>
       </c>
       <c r="D9">
-        <v>8.718760763469762</v>
+        <v>19.81388712028746</v>
       </c>
       <c r="E9">
-        <v>144.2153804941434</v>
+        <v>126.9217800808893</v>
       </c>
       <c r="F9">
-        <v>170.1221598075843</v>
+        <v>145.772766260673</v>
       </c>
       <c r="G9">
-        <v>10.11320927576213</v>
+        <v>10.38196759396624</v>
       </c>
       <c r="H9">
-        <v>143.3830221995127</v>
+        <v>96.96489161660028</v>
       </c>
       <c r="I9">
-        <v>174.6247143761389</v>
+        <v>139.1177284166189</v>
       </c>
       <c r="J9">
-        <v>12.28409367925314</v>
+        <v>16.83428929400558</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -8560,31 +8707,31 @@
         <v>11</v>
       </c>
       <c r="B10">
-        <v>183.9349296182279</v>
+        <v>9.949590570933026</v>
       </c>
       <c r="C10">
-        <v>200.6058430549585</v>
+        <v>16.8164577434572</v>
       </c>
       <c r="D10">
-        <v>7.867546284677007</v>
+        <v>3.989400227298252</v>
       </c>
       <c r="E10">
-        <v>173.3873424327444</v>
+        <v>152.3747311833813</v>
       </c>
       <c r="F10">
-        <v>190.6626761580151</v>
+        <v>171.8382667687641</v>
       </c>
       <c r="G10">
-        <v>11.46748379098605</v>
+        <v>11.66636473795609</v>
       </c>
       <c r="H10">
-        <v>164.2397998603608</v>
+        <v>130.6051440410096</v>
       </c>
       <c r="I10">
-        <v>185.5143251335625</v>
+        <v>162.3218111028075</v>
       </c>
       <c r="J10">
-        <v>15.33866488730556</v>
+        <v>12.69333523738196</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -8592,31 +8739,31 @@
         <v>12</v>
       </c>
       <c r="B11">
-        <v>146.0726264345462</v>
+        <v>22.88402804079317</v>
       </c>
       <c r="C11">
-        <v>165.9763239116505</v>
+        <v>34.25814048326296</v>
       </c>
       <c r="D11">
-        <v>10.05077177881182</v>
+        <v>11.41621766024018</v>
       </c>
       <c r="E11">
-        <v>148.6891575895304</v>
+        <v>137.0058675137788</v>
       </c>
       <c r="F11">
-        <v>172.4796930212366</v>
+        <v>149.7543908375556</v>
       </c>
       <c r="G11">
-        <v>10.13775645141174</v>
+        <v>7.989850630286206</v>
       </c>
       <c r="H11">
-        <v>174.3469456158621</v>
+        <v>138.9854596706055</v>
       </c>
       <c r="I11">
-        <v>182.1799543612513</v>
+        <v>153.4097149320675</v>
       </c>
       <c r="J11">
-        <v>6.273295831385317</v>
+        <v>8.985415955476386</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -8624,31 +8771,31 @@
         <v>13</v>
       </c>
       <c r="B12">
-        <v>182.5020423924406</v>
+        <v>19.89917370184543</v>
       </c>
       <c r="C12">
-        <v>196.7252884766752</v>
+        <v>65.12067314574873</v>
       </c>
       <c r="D12">
-        <v>8.391034921785506</v>
+        <v>57.61471437421302</v>
       </c>
       <c r="E12">
-        <v>174.0966608864488</v>
+        <v>139.7840173849163</v>
       </c>
       <c r="F12">
-        <v>198.5884955409317</v>
+        <v>170.4731605751686</v>
       </c>
       <c r="G12">
-        <v>12.27667909258545</v>
+        <v>11.26294024600433</v>
       </c>
       <c r="H12">
-        <v>159.4564988942609</v>
+        <v>156.1167036033971</v>
       </c>
       <c r="I12">
-        <v>188.9833280386891</v>
+        <v>170.4071241179167</v>
       </c>
       <c r="J12">
-        <v>11.40067926762562</v>
+        <v>9.203499147630186</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -8656,31 +8803,31 @@
         <v>14</v>
       </c>
       <c r="B13">
-        <v>149.1632686333149</v>
+        <v>10.94454962802627</v>
       </c>
       <c r="C13">
-        <v>164.813261990245</v>
+        <v>24.07798497740703</v>
       </c>
       <c r="D13">
-        <v>8.611345260406477</v>
+        <v>9.837500135590476</v>
       </c>
       <c r="E13">
-        <v>132.9840978477716</v>
+        <v>127.6562751733396</v>
       </c>
       <c r="F13">
-        <v>159.8706459510038</v>
+        <v>143.0783828766384</v>
       </c>
       <c r="G13">
-        <v>13.78665534810365</v>
+        <v>8.752313356980181</v>
       </c>
       <c r="H13">
-        <v>153.1255269480067</v>
+        <v>104.3773288582814</v>
       </c>
       <c r="I13">
-        <v>171.6435398062971</v>
+        <v>147.9956291510761</v>
       </c>
       <c r="J13">
-        <v>11.11947904642179</v>
+        <v>15.81712853481869</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -8688,31 +8835,31 @@
         <v>15</v>
       </c>
       <c r="B14">
-        <v>209.0669806319692</v>
+        <v>181.8969613075347</v>
       </c>
       <c r="C14">
-        <v>231.0839331448606</v>
+        <v>196.7011135069662</v>
       </c>
       <c r="D14">
-        <v>11.55180189509989</v>
+        <v>10.9422761650696</v>
       </c>
       <c r="E14">
-        <v>205.6795087705272</v>
+        <v>184.0158399098808</v>
       </c>
       <c r="F14">
-        <v>228.3908058566268</v>
+        <v>199.4847011085358</v>
       </c>
       <c r="G14">
-        <v>12.90141605568591</v>
+        <v>10.42380150935268</v>
       </c>
       <c r="H14">
-        <v>217.8918683472849</v>
+        <v>176.2785674451197</v>
       </c>
       <c r="I14">
-        <v>231.1446261896243</v>
+        <v>197.7666155091203</v>
       </c>
       <c r="J14">
-        <v>10.71478016471763</v>
+        <v>12.23893775465225</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -8720,31 +8867,31 @@
         <v>16</v>
       </c>
       <c r="B15">
-        <v>244.526251424244</v>
+        <v>217.244652662728</v>
       </c>
       <c r="C15">
-        <v>285.4922391298364</v>
+        <v>247.4711286602261</v>
       </c>
       <c r="D15">
-        <v>19.11753524566422</v>
+        <v>13.54030803699402</v>
       </c>
       <c r="E15">
-        <v>248.2483431193941</v>
+        <v>234.7157453222926</v>
       </c>
       <c r="F15">
-        <v>270.6077311805474</v>
+        <v>252.01137738739</v>
       </c>
       <c r="G15">
-        <v>13.47660959175127</v>
+        <v>12.81876063261509</v>
       </c>
       <c r="H15">
-        <v>241.1035108222972</v>
+        <v>225.6170800349181</v>
       </c>
       <c r="I15">
-        <v>291.3945888133863</v>
+        <v>241.6131970241981</v>
       </c>
       <c r="J15">
-        <v>23.76209737441397</v>
+        <v>10.58642313005104</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -8752,31 +8899,31 @@
         <v>17</v>
       </c>
       <c r="B16">
-        <v>97.9992955274854</v>
+        <v>12.9344627043937</v>
       </c>
       <c r="C16">
-        <v>147.8415228315114</v>
+        <v>39.54196602602016</v>
       </c>
       <c r="D16">
-        <v>20.89472918421952</v>
+        <v>33.76903226961611</v>
       </c>
       <c r="E16">
-        <v>75.00071346277795</v>
+        <v>9.949590570932967</v>
       </c>
       <c r="F16">
-        <v>148.3170005313866</v>
+        <v>56.14365520002532</v>
       </c>
       <c r="G16">
-        <v>25.38723106466633</v>
+        <v>48.70700211404841</v>
       </c>
       <c r="H16">
-        <v>159.4435338758596</v>
+        <v>9.949680750144635</v>
       </c>
       <c r="I16">
-        <v>169.3277707436615</v>
+        <v>27.18257989734984</v>
       </c>
       <c r="J16">
-        <v>7.854745855024657</v>
+        <v>29.06801084772475</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -8784,31 +8931,31 @@
         <v>18</v>
       </c>
       <c r="B17">
-        <v>140.1137789323461</v>
+        <v>148.7475080456978</v>
       </c>
       <c r="C17">
-        <v>176.4619984613003</v>
+        <v>161.5968198677336</v>
       </c>
       <c r="D17">
-        <v>15.7773702745051</v>
+        <v>8.390333333216679</v>
       </c>
       <c r="E17">
-        <v>163.9936981048095</v>
+        <v>151.2226873833982</v>
       </c>
       <c r="F17">
-        <v>183.3687642430506</v>
+        <v>162.2503105120076</v>
       </c>
       <c r="G17">
-        <v>8.886597799939473</v>
+        <v>7.654624218387754</v>
       </c>
       <c r="H17">
-        <v>171.636173293762</v>
+        <v>139.4582381561976</v>
       </c>
       <c r="I17">
-        <v>186.0647984038341</v>
+        <v>156.0255606185773</v>
       </c>
       <c r="J17">
-        <v>7.901827198543009</v>
+        <v>10.64903025390202</v>
       </c>
     </row>
     <row r="18" spans="1:10">
